--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0449269-F72B-D54E-B5FF-4ADC39ADB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EFDA9C-1DA1-E541-8D9A-36A7E3F6C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="26">
   <si>
     <t>Ebc</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +258,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cambiar to&amp;do" xfId="1" xr:uid="{1D7D66DF-1FEE-2145-8694-1850E3213805}"/>
@@ -568,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:T643"/>
+  <dimension ref="A1:V643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,7 +612,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -648,8 +673,14 @@
       <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -701,8 +732,14 @@
       <c r="T2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -754,8 +791,14 @@
       <c r="T3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -807,8 +850,14 @@
       <c r="T4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -860,8 +909,14 @@
       <c r="T5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -913,8 +968,14 @@
       <c r="T6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -966,8 +1027,14 @@
       <c r="T7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -1019,8 +1086,14 @@
       <c r="T8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -1072,8 +1145,14 @@
       <c r="T9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -1125,8 +1204,14 @@
       <c r="T10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -1178,8 +1263,14 @@
       <c r="T11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1231,8 +1322,14 @@
       <c r="T12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1284,8 +1381,14 @@
       <c r="T13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1337,8 +1440,14 @@
       <c r="T14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1390,8 +1499,14 @@
       <c r="T15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1443,8 +1558,14 @@
       <c r="T16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1496,8 +1617,14 @@
       <c r="T17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1549,8 +1676,14 @@
       <c r="T18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1602,8 +1735,14 @@
       <c r="T19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1655,8 +1794,14 @@
       <c r="T20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1708,8 +1853,14 @@
       <c r="T21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1761,8 +1912,14 @@
       <c r="T22" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1814,8 +1971,14 @@
       <c r="T23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="7">
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1867,8 +2030,14 @@
       <c r="T24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1920,8 +2089,14 @@
       <c r="T25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1973,8 +2148,14 @@
       <c r="T26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -2026,8 +2207,14 @@
       <c r="T27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -2079,8 +2266,14 @@
       <c r="T28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -2132,8 +2325,14 @@
       <c r="T29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -2187,8 +2386,14 @@
       <c r="T30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -2242,8 +2447,14 @@
       <c r="T31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -2297,8 +2508,14 @@
       <c r="T32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -2352,8 +2569,14 @@
       <c r="T33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -2407,8 +2630,14 @@
       <c r="T34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+      <c r="V34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -2462,8 +2691,14 @@
       <c r="T35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -2517,8 +2752,14 @@
       <c r="T36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -2572,8 +2813,14 @@
       <c r="T37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" s="7">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2630,8 +2877,14 @@
       <c r="T38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" s="7">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2688,8 +2941,14 @@
       <c r="T39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2746,8 +3005,14 @@
       <c r="T40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2804,8 +3069,14 @@
       <c r="T41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2862,8 +3133,14 @@
       <c r="T42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2920,8 +3197,14 @@
       <c r="T43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2978,8 +3261,14 @@
       <c r="T44" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -3036,8 +3325,14 @@
       <c r="T45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -3094,8 +3389,14 @@
       <c r="T46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -3152,8 +3453,14 @@
       <c r="T47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47" s="7">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -3210,8 +3517,14 @@
       <c r="T48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48" s="7">
+        <v>0</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -3268,8 +3581,14 @@
       <c r="T49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49" s="7">
+        <v>0</v>
+      </c>
+      <c r="V49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -3326,8 +3645,14 @@
       <c r="T50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -3384,8 +3709,14 @@
       <c r="T51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51" s="7">
+        <v>0</v>
+      </c>
+      <c r="V51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -3442,8 +3773,14 @@
       <c r="T52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3500,8 +3837,14 @@
       <c r="T53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53" s="7">
+        <v>0</v>
+      </c>
+      <c r="V53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -3558,8 +3901,14 @@
       <c r="T54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+      <c r="V54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -3616,8 +3965,14 @@
       <c r="T55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55" s="7">
+        <v>0</v>
+      </c>
+      <c r="V55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -3674,8 +4029,14 @@
       <c r="T56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56" s="7">
+        <v>0</v>
+      </c>
+      <c r="V56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -3732,8 +4093,14 @@
       <c r="T57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57" s="7">
+        <v>0</v>
+      </c>
+      <c r="V57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -3790,8 +4157,14 @@
       <c r="T58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58" s="7">
+        <v>0</v>
+      </c>
+      <c r="V58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -3848,8 +4221,14 @@
       <c r="T59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59" s="7">
+        <v>0</v>
+      </c>
+      <c r="V59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -3906,8 +4285,14 @@
       <c r="T60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60" s="7">
+        <v>0</v>
+      </c>
+      <c r="V60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3964,8 +4349,14 @@
       <c r="T61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61" s="7">
+        <v>0</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -4022,8 +4413,14 @@
       <c r="T62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
+      <c r="V62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -4080,8 +4477,14 @@
       <c r="T63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
+      <c r="V63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -4138,8 +4541,14 @@
       <c r="T64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64" s="7">
+        <v>0</v>
+      </c>
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -4196,8 +4605,14 @@
       <c r="T65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65" s="7">
+        <v>0</v>
+      </c>
+      <c r="V65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -4254,8 +4669,14 @@
       <c r="T66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66" s="7">
+        <v>0</v>
+      </c>
+      <c r="V66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -4312,8 +4733,14 @@
       <c r="T67" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67" s="7">
+        <v>0</v>
+      </c>
+      <c r="V67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -4370,8 +4797,14 @@
       <c r="T68" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U68" s="7">
+        <v>0</v>
+      </c>
+      <c r="V68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -4428,8 +4861,14 @@
       <c r="T69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69" s="7">
+        <v>0</v>
+      </c>
+      <c r="V69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -4486,8 +4925,14 @@
       <c r="T70" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70" s="7">
+        <v>0</v>
+      </c>
+      <c r="V70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -4544,8 +4989,14 @@
       <c r="T71" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71" s="7">
+        <v>0</v>
+      </c>
+      <c r="V71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -4602,8 +5053,14 @@
       <c r="T72" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72" s="7">
+        <v>0</v>
+      </c>
+      <c r="V72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -4660,8 +5117,14 @@
       <c r="T73" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -4718,8 +5181,14 @@
       <c r="T74" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74" s="7">
+        <v>0</v>
+      </c>
+      <c r="V74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -4776,8 +5245,14 @@
       <c r="T75" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75" s="7">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -4834,8 +5309,14 @@
       <c r="T76" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76" s="7">
+        <v>0</v>
+      </c>
+      <c r="V76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -4892,8 +5373,14 @@
       <c r="T77" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77" s="7">
+        <v>0</v>
+      </c>
+      <c r="V77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -4950,8 +5437,14 @@
       <c r="T78" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78" s="7">
+        <v>0</v>
+      </c>
+      <c r="V78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -5008,8 +5501,14 @@
       <c r="T79" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79" s="7">
+        <v>0</v>
+      </c>
+      <c r="V79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -5066,8 +5565,14 @@
       <c r="T80" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80" s="7">
+        <v>0</v>
+      </c>
+      <c r="V80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -5124,8 +5629,14 @@
       <c r="T81" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81" s="7">
+        <v>0</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -5182,8 +5693,14 @@
       <c r="T82" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82" s="7">
+        <v>0</v>
+      </c>
+      <c r="V82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -5240,8 +5757,14 @@
       <c r="T83" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="U83" s="7">
+        <v>0</v>
+      </c>
+      <c r="V83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -5298,8 +5821,14 @@
       <c r="T84" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84" s="7">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -5356,8 +5885,14 @@
       <c r="T85" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85" s="7">
+        <v>0</v>
+      </c>
+      <c r="V85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -5414,8 +5949,14 @@
       <c r="T86" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86" s="7">
+        <v>0</v>
+      </c>
+      <c r="V86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -5472,8 +6013,14 @@
       <c r="T87" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87" s="7">
+        <v>0</v>
+      </c>
+      <c r="V87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -5530,8 +6077,14 @@
       <c r="T88" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88" s="7">
+        <v>0</v>
+      </c>
+      <c r="V88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -5588,8 +6141,14 @@
       <c r="T89" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89" s="7">
+        <v>0</v>
+      </c>
+      <c r="V89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -5646,8 +6205,14 @@
       <c r="T90" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="U90" s="7">
+        <v>0</v>
+      </c>
+      <c r="V90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -5704,8 +6269,14 @@
       <c r="T91" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
+      <c r="V91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -5762,8 +6333,14 @@
       <c r="T92" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92" s="7">
+        <v>0</v>
+      </c>
+      <c r="V92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -5820,8 +6397,14 @@
       <c r="T93" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U93" s="7">
+        <v>0</v>
+      </c>
+      <c r="V93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -5878,8 +6461,14 @@
       <c r="T94" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U94" s="7">
+        <v>0</v>
+      </c>
+      <c r="V94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -5936,8 +6525,14 @@
       <c r="T95" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="U95" s="7">
+        <v>0</v>
+      </c>
+      <c r="V95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -5994,8 +6589,14 @@
       <c r="T96" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="U96" s="7">
+        <v>0</v>
+      </c>
+      <c r="V96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -6052,8 +6653,14 @@
       <c r="T97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="U97" s="7">
+        <v>0</v>
+      </c>
+      <c r="V97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -6110,8 +6717,14 @@
       <c r="T98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="U98" s="7">
+        <v>0</v>
+      </c>
+      <c r="V98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -6168,8 +6781,14 @@
       <c r="T99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="U99" s="7">
+        <v>0</v>
+      </c>
+      <c r="V99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -6226,8 +6845,14 @@
       <c r="T100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100" s="7">
+        <v>0</v>
+      </c>
+      <c r="V100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -6284,8 +6909,14 @@
       <c r="T101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101" s="7">
+        <v>0</v>
+      </c>
+      <c r="V101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -6342,8 +6973,14 @@
       <c r="T102" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102" s="7">
+        <v>0</v>
+      </c>
+      <c r="V102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -6400,8 +7037,14 @@
       <c r="T103" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="U103" s="7">
+        <v>0</v>
+      </c>
+      <c r="V103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -6458,8 +7101,14 @@
       <c r="T104" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="U104" s="7">
+        <v>0</v>
+      </c>
+      <c r="V104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -6516,8 +7165,14 @@
       <c r="T105" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="U105" s="7">
+        <v>0</v>
+      </c>
+      <c r="V105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -6574,8 +7229,14 @@
       <c r="T106" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="U106" s="7">
+        <v>0</v>
+      </c>
+      <c r="V106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -6632,8 +7293,14 @@
       <c r="T107" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="U107" s="7">
+        <v>0</v>
+      </c>
+      <c r="V107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -6690,8 +7357,14 @@
       <c r="T108" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:20">
+      <c r="U108" s="7">
+        <v>0</v>
+      </c>
+      <c r="V108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -6748,8 +7421,14 @@
       <c r="T109" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="U109" s="7">
+        <v>0</v>
+      </c>
+      <c r="V109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -6806,8 +7485,14 @@
       <c r="T110" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="U110" s="7">
+        <v>0</v>
+      </c>
+      <c r="V110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -6864,8 +7549,14 @@
       <c r="T111" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:20">
+      <c r="U111" s="7">
+        <v>0</v>
+      </c>
+      <c r="V111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -6922,8 +7613,14 @@
       <c r="T112" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:20">
+      <c r="U112" s="7">
+        <v>0</v>
+      </c>
+      <c r="V112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -6980,8 +7677,14 @@
       <c r="T113" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:20">
+      <c r="U113" s="7">
+        <v>0</v>
+      </c>
+      <c r="V113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -7038,8 +7741,14 @@
       <c r="T114" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:20">
+      <c r="U114" s="7">
+        <v>0</v>
+      </c>
+      <c r="V114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -7096,8 +7805,14 @@
       <c r="T115" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:20">
+      <c r="U115" s="7">
+        <v>0</v>
+      </c>
+      <c r="V115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -7154,8 +7869,14 @@
       <c r="T116" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="U116" s="7">
+        <v>0</v>
+      </c>
+      <c r="V116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -7212,8 +7933,14 @@
       <c r="T117" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="U117" s="7">
+        <v>0</v>
+      </c>
+      <c r="V117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -7270,8 +7997,14 @@
       <c r="T118" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:20">
+      <c r="U118" s="7">
+        <v>0</v>
+      </c>
+      <c r="V118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -7328,8 +8061,14 @@
       <c r="T119" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="U119" s="7">
+        <v>0</v>
+      </c>
+      <c r="V119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -7386,8 +8125,14 @@
       <c r="T120" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="U120" s="7">
+        <v>0</v>
+      </c>
+      <c r="V120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -7444,8 +8189,14 @@
       <c r="T121" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:20">
+      <c r="U121" s="7">
+        <v>0</v>
+      </c>
+      <c r="V121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -7503,8 +8254,14 @@
       <c r="T122" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:20">
+      <c r="U122" s="7">
+        <v>0</v>
+      </c>
+      <c r="V122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -7562,8 +8319,14 @@
       <c r="T123" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="U123" s="7">
+        <v>0</v>
+      </c>
+      <c r="V123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -7621,8 +8384,14 @@
       <c r="T124" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="U124" s="7">
+        <v>0</v>
+      </c>
+      <c r="V124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -7680,8 +8449,14 @@
       <c r="T125" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="U125" s="7">
+        <v>0</v>
+      </c>
+      <c r="V125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -7739,8 +8514,14 @@
       <c r="T126" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:20">
+      <c r="U126" s="7">
+        <v>0</v>
+      </c>
+      <c r="V126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -7798,8 +8579,14 @@
       <c r="T127" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:20">
+      <c r="U127" s="7">
+        <v>0</v>
+      </c>
+      <c r="V127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -7857,8 +8644,14 @@
       <c r="T128" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:20">
+      <c r="U128" s="7">
+        <v>0</v>
+      </c>
+      <c r="V128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -7916,8 +8709,14 @@
       <c r="T129" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:20">
+      <c r="U129" s="7">
+        <v>0</v>
+      </c>
+      <c r="V129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -7975,8 +8774,14 @@
       <c r="T130" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:20">
+      <c r="U130" s="7">
+        <v>0</v>
+      </c>
+      <c r="V130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -8034,8 +8839,14 @@
       <c r="T131" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:20">
+      <c r="U131" s="7">
+        <v>0</v>
+      </c>
+      <c r="V131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -8093,8 +8904,14 @@
       <c r="T132" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:20">
+      <c r="U132" s="7">
+        <v>0</v>
+      </c>
+      <c r="V132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -8152,8 +8969,14 @@
       <c r="T133" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:20">
+      <c r="U133" s="7">
+        <v>0</v>
+      </c>
+      <c r="V133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -8211,8 +9034,14 @@
       <c r="T134" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:20">
+      <c r="U134" s="7">
+        <v>0</v>
+      </c>
+      <c r="V134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -8270,8 +9099,14 @@
       <c r="T135" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:20">
+      <c r="U135" s="7">
+        <v>0</v>
+      </c>
+      <c r="V135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -8329,8 +9164,14 @@
       <c r="T136" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:20">
+      <c r="U136" s="7">
+        <v>0</v>
+      </c>
+      <c r="V136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -8388,8 +9229,14 @@
       <c r="T137" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:20">
+      <c r="U137" s="7">
+        <v>0</v>
+      </c>
+      <c r="V137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -8447,8 +9294,14 @@
       <c r="T138" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:20">
+      <c r="U138" s="7">
+        <v>0</v>
+      </c>
+      <c r="V138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -8506,8 +9359,14 @@
       <c r="T139" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:20">
+      <c r="U139" s="7">
+        <v>0</v>
+      </c>
+      <c r="V139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -8565,8 +9424,14 @@
       <c r="T140" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:20">
+      <c r="U140" s="7">
+        <v>0</v>
+      </c>
+      <c r="V140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -8624,8 +9489,14 @@
       <c r="T141" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:20">
+      <c r="U141" s="7">
+        <v>0</v>
+      </c>
+      <c r="V141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -8683,8 +9554,14 @@
       <c r="T142" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:20">
+      <c r="U142" s="7">
+        <v>0</v>
+      </c>
+      <c r="V142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -8742,8 +9619,14 @@
       <c r="T143" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:20">
+      <c r="U143" s="7">
+        <v>0</v>
+      </c>
+      <c r="V143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -8801,8 +9684,14 @@
       <c r="T144" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:20">
+      <c r="U144" s="7">
+        <v>0</v>
+      </c>
+      <c r="V144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -8860,8 +9749,14 @@
       <c r="T145" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:20">
+      <c r="U145" s="7">
+        <v>0</v>
+      </c>
+      <c r="V145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -8922,8 +9817,14 @@
       <c r="T146" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:20">
+      <c r="U146" s="7">
+        <v>0</v>
+      </c>
+      <c r="V146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -8984,8 +9885,14 @@
       <c r="T147" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:20">
+      <c r="U147" s="7">
+        <v>0</v>
+      </c>
+      <c r="V147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -9046,8 +9953,14 @@
       <c r="T148" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:20">
+      <c r="U148" s="7">
+        <v>0</v>
+      </c>
+      <c r="V148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -9108,8 +10021,14 @@
       <c r="T149" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:20">
+      <c r="U149" s="7">
+        <v>0</v>
+      </c>
+      <c r="V149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -9170,8 +10089,14 @@
       <c r="T150" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:20">
+      <c r="U150" s="7">
+        <v>0</v>
+      </c>
+      <c r="V150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -9232,8 +10157,14 @@
       <c r="T151" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:20">
+      <c r="U151" s="7">
+        <v>0</v>
+      </c>
+      <c r="V151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -9294,8 +10225,14 @@
       <c r="T152" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:20">
+      <c r="U152" s="7">
+        <v>0</v>
+      </c>
+      <c r="V152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -9356,8 +10293,14 @@
       <c r="T153" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:20">
+      <c r="U153" s="7">
+        <v>0</v>
+      </c>
+      <c r="V153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -9418,8 +10361,14 @@
       <c r="T154" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:20">
+      <c r="U154" s="7">
+        <v>0</v>
+      </c>
+      <c r="V154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -9480,8 +10429,14 @@
       <c r="T155" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:20">
+      <c r="U155" s="7">
+        <v>0</v>
+      </c>
+      <c r="V155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -9542,8 +10497,14 @@
       <c r="T156" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:20">
+      <c r="U156" s="7">
+        <v>0</v>
+      </c>
+      <c r="V156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -9587,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" s="7">
         <v>0</v>
@@ -9604,8 +10565,14 @@
       <c r="T157" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:20">
+      <c r="U157" s="7">
+        <v>0</v>
+      </c>
+      <c r="V157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -9652,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q158" s="7">
         <v>0</v>
@@ -9666,8 +10633,14 @@
       <c r="T158" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:20">
+      <c r="U158" s="7">
+        <v>0</v>
+      </c>
+      <c r="V158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -9711,14 +10684,14 @@
         <v>0</v>
       </c>
       <c r="O159" s="7">
+        <v>0</v>
+      </c>
+      <c r="P159" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="7">
         <v>1</v>
       </c>
-      <c r="P159" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="7">
-        <v>0</v>
-      </c>
       <c r="R159" s="7">
         <v>0</v>
       </c>
@@ -9728,8 +10701,14 @@
       <c r="T159" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:20">
+      <c r="U159" s="7">
+        <v>0</v>
+      </c>
+      <c r="V159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -9776,22 +10755,28 @@
         <v>0</v>
       </c>
       <c r="P160" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="7">
+        <v>0</v>
+      </c>
+      <c r="R160" s="7">
         <v>1</v>
       </c>
-      <c r="Q160" s="7">
-        <v>0</v>
-      </c>
-      <c r="R160" s="7">
-        <v>0</v>
-      </c>
       <c r="S160" s="7">
         <v>0</v>
       </c>
       <c r="T160" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:20">
+      <c r="U160" s="7">
+        <v>0</v>
+      </c>
+      <c r="V160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -9841,19 +10826,25 @@
         <v>0</v>
       </c>
       <c r="Q161" s="7">
+        <v>0</v>
+      </c>
+      <c r="R161" s="7">
+        <v>0</v>
+      </c>
+      <c r="S161" s="7">
         <v>1</v>
       </c>
-      <c r="R161" s="7">
-        <v>0</v>
-      </c>
-      <c r="S161" s="7">
-        <v>0</v>
-      </c>
       <c r="T161" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:20">
+      <c r="U161" s="7">
+        <v>0</v>
+      </c>
+      <c r="V161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -9906,16 +10897,22 @@
         <v>0</v>
       </c>
       <c r="R162" s="7">
+        <v>0</v>
+      </c>
+      <c r="S162" s="7">
+        <v>0</v>
+      </c>
+      <c r="T162" s="7">
         <v>1</v>
       </c>
-      <c r="S162" s="7">
-        <v>0</v>
-      </c>
-      <c r="T162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20">
+      <c r="U162" s="7">
+        <v>0</v>
+      </c>
+      <c r="V162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -9971,75 +10968,84 @@
         <v>0</v>
       </c>
       <c r="S163" s="7">
+        <v>0</v>
+      </c>
+      <c r="T163" s="7">
+        <v>0</v>
+      </c>
+      <c r="U163" s="7">
         <v>1</v>
       </c>
-      <c r="T163" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20">
-      <c r="A164" s="10">
+      <c r="V163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" s="25" customFormat="1">
+      <c r="A164" s="23">
         <v>1990</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="25">
         <v>17.373337290909433</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="25">
         <v>0.57143966666666701</v>
       </c>
-      <c r="E164" s="11">
+      <c r="E164" s="26">
         <v>0.57550000000000001</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="27">
         <v>334669.48663840198</v>
       </c>
-      <c r="G164" s="22">
+      <c r="G164" s="28">
         <v>73.930609318384498</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H164" s="29">
         <v>5.9866666666666672</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="30">
         <v>2.4833333333333329</v>
       </c>
-      <c r="J164" s="7">
+      <c r="J164" s="30">
         <v>2.61</v>
       </c>
-      <c r="K164" s="7">
+      <c r="K164" s="30">
         <v>77.4710596616207</v>
       </c>
-      <c r="L164" s="4">
+      <c r="L164" s="31">
         <v>94.878389999999996</v>
       </c>
-      <c r="M164" s="7">
-        <v>0</v>
-      </c>
-      <c r="N164" s="7">
-        <v>0</v>
-      </c>
-      <c r="O164" s="7">
-        <v>0</v>
-      </c>
-      <c r="P164" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="7">
-        <v>0</v>
-      </c>
-      <c r="R164" s="7">
-        <v>0</v>
-      </c>
-      <c r="S164" s="7">
-        <v>0</v>
-      </c>
-      <c r="T164" s="7">
+      <c r="M164" s="30">
+        <v>0</v>
+      </c>
+      <c r="N164" s="30">
+        <v>0</v>
+      </c>
+      <c r="O164" s="30">
+        <v>0</v>
+      </c>
+      <c r="P164" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="30">
+        <v>0</v>
+      </c>
+      <c r="R164" s="30">
+        <v>0</v>
+      </c>
+      <c r="S164" s="30">
+        <v>0</v>
+      </c>
+      <c r="T164" s="30">
+        <v>0</v>
+      </c>
+      <c r="V164" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:22">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -10100,8 +11106,14 @@
       <c r="T165" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:20">
+      <c r="U165" s="7">
+        <v>0</v>
+      </c>
+      <c r="V165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -10162,8 +11174,14 @@
       <c r="T166" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:20">
+      <c r="U166" s="7">
+        <v>0</v>
+      </c>
+      <c r="V166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -10224,8 +11242,14 @@
       <c r="T167" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:20">
+      <c r="U167" s="7">
+        <v>0</v>
+      </c>
+      <c r="V167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -10286,8 +11310,14 @@
       <c r="T168" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:20">
+      <c r="U168" s="7">
+        <v>0</v>
+      </c>
+      <c r="V168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -10348,8 +11378,14 @@
       <c r="T169" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:20">
+      <c r="U169" s="7">
+        <v>0</v>
+      </c>
+      <c r="V169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -10410,8 +11446,14 @@
       <c r="T170" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:20">
+      <c r="U170" s="7">
+        <v>0</v>
+      </c>
+      <c r="V170" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -10472,8 +11514,14 @@
       <c r="T171" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:20">
+      <c r="U171" s="7">
+        <v>0</v>
+      </c>
+      <c r="V171" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -10534,8 +11582,14 @@
       <c r="T172" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:20">
+      <c r="U172" s="7">
+        <v>0</v>
+      </c>
+      <c r="V172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -10596,8 +11650,14 @@
       <c r="T173" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:20">
+      <c r="U173" s="7">
+        <v>0</v>
+      </c>
+      <c r="V173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -10658,8 +11718,14 @@
       <c r="T174" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:20">
+      <c r="U174" s="7">
+        <v>0</v>
+      </c>
+      <c r="V174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -10720,8 +11786,14 @@
       <c r="T175" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:20">
+      <c r="U175" s="7">
+        <v>0</v>
+      </c>
+      <c r="V175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -10782,8 +11854,14 @@
       <c r="T176" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:20">
+      <c r="U176" s="7">
+        <v>0</v>
+      </c>
+      <c r="V176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -10844,8 +11922,14 @@
       <c r="T177" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:20">
+      <c r="U177" s="7">
+        <v>0</v>
+      </c>
+      <c r="V177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -10906,8 +11990,14 @@
       <c r="T178" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:20">
+      <c r="U178" s="7">
+        <v>0</v>
+      </c>
+      <c r="V178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -10968,8 +12058,14 @@
       <c r="T179" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:20">
+      <c r="U179" s="7">
+        <v>0</v>
+      </c>
+      <c r="V179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -11030,8 +12126,14 @@
       <c r="T180" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:20">
+      <c r="U180" s="7">
+        <v>0</v>
+      </c>
+      <c r="V180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -11092,8 +12194,14 @@
       <c r="T181" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:20">
+      <c r="U181" s="7">
+        <v>0</v>
+      </c>
+      <c r="V181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -11154,8 +12262,14 @@
       <c r="T182" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:20">
+      <c r="U182" s="7">
+        <v>0</v>
+      </c>
+      <c r="V182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -11216,8 +12330,14 @@
       <c r="T183" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:20">
+      <c r="U183" s="7">
+        <v>0</v>
+      </c>
+      <c r="V183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -11278,8 +12398,14 @@
       <c r="T184" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:20">
+      <c r="U184" s="7">
+        <v>0</v>
+      </c>
+      <c r="V184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -11340,8 +12466,14 @@
       <c r="T185" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:20">
+      <c r="U185" s="7">
+        <v>0</v>
+      </c>
+      <c r="V185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -11402,8 +12534,14 @@
       <c r="T186" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:20">
+      <c r="U186" s="7">
+        <v>0</v>
+      </c>
+      <c r="V186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -11464,8 +12602,14 @@
       <c r="T187" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:20">
+      <c r="U187" s="7">
+        <v>0</v>
+      </c>
+      <c r="V187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -11526,8 +12670,14 @@
       <c r="T188" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:20">
+      <c r="U188" s="7">
+        <v>0</v>
+      </c>
+      <c r="V188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -11588,8 +12738,14 @@
       <c r="T189" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:20">
+      <c r="U189" s="7">
+        <v>0</v>
+      </c>
+      <c r="V189" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -11650,8 +12806,14 @@
       <c r="T190" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:20">
+      <c r="U190" s="7">
+        <v>0</v>
+      </c>
+      <c r="V190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -11712,8 +12874,14 @@
       <c r="T191" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:20">
+      <c r="U191" s="7">
+        <v>0</v>
+      </c>
+      <c r="V191" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -11774,8 +12942,14 @@
       <c r="T192" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:20">
+      <c r="U192" s="7">
+        <v>0</v>
+      </c>
+      <c r="V192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -11836,8 +13010,14 @@
       <c r="T193" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:20">
+      <c r="U193" s="7">
+        <v>0</v>
+      </c>
+      <c r="V193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -11898,8 +13078,14 @@
       <c r="T194" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:20">
+      <c r="U194" s="7">
+        <v>0</v>
+      </c>
+      <c r="V194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -11960,8 +13146,14 @@
       <c r="T195" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:20">
+      <c r="U195" s="7">
+        <v>0</v>
+      </c>
+      <c r="V195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -12022,8 +13214,14 @@
       <c r="T196" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:20">
+      <c r="U196" s="7">
+        <v>0</v>
+      </c>
+      <c r="V196" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -12084,8 +13282,14 @@
       <c r="T197" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:20">
+      <c r="U197" s="7">
+        <v>0</v>
+      </c>
+      <c r="V197" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -12146,8 +13350,14 @@
       <c r="T198" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:20">
+      <c r="U198" s="7">
+        <v>0</v>
+      </c>
+      <c r="V198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -12208,8 +13418,14 @@
       <c r="T199" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:20">
+      <c r="U199" s="7">
+        <v>0</v>
+      </c>
+      <c r="V199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -12270,8 +13486,14 @@
       <c r="T200" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:20">
+      <c r="U200" s="7">
+        <v>0</v>
+      </c>
+      <c r="V200" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -12332,8 +13554,14 @@
       <c r="T201" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:20">
+      <c r="U201" s="7">
+        <v>0</v>
+      </c>
+      <c r="V201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -12394,8 +13622,14 @@
       <c r="T202" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:20">
+      <c r="U202" s="7">
+        <v>0</v>
+      </c>
+      <c r="V202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -12456,8 +13690,14 @@
       <c r="T203" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:20">
+      <c r="U203" s="7">
+        <v>0</v>
+      </c>
+      <c r="V203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -12518,8 +13758,14 @@
       <c r="T204" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:20">
+      <c r="U204" s="7">
+        <v>0</v>
+      </c>
+      <c r="V204" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -12580,8 +13826,14 @@
       <c r="T205" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:20">
+      <c r="U205" s="7">
+        <v>0</v>
+      </c>
+      <c r="V205" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -12642,8 +13894,14 @@
       <c r="T206" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:20">
+      <c r="U206" s="7">
+        <v>0</v>
+      </c>
+      <c r="V206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -12704,8 +13962,14 @@
       <c r="T207" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:20">
+      <c r="U207" s="7">
+        <v>0</v>
+      </c>
+      <c r="V207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -12766,8 +14030,14 @@
       <c r="T208" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:20">
+      <c r="U208" s="7">
+        <v>0</v>
+      </c>
+      <c r="V208" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -12828,8 +14098,14 @@
       <c r="T209" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:20">
+      <c r="U209" s="7">
+        <v>0</v>
+      </c>
+      <c r="V209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -12890,8 +14166,14 @@
       <c r="T210" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:20">
+      <c r="U210" s="7">
+        <v>0</v>
+      </c>
+      <c r="V210" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -12952,8 +14234,14 @@
       <c r="T211" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:20">
+      <c r="U211" s="7">
+        <v>0</v>
+      </c>
+      <c r="V211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -13014,8 +14302,14 @@
       <c r="T212" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:20">
+      <c r="U212" s="7">
+        <v>0</v>
+      </c>
+      <c r="V212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -13076,8 +14370,14 @@
       <c r="T213" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:20">
+      <c r="U213" s="7">
+        <v>0</v>
+      </c>
+      <c r="V213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -13138,8 +14438,14 @@
       <c r="T214" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:20">
+      <c r="U214" s="7">
+        <v>0</v>
+      </c>
+      <c r="V214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -13200,8 +14506,14 @@
       <c r="T215" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:20">
+      <c r="U215" s="7">
+        <v>0</v>
+      </c>
+      <c r="V215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -13262,8 +14574,14 @@
       <c r="T216" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:20">
+      <c r="U216" s="7">
+        <v>0</v>
+      </c>
+      <c r="V216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -13324,8 +14642,14 @@
       <c r="T217" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:20">
+      <c r="U217" s="7">
+        <v>0</v>
+      </c>
+      <c r="V217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -13386,8 +14710,14 @@
       <c r="T218" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:20">
+      <c r="U218" s="7">
+        <v>0</v>
+      </c>
+      <c r="V218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -13448,8 +14778,14 @@
       <c r="T219" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:20">
+      <c r="U219" s="7">
+        <v>0</v>
+      </c>
+      <c r="V219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -13510,8 +14846,14 @@
       <c r="T220" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:20">
+      <c r="U220" s="7">
+        <v>0</v>
+      </c>
+      <c r="V220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -13572,8 +14914,14 @@
       <c r="T221" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:20">
+      <c r="U221" s="7">
+        <v>0</v>
+      </c>
+      <c r="V221" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -13634,8 +14982,14 @@
       <c r="T222" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:20">
+      <c r="U222" s="7">
+        <v>0</v>
+      </c>
+      <c r="V222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -13696,8 +15050,14 @@
       <c r="T223" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:20">
+      <c r="U223" s="7">
+        <v>0</v>
+      </c>
+      <c r="V223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -13758,8 +15118,14 @@
       <c r="T224" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:20">
+      <c r="U224" s="7">
+        <v>0</v>
+      </c>
+      <c r="V224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -13820,8 +15186,14 @@
       <c r="T225" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:20">
+      <c r="U225" s="7">
+        <v>0</v>
+      </c>
+      <c r="V225" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -13882,8 +15254,14 @@
       <c r="T226" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:20">
+      <c r="U226" s="7">
+        <v>0</v>
+      </c>
+      <c r="V226" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -13944,8 +15322,14 @@
       <c r="T227" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:20">
+      <c r="U227" s="7">
+        <v>0</v>
+      </c>
+      <c r="V227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -14006,8 +15390,14 @@
       <c r="T228" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:20">
+      <c r="U228" s="7">
+        <v>0</v>
+      </c>
+      <c r="V228" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -14068,8 +15458,14 @@
       <c r="T229" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:20">
+      <c r="U229" s="7">
+        <v>0</v>
+      </c>
+      <c r="V229" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -14130,8 +15526,14 @@
       <c r="T230" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:20">
+      <c r="U230" s="7">
+        <v>0</v>
+      </c>
+      <c r="V230" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -14192,8 +15594,14 @@
       <c r="T231" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:20">
+      <c r="U231" s="7">
+        <v>0</v>
+      </c>
+      <c r="V231" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -14254,8 +15662,14 @@
       <c r="T232" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:20">
+      <c r="U232" s="7">
+        <v>0</v>
+      </c>
+      <c r="V232" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -14316,8 +15730,14 @@
       <c r="T233" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:20">
+      <c r="U233" s="7">
+        <v>0</v>
+      </c>
+      <c r="V233" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -14378,8 +15798,14 @@
       <c r="T234" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:20">
+      <c r="U234" s="7">
+        <v>0</v>
+      </c>
+      <c r="V234" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -14440,8 +15866,14 @@
       <c r="T235" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:20">
+      <c r="U235" s="7">
+        <v>0</v>
+      </c>
+      <c r="V235" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -14502,8 +15934,14 @@
       <c r="T236" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:20">
+      <c r="U236" s="7">
+        <v>0</v>
+      </c>
+      <c r="V236" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -14564,8 +16002,14 @@
       <c r="T237" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:20">
+      <c r="U237" s="7">
+        <v>0</v>
+      </c>
+      <c r="V237" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -14626,8 +16070,14 @@
       <c r="T238" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:20">
+      <c r="U238" s="7">
+        <v>0</v>
+      </c>
+      <c r="V238" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -14688,8 +16138,14 @@
       <c r="T239" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:20">
+      <c r="U239" s="7">
+        <v>0</v>
+      </c>
+      <c r="V239" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -14750,8 +16206,14 @@
       <c r="T240" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:20">
+      <c r="U240" s="7">
+        <v>0</v>
+      </c>
+      <c r="V240" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -14812,8 +16274,14 @@
       <c r="T241" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:20">
+      <c r="U241" s="7">
+        <v>0</v>
+      </c>
+      <c r="V241" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -14874,8 +16342,14 @@
       <c r="T242" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:20">
+      <c r="U242" s="7">
+        <v>0</v>
+      </c>
+      <c r="V242" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -14936,8 +16410,14 @@
       <c r="T243" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:20">
+      <c r="U243" s="7">
+        <v>0</v>
+      </c>
+      <c r="V243" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -14998,8 +16478,14 @@
       <c r="T244" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:20">
+      <c r="U244" s="7">
+        <v>0</v>
+      </c>
+      <c r="V244" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -15060,8 +16546,14 @@
       <c r="T245" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:20">
+      <c r="U245" s="7">
+        <v>0</v>
+      </c>
+      <c r="V245" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -15122,8 +16614,14 @@
       <c r="T246" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:20">
+      <c r="U246" s="7">
+        <v>0</v>
+      </c>
+      <c r="V246" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -15184,8 +16682,14 @@
       <c r="T247" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:20">
+      <c r="U247" s="7">
+        <v>0</v>
+      </c>
+      <c r="V247" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -15246,8 +16750,14 @@
       <c r="T248" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:20">
+      <c r="U248" s="7">
+        <v>0</v>
+      </c>
+      <c r="V248" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -15308,8 +16818,14 @@
       <c r="T249" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:20">
+      <c r="U249" s="7">
+        <v>0</v>
+      </c>
+      <c r="V249" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -15370,8 +16886,14 @@
       <c r="T250" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:20">
+      <c r="U250" s="7">
+        <v>0</v>
+      </c>
+      <c r="V250" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -15432,8 +16954,14 @@
       <c r="T251" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:20">
+      <c r="U251" s="7">
+        <v>0</v>
+      </c>
+      <c r="V251" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -15494,8 +17022,14 @@
       <c r="T252" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:20">
+      <c r="U252" s="7">
+        <v>0</v>
+      </c>
+      <c r="V252" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -15556,8 +17090,14 @@
       <c r="T253" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:20">
+      <c r="U253" s="7">
+        <v>0</v>
+      </c>
+      <c r="V253" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -15618,8 +17158,14 @@
       <c r="T254" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:20">
+      <c r="U254" s="7">
+        <v>0</v>
+      </c>
+      <c r="V254" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -15680,8 +17226,14 @@
       <c r="T255" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:20">
+      <c r="U255" s="7">
+        <v>0</v>
+      </c>
+      <c r="V255" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -15742,8 +17294,14 @@
       <c r="T256" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:20">
+      <c r="U256" s="7">
+        <v>0</v>
+      </c>
+      <c r="V256" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -15804,8 +17362,14 @@
       <c r="T257" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:20">
+      <c r="U257" s="7">
+        <v>0</v>
+      </c>
+      <c r="V257" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -15866,8 +17430,14 @@
       <c r="T258" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:20">
+      <c r="U258" s="7">
+        <v>0</v>
+      </c>
+      <c r="V258" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -15928,8 +17498,14 @@
       <c r="T259" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:20">
+      <c r="U259" s="7">
+        <v>0</v>
+      </c>
+      <c r="V259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -15990,8 +17566,14 @@
       <c r="T260" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:20">
+      <c r="U260" s="7">
+        <v>0</v>
+      </c>
+      <c r="V260" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -16052,8 +17634,14 @@
       <c r="T261" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:20">
+      <c r="U261" s="7">
+        <v>0</v>
+      </c>
+      <c r="V261" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -16114,8 +17702,14 @@
       <c r="T262" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:20">
+      <c r="U262" s="7">
+        <v>0</v>
+      </c>
+      <c r="V262" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -16176,8 +17770,14 @@
       <c r="T263" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:20">
+      <c r="U263" s="7">
+        <v>0</v>
+      </c>
+      <c r="V263" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -16238,8 +17838,14 @@
       <c r="T264" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:20">
+      <c r="U264" s="7">
+        <v>0</v>
+      </c>
+      <c r="V264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -16300,8 +17906,14 @@
       <c r="T265" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:20">
+      <c r="U265" s="7">
+        <v>0</v>
+      </c>
+      <c r="V265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -16362,8 +17974,14 @@
       <c r="T266" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:20">
+      <c r="U266" s="7">
+        <v>0</v>
+      </c>
+      <c r="V266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -16424,8 +18042,14 @@
       <c r="T267" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:20">
+      <c r="U267" s="7">
+        <v>0</v>
+      </c>
+      <c r="V267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -16486,8 +18110,14 @@
       <c r="T268" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:20">
+      <c r="U268" s="7">
+        <v>0</v>
+      </c>
+      <c r="V268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -16548,8 +18178,14 @@
       <c r="T269" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:20">
+      <c r="U269" s="7">
+        <v>0</v>
+      </c>
+      <c r="V269" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -16610,8 +18246,14 @@
       <c r="T270" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:20">
+      <c r="U270" s="7">
+        <v>0</v>
+      </c>
+      <c r="V270" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -16672,8 +18314,14 @@
       <c r="T271" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:20">
+      <c r="U271" s="7">
+        <v>0</v>
+      </c>
+      <c r="V271" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -16734,8 +18382,14 @@
       <c r="T272" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:20">
+      <c r="U272" s="7">
+        <v>0</v>
+      </c>
+      <c r="V272" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -16796,8 +18450,14 @@
       <c r="T273" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:20">
+      <c r="U273" s="7">
+        <v>0</v>
+      </c>
+      <c r="V273" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -16858,8 +18518,14 @@
       <c r="T274" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:20">
+      <c r="U274" s="7">
+        <v>0</v>
+      </c>
+      <c r="V274" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -16920,8 +18586,14 @@
       <c r="T275" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:20">
+      <c r="U275" s="7">
+        <v>0</v>
+      </c>
+      <c r="V275" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -16982,8 +18654,14 @@
       <c r="T276" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:20">
+      <c r="U276" s="7">
+        <v>0</v>
+      </c>
+      <c r="V276" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -17044,8 +18722,14 @@
       <c r="T277" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:20">
+      <c r="U277" s="7">
+        <v>0</v>
+      </c>
+      <c r="V277" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -17106,8 +18790,14 @@
       <c r="T278" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:20">
+      <c r="U278" s="7">
+        <v>0</v>
+      </c>
+      <c r="V278" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -17168,8 +18858,14 @@
       <c r="T279" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:20">
+      <c r="U279" s="7">
+        <v>0</v>
+      </c>
+      <c r="V279" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -17230,8 +18926,14 @@
       <c r="T280" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:20">
+      <c r="U280" s="7">
+        <v>0</v>
+      </c>
+      <c r="V280" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -17292,8 +18994,14 @@
       <c r="T281" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:20">
+      <c r="U281" s="7">
+        <v>0</v>
+      </c>
+      <c r="V281" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -17354,8 +19062,14 @@
       <c r="T282" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:20">
+      <c r="U282" s="7">
+        <v>0</v>
+      </c>
+      <c r="V282" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -17416,8 +19130,14 @@
       <c r="T283" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:20">
+      <c r="U283" s="7">
+        <v>0</v>
+      </c>
+      <c r="V283" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -17478,8 +19198,14 @@
       <c r="T284" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:20">
+      <c r="U284" s="7">
+        <v>0</v>
+      </c>
+      <c r="V284" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -17540,8 +19266,14 @@
       <c r="T285" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:20">
+      <c r="U285" s="7">
+        <v>0</v>
+      </c>
+      <c r="V285" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -17602,8 +19334,14 @@
       <c r="T286" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:20">
+      <c r="U286" s="7">
+        <v>0</v>
+      </c>
+      <c r="V286" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -17664,8 +19402,14 @@
       <c r="T287" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:20">
+      <c r="U287" s="7">
+        <v>0</v>
+      </c>
+      <c r="V287" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -17726,8 +19470,14 @@
       <c r="T288" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:20">
+      <c r="U288" s="7">
+        <v>0</v>
+      </c>
+      <c r="V288" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -17788,8 +19538,14 @@
       <c r="T289" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:20">
+      <c r="U289" s="7">
+        <v>0</v>
+      </c>
+      <c r="V289" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -17850,8 +19606,14 @@
       <c r="T290" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:20">
+      <c r="U290" s="7">
+        <v>0</v>
+      </c>
+      <c r="V290" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -17912,8 +19674,14 @@
       <c r="T291" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:20">
+      <c r="U291" s="7">
+        <v>0</v>
+      </c>
+      <c r="V291" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -17974,8 +19742,14 @@
       <c r="T292" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:20">
+      <c r="U292" s="7">
+        <v>0</v>
+      </c>
+      <c r="V292" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -18036,8 +19810,14 @@
       <c r="T293" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:20">
+      <c r="U293" s="7">
+        <v>0</v>
+      </c>
+      <c r="V293" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -18098,8 +19878,14 @@
       <c r="T294" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:20">
+      <c r="U294" s="7">
+        <v>0</v>
+      </c>
+      <c r="V294" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -18160,8 +19946,14 @@
       <c r="T295" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:20">
+      <c r="U295" s="7">
+        <v>0</v>
+      </c>
+      <c r="V295" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -18222,8 +20014,14 @@
       <c r="T296" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:20">
+      <c r="U296" s="7">
+        <v>0</v>
+      </c>
+      <c r="V296" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -18284,8 +20082,14 @@
       <c r="T297" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:20">
+      <c r="U297" s="7">
+        <v>0</v>
+      </c>
+      <c r="V297" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -18299,7 +20103,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:22">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -18313,7 +20117,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:22">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -18326,7 +20130,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:22">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -18339,14 +20143,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:22">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:22">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -18358,7 +20162,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:22">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EFDA9C-1DA1-E541-8D9A-36A7E3F6C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C47A93-DCF2-5B46-A20C-95C3AAA579B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:V643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C47A93-DCF2-5B46-A20C-95C3AAA579B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E8F99-C68E-024C-ACF2-93A7D99F6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,25 +258,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cambiar to&amp;do" xfId="1" xr:uid="{1D7D66DF-1FEE-2145-8694-1850E3213805}"/>
@@ -595,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:V643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10980,68 +10961,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:22" s="25" customFormat="1">
-      <c r="A164" s="23">
+    <row r="164" spans="1:22">
+      <c r="A164" s="10">
         <v>1990</v>
       </c>
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="25">
+      <c r="C164">
         <v>17.373337290909433</v>
       </c>
-      <c r="D164" s="25">
+      <c r="D164">
         <v>0.57143966666666701</v>
       </c>
-      <c r="E164" s="26">
+      <c r="E164" s="11">
         <v>0.57550000000000001</v>
       </c>
-      <c r="F164" s="27">
+      <c r="F164" s="19">
         <v>334669.48663840198</v>
       </c>
-      <c r="G164" s="28">
+      <c r="G164" s="22">
         <v>73.930609318384498</v>
       </c>
-      <c r="H164" s="29">
+      <c r="H164" s="6">
         <v>5.9866666666666672</v>
       </c>
-      <c r="I164" s="30">
+      <c r="I164" s="7">
         <v>2.4833333333333329</v>
       </c>
-      <c r="J164" s="30">
+      <c r="J164" s="7">
         <v>2.61</v>
       </c>
-      <c r="K164" s="30">
+      <c r="K164" s="7">
         <v>77.4710596616207</v>
       </c>
-      <c r="L164" s="31">
+      <c r="L164" s="4">
         <v>94.878389999999996</v>
       </c>
-      <c r="M164" s="30">
-        <v>0</v>
-      </c>
-      <c r="N164" s="30">
-        <v>0</v>
-      </c>
-      <c r="O164" s="30">
-        <v>0</v>
-      </c>
-      <c r="P164" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="30">
-        <v>0</v>
-      </c>
-      <c r="R164" s="30">
-        <v>0</v>
-      </c>
-      <c r="S164" s="30">
-        <v>0</v>
-      </c>
-      <c r="T164" s="30">
-        <v>0</v>
-      </c>
-      <c r="V164" s="30">
+      <c r="M164" s="7">
+        <v>0</v>
+      </c>
+      <c r="N164" s="7">
+        <v>0</v>
+      </c>
+      <c r="O164" s="7">
+        <v>0</v>
+      </c>
+      <c r="P164" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="7">
+        <v>0</v>
+      </c>
+      <c r="R164" s="7">
+        <v>0</v>
+      </c>
+      <c r="S164" s="7">
+        <v>0</v>
+      </c>
+      <c r="T164" s="7">
+        <v>0</v>
+      </c>
+      <c r="U164" s="7">
+        <v>0</v>
+      </c>
+      <c r="V164" s="7">
         <v>1</v>
       </c>
     </row>
@@ -20102,6 +20086,8 @@
       <c r="J298" s="7"/>
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
+      <c r="U298" s="7"/>
+      <c r="V298" s="7"/>
     </row>
     <row r="299" spans="1:22">
       <c r="A299" s="12"/>
@@ -20116,6 +20102,8 @@
       <c r="J299" s="7"/>
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
+      <c r="U299" s="7"/>
+      <c r="V299" s="7"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="12"/>
@@ -20129,6 +20117,8 @@
       <c r="I300" s="6"/>
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
+      <c r="U300" s="7"/>
+      <c r="V300" s="7"/>
     </row>
     <row r="301" spans="1:22">
       <c r="A301" s="12"/>
@@ -20142,6 +20132,8 @@
       <c r="I301" s="6"/>
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
+      <c r="U301" s="7"/>
+      <c r="V301" s="7"/>
     </row>
     <row r="302" spans="1:22">
       <c r="A302" s="1"/>
@@ -20149,6 +20141,8 @@
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
+      <c r="U302" s="7"/>
+      <c r="V302" s="7"/>
     </row>
     <row r="303" spans="1:22">
       <c r="A303" s="1"/>
@@ -20161,6 +20155,8 @@
       <c r="I303" s="6"/>
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
+      <c r="U303" s="7"/>
+      <c r="V303" s="7"/>
     </row>
     <row r="304" spans="1:22">
       <c r="A304" s="1"/>
@@ -20173,15 +20169,19 @@
       <c r="I304" s="6"/>
       <c r="J304" s="7"/>
       <c r="L304" s="4"/>
-    </row>
-    <row r="305" spans="1:12">
+      <c r="U304" s="7"/>
+      <c r="V304" s="7"/>
+    </row>
+    <row r="305" spans="1:22">
       <c r="A305" s="1"/>
       <c r="C305" s="3"/>
       <c r="D305"/>
       <c r="F305" s="20"/>
       <c r="G305" s="5"/>
-    </row>
-    <row r="306" spans="1:12">
+      <c r="U305" s="7"/>
+      <c r="V305" s="7"/>
+    </row>
+    <row r="306" spans="1:22">
       <c r="A306" s="1"/>
       <c r="C306" s="3"/>
       <c r="D306"/>
@@ -20192,8 +20192,10 @@
       <c r="I306" s="6"/>
       <c r="J306" s="7"/>
       <c r="L306" s="4"/>
-    </row>
-    <row r="307" spans="1:12">
+      <c r="U306" s="7"/>
+      <c r="V306" s="7"/>
+    </row>
+    <row r="307" spans="1:22">
       <c r="A307" s="1"/>
       <c r="C307" s="3"/>
       <c r="D307"/>
@@ -20203,16 +20205,20 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="7"/>
-    </row>
-    <row r="308" spans="1:12">
+      <c r="U307" s="7"/>
+      <c r="V307" s="7"/>
+    </row>
+    <row r="308" spans="1:22">
       <c r="A308" s="1"/>
       <c r="C308" s="3"/>
       <c r="D308"/>
       <c r="F308" s="20"/>
       <c r="G308" s="5"/>
       <c r="L308" s="4"/>
-    </row>
-    <row r="309" spans="1:12">
+      <c r="U308" s="7"/>
+      <c r="V308" s="7"/>
+    </row>
+    <row r="309" spans="1:22">
       <c r="A309" s="1"/>
       <c r="C309" s="3"/>
       <c r="D309"/>
@@ -20223,8 +20229,10 @@
       <c r="I309" s="6"/>
       <c r="J309" s="7"/>
       <c r="L309" s="4"/>
-    </row>
-    <row r="310" spans="1:12">
+      <c r="U309" s="7"/>
+      <c r="V309" s="7"/>
+    </row>
+    <row r="310" spans="1:22">
       <c r="A310" s="1"/>
       <c r="C310" s="3"/>
       <c r="D310"/>
@@ -20234,16 +20242,20 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="7"/>
-    </row>
-    <row r="311" spans="1:12">
+      <c r="U310" s="7"/>
+      <c r="V310" s="7"/>
+    </row>
+    <row r="311" spans="1:22">
       <c r="A311" s="1"/>
       <c r="C311" s="3"/>
       <c r="D311"/>
       <c r="F311" s="20"/>
       <c r="G311" s="5"/>
       <c r="L311" s="4"/>
-    </row>
-    <row r="312" spans="1:12">
+      <c r="U311" s="7"/>
+      <c r="V311" s="7"/>
+    </row>
+    <row r="312" spans="1:22">
       <c r="A312" s="1"/>
       <c r="C312" s="3"/>
       <c r="D312"/>
@@ -20251,46 +20263,58 @@
       <c r="F312" s="20"/>
       <c r="G312" s="5"/>
       <c r="L312" s="4"/>
-    </row>
-    <row r="313" spans="1:12">
+      <c r="U312" s="7"/>
+      <c r="V312" s="7"/>
+    </row>
+    <row r="313" spans="1:22">
       <c r="A313" s="1"/>
       <c r="C313" s="3"/>
       <c r="D313"/>
       <c r="F313" s="20"/>
       <c r="G313" s="5"/>
-    </row>
-    <row r="314" spans="1:12">
+      <c r="U313" s="7"/>
+      <c r="V313" s="7"/>
+    </row>
+    <row r="314" spans="1:22">
       <c r="A314" s="1"/>
       <c r="C314" s="3"/>
       <c r="D314"/>
       <c r="F314" s="20"/>
       <c r="G314" s="5"/>
       <c r="L314" s="4"/>
-    </row>
-    <row r="315" spans="1:12">
+      <c r="U314" s="7"/>
+      <c r="V314" s="7"/>
+    </row>
+    <row r="315" spans="1:22">
       <c r="A315" s="1"/>
       <c r="C315" s="3"/>
       <c r="D315"/>
       <c r="F315" s="20"/>
       <c r="G315" s="5"/>
       <c r="L315" s="4"/>
-    </row>
-    <row r="316" spans="1:12">
+      <c r="U315" s="7"/>
+      <c r="V315" s="7"/>
+    </row>
+    <row r="316" spans="1:22">
       <c r="A316" s="1"/>
       <c r="C316" s="3"/>
       <c r="D316"/>
       <c r="F316" s="20"/>
       <c r="G316" s="5"/>
-    </row>
-    <row r="317" spans="1:12">
+      <c r="U316" s="7"/>
+      <c r="V316" s="7"/>
+    </row>
+    <row r="317" spans="1:22">
       <c r="A317" s="1"/>
       <c r="C317" s="3"/>
       <c r="D317"/>
       <c r="F317" s="20"/>
       <c r="G317" s="5"/>
       <c r="L317" s="4"/>
-    </row>
-    <row r="318" spans="1:12">
+      <c r="U317" s="7"/>
+      <c r="V317" s="7"/>
+    </row>
+    <row r="318" spans="1:22">
       <c r="A318" s="1"/>
       <c r="C318" s="3"/>
       <c r="D318"/>
@@ -20298,14 +20322,14 @@
       <c r="G318" s="5"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:22">
       <c r="A319" s="1"/>
       <c r="C319" s="3"/>
       <c r="D319"/>
       <c r="F319" s="20"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:22">
       <c r="A320" s="1"/>
       <c r="C320" s="3"/>
       <c r="D320"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E8F99-C68E-024C-ACF2-93A7D99F6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E4A04-4250-C64D-8BDA-FD3A7ADC5829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E4A04-4250-C64D-8BDA-FD3A7ADC5829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76632E28-D4BC-4B41-9807-78143E65823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="22">
   <si>
     <t>Ebc</t>
   </si>
@@ -101,18 +101,6 @@
   </si>
   <si>
     <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -574,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:V643"/>
+  <dimension ref="A1:R643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +581,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -648,20 +636,8 @@
       <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -707,20 +683,8 @@
       <c r="R2" s="7">
         <v>0</v>
       </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -766,20 +730,8 @@
       <c r="R3" s="7">
         <v>0</v>
       </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -825,20 +777,8 @@
       <c r="R4" s="7">
         <v>0</v>
       </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -884,20 +824,8 @@
       <c r="R5" s="7">
         <v>0</v>
       </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -943,20 +871,8 @@
       <c r="R6" s="7">
         <v>0</v>
       </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -1002,20 +918,8 @@
       <c r="R7" s="7">
         <v>0</v>
       </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -1061,20 +965,8 @@
       <c r="R8" s="7">
         <v>0</v>
       </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -1120,20 +1012,8 @@
       <c r="R9" s="7">
         <v>0</v>
       </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -1179,20 +1059,8 @@
       <c r="R10" s="7">
         <v>0</v>
       </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -1238,20 +1106,8 @@
       <c r="R11" s="7">
         <v>0</v>
       </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1297,20 +1153,8 @@
       <c r="R12" s="7">
         <v>0</v>
       </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1356,20 +1200,8 @@
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1415,20 +1247,8 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1474,20 +1294,8 @@
       <c r="R15" s="7">
         <v>0</v>
       </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1533,20 +1341,8 @@
       <c r="R16" s="7">
         <v>0</v>
       </c>
-      <c r="S16" s="7">
-        <v>0</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1592,20 +1388,8 @@
       <c r="R17" s="7">
         <v>0</v>
       </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1651,20 +1435,8 @@
       <c r="R18" s="7">
         <v>0</v>
       </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1710,20 +1482,8 @@
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1769,20 +1529,8 @@
       <c r="R20" s="7">
         <v>0</v>
       </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1828,20 +1576,8 @@
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1887,20 +1623,8 @@
       <c r="R22" s="7">
         <v>0</v>
       </c>
-      <c r="S22" s="7">
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1946,20 +1670,8 @@
       <c r="R23" s="7">
         <v>0</v>
       </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -2005,20 +1717,8 @@
       <c r="R24" s="7">
         <v>0</v>
       </c>
-      <c r="S24" s="7">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0</v>
-      </c>
-      <c r="U24" s="7">
-        <v>0</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -2064,20 +1764,8 @@
       <c r="R25" s="7">
         <v>0</v>
       </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -2123,20 +1811,8 @@
       <c r="R26" s="7">
         <v>0</v>
       </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0</v>
-      </c>
-      <c r="V26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -2182,20 +1858,8 @@
       <c r="R27" s="7">
         <v>0</v>
       </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7">
-        <v>0</v>
-      </c>
-      <c r="U27" s="7">
-        <v>0</v>
-      </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -2241,20 +1905,8 @@
       <c r="R28" s="7">
         <v>0</v>
       </c>
-      <c r="S28" s="7">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7">
-        <v>0</v>
-      </c>
-      <c r="V28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -2300,20 +1952,8 @@
       <c r="R29" s="7">
         <v>0</v>
       </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7">
-        <v>0</v>
-      </c>
-      <c r="U29" s="7">
-        <v>0</v>
-      </c>
-      <c r="V29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -2361,20 +2001,8 @@
       <c r="R30" s="7">
         <v>0</v>
       </c>
-      <c r="S30" s="7">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -2422,20 +2050,8 @@
       <c r="R31" s="7">
         <v>0</v>
       </c>
-      <c r="S31" s="7">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <v>0</v>
-      </c>
-      <c r="V31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -2483,20 +2099,8 @@
       <c r="R32" s="7">
         <v>0</v>
       </c>
-      <c r="S32" s="7">
-        <v>0</v>
-      </c>
-      <c r="T32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <v>0</v>
-      </c>
-      <c r="V32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -2544,20 +2148,8 @@
       <c r="R33" s="7">
         <v>0</v>
       </c>
-      <c r="S33" s="7">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <v>0</v>
-      </c>
-      <c r="V33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -2605,20 +2197,8 @@
       <c r="R34" s="7">
         <v>0</v>
       </c>
-      <c r="S34" s="7">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <v>0</v>
-      </c>
-      <c r="V34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -2666,20 +2246,8 @@
       <c r="R35" s="7">
         <v>0</v>
       </c>
-      <c r="S35" s="7">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7">
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <v>0</v>
-      </c>
-      <c r="V35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -2727,20 +2295,8 @@
       <c r="R36" s="7">
         <v>0</v>
       </c>
-      <c r="S36" s="7">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7">
-        <v>0</v>
-      </c>
-      <c r="U36" s="7">
-        <v>0</v>
-      </c>
-      <c r="V36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -2788,20 +2344,8 @@
       <c r="R37" s="7">
         <v>0</v>
       </c>
-      <c r="S37" s="7">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7">
-        <v>0</v>
-      </c>
-      <c r="U37" s="7">
-        <v>0</v>
-      </c>
-      <c r="V37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2852,20 +2396,8 @@
       <c r="R38" s="7">
         <v>0</v>
       </c>
-      <c r="S38" s="7">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7">
-        <v>0</v>
-      </c>
-      <c r="V38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2916,20 +2448,8 @@
       <c r="R39" s="7">
         <v>0</v>
       </c>
-      <c r="S39" s="7">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7">
-        <v>0</v>
-      </c>
-      <c r="U39" s="7">
-        <v>0</v>
-      </c>
-      <c r="V39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2980,20 +2500,8 @@
       <c r="R40" s="7">
         <v>0</v>
       </c>
-      <c r="S40" s="7">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7">
-        <v>0</v>
-      </c>
-      <c r="V40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -3044,20 +2552,8 @@
       <c r="R41" s="7">
         <v>0</v>
       </c>
-      <c r="S41" s="7">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7">
-        <v>0</v>
-      </c>
-      <c r="V41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -3108,20 +2604,8 @@
       <c r="R42" s="7">
         <v>0</v>
       </c>
-      <c r="S42" s="7">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7">
-        <v>0</v>
-      </c>
-      <c r="V42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -3172,20 +2656,8 @@
       <c r="R43" s="7">
         <v>0</v>
       </c>
-      <c r="S43" s="7">
-        <v>0</v>
-      </c>
-      <c r="T43" s="7">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7">
-        <v>0</v>
-      </c>
-      <c r="V43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -3236,20 +2708,8 @@
       <c r="R44" s="7">
         <v>0</v>
       </c>
-      <c r="S44" s="7">
-        <v>0</v>
-      </c>
-      <c r="T44" s="7">
-        <v>0</v>
-      </c>
-      <c r="U44" s="7">
-        <v>0</v>
-      </c>
-      <c r="V44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -3300,20 +2760,8 @@
       <c r="R45" s="7">
         <v>0</v>
       </c>
-      <c r="S45" s="7">
-        <v>0</v>
-      </c>
-      <c r="T45" s="7">
-        <v>0</v>
-      </c>
-      <c r="U45" s="7">
-        <v>0</v>
-      </c>
-      <c r="V45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -3364,20 +2812,8 @@
       <c r="R46" s="7">
         <v>0</v>
       </c>
-      <c r="S46" s="7">
-        <v>0</v>
-      </c>
-      <c r="T46" s="7">
-        <v>0</v>
-      </c>
-      <c r="U46" s="7">
-        <v>0</v>
-      </c>
-      <c r="V46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -3428,20 +2864,8 @@
       <c r="R47" s="7">
         <v>0</v>
       </c>
-      <c r="S47" s="7">
-        <v>0</v>
-      </c>
-      <c r="T47" s="7">
-        <v>0</v>
-      </c>
-      <c r="U47" s="7">
-        <v>0</v>
-      </c>
-      <c r="V47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -3492,20 +2916,8 @@
       <c r="R48" s="7">
         <v>0</v>
       </c>
-      <c r="S48" s="7">
-        <v>0</v>
-      </c>
-      <c r="T48" s="7">
-        <v>0</v>
-      </c>
-      <c r="U48" s="7">
-        <v>0</v>
-      </c>
-      <c r="V48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -3556,20 +2968,8 @@
       <c r="R49" s="7">
         <v>0</v>
       </c>
-      <c r="S49" s="7">
-        <v>0</v>
-      </c>
-      <c r="T49" s="7">
-        <v>0</v>
-      </c>
-      <c r="U49" s="7">
-        <v>0</v>
-      </c>
-      <c r="V49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -3620,20 +3020,8 @@
       <c r="R50" s="7">
         <v>0</v>
       </c>
-      <c r="S50" s="7">
-        <v>0</v>
-      </c>
-      <c r="T50" s="7">
-        <v>0</v>
-      </c>
-      <c r="U50" s="7">
-        <v>0</v>
-      </c>
-      <c r="V50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -3684,20 +3072,8 @@
       <c r="R51" s="7">
         <v>0</v>
       </c>
-      <c r="S51" s="7">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7">
-        <v>0</v>
-      </c>
-      <c r="U51" s="7">
-        <v>0</v>
-      </c>
-      <c r="V51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -3748,20 +3124,8 @@
       <c r="R52" s="7">
         <v>0</v>
       </c>
-      <c r="S52" s="7">
-        <v>0</v>
-      </c>
-      <c r="T52" s="7">
-        <v>0</v>
-      </c>
-      <c r="U52" s="7">
-        <v>0</v>
-      </c>
-      <c r="V52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3812,20 +3176,8 @@
       <c r="R53" s="7">
         <v>0</v>
       </c>
-      <c r="S53" s="7">
-        <v>0</v>
-      </c>
-      <c r="T53" s="7">
-        <v>0</v>
-      </c>
-      <c r="U53" s="7">
-        <v>0</v>
-      </c>
-      <c r="V53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -3876,20 +3228,8 @@
       <c r="R54" s="7">
         <v>0</v>
       </c>
-      <c r="S54" s="7">
-        <v>0</v>
-      </c>
-      <c r="T54" s="7">
-        <v>0</v>
-      </c>
-      <c r="U54" s="7">
-        <v>0</v>
-      </c>
-      <c r="V54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -3940,20 +3280,8 @@
       <c r="R55" s="7">
         <v>0</v>
       </c>
-      <c r="S55" s="7">
-        <v>0</v>
-      </c>
-      <c r="T55" s="7">
-        <v>0</v>
-      </c>
-      <c r="U55" s="7">
-        <v>0</v>
-      </c>
-      <c r="V55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -4004,20 +3332,8 @@
       <c r="R56" s="7">
         <v>0</v>
       </c>
-      <c r="S56" s="7">
-        <v>0</v>
-      </c>
-      <c r="T56" s="7">
-        <v>0</v>
-      </c>
-      <c r="U56" s="7">
-        <v>0</v>
-      </c>
-      <c r="V56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -4068,20 +3384,8 @@
       <c r="R57" s="7">
         <v>0</v>
       </c>
-      <c r="S57" s="7">
-        <v>0</v>
-      </c>
-      <c r="T57" s="7">
-        <v>0</v>
-      </c>
-      <c r="U57" s="7">
-        <v>0</v>
-      </c>
-      <c r="V57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -4132,20 +3436,8 @@
       <c r="R58" s="7">
         <v>0</v>
       </c>
-      <c r="S58" s="7">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7">
-        <v>0</v>
-      </c>
-      <c r="U58" s="7">
-        <v>0</v>
-      </c>
-      <c r="V58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -4196,20 +3488,8 @@
       <c r="R59" s="7">
         <v>0</v>
       </c>
-      <c r="S59" s="7">
-        <v>0</v>
-      </c>
-      <c r="T59" s="7">
-        <v>0</v>
-      </c>
-      <c r="U59" s="7">
-        <v>0</v>
-      </c>
-      <c r="V59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -4260,20 +3540,8 @@
       <c r="R60" s="7">
         <v>0</v>
       </c>
-      <c r="S60" s="7">
-        <v>0</v>
-      </c>
-      <c r="T60" s="7">
-        <v>0</v>
-      </c>
-      <c r="U60" s="7">
-        <v>0</v>
-      </c>
-      <c r="V60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -4324,20 +3592,8 @@
       <c r="R61" s="7">
         <v>0</v>
       </c>
-      <c r="S61" s="7">
-        <v>0</v>
-      </c>
-      <c r="T61" s="7">
-        <v>0</v>
-      </c>
-      <c r="U61" s="7">
-        <v>0</v>
-      </c>
-      <c r="V61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -4388,20 +3644,8 @@
       <c r="R62" s="7">
         <v>0</v>
       </c>
-      <c r="S62" s="7">
-        <v>0</v>
-      </c>
-      <c r="T62" s="7">
-        <v>0</v>
-      </c>
-      <c r="U62" s="7">
-        <v>0</v>
-      </c>
-      <c r="V62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -4452,20 +3696,8 @@
       <c r="R63" s="7">
         <v>0</v>
       </c>
-      <c r="S63" s="7">
-        <v>0</v>
-      </c>
-      <c r="T63" s="7">
-        <v>0</v>
-      </c>
-      <c r="U63" s="7">
-        <v>0</v>
-      </c>
-      <c r="V63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -4516,20 +3748,8 @@
       <c r="R64" s="7">
         <v>0</v>
       </c>
-      <c r="S64" s="7">
-        <v>0</v>
-      </c>
-      <c r="T64" s="7">
-        <v>0</v>
-      </c>
-      <c r="U64" s="7">
-        <v>0</v>
-      </c>
-      <c r="V64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -4580,20 +3800,8 @@
       <c r="R65" s="7">
         <v>0</v>
       </c>
-      <c r="S65" s="7">
-        <v>0</v>
-      </c>
-      <c r="T65" s="7">
-        <v>0</v>
-      </c>
-      <c r="U65" s="7">
-        <v>0</v>
-      </c>
-      <c r="V65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -4644,20 +3852,8 @@
       <c r="R66" s="7">
         <v>0</v>
       </c>
-      <c r="S66" s="7">
-        <v>0</v>
-      </c>
-      <c r="T66" s="7">
-        <v>0</v>
-      </c>
-      <c r="U66" s="7">
-        <v>0</v>
-      </c>
-      <c r="V66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -4708,20 +3904,8 @@
       <c r="R67" s="7">
         <v>0</v>
       </c>
-      <c r="S67" s="7">
-        <v>0</v>
-      </c>
-      <c r="T67" s="7">
-        <v>0</v>
-      </c>
-      <c r="U67" s="7">
-        <v>0</v>
-      </c>
-      <c r="V67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -4772,20 +3956,8 @@
       <c r="R68" s="7">
         <v>0</v>
       </c>
-      <c r="S68" s="7">
-        <v>0</v>
-      </c>
-      <c r="T68" s="7">
-        <v>0</v>
-      </c>
-      <c r="U68" s="7">
-        <v>0</v>
-      </c>
-      <c r="V68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -4836,20 +4008,8 @@
       <c r="R69" s="7">
         <v>0</v>
       </c>
-      <c r="S69" s="7">
-        <v>0</v>
-      </c>
-      <c r="T69" s="7">
-        <v>0</v>
-      </c>
-      <c r="U69" s="7">
-        <v>0</v>
-      </c>
-      <c r="V69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -4900,20 +4060,8 @@
       <c r="R70" s="7">
         <v>0</v>
       </c>
-      <c r="S70" s="7">
-        <v>0</v>
-      </c>
-      <c r="T70" s="7">
-        <v>0</v>
-      </c>
-      <c r="U70" s="7">
-        <v>0</v>
-      </c>
-      <c r="V70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -4964,20 +4112,8 @@
       <c r="R71" s="7">
         <v>0</v>
       </c>
-      <c r="S71" s="7">
-        <v>0</v>
-      </c>
-      <c r="T71" s="7">
-        <v>0</v>
-      </c>
-      <c r="U71" s="7">
-        <v>0</v>
-      </c>
-      <c r="V71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -5028,20 +4164,8 @@
       <c r="R72" s="7">
         <v>0</v>
       </c>
-      <c r="S72" s="7">
-        <v>0</v>
-      </c>
-      <c r="T72" s="7">
-        <v>0</v>
-      </c>
-      <c r="U72" s="7">
-        <v>0</v>
-      </c>
-      <c r="V72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -5092,20 +4216,8 @@
       <c r="R73" s="7">
         <v>0</v>
       </c>
-      <c r="S73" s="7">
-        <v>0</v>
-      </c>
-      <c r="T73" s="7">
-        <v>0</v>
-      </c>
-      <c r="U73" s="7">
-        <v>0</v>
-      </c>
-      <c r="V73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -5156,20 +4268,8 @@
       <c r="R74" s="7">
         <v>0</v>
       </c>
-      <c r="S74" s="7">
-        <v>0</v>
-      </c>
-      <c r="T74" s="7">
-        <v>0</v>
-      </c>
-      <c r="U74" s="7">
-        <v>0</v>
-      </c>
-      <c r="V74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -5220,20 +4320,8 @@
       <c r="R75" s="7">
         <v>0</v>
       </c>
-      <c r="S75" s="7">
-        <v>0</v>
-      </c>
-      <c r="T75" s="7">
-        <v>0</v>
-      </c>
-      <c r="U75" s="7">
-        <v>0</v>
-      </c>
-      <c r="V75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -5284,20 +4372,8 @@
       <c r="R76" s="7">
         <v>0</v>
       </c>
-      <c r="S76" s="7">
-        <v>0</v>
-      </c>
-      <c r="T76" s="7">
-        <v>0</v>
-      </c>
-      <c r="U76" s="7">
-        <v>0</v>
-      </c>
-      <c r="V76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -5348,20 +4424,8 @@
       <c r="R77" s="7">
         <v>0</v>
       </c>
-      <c r="S77" s="7">
-        <v>0</v>
-      </c>
-      <c r="T77" s="7">
-        <v>0</v>
-      </c>
-      <c r="U77" s="7">
-        <v>0</v>
-      </c>
-      <c r="V77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -5412,20 +4476,8 @@
       <c r="R78" s="7">
         <v>0</v>
       </c>
-      <c r="S78" s="7">
-        <v>0</v>
-      </c>
-      <c r="T78" s="7">
-        <v>0</v>
-      </c>
-      <c r="U78" s="7">
-        <v>0</v>
-      </c>
-      <c r="V78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -5476,20 +4528,8 @@
       <c r="R79" s="7">
         <v>0</v>
       </c>
-      <c r="S79" s="7">
-        <v>0</v>
-      </c>
-      <c r="T79" s="7">
-        <v>0</v>
-      </c>
-      <c r="U79" s="7">
-        <v>0</v>
-      </c>
-      <c r="V79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -5540,20 +4580,8 @@
       <c r="R80" s="7">
         <v>0</v>
       </c>
-      <c r="S80" s="7">
-        <v>0</v>
-      </c>
-      <c r="T80" s="7">
-        <v>0</v>
-      </c>
-      <c r="U80" s="7">
-        <v>0</v>
-      </c>
-      <c r="V80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -5604,20 +4632,8 @@
       <c r="R81" s="7">
         <v>0</v>
       </c>
-      <c r="S81" s="7">
-        <v>0</v>
-      </c>
-      <c r="T81" s="7">
-        <v>0</v>
-      </c>
-      <c r="U81" s="7">
-        <v>0</v>
-      </c>
-      <c r="V81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -5668,20 +4684,8 @@
       <c r="R82" s="7">
         <v>0</v>
       </c>
-      <c r="S82" s="7">
-        <v>0</v>
-      </c>
-      <c r="T82" s="7">
-        <v>0</v>
-      </c>
-      <c r="U82" s="7">
-        <v>0</v>
-      </c>
-      <c r="V82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -5732,20 +4736,8 @@
       <c r="R83" s="7">
         <v>0</v>
       </c>
-      <c r="S83" s="7">
-        <v>0</v>
-      </c>
-      <c r="T83" s="7">
-        <v>0</v>
-      </c>
-      <c r="U83" s="7">
-        <v>0</v>
-      </c>
-      <c r="V83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -5796,20 +4788,8 @@
       <c r="R84" s="7">
         <v>0</v>
       </c>
-      <c r="S84" s="7">
-        <v>0</v>
-      </c>
-      <c r="T84" s="7">
-        <v>0</v>
-      </c>
-      <c r="U84" s="7">
-        <v>0</v>
-      </c>
-      <c r="V84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -5860,20 +4840,8 @@
       <c r="R85" s="7">
         <v>0</v>
       </c>
-      <c r="S85" s="7">
-        <v>0</v>
-      </c>
-      <c r="T85" s="7">
-        <v>0</v>
-      </c>
-      <c r="U85" s="7">
-        <v>0</v>
-      </c>
-      <c r="V85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -5924,20 +4892,8 @@
       <c r="R86" s="7">
         <v>0</v>
       </c>
-      <c r="S86" s="7">
-        <v>0</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0</v>
-      </c>
-      <c r="U86" s="7">
-        <v>0</v>
-      </c>
-      <c r="V86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -5988,20 +4944,8 @@
       <c r="R87" s="7">
         <v>0</v>
       </c>
-      <c r="S87" s="7">
-        <v>0</v>
-      </c>
-      <c r="T87" s="7">
-        <v>0</v>
-      </c>
-      <c r="U87" s="7">
-        <v>0</v>
-      </c>
-      <c r="V87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -6052,20 +4996,8 @@
       <c r="R88" s="7">
         <v>0</v>
       </c>
-      <c r="S88" s="7">
-        <v>0</v>
-      </c>
-      <c r="T88" s="7">
-        <v>0</v>
-      </c>
-      <c r="U88" s="7">
-        <v>0</v>
-      </c>
-      <c r="V88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -6116,20 +5048,8 @@
       <c r="R89" s="7">
         <v>0</v>
       </c>
-      <c r="S89" s="7">
-        <v>0</v>
-      </c>
-      <c r="T89" s="7">
-        <v>0</v>
-      </c>
-      <c r="U89" s="7">
-        <v>0</v>
-      </c>
-      <c r="V89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -6180,20 +5100,8 @@
       <c r="R90" s="7">
         <v>0</v>
       </c>
-      <c r="S90" s="7">
-        <v>0</v>
-      </c>
-      <c r="T90" s="7">
-        <v>0</v>
-      </c>
-      <c r="U90" s="7">
-        <v>0</v>
-      </c>
-      <c r="V90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -6244,20 +5152,8 @@
       <c r="R91" s="7">
         <v>0</v>
       </c>
-      <c r="S91" s="7">
-        <v>0</v>
-      </c>
-      <c r="T91" s="7">
-        <v>0</v>
-      </c>
-      <c r="U91" s="7">
-        <v>0</v>
-      </c>
-      <c r="V91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -6308,20 +5204,8 @@
       <c r="R92" s="7">
         <v>0</v>
       </c>
-      <c r="S92" s="7">
-        <v>0</v>
-      </c>
-      <c r="T92" s="7">
-        <v>0</v>
-      </c>
-      <c r="U92" s="7">
-        <v>0</v>
-      </c>
-      <c r="V92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -6372,20 +5256,8 @@
       <c r="R93" s="7">
         <v>0</v>
       </c>
-      <c r="S93" s="7">
-        <v>0</v>
-      </c>
-      <c r="T93" s="7">
-        <v>0</v>
-      </c>
-      <c r="U93" s="7">
-        <v>0</v>
-      </c>
-      <c r="V93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -6436,20 +5308,8 @@
       <c r="R94" s="7">
         <v>0</v>
       </c>
-      <c r="S94" s="7">
-        <v>0</v>
-      </c>
-      <c r="T94" s="7">
-        <v>0</v>
-      </c>
-      <c r="U94" s="7">
-        <v>0</v>
-      </c>
-      <c r="V94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -6500,20 +5360,8 @@
       <c r="R95" s="7">
         <v>0</v>
       </c>
-      <c r="S95" s="7">
-        <v>0</v>
-      </c>
-      <c r="T95" s="7">
-        <v>0</v>
-      </c>
-      <c r="U95" s="7">
-        <v>0</v>
-      </c>
-      <c r="V95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -6564,20 +5412,8 @@
       <c r="R96" s="7">
         <v>0</v>
       </c>
-      <c r="S96" s="7">
-        <v>0</v>
-      </c>
-      <c r="T96" s="7">
-        <v>0</v>
-      </c>
-      <c r="U96" s="7">
-        <v>0</v>
-      </c>
-      <c r="V96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -6628,20 +5464,8 @@
       <c r="R97" s="7">
         <v>0</v>
       </c>
-      <c r="S97" s="7">
-        <v>0</v>
-      </c>
-      <c r="T97" s="7">
-        <v>0</v>
-      </c>
-      <c r="U97" s="7">
-        <v>0</v>
-      </c>
-      <c r="V97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -6692,20 +5516,8 @@
       <c r="R98" s="7">
         <v>0</v>
       </c>
-      <c r="S98" s="7">
-        <v>0</v>
-      </c>
-      <c r="T98" s="7">
-        <v>0</v>
-      </c>
-      <c r="U98" s="7">
-        <v>0</v>
-      </c>
-      <c r="V98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -6756,20 +5568,8 @@
       <c r="R99" s="7">
         <v>0</v>
       </c>
-      <c r="S99" s="7">
-        <v>0</v>
-      </c>
-      <c r="T99" s="7">
-        <v>0</v>
-      </c>
-      <c r="U99" s="7">
-        <v>0</v>
-      </c>
-      <c r="V99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -6820,20 +5620,8 @@
       <c r="R100" s="7">
         <v>0</v>
       </c>
-      <c r="S100" s="7">
-        <v>0</v>
-      </c>
-      <c r="T100" s="7">
-        <v>0</v>
-      </c>
-      <c r="U100" s="7">
-        <v>0</v>
-      </c>
-      <c r="V100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -6884,20 +5672,8 @@
       <c r="R101" s="7">
         <v>0</v>
       </c>
-      <c r="S101" s="7">
-        <v>0</v>
-      </c>
-      <c r="T101" s="7">
-        <v>0</v>
-      </c>
-      <c r="U101" s="7">
-        <v>0</v>
-      </c>
-      <c r="V101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -6948,20 +5724,8 @@
       <c r="R102" s="7">
         <v>0</v>
       </c>
-      <c r="S102" s="7">
-        <v>0</v>
-      </c>
-      <c r="T102" s="7">
-        <v>0</v>
-      </c>
-      <c r="U102" s="7">
-        <v>0</v>
-      </c>
-      <c r="V102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -7012,20 +5776,8 @@
       <c r="R103" s="7">
         <v>0</v>
       </c>
-      <c r="S103" s="7">
-        <v>0</v>
-      </c>
-      <c r="T103" s="7">
-        <v>0</v>
-      </c>
-      <c r="U103" s="7">
-        <v>0</v>
-      </c>
-      <c r="V103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -7076,20 +5828,8 @@
       <c r="R104" s="7">
         <v>0</v>
       </c>
-      <c r="S104" s="7">
-        <v>0</v>
-      </c>
-      <c r="T104" s="7">
-        <v>0</v>
-      </c>
-      <c r="U104" s="7">
-        <v>0</v>
-      </c>
-      <c r="V104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -7140,20 +5880,8 @@
       <c r="R105" s="7">
         <v>0</v>
       </c>
-      <c r="S105" s="7">
-        <v>0</v>
-      </c>
-      <c r="T105" s="7">
-        <v>0</v>
-      </c>
-      <c r="U105" s="7">
-        <v>0</v>
-      </c>
-      <c r="V105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -7204,20 +5932,8 @@
       <c r="R106" s="7">
         <v>0</v>
       </c>
-      <c r="S106" s="7">
-        <v>0</v>
-      </c>
-      <c r="T106" s="7">
-        <v>0</v>
-      </c>
-      <c r="U106" s="7">
-        <v>0</v>
-      </c>
-      <c r="V106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22">
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -7268,20 +5984,8 @@
       <c r="R107" s="7">
         <v>0</v>
       </c>
-      <c r="S107" s="7">
-        <v>0</v>
-      </c>
-      <c r="T107" s="7">
-        <v>0</v>
-      </c>
-      <c r="U107" s="7">
-        <v>0</v>
-      </c>
-      <c r="V107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -7332,20 +6036,8 @@
       <c r="R108" s="7">
         <v>0</v>
       </c>
-      <c r="S108" s="7">
-        <v>0</v>
-      </c>
-      <c r="T108" s="7">
-        <v>0</v>
-      </c>
-      <c r="U108" s="7">
-        <v>0</v>
-      </c>
-      <c r="V108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -7396,20 +6088,8 @@
       <c r="R109" s="7">
         <v>0</v>
       </c>
-      <c r="S109" s="7">
-        <v>0</v>
-      </c>
-      <c r="T109" s="7">
-        <v>0</v>
-      </c>
-      <c r="U109" s="7">
-        <v>0</v>
-      </c>
-      <c r="V109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -7460,20 +6140,8 @@
       <c r="R110" s="7">
         <v>0</v>
       </c>
-      <c r="S110" s="7">
-        <v>0</v>
-      </c>
-      <c r="T110" s="7">
-        <v>0</v>
-      </c>
-      <c r="U110" s="7">
-        <v>0</v>
-      </c>
-      <c r="V110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -7524,20 +6192,8 @@
       <c r="R111" s="7">
         <v>0</v>
       </c>
-      <c r="S111" s="7">
-        <v>0</v>
-      </c>
-      <c r="T111" s="7">
-        <v>0</v>
-      </c>
-      <c r="U111" s="7">
-        <v>0</v>
-      </c>
-      <c r="V111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -7588,20 +6244,8 @@
       <c r="R112" s="7">
         <v>0</v>
       </c>
-      <c r="S112" s="7">
-        <v>0</v>
-      </c>
-      <c r="T112" s="7">
-        <v>0</v>
-      </c>
-      <c r="U112" s="7">
-        <v>0</v>
-      </c>
-      <c r="V112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22">
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -7652,20 +6296,8 @@
       <c r="R113" s="7">
         <v>0</v>
       </c>
-      <c r="S113" s="7">
-        <v>0</v>
-      </c>
-      <c r="T113" s="7">
-        <v>0</v>
-      </c>
-      <c r="U113" s="7">
-        <v>0</v>
-      </c>
-      <c r="V113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22">
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -7716,20 +6348,8 @@
       <c r="R114" s="7">
         <v>0</v>
       </c>
-      <c r="S114" s="7">
-        <v>0</v>
-      </c>
-      <c r="T114" s="7">
-        <v>0</v>
-      </c>
-      <c r="U114" s="7">
-        <v>0</v>
-      </c>
-      <c r="V114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -7780,20 +6400,8 @@
       <c r="R115" s="7">
         <v>0</v>
       </c>
-      <c r="S115" s="7">
-        <v>0</v>
-      </c>
-      <c r="T115" s="7">
-        <v>0</v>
-      </c>
-      <c r="U115" s="7">
-        <v>0</v>
-      </c>
-      <c r="V115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -7844,20 +6452,8 @@
       <c r="R116" s="7">
         <v>0</v>
       </c>
-      <c r="S116" s="7">
-        <v>0</v>
-      </c>
-      <c r="T116" s="7">
-        <v>0</v>
-      </c>
-      <c r="U116" s="7">
-        <v>0</v>
-      </c>
-      <c r="V116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22">
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -7908,20 +6504,8 @@
       <c r="R117" s="7">
         <v>0</v>
       </c>
-      <c r="S117" s="7">
-        <v>0</v>
-      </c>
-      <c r="T117" s="7">
-        <v>0</v>
-      </c>
-      <c r="U117" s="7">
-        <v>0</v>
-      </c>
-      <c r="V117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22">
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -7972,20 +6556,8 @@
       <c r="R118" s="7">
         <v>0</v>
       </c>
-      <c r="S118" s="7">
-        <v>0</v>
-      </c>
-      <c r="T118" s="7">
-        <v>0</v>
-      </c>
-      <c r="U118" s="7">
-        <v>0</v>
-      </c>
-      <c r="V118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22">
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -8036,20 +6608,8 @@
       <c r="R119" s="7">
         <v>0</v>
       </c>
-      <c r="S119" s="7">
-        <v>0</v>
-      </c>
-      <c r="T119" s="7">
-        <v>0</v>
-      </c>
-      <c r="U119" s="7">
-        <v>0</v>
-      </c>
-      <c r="V119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22">
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -8100,20 +6660,8 @@
       <c r="R120" s="7">
         <v>0</v>
       </c>
-      <c r="S120" s="7">
-        <v>0</v>
-      </c>
-      <c r="T120" s="7">
-        <v>0</v>
-      </c>
-      <c r="U120" s="7">
-        <v>0</v>
-      </c>
-      <c r="V120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22">
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -8164,20 +6712,8 @@
       <c r="R121" s="7">
         <v>0</v>
       </c>
-      <c r="S121" s="7">
-        <v>0</v>
-      </c>
-      <c r="T121" s="7">
-        <v>0</v>
-      </c>
-      <c r="U121" s="7">
-        <v>0</v>
-      </c>
-      <c r="V121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22">
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -8229,20 +6765,8 @@
       <c r="R122" s="7">
         <v>0</v>
       </c>
-      <c r="S122" s="7">
-        <v>0</v>
-      </c>
-      <c r="T122" s="7">
-        <v>0</v>
-      </c>
-      <c r="U122" s="7">
-        <v>0</v>
-      </c>
-      <c r="V122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22">
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -8294,20 +6818,8 @@
       <c r="R123" s="7">
         <v>0</v>
       </c>
-      <c r="S123" s="7">
-        <v>0</v>
-      </c>
-      <c r="T123" s="7">
-        <v>0</v>
-      </c>
-      <c r="U123" s="7">
-        <v>0</v>
-      </c>
-      <c r="V123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22">
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -8359,20 +6871,8 @@
       <c r="R124" s="7">
         <v>0</v>
       </c>
-      <c r="S124" s="7">
-        <v>0</v>
-      </c>
-      <c r="T124" s="7">
-        <v>0</v>
-      </c>
-      <c r="U124" s="7">
-        <v>0</v>
-      </c>
-      <c r="V124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22">
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -8424,20 +6924,8 @@
       <c r="R125" s="7">
         <v>0</v>
       </c>
-      <c r="S125" s="7">
-        <v>0</v>
-      </c>
-      <c r="T125" s="7">
-        <v>0</v>
-      </c>
-      <c r="U125" s="7">
-        <v>0</v>
-      </c>
-      <c r="V125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22">
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -8489,20 +6977,8 @@
       <c r="R126" s="7">
         <v>0</v>
       </c>
-      <c r="S126" s="7">
-        <v>0</v>
-      </c>
-      <c r="T126" s="7">
-        <v>0</v>
-      </c>
-      <c r="U126" s="7">
-        <v>0</v>
-      </c>
-      <c r="V126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -8554,20 +7030,8 @@
       <c r="R127" s="7">
         <v>0</v>
       </c>
-      <c r="S127" s="7">
-        <v>0</v>
-      </c>
-      <c r="T127" s="7">
-        <v>0</v>
-      </c>
-      <c r="U127" s="7">
-        <v>0</v>
-      </c>
-      <c r="V127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22">
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -8619,20 +7083,8 @@
       <c r="R128" s="7">
         <v>0</v>
       </c>
-      <c r="S128" s="7">
-        <v>0</v>
-      </c>
-      <c r="T128" s="7">
-        <v>0</v>
-      </c>
-      <c r="U128" s="7">
-        <v>0</v>
-      </c>
-      <c r="V128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22">
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -8684,20 +7136,8 @@
       <c r="R129" s="7">
         <v>0</v>
       </c>
-      <c r="S129" s="7">
-        <v>0</v>
-      </c>
-      <c r="T129" s="7">
-        <v>0</v>
-      </c>
-      <c r="U129" s="7">
-        <v>0</v>
-      </c>
-      <c r="V129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22">
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -8749,20 +7189,8 @@
       <c r="R130" s="7">
         <v>0</v>
       </c>
-      <c r="S130" s="7">
-        <v>0</v>
-      </c>
-      <c r="T130" s="7">
-        <v>0</v>
-      </c>
-      <c r="U130" s="7">
-        <v>0</v>
-      </c>
-      <c r="V130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22">
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -8814,20 +7242,8 @@
       <c r="R131" s="7">
         <v>0</v>
       </c>
-      <c r="S131" s="7">
-        <v>0</v>
-      </c>
-      <c r="T131" s="7">
-        <v>0</v>
-      </c>
-      <c r="U131" s="7">
-        <v>0</v>
-      </c>
-      <c r="V131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22">
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -8879,20 +7295,8 @@
       <c r="R132" s="7">
         <v>0</v>
       </c>
-      <c r="S132" s="7">
-        <v>0</v>
-      </c>
-      <c r="T132" s="7">
-        <v>0</v>
-      </c>
-      <c r="U132" s="7">
-        <v>0</v>
-      </c>
-      <c r="V132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22">
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -8944,20 +7348,8 @@
       <c r="R133" s="7">
         <v>0</v>
       </c>
-      <c r="S133" s="7">
-        <v>0</v>
-      </c>
-      <c r="T133" s="7">
-        <v>0</v>
-      </c>
-      <c r="U133" s="7">
-        <v>0</v>
-      </c>
-      <c r="V133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22">
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -9009,20 +7401,8 @@
       <c r="R134" s="7">
         <v>0</v>
       </c>
-      <c r="S134" s="7">
-        <v>0</v>
-      </c>
-      <c r="T134" s="7">
-        <v>0</v>
-      </c>
-      <c r="U134" s="7">
-        <v>0</v>
-      </c>
-      <c r="V134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22">
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -9074,20 +7454,8 @@
       <c r="R135" s="7">
         <v>0</v>
       </c>
-      <c r="S135" s="7">
-        <v>0</v>
-      </c>
-      <c r="T135" s="7">
-        <v>0</v>
-      </c>
-      <c r="U135" s="7">
-        <v>0</v>
-      </c>
-      <c r="V135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22">
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -9139,20 +7507,8 @@
       <c r="R136" s="7">
         <v>0</v>
       </c>
-      <c r="S136" s="7">
-        <v>0</v>
-      </c>
-      <c r="T136" s="7">
-        <v>0</v>
-      </c>
-      <c r="U136" s="7">
-        <v>0</v>
-      </c>
-      <c r="V136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22">
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -9204,20 +7560,8 @@
       <c r="R137" s="7">
         <v>0</v>
       </c>
-      <c r="S137" s="7">
-        <v>0</v>
-      </c>
-      <c r="T137" s="7">
-        <v>0</v>
-      </c>
-      <c r="U137" s="7">
-        <v>0</v>
-      </c>
-      <c r="V137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22">
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -9269,20 +7613,8 @@
       <c r="R138" s="7">
         <v>0</v>
       </c>
-      <c r="S138" s="7">
-        <v>0</v>
-      </c>
-      <c r="T138" s="7">
-        <v>0</v>
-      </c>
-      <c r="U138" s="7">
-        <v>0</v>
-      </c>
-      <c r="V138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22">
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -9334,20 +7666,8 @@
       <c r="R139" s="7">
         <v>0</v>
       </c>
-      <c r="S139" s="7">
-        <v>0</v>
-      </c>
-      <c r="T139" s="7">
-        <v>0</v>
-      </c>
-      <c r="U139" s="7">
-        <v>0</v>
-      </c>
-      <c r="V139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22">
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -9399,20 +7719,8 @@
       <c r="R140" s="7">
         <v>0</v>
       </c>
-      <c r="S140" s="7">
-        <v>0</v>
-      </c>
-      <c r="T140" s="7">
-        <v>0</v>
-      </c>
-      <c r="U140" s="7">
-        <v>0</v>
-      </c>
-      <c r="V140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22">
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -9464,20 +7772,8 @@
       <c r="R141" s="7">
         <v>0</v>
       </c>
-      <c r="S141" s="7">
-        <v>0</v>
-      </c>
-      <c r="T141" s="7">
-        <v>0</v>
-      </c>
-      <c r="U141" s="7">
-        <v>0</v>
-      </c>
-      <c r="V141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22">
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -9529,20 +7825,8 @@
       <c r="R142" s="7">
         <v>0</v>
       </c>
-      <c r="S142" s="7">
-        <v>0</v>
-      </c>
-      <c r="T142" s="7">
-        <v>0</v>
-      </c>
-      <c r="U142" s="7">
-        <v>0</v>
-      </c>
-      <c r="V142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22">
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -9594,20 +7878,8 @@
       <c r="R143" s="7">
         <v>0</v>
       </c>
-      <c r="S143" s="7">
-        <v>0</v>
-      </c>
-      <c r="T143" s="7">
-        <v>0</v>
-      </c>
-      <c r="U143" s="7">
-        <v>0</v>
-      </c>
-      <c r="V143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22">
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -9659,20 +7931,8 @@
       <c r="R144" s="7">
         <v>0</v>
       </c>
-      <c r="S144" s="7">
-        <v>0</v>
-      </c>
-      <c r="T144" s="7">
-        <v>0</v>
-      </c>
-      <c r="U144" s="7">
-        <v>0</v>
-      </c>
-      <c r="V144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22">
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -9724,20 +7984,8 @@
       <c r="R145" s="7">
         <v>0</v>
       </c>
-      <c r="S145" s="7">
-        <v>0</v>
-      </c>
-      <c r="T145" s="7">
-        <v>0</v>
-      </c>
-      <c r="U145" s="7">
-        <v>0</v>
-      </c>
-      <c r="V145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -9792,20 +8040,8 @@
       <c r="R146" s="7">
         <v>0</v>
       </c>
-      <c r="S146" s="7">
-        <v>0</v>
-      </c>
-      <c r="T146" s="7">
-        <v>0</v>
-      </c>
-      <c r="U146" s="7">
-        <v>0</v>
-      </c>
-      <c r="V146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22">
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -9860,20 +8096,8 @@
       <c r="R147" s="7">
         <v>0</v>
       </c>
-      <c r="S147" s="7">
-        <v>0</v>
-      </c>
-      <c r="T147" s="7">
-        <v>0</v>
-      </c>
-      <c r="U147" s="7">
-        <v>0</v>
-      </c>
-      <c r="V147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22">
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -9928,20 +8152,8 @@
       <c r="R148" s="7">
         <v>0</v>
       </c>
-      <c r="S148" s="7">
-        <v>0</v>
-      </c>
-      <c r="T148" s="7">
-        <v>0</v>
-      </c>
-      <c r="U148" s="7">
-        <v>0</v>
-      </c>
-      <c r="V148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -9996,20 +8208,8 @@
       <c r="R149" s="7">
         <v>0</v>
       </c>
-      <c r="S149" s="7">
-        <v>0</v>
-      </c>
-      <c r="T149" s="7">
-        <v>0</v>
-      </c>
-      <c r="U149" s="7">
-        <v>0</v>
-      </c>
-      <c r="V149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22">
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -10064,20 +8264,8 @@
       <c r="R150" s="7">
         <v>0</v>
       </c>
-      <c r="S150" s="7">
-        <v>0</v>
-      </c>
-      <c r="T150" s="7">
-        <v>0</v>
-      </c>
-      <c r="U150" s="7">
-        <v>0</v>
-      </c>
-      <c r="V150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22">
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -10132,20 +8320,8 @@
       <c r="R151" s="7">
         <v>0</v>
       </c>
-      <c r="S151" s="7">
-        <v>0</v>
-      </c>
-      <c r="T151" s="7">
-        <v>0</v>
-      </c>
-      <c r="U151" s="7">
-        <v>0</v>
-      </c>
-      <c r="V151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22">
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -10200,20 +8376,8 @@
       <c r="R152" s="7">
         <v>0</v>
       </c>
-      <c r="S152" s="7">
-        <v>0</v>
-      </c>
-      <c r="T152" s="7">
-        <v>0</v>
-      </c>
-      <c r="U152" s="7">
-        <v>0</v>
-      </c>
-      <c r="V152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -10268,20 +8432,8 @@
       <c r="R153" s="7">
         <v>0</v>
       </c>
-      <c r="S153" s="7">
-        <v>0</v>
-      </c>
-      <c r="T153" s="7">
-        <v>0</v>
-      </c>
-      <c r="U153" s="7">
-        <v>0</v>
-      </c>
-      <c r="V153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22">
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -10336,20 +8488,8 @@
       <c r="R154" s="7">
         <v>0</v>
       </c>
-      <c r="S154" s="7">
-        <v>0</v>
-      </c>
-      <c r="T154" s="7">
-        <v>0</v>
-      </c>
-      <c r="U154" s="7">
-        <v>0</v>
-      </c>
-      <c r="V154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22">
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -10404,20 +8544,8 @@
       <c r="R155" s="7">
         <v>0</v>
       </c>
-      <c r="S155" s="7">
-        <v>0</v>
-      </c>
-      <c r="T155" s="7">
-        <v>0</v>
-      </c>
-      <c r="U155" s="7">
-        <v>0</v>
-      </c>
-      <c r="V155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22">
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -10472,20 +8600,8 @@
       <c r="R156" s="7">
         <v>0</v>
       </c>
-      <c r="S156" s="7">
-        <v>0</v>
-      </c>
-      <c r="T156" s="7">
-        <v>0</v>
-      </c>
-      <c r="U156" s="7">
-        <v>0</v>
-      </c>
-      <c r="V156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22">
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -10529,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157" s="7">
         <v>0</v>
@@ -10540,20 +8656,8 @@
       <c r="R157" s="7">
         <v>0</v>
       </c>
-      <c r="S157" s="7">
-        <v>0</v>
-      </c>
-      <c r="T157" s="7">
-        <v>0</v>
-      </c>
-      <c r="U157" s="7">
-        <v>0</v>
-      </c>
-      <c r="V157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22">
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -10600,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q158" s="7">
         <v>0</v>
@@ -10608,20 +8712,8 @@
       <c r="R158" s="7">
         <v>0</v>
       </c>
-      <c r="S158" s="7">
-        <v>0</v>
-      </c>
-      <c r="T158" s="7">
-        <v>0</v>
-      </c>
-      <c r="U158" s="7">
-        <v>0</v>
-      </c>
-      <c r="V158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22">
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -10665,31 +8757,19 @@
         <v>0</v>
       </c>
       <c r="O159" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" s="7">
         <v>0</v>
       </c>
       <c r="Q159" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R159" s="7">
         <v>0</v>
       </c>
-      <c r="S159" s="7">
-        <v>0</v>
-      </c>
-      <c r="T159" s="7">
-        <v>0</v>
-      </c>
-      <c r="U159" s="7">
-        <v>0</v>
-      </c>
-      <c r="V159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22">
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -10736,28 +8816,16 @@
         <v>0</v>
       </c>
       <c r="P160" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160" s="7">
         <v>0</v>
       </c>
       <c r="R160" s="7">
-        <v>1</v>
-      </c>
-      <c r="S160" s="7">
-        <v>0</v>
-      </c>
-      <c r="T160" s="7">
-        <v>0</v>
-      </c>
-      <c r="U160" s="7">
-        <v>0</v>
-      </c>
-      <c r="V160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -10812,20 +8880,8 @@
       <c r="R161" s="7">
         <v>0</v>
       </c>
-      <c r="S161" s="7">
-        <v>1</v>
-      </c>
-      <c r="T161" s="7">
-        <v>0</v>
-      </c>
-      <c r="U161" s="7">
-        <v>0</v>
-      </c>
-      <c r="V161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22">
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -10875,25 +8931,13 @@
         <v>0</v>
       </c>
       <c r="Q162" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R162" s="7">
         <v>0</v>
       </c>
-      <c r="S162" s="7">
-        <v>0</v>
-      </c>
-      <c r="T162" s="7">
-        <v>1</v>
-      </c>
-      <c r="U162" s="7">
-        <v>0</v>
-      </c>
-      <c r="V162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22">
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -10946,22 +8990,10 @@
         <v>0</v>
       </c>
       <c r="R163" s="7">
-        <v>0</v>
-      </c>
-      <c r="S163" s="7">
-        <v>0</v>
-      </c>
-      <c r="T163" s="7">
-        <v>0</v>
-      </c>
-      <c r="U163" s="7">
         <v>1</v>
       </c>
-      <c r="V163" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22">
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -11016,20 +9048,8 @@
       <c r="R164" s="7">
         <v>0</v>
       </c>
-      <c r="S164" s="7">
-        <v>0</v>
-      </c>
-      <c r="T164" s="7">
-        <v>0</v>
-      </c>
-      <c r="U164" s="7">
-        <v>0</v>
-      </c>
-      <c r="V164" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22">
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -11084,20 +9104,8 @@
       <c r="R165" s="7">
         <v>0</v>
       </c>
-      <c r="S165" s="7">
-        <v>0</v>
-      </c>
-      <c r="T165" s="7">
-        <v>0</v>
-      </c>
-      <c r="U165" s="7">
-        <v>0</v>
-      </c>
-      <c r="V165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22">
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -11152,20 +9160,8 @@
       <c r="R166" s="7">
         <v>0</v>
       </c>
-      <c r="S166" s="7">
-        <v>0</v>
-      </c>
-      <c r="T166" s="7">
-        <v>0</v>
-      </c>
-      <c r="U166" s="7">
-        <v>0</v>
-      </c>
-      <c r="V166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22">
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -11220,20 +9216,8 @@
       <c r="R167" s="7">
         <v>0</v>
       </c>
-      <c r="S167" s="7">
-        <v>0</v>
-      </c>
-      <c r="T167" s="7">
-        <v>0</v>
-      </c>
-      <c r="U167" s="7">
-        <v>0</v>
-      </c>
-      <c r="V167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22">
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -11288,20 +9272,8 @@
       <c r="R168" s="7">
         <v>0</v>
       </c>
-      <c r="S168" s="7">
-        <v>0</v>
-      </c>
-      <c r="T168" s="7">
-        <v>0</v>
-      </c>
-      <c r="U168" s="7">
-        <v>0</v>
-      </c>
-      <c r="V168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22">
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -11356,20 +9328,8 @@
       <c r="R169" s="7">
         <v>0</v>
       </c>
-      <c r="S169" s="7">
-        <v>0</v>
-      </c>
-      <c r="T169" s="7">
-        <v>0</v>
-      </c>
-      <c r="U169" s="7">
-        <v>0</v>
-      </c>
-      <c r="V169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22">
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -11424,20 +9384,8 @@
       <c r="R170" s="7">
         <v>0</v>
       </c>
-      <c r="S170" s="7">
-        <v>0</v>
-      </c>
-      <c r="T170" s="7">
-        <v>0</v>
-      </c>
-      <c r="U170" s="7">
-        <v>0</v>
-      </c>
-      <c r="V170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22">
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -11492,20 +9440,8 @@
       <c r="R171" s="7">
         <v>0</v>
       </c>
-      <c r="S171" s="7">
-        <v>0</v>
-      </c>
-      <c r="T171" s="7">
-        <v>0</v>
-      </c>
-      <c r="U171" s="7">
-        <v>0</v>
-      </c>
-      <c r="V171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22">
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -11560,20 +9496,8 @@
       <c r="R172" s="7">
         <v>0</v>
       </c>
-      <c r="S172" s="7">
-        <v>0</v>
-      </c>
-      <c r="T172" s="7">
-        <v>0</v>
-      </c>
-      <c r="U172" s="7">
-        <v>0</v>
-      </c>
-      <c r="V172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22">
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -11628,20 +9552,8 @@
       <c r="R173" s="7">
         <v>0</v>
       </c>
-      <c r="S173" s="7">
-        <v>0</v>
-      </c>
-      <c r="T173" s="7">
-        <v>0</v>
-      </c>
-      <c r="U173" s="7">
-        <v>0</v>
-      </c>
-      <c r="V173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22">
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -11696,20 +9608,8 @@
       <c r="R174" s="7">
         <v>0</v>
       </c>
-      <c r="S174" s="7">
-        <v>0</v>
-      </c>
-      <c r="T174" s="7">
-        <v>0</v>
-      </c>
-      <c r="U174" s="7">
-        <v>0</v>
-      </c>
-      <c r="V174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22">
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -11764,20 +9664,8 @@
       <c r="R175" s="7">
         <v>0</v>
       </c>
-      <c r="S175" s="7">
-        <v>0</v>
-      </c>
-      <c r="T175" s="7">
-        <v>0</v>
-      </c>
-      <c r="U175" s="7">
-        <v>0</v>
-      </c>
-      <c r="V175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22">
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -11832,20 +9720,8 @@
       <c r="R176" s="7">
         <v>0</v>
       </c>
-      <c r="S176" s="7">
-        <v>0</v>
-      </c>
-      <c r="T176" s="7">
-        <v>0</v>
-      </c>
-      <c r="U176" s="7">
-        <v>0</v>
-      </c>
-      <c r="V176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22">
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -11900,20 +9776,8 @@
       <c r="R177" s="7">
         <v>0</v>
       </c>
-      <c r="S177" s="7">
-        <v>0</v>
-      </c>
-      <c r="T177" s="7">
-        <v>0</v>
-      </c>
-      <c r="U177" s="7">
-        <v>0</v>
-      </c>
-      <c r="V177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22">
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -11968,20 +9832,8 @@
       <c r="R178" s="7">
         <v>0</v>
       </c>
-      <c r="S178" s="7">
-        <v>0</v>
-      </c>
-      <c r="T178" s="7">
-        <v>0</v>
-      </c>
-      <c r="U178" s="7">
-        <v>0</v>
-      </c>
-      <c r="V178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22">
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -12036,20 +9888,8 @@
       <c r="R179" s="7">
         <v>0</v>
       </c>
-      <c r="S179" s="7">
-        <v>0</v>
-      </c>
-      <c r="T179" s="7">
-        <v>0</v>
-      </c>
-      <c r="U179" s="7">
-        <v>0</v>
-      </c>
-      <c r="V179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22">
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -12104,20 +9944,8 @@
       <c r="R180" s="7">
         <v>0</v>
       </c>
-      <c r="S180" s="7">
-        <v>0</v>
-      </c>
-      <c r="T180" s="7">
-        <v>0</v>
-      </c>
-      <c r="U180" s="7">
-        <v>0</v>
-      </c>
-      <c r="V180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22">
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -12172,20 +10000,8 @@
       <c r="R181" s="7">
         <v>0</v>
       </c>
-      <c r="S181" s="7">
-        <v>0</v>
-      </c>
-      <c r="T181" s="7">
-        <v>0</v>
-      </c>
-      <c r="U181" s="7">
-        <v>0</v>
-      </c>
-      <c r="V181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22">
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -12240,20 +10056,8 @@
       <c r="R182" s="7">
         <v>0</v>
       </c>
-      <c r="S182" s="7">
-        <v>0</v>
-      </c>
-      <c r="T182" s="7">
-        <v>0</v>
-      </c>
-      <c r="U182" s="7">
-        <v>0</v>
-      </c>
-      <c r="V182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22">
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -12308,20 +10112,8 @@
       <c r="R183" s="7">
         <v>0</v>
       </c>
-      <c r="S183" s="7">
-        <v>0</v>
-      </c>
-      <c r="T183" s="7">
-        <v>0</v>
-      </c>
-      <c r="U183" s="7">
-        <v>0</v>
-      </c>
-      <c r="V183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22">
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -12376,20 +10168,8 @@
       <c r="R184" s="7">
         <v>0</v>
       </c>
-      <c r="S184" s="7">
-        <v>0</v>
-      </c>
-      <c r="T184" s="7">
-        <v>0</v>
-      </c>
-      <c r="U184" s="7">
-        <v>0</v>
-      </c>
-      <c r="V184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22">
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -12444,20 +10224,8 @@
       <c r="R185" s="7">
         <v>0</v>
       </c>
-      <c r="S185" s="7">
-        <v>0</v>
-      </c>
-      <c r="T185" s="7">
-        <v>0</v>
-      </c>
-      <c r="U185" s="7">
-        <v>0</v>
-      </c>
-      <c r="V185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22">
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -12512,20 +10280,8 @@
       <c r="R186" s="7">
         <v>0</v>
       </c>
-      <c r="S186" s="7">
-        <v>0</v>
-      </c>
-      <c r="T186" s="7">
-        <v>0</v>
-      </c>
-      <c r="U186" s="7">
-        <v>0</v>
-      </c>
-      <c r="V186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22">
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -12580,20 +10336,8 @@
       <c r="R187" s="7">
         <v>0</v>
       </c>
-      <c r="S187" s="7">
-        <v>0</v>
-      </c>
-      <c r="T187" s="7">
-        <v>0</v>
-      </c>
-      <c r="U187" s="7">
-        <v>0</v>
-      </c>
-      <c r="V187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22">
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -12648,20 +10392,8 @@
       <c r="R188" s="7">
         <v>0</v>
       </c>
-      <c r="S188" s="7">
-        <v>0</v>
-      </c>
-      <c r="T188" s="7">
-        <v>0</v>
-      </c>
-      <c r="U188" s="7">
-        <v>0</v>
-      </c>
-      <c r="V188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22">
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -12716,20 +10448,8 @@
       <c r="R189" s="7">
         <v>0</v>
       </c>
-      <c r="S189" s="7">
-        <v>0</v>
-      </c>
-      <c r="T189" s="7">
-        <v>0</v>
-      </c>
-      <c r="U189" s="7">
-        <v>0</v>
-      </c>
-      <c r="V189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22">
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -12784,20 +10504,8 @@
       <c r="R190" s="7">
         <v>0</v>
       </c>
-      <c r="S190" s="7">
-        <v>0</v>
-      </c>
-      <c r="T190" s="7">
-        <v>0</v>
-      </c>
-      <c r="U190" s="7">
-        <v>0</v>
-      </c>
-      <c r="V190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22">
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -12852,20 +10560,8 @@
       <c r="R191" s="7">
         <v>0</v>
       </c>
-      <c r="S191" s="7">
-        <v>0</v>
-      </c>
-      <c r="T191" s="7">
-        <v>0</v>
-      </c>
-      <c r="U191" s="7">
-        <v>0</v>
-      </c>
-      <c r="V191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22">
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -12920,20 +10616,8 @@
       <c r="R192" s="7">
         <v>0</v>
       </c>
-      <c r="S192" s="7">
-        <v>0</v>
-      </c>
-      <c r="T192" s="7">
-        <v>0</v>
-      </c>
-      <c r="U192" s="7">
-        <v>0</v>
-      </c>
-      <c r="V192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22">
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -12988,20 +10672,8 @@
       <c r="R193" s="7">
         <v>0</v>
       </c>
-      <c r="S193" s="7">
-        <v>0</v>
-      </c>
-      <c r="T193" s="7">
-        <v>0</v>
-      </c>
-      <c r="U193" s="7">
-        <v>0</v>
-      </c>
-      <c r="V193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22">
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -13056,20 +10728,8 @@
       <c r="R194" s="7">
         <v>0</v>
       </c>
-      <c r="S194" s="7">
-        <v>0</v>
-      </c>
-      <c r="T194" s="7">
-        <v>0</v>
-      </c>
-      <c r="U194" s="7">
-        <v>0</v>
-      </c>
-      <c r="V194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22">
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -13124,20 +10784,8 @@
       <c r="R195" s="7">
         <v>0</v>
       </c>
-      <c r="S195" s="7">
-        <v>0</v>
-      </c>
-      <c r="T195" s="7">
-        <v>0</v>
-      </c>
-      <c r="U195" s="7">
-        <v>0</v>
-      </c>
-      <c r="V195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22">
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -13192,20 +10840,8 @@
       <c r="R196" s="7">
         <v>0</v>
       </c>
-      <c r="S196" s="7">
-        <v>0</v>
-      </c>
-      <c r="T196" s="7">
-        <v>0</v>
-      </c>
-      <c r="U196" s="7">
-        <v>0</v>
-      </c>
-      <c r="V196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22">
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -13260,20 +10896,8 @@
       <c r="R197" s="7">
         <v>0</v>
       </c>
-      <c r="S197" s="7">
-        <v>0</v>
-      </c>
-      <c r="T197" s="7">
-        <v>0</v>
-      </c>
-      <c r="U197" s="7">
-        <v>0</v>
-      </c>
-      <c r="V197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22">
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -13328,20 +10952,8 @@
       <c r="R198" s="7">
         <v>0</v>
       </c>
-      <c r="S198" s="7">
-        <v>0</v>
-      </c>
-      <c r="T198" s="7">
-        <v>0</v>
-      </c>
-      <c r="U198" s="7">
-        <v>0</v>
-      </c>
-      <c r="V198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22">
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -13396,20 +11008,8 @@
       <c r="R199" s="7">
         <v>0</v>
       </c>
-      <c r="S199" s="7">
-        <v>0</v>
-      </c>
-      <c r="T199" s="7">
-        <v>0</v>
-      </c>
-      <c r="U199" s="7">
-        <v>0</v>
-      </c>
-      <c r="V199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22">
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -13464,20 +11064,8 @@
       <c r="R200" s="7">
         <v>0</v>
       </c>
-      <c r="S200" s="7">
-        <v>0</v>
-      </c>
-      <c r="T200" s="7">
-        <v>0</v>
-      </c>
-      <c r="U200" s="7">
-        <v>0</v>
-      </c>
-      <c r="V200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22">
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -13532,20 +11120,8 @@
       <c r="R201" s="7">
         <v>0</v>
       </c>
-      <c r="S201" s="7">
-        <v>0</v>
-      </c>
-      <c r="T201" s="7">
-        <v>0</v>
-      </c>
-      <c r="U201" s="7">
-        <v>0</v>
-      </c>
-      <c r="V201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:22">
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -13600,20 +11176,8 @@
       <c r="R202" s="7">
         <v>0</v>
       </c>
-      <c r="S202" s="7">
-        <v>0</v>
-      </c>
-      <c r="T202" s="7">
-        <v>0</v>
-      </c>
-      <c r="U202" s="7">
-        <v>0</v>
-      </c>
-      <c r="V202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22">
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -13668,20 +11232,8 @@
       <c r="R203" s="7">
         <v>0</v>
       </c>
-      <c r="S203" s="7">
-        <v>0</v>
-      </c>
-      <c r="T203" s="7">
-        <v>0</v>
-      </c>
-      <c r="U203" s="7">
-        <v>0</v>
-      </c>
-      <c r="V203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22">
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -13736,20 +11288,8 @@
       <c r="R204" s="7">
         <v>0</v>
       </c>
-      <c r="S204" s="7">
-        <v>0</v>
-      </c>
-      <c r="T204" s="7">
-        <v>0</v>
-      </c>
-      <c r="U204" s="7">
-        <v>0</v>
-      </c>
-      <c r="V204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22">
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -13804,20 +11344,8 @@
       <c r="R205" s="7">
         <v>0</v>
       </c>
-      <c r="S205" s="7">
-        <v>0</v>
-      </c>
-      <c r="T205" s="7">
-        <v>0</v>
-      </c>
-      <c r="U205" s="7">
-        <v>0</v>
-      </c>
-      <c r="V205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22">
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -13872,20 +11400,8 @@
       <c r="R206" s="7">
         <v>0</v>
       </c>
-      <c r="S206" s="7">
-        <v>0</v>
-      </c>
-      <c r="T206" s="7">
-        <v>0</v>
-      </c>
-      <c r="U206" s="7">
-        <v>0</v>
-      </c>
-      <c r="V206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:22">
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -13940,20 +11456,8 @@
       <c r="R207" s="7">
         <v>0</v>
       </c>
-      <c r="S207" s="7">
-        <v>0</v>
-      </c>
-      <c r="T207" s="7">
-        <v>0</v>
-      </c>
-      <c r="U207" s="7">
-        <v>0</v>
-      </c>
-      <c r="V207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:22">
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -14008,20 +11512,8 @@
       <c r="R208" s="7">
         <v>0</v>
       </c>
-      <c r="S208" s="7">
-        <v>0</v>
-      </c>
-      <c r="T208" s="7">
-        <v>0</v>
-      </c>
-      <c r="U208" s="7">
-        <v>0</v>
-      </c>
-      <c r="V208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22">
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -14076,20 +11568,8 @@
       <c r="R209" s="7">
         <v>0</v>
       </c>
-      <c r="S209" s="7">
-        <v>0</v>
-      </c>
-      <c r="T209" s="7">
-        <v>0</v>
-      </c>
-      <c r="U209" s="7">
-        <v>0</v>
-      </c>
-      <c r="V209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22">
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -14144,20 +11624,8 @@
       <c r="R210" s="7">
         <v>0</v>
       </c>
-      <c r="S210" s="7">
-        <v>0</v>
-      </c>
-      <c r="T210" s="7">
-        <v>0</v>
-      </c>
-      <c r="U210" s="7">
-        <v>0</v>
-      </c>
-      <c r="V210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:22">
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -14212,20 +11680,8 @@
       <c r="R211" s="7">
         <v>0</v>
       </c>
-      <c r="S211" s="7">
-        <v>0</v>
-      </c>
-      <c r="T211" s="7">
-        <v>0</v>
-      </c>
-      <c r="U211" s="7">
-        <v>0</v>
-      </c>
-      <c r="V211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:22">
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -14280,20 +11736,8 @@
       <c r="R212" s="7">
         <v>0</v>
       </c>
-      <c r="S212" s="7">
-        <v>0</v>
-      </c>
-      <c r="T212" s="7">
-        <v>0</v>
-      </c>
-      <c r="U212" s="7">
-        <v>0</v>
-      </c>
-      <c r="V212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:22">
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -14348,20 +11792,8 @@
       <c r="R213" s="7">
         <v>0</v>
       </c>
-      <c r="S213" s="7">
-        <v>0</v>
-      </c>
-      <c r="T213" s="7">
-        <v>0</v>
-      </c>
-      <c r="U213" s="7">
-        <v>0</v>
-      </c>
-      <c r="V213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:22">
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -14416,20 +11848,8 @@
       <c r="R214" s="7">
         <v>0</v>
       </c>
-      <c r="S214" s="7">
-        <v>0</v>
-      </c>
-      <c r="T214" s="7">
-        <v>0</v>
-      </c>
-      <c r="U214" s="7">
-        <v>0</v>
-      </c>
-      <c r="V214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:22">
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -14484,20 +11904,8 @@
       <c r="R215" s="7">
         <v>0</v>
       </c>
-      <c r="S215" s="7">
-        <v>0</v>
-      </c>
-      <c r="T215" s="7">
-        <v>0</v>
-      </c>
-      <c r="U215" s="7">
-        <v>0</v>
-      </c>
-      <c r="V215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:22">
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -14552,20 +11960,8 @@
       <c r="R216" s="7">
         <v>0</v>
       </c>
-      <c r="S216" s="7">
-        <v>0</v>
-      </c>
-      <c r="T216" s="7">
-        <v>0</v>
-      </c>
-      <c r="U216" s="7">
-        <v>0</v>
-      </c>
-      <c r="V216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:22">
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -14620,20 +12016,8 @@
       <c r="R217" s="7">
         <v>0</v>
       </c>
-      <c r="S217" s="7">
-        <v>0</v>
-      </c>
-      <c r="T217" s="7">
-        <v>0</v>
-      </c>
-      <c r="U217" s="7">
-        <v>0</v>
-      </c>
-      <c r="V217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22">
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -14688,20 +12072,8 @@
       <c r="R218" s="7">
         <v>0</v>
       </c>
-      <c r="S218" s="7">
-        <v>0</v>
-      </c>
-      <c r="T218" s="7">
-        <v>0</v>
-      </c>
-      <c r="U218" s="7">
-        <v>0</v>
-      </c>
-      <c r="V218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:22">
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -14756,20 +12128,8 @@
       <c r="R219" s="7">
         <v>0</v>
       </c>
-      <c r="S219" s="7">
-        <v>0</v>
-      </c>
-      <c r="T219" s="7">
-        <v>0</v>
-      </c>
-      <c r="U219" s="7">
-        <v>0</v>
-      </c>
-      <c r="V219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:22">
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -14824,20 +12184,8 @@
       <c r="R220" s="7">
         <v>0</v>
       </c>
-      <c r="S220" s="7">
-        <v>0</v>
-      </c>
-      <c r="T220" s="7">
-        <v>0</v>
-      </c>
-      <c r="U220" s="7">
-        <v>0</v>
-      </c>
-      <c r="V220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:22">
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -14892,20 +12240,8 @@
       <c r="R221" s="7">
         <v>0</v>
       </c>
-      <c r="S221" s="7">
-        <v>0</v>
-      </c>
-      <c r="T221" s="7">
-        <v>0</v>
-      </c>
-      <c r="U221" s="7">
-        <v>0</v>
-      </c>
-      <c r="V221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:22">
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -14960,20 +12296,8 @@
       <c r="R222" s="7">
         <v>0</v>
       </c>
-      <c r="S222" s="7">
-        <v>0</v>
-      </c>
-      <c r="T222" s="7">
-        <v>0</v>
-      </c>
-      <c r="U222" s="7">
-        <v>0</v>
-      </c>
-      <c r="V222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:22">
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -15028,20 +12352,8 @@
       <c r="R223" s="7">
         <v>0</v>
       </c>
-      <c r="S223" s="7">
-        <v>0</v>
-      </c>
-      <c r="T223" s="7">
-        <v>0</v>
-      </c>
-      <c r="U223" s="7">
-        <v>0</v>
-      </c>
-      <c r="V223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:22">
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -15096,20 +12408,8 @@
       <c r="R224" s="7">
         <v>0</v>
       </c>
-      <c r="S224" s="7">
-        <v>0</v>
-      </c>
-      <c r="T224" s="7">
-        <v>0</v>
-      </c>
-      <c r="U224" s="7">
-        <v>0</v>
-      </c>
-      <c r="V224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22">
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -15164,20 +12464,8 @@
       <c r="R225" s="7">
         <v>0</v>
       </c>
-      <c r="S225" s="7">
-        <v>0</v>
-      </c>
-      <c r="T225" s="7">
-        <v>0</v>
-      </c>
-      <c r="U225" s="7">
-        <v>0</v>
-      </c>
-      <c r="V225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22">
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -15232,20 +12520,8 @@
       <c r="R226" s="7">
         <v>0</v>
       </c>
-      <c r="S226" s="7">
-        <v>0</v>
-      </c>
-      <c r="T226" s="7">
-        <v>0</v>
-      </c>
-      <c r="U226" s="7">
-        <v>0</v>
-      </c>
-      <c r="V226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:22">
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -15300,20 +12576,8 @@
       <c r="R227" s="7">
         <v>0</v>
       </c>
-      <c r="S227" s="7">
-        <v>0</v>
-      </c>
-      <c r="T227" s="7">
-        <v>0</v>
-      </c>
-      <c r="U227" s="7">
-        <v>0</v>
-      </c>
-      <c r="V227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:22">
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -15368,20 +12632,8 @@
       <c r="R228" s="7">
         <v>0</v>
       </c>
-      <c r="S228" s="7">
-        <v>0</v>
-      </c>
-      <c r="T228" s="7">
-        <v>0</v>
-      </c>
-      <c r="U228" s="7">
-        <v>0</v>
-      </c>
-      <c r="V228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:22">
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -15436,20 +12688,8 @@
       <c r="R229" s="7">
         <v>0</v>
       </c>
-      <c r="S229" s="7">
-        <v>0</v>
-      </c>
-      <c r="T229" s="7">
-        <v>0</v>
-      </c>
-      <c r="U229" s="7">
-        <v>0</v>
-      </c>
-      <c r="V229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:22">
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -15504,20 +12744,8 @@
       <c r="R230" s="7">
         <v>0</v>
       </c>
-      <c r="S230" s="7">
-        <v>0</v>
-      </c>
-      <c r="T230" s="7">
-        <v>0</v>
-      </c>
-      <c r="U230" s="7">
-        <v>0</v>
-      </c>
-      <c r="V230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22">
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -15572,20 +12800,8 @@
       <c r="R231" s="7">
         <v>0</v>
       </c>
-      <c r="S231" s="7">
-        <v>0</v>
-      </c>
-      <c r="T231" s="7">
-        <v>0</v>
-      </c>
-      <c r="U231" s="7">
-        <v>0</v>
-      </c>
-      <c r="V231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22">
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -15640,20 +12856,8 @@
       <c r="R232" s="7">
         <v>0</v>
       </c>
-      <c r="S232" s="7">
-        <v>0</v>
-      </c>
-      <c r="T232" s="7">
-        <v>0</v>
-      </c>
-      <c r="U232" s="7">
-        <v>0</v>
-      </c>
-      <c r="V232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:22">
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -15708,20 +12912,8 @@
       <c r="R233" s="7">
         <v>0</v>
       </c>
-      <c r="S233" s="7">
-        <v>0</v>
-      </c>
-      <c r="T233" s="7">
-        <v>0</v>
-      </c>
-      <c r="U233" s="7">
-        <v>0</v>
-      </c>
-      <c r="V233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:22">
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -15776,20 +12968,8 @@
       <c r="R234" s="7">
         <v>0</v>
       </c>
-      <c r="S234" s="7">
-        <v>0</v>
-      </c>
-      <c r="T234" s="7">
-        <v>0</v>
-      </c>
-      <c r="U234" s="7">
-        <v>0</v>
-      </c>
-      <c r="V234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:22">
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -15844,20 +13024,8 @@
       <c r="R235" s="7">
         <v>0</v>
       </c>
-      <c r="S235" s="7">
-        <v>0</v>
-      </c>
-      <c r="T235" s="7">
-        <v>0</v>
-      </c>
-      <c r="U235" s="7">
-        <v>0</v>
-      </c>
-      <c r="V235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:22">
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -15912,20 +13080,8 @@
       <c r="R236" s="7">
         <v>0</v>
       </c>
-      <c r="S236" s="7">
-        <v>0</v>
-      </c>
-      <c r="T236" s="7">
-        <v>0</v>
-      </c>
-      <c r="U236" s="7">
-        <v>0</v>
-      </c>
-      <c r="V236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:22">
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -15980,20 +13136,8 @@
       <c r="R237" s="7">
         <v>0</v>
       </c>
-      <c r="S237" s="7">
-        <v>0</v>
-      </c>
-      <c r="T237" s="7">
-        <v>0</v>
-      </c>
-      <c r="U237" s="7">
-        <v>0</v>
-      </c>
-      <c r="V237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:22">
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -16048,20 +13192,8 @@
       <c r="R238" s="7">
         <v>0</v>
       </c>
-      <c r="S238" s="7">
-        <v>0</v>
-      </c>
-      <c r="T238" s="7">
-        <v>0</v>
-      </c>
-      <c r="U238" s="7">
-        <v>0</v>
-      </c>
-      <c r="V238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:22">
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -16116,20 +13248,8 @@
       <c r="R239" s="7">
         <v>0</v>
       </c>
-      <c r="S239" s="7">
-        <v>0</v>
-      </c>
-      <c r="T239" s="7">
-        <v>0</v>
-      </c>
-      <c r="U239" s="7">
-        <v>0</v>
-      </c>
-      <c r="V239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:22">
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -16184,20 +13304,8 @@
       <c r="R240" s="7">
         <v>0</v>
       </c>
-      <c r="S240" s="7">
-        <v>0</v>
-      </c>
-      <c r="T240" s="7">
-        <v>0</v>
-      </c>
-      <c r="U240" s="7">
-        <v>0</v>
-      </c>
-      <c r="V240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:22">
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -16252,20 +13360,8 @@
       <c r="R241" s="7">
         <v>0</v>
       </c>
-      <c r="S241" s="7">
-        <v>0</v>
-      </c>
-      <c r="T241" s="7">
-        <v>0</v>
-      </c>
-      <c r="U241" s="7">
-        <v>0</v>
-      </c>
-      <c r="V241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:22">
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -16320,20 +13416,8 @@
       <c r="R242" s="7">
         <v>0</v>
       </c>
-      <c r="S242" s="7">
-        <v>0</v>
-      </c>
-      <c r="T242" s="7">
-        <v>0</v>
-      </c>
-      <c r="U242" s="7">
-        <v>0</v>
-      </c>
-      <c r="V242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:22">
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -16388,20 +13472,8 @@
       <c r="R243" s="7">
         <v>0</v>
       </c>
-      <c r="S243" s="7">
-        <v>0</v>
-      </c>
-      <c r="T243" s="7">
-        <v>0</v>
-      </c>
-      <c r="U243" s="7">
-        <v>0</v>
-      </c>
-      <c r="V243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:22">
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -16456,20 +13528,8 @@
       <c r="R244" s="7">
         <v>0</v>
       </c>
-      <c r="S244" s="7">
-        <v>0</v>
-      </c>
-      <c r="T244" s="7">
-        <v>0</v>
-      </c>
-      <c r="U244" s="7">
-        <v>0</v>
-      </c>
-      <c r="V244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:22">
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -16524,20 +13584,8 @@
       <c r="R245" s="7">
         <v>0</v>
       </c>
-      <c r="S245" s="7">
-        <v>0</v>
-      </c>
-      <c r="T245" s="7">
-        <v>0</v>
-      </c>
-      <c r="U245" s="7">
-        <v>0</v>
-      </c>
-      <c r="V245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:22">
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -16592,20 +13640,8 @@
       <c r="R246" s="7">
         <v>0</v>
       </c>
-      <c r="S246" s="7">
-        <v>0</v>
-      </c>
-      <c r="T246" s="7">
-        <v>0</v>
-      </c>
-      <c r="U246" s="7">
-        <v>0</v>
-      </c>
-      <c r="V246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:22">
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -16660,20 +13696,8 @@
       <c r="R247" s="7">
         <v>0</v>
       </c>
-      <c r="S247" s="7">
-        <v>0</v>
-      </c>
-      <c r="T247" s="7">
-        <v>0</v>
-      </c>
-      <c r="U247" s="7">
-        <v>0</v>
-      </c>
-      <c r="V247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:22">
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -16728,20 +13752,8 @@
       <c r="R248" s="7">
         <v>0</v>
       </c>
-      <c r="S248" s="7">
-        <v>0</v>
-      </c>
-      <c r="T248" s="7">
-        <v>0</v>
-      </c>
-      <c r="U248" s="7">
-        <v>0</v>
-      </c>
-      <c r="V248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:22">
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -16796,20 +13808,8 @@
       <c r="R249" s="7">
         <v>0</v>
       </c>
-      <c r="S249" s="7">
-        <v>0</v>
-      </c>
-      <c r="T249" s="7">
-        <v>0</v>
-      </c>
-      <c r="U249" s="7">
-        <v>0</v>
-      </c>
-      <c r="V249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22">
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -16864,20 +13864,8 @@
       <c r="R250" s="7">
         <v>0</v>
       </c>
-      <c r="S250" s="7">
-        <v>0</v>
-      </c>
-      <c r="T250" s="7">
-        <v>0</v>
-      </c>
-      <c r="U250" s="7">
-        <v>0</v>
-      </c>
-      <c r="V250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22">
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -16932,20 +13920,8 @@
       <c r="R251" s="7">
         <v>0</v>
       </c>
-      <c r="S251" s="7">
-        <v>0</v>
-      </c>
-      <c r="T251" s="7">
-        <v>0</v>
-      </c>
-      <c r="U251" s="7">
-        <v>0</v>
-      </c>
-      <c r="V251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22">
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -17000,20 +13976,8 @@
       <c r="R252" s="7">
         <v>0</v>
       </c>
-      <c r="S252" s="7">
-        <v>0</v>
-      </c>
-      <c r="T252" s="7">
-        <v>0</v>
-      </c>
-      <c r="U252" s="7">
-        <v>0</v>
-      </c>
-      <c r="V252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:22">
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -17068,20 +14032,8 @@
       <c r="R253" s="7">
         <v>0</v>
       </c>
-      <c r="S253" s="7">
-        <v>0</v>
-      </c>
-      <c r="T253" s="7">
-        <v>0</v>
-      </c>
-      <c r="U253" s="7">
-        <v>0</v>
-      </c>
-      <c r="V253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22">
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -17136,20 +14088,8 @@
       <c r="R254" s="7">
         <v>0</v>
       </c>
-      <c r="S254" s="7">
-        <v>0</v>
-      </c>
-      <c r="T254" s="7">
-        <v>0</v>
-      </c>
-      <c r="U254" s="7">
-        <v>0</v>
-      </c>
-      <c r="V254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:22">
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -17204,20 +14144,8 @@
       <c r="R255" s="7">
         <v>0</v>
       </c>
-      <c r="S255" s="7">
-        <v>0</v>
-      </c>
-      <c r="T255" s="7">
-        <v>0</v>
-      </c>
-      <c r="U255" s="7">
-        <v>0</v>
-      </c>
-      <c r="V255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:22">
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -17272,20 +14200,8 @@
       <c r="R256" s="7">
         <v>0</v>
       </c>
-      <c r="S256" s="7">
-        <v>0</v>
-      </c>
-      <c r="T256" s="7">
-        <v>0</v>
-      </c>
-      <c r="U256" s="7">
-        <v>0</v>
-      </c>
-      <c r="V256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:22">
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -17340,20 +14256,8 @@
       <c r="R257" s="7">
         <v>0</v>
       </c>
-      <c r="S257" s="7">
-        <v>0</v>
-      </c>
-      <c r="T257" s="7">
-        <v>0</v>
-      </c>
-      <c r="U257" s="7">
-        <v>0</v>
-      </c>
-      <c r="V257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:22">
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -17408,20 +14312,8 @@
       <c r="R258" s="7">
         <v>0</v>
       </c>
-      <c r="S258" s="7">
-        <v>0</v>
-      </c>
-      <c r="T258" s="7">
-        <v>0</v>
-      </c>
-      <c r="U258" s="7">
-        <v>0</v>
-      </c>
-      <c r="V258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:22">
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -17476,20 +14368,8 @@
       <c r="R259" s="7">
         <v>0</v>
       </c>
-      <c r="S259" s="7">
-        <v>0</v>
-      </c>
-      <c r="T259" s="7">
-        <v>0</v>
-      </c>
-      <c r="U259" s="7">
-        <v>0</v>
-      </c>
-      <c r="V259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:22">
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -17544,20 +14424,8 @@
       <c r="R260" s="7">
         <v>0</v>
       </c>
-      <c r="S260" s="7">
-        <v>0</v>
-      </c>
-      <c r="T260" s="7">
-        <v>0</v>
-      </c>
-      <c r="U260" s="7">
-        <v>0</v>
-      </c>
-      <c r="V260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:22">
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -17612,20 +14480,8 @@
       <c r="R261" s="7">
         <v>0</v>
       </c>
-      <c r="S261" s="7">
-        <v>0</v>
-      </c>
-      <c r="T261" s="7">
-        <v>0</v>
-      </c>
-      <c r="U261" s="7">
-        <v>0</v>
-      </c>
-      <c r="V261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:22">
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -17680,20 +14536,8 @@
       <c r="R262" s="7">
         <v>0</v>
       </c>
-      <c r="S262" s="7">
-        <v>0</v>
-      </c>
-      <c r="T262" s="7">
-        <v>0</v>
-      </c>
-      <c r="U262" s="7">
-        <v>0</v>
-      </c>
-      <c r="V262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:22">
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -17748,20 +14592,8 @@
       <c r="R263" s="7">
         <v>0</v>
       </c>
-      <c r="S263" s="7">
-        <v>0</v>
-      </c>
-      <c r="T263" s="7">
-        <v>0</v>
-      </c>
-      <c r="U263" s="7">
-        <v>0</v>
-      </c>
-      <c r="V263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22">
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -17816,20 +14648,8 @@
       <c r="R264" s="7">
         <v>0</v>
       </c>
-      <c r="S264" s="7">
-        <v>0</v>
-      </c>
-      <c r="T264" s="7">
-        <v>0</v>
-      </c>
-      <c r="U264" s="7">
-        <v>0</v>
-      </c>
-      <c r="V264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22">
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -17884,20 +14704,8 @@
       <c r="R265" s="7">
         <v>0</v>
       </c>
-      <c r="S265" s="7">
-        <v>0</v>
-      </c>
-      <c r="T265" s="7">
-        <v>0</v>
-      </c>
-      <c r="U265" s="7">
-        <v>0</v>
-      </c>
-      <c r="V265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22">
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -17952,20 +14760,8 @@
       <c r="R266" s="7">
         <v>0</v>
       </c>
-      <c r="S266" s="7">
-        <v>0</v>
-      </c>
-      <c r="T266" s="7">
-        <v>0</v>
-      </c>
-      <c r="U266" s="7">
-        <v>0</v>
-      </c>
-      <c r="V266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22">
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -18020,20 +14816,8 @@
       <c r="R267" s="7">
         <v>0</v>
       </c>
-      <c r="S267" s="7">
-        <v>0</v>
-      </c>
-      <c r="T267" s="7">
-        <v>0</v>
-      </c>
-      <c r="U267" s="7">
-        <v>0</v>
-      </c>
-      <c r="V267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22">
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -18088,20 +14872,8 @@
       <c r="R268" s="7">
         <v>0</v>
       </c>
-      <c r="S268" s="7">
-        <v>0</v>
-      </c>
-      <c r="T268" s="7">
-        <v>0</v>
-      </c>
-      <c r="U268" s="7">
-        <v>0</v>
-      </c>
-      <c r="V268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22">
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -18156,20 +14928,8 @@
       <c r="R269" s="7">
         <v>0</v>
       </c>
-      <c r="S269" s="7">
-        <v>0</v>
-      </c>
-      <c r="T269" s="7">
-        <v>0</v>
-      </c>
-      <c r="U269" s="7">
-        <v>0</v>
-      </c>
-      <c r="V269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22">
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -18224,20 +14984,8 @@
       <c r="R270" s="7">
         <v>0</v>
       </c>
-      <c r="S270" s="7">
-        <v>0</v>
-      </c>
-      <c r="T270" s="7">
-        <v>0</v>
-      </c>
-      <c r="U270" s="7">
-        <v>0</v>
-      </c>
-      <c r="V270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:22">
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -18292,20 +15040,8 @@
       <c r="R271" s="7">
         <v>0</v>
       </c>
-      <c r="S271" s="7">
-        <v>0</v>
-      </c>
-      <c r="T271" s="7">
-        <v>0</v>
-      </c>
-      <c r="U271" s="7">
-        <v>0</v>
-      </c>
-      <c r="V271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22">
+    </row>
+    <row r="272" spans="1:18">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -18360,20 +15096,8 @@
       <c r="R272" s="7">
         <v>0</v>
       </c>
-      <c r="S272" s="7">
-        <v>0</v>
-      </c>
-      <c r="T272" s="7">
-        <v>0</v>
-      </c>
-      <c r="U272" s="7">
-        <v>0</v>
-      </c>
-      <c r="V272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:22">
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -18428,20 +15152,8 @@
       <c r="R273" s="7">
         <v>0</v>
       </c>
-      <c r="S273" s="7">
-        <v>0</v>
-      </c>
-      <c r="T273" s="7">
-        <v>0</v>
-      </c>
-      <c r="U273" s="7">
-        <v>0</v>
-      </c>
-      <c r="V273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:22">
+    </row>
+    <row r="274" spans="1:18">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -18496,20 +15208,8 @@
       <c r="R274" s="7">
         <v>0</v>
       </c>
-      <c r="S274" s="7">
-        <v>0</v>
-      </c>
-      <c r="T274" s="7">
-        <v>0</v>
-      </c>
-      <c r="U274" s="7">
-        <v>0</v>
-      </c>
-      <c r="V274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:22">
+    </row>
+    <row r="275" spans="1:18">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -18564,20 +15264,8 @@
       <c r="R275" s="7">
         <v>0</v>
       </c>
-      <c r="S275" s="7">
-        <v>0</v>
-      </c>
-      <c r="T275" s="7">
-        <v>0</v>
-      </c>
-      <c r="U275" s="7">
-        <v>0</v>
-      </c>
-      <c r="V275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:22">
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -18632,20 +15320,8 @@
       <c r="R276" s="7">
         <v>0</v>
       </c>
-      <c r="S276" s="7">
-        <v>0</v>
-      </c>
-      <c r="T276" s="7">
-        <v>0</v>
-      </c>
-      <c r="U276" s="7">
-        <v>0</v>
-      </c>
-      <c r="V276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22">
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -18700,20 +15376,8 @@
       <c r="R277" s="7">
         <v>0</v>
       </c>
-      <c r="S277" s="7">
-        <v>0</v>
-      </c>
-      <c r="T277" s="7">
-        <v>0</v>
-      </c>
-      <c r="U277" s="7">
-        <v>0</v>
-      </c>
-      <c r="V277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:22">
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -18768,20 +15432,8 @@
       <c r="R278" s="7">
         <v>0</v>
       </c>
-      <c r="S278" s="7">
-        <v>0</v>
-      </c>
-      <c r="T278" s="7">
-        <v>0</v>
-      </c>
-      <c r="U278" s="7">
-        <v>0</v>
-      </c>
-      <c r="V278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22">
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -18836,20 +15488,8 @@
       <c r="R279" s="7">
         <v>0</v>
       </c>
-      <c r="S279" s="7">
-        <v>0</v>
-      </c>
-      <c r="T279" s="7">
-        <v>0</v>
-      </c>
-      <c r="U279" s="7">
-        <v>0</v>
-      </c>
-      <c r="V279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22">
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -18904,20 +15544,8 @@
       <c r="R280" s="7">
         <v>0</v>
       </c>
-      <c r="S280" s="7">
-        <v>0</v>
-      </c>
-      <c r="T280" s="7">
-        <v>0</v>
-      </c>
-      <c r="U280" s="7">
-        <v>0</v>
-      </c>
-      <c r="V280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:22">
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -18972,20 +15600,8 @@
       <c r="R281" s="7">
         <v>0</v>
       </c>
-      <c r="S281" s="7">
-        <v>0</v>
-      </c>
-      <c r="T281" s="7">
-        <v>0</v>
-      </c>
-      <c r="U281" s="7">
-        <v>0</v>
-      </c>
-      <c r="V281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:22">
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -19040,20 +15656,8 @@
       <c r="R282" s="7">
         <v>0</v>
       </c>
-      <c r="S282" s="7">
-        <v>0</v>
-      </c>
-      <c r="T282" s="7">
-        <v>0</v>
-      </c>
-      <c r="U282" s="7">
-        <v>0</v>
-      </c>
-      <c r="V282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:22">
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -19108,20 +15712,8 @@
       <c r="R283" s="7">
         <v>0</v>
       </c>
-      <c r="S283" s="7">
-        <v>0</v>
-      </c>
-      <c r="T283" s="7">
-        <v>0</v>
-      </c>
-      <c r="U283" s="7">
-        <v>0</v>
-      </c>
-      <c r="V283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:22">
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -19176,20 +15768,8 @@
       <c r="R284" s="7">
         <v>0</v>
       </c>
-      <c r="S284" s="7">
-        <v>0</v>
-      </c>
-      <c r="T284" s="7">
-        <v>0</v>
-      </c>
-      <c r="U284" s="7">
-        <v>0</v>
-      </c>
-      <c r="V284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:22">
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -19244,20 +15824,8 @@
       <c r="R285" s="7">
         <v>0</v>
       </c>
-      <c r="S285" s="7">
-        <v>0</v>
-      </c>
-      <c r="T285" s="7">
-        <v>0</v>
-      </c>
-      <c r="U285" s="7">
-        <v>0</v>
-      </c>
-      <c r="V285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:22">
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -19312,20 +15880,8 @@
       <c r="R286" s="7">
         <v>0</v>
       </c>
-      <c r="S286" s="7">
-        <v>0</v>
-      </c>
-      <c r="T286" s="7">
-        <v>0</v>
-      </c>
-      <c r="U286" s="7">
-        <v>0</v>
-      </c>
-      <c r="V286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22">
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -19380,20 +15936,8 @@
       <c r="R287" s="7">
         <v>0</v>
       </c>
-      <c r="S287" s="7">
-        <v>0</v>
-      </c>
-      <c r="T287" s="7">
-        <v>0</v>
-      </c>
-      <c r="U287" s="7">
-        <v>0</v>
-      </c>
-      <c r="V287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22">
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -19448,20 +15992,8 @@
       <c r="R288" s="7">
         <v>0</v>
       </c>
-      <c r="S288" s="7">
-        <v>0</v>
-      </c>
-      <c r="T288" s="7">
-        <v>0</v>
-      </c>
-      <c r="U288" s="7">
-        <v>0</v>
-      </c>
-      <c r="V288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:22">
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -19516,20 +16048,8 @@
       <c r="R289" s="7">
         <v>0</v>
       </c>
-      <c r="S289" s="7">
-        <v>0</v>
-      </c>
-      <c r="T289" s="7">
-        <v>0</v>
-      </c>
-      <c r="U289" s="7">
-        <v>0</v>
-      </c>
-      <c r="V289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:22">
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -19584,20 +16104,8 @@
       <c r="R290" s="7">
         <v>0</v>
       </c>
-      <c r="S290" s="7">
-        <v>0</v>
-      </c>
-      <c r="T290" s="7">
-        <v>0</v>
-      </c>
-      <c r="U290" s="7">
-        <v>0</v>
-      </c>
-      <c r="V290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:22">
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -19652,20 +16160,8 @@
       <c r="R291" s="7">
         <v>0</v>
       </c>
-      <c r="S291" s="7">
-        <v>0</v>
-      </c>
-      <c r="T291" s="7">
-        <v>0</v>
-      </c>
-      <c r="U291" s="7">
-        <v>0</v>
-      </c>
-      <c r="V291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:22">
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -19720,20 +16216,8 @@
       <c r="R292" s="7">
         <v>0</v>
       </c>
-      <c r="S292" s="7">
-        <v>0</v>
-      </c>
-      <c r="T292" s="7">
-        <v>0</v>
-      </c>
-      <c r="U292" s="7">
-        <v>0</v>
-      </c>
-      <c r="V292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:22">
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -19788,20 +16272,8 @@
       <c r="R293" s="7">
         <v>0</v>
       </c>
-      <c r="S293" s="7">
-        <v>0</v>
-      </c>
-      <c r="T293" s="7">
-        <v>0</v>
-      </c>
-      <c r="U293" s="7">
-        <v>0</v>
-      </c>
-      <c r="V293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:22">
+    </row>
+    <row r="294" spans="1:18">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -19856,20 +16328,8 @@
       <c r="R294" s="7">
         <v>0</v>
       </c>
-      <c r="S294" s="7">
-        <v>0</v>
-      </c>
-      <c r="T294" s="7">
-        <v>0</v>
-      </c>
-      <c r="U294" s="7">
-        <v>0</v>
-      </c>
-      <c r="V294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:22">
+    </row>
+    <row r="295" spans="1:18">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -19924,20 +16384,8 @@
       <c r="R295" s="7">
         <v>0</v>
       </c>
-      <c r="S295" s="7">
-        <v>0</v>
-      </c>
-      <c r="T295" s="7">
-        <v>0</v>
-      </c>
-      <c r="U295" s="7">
-        <v>0</v>
-      </c>
-      <c r="V295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:22">
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -19992,20 +16440,8 @@
       <c r="R296" s="7">
         <v>0</v>
       </c>
-      <c r="S296" s="7">
-        <v>0</v>
-      </c>
-      <c r="T296" s="7">
-        <v>0</v>
-      </c>
-      <c r="U296" s="7">
-        <v>0</v>
-      </c>
-      <c r="V296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:22">
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -20060,20 +16496,8 @@
       <c r="R297" s="7">
         <v>0</v>
       </c>
-      <c r="S297" s="7">
-        <v>0</v>
-      </c>
-      <c r="T297" s="7">
-        <v>0</v>
-      </c>
-      <c r="U297" s="7">
-        <v>0</v>
-      </c>
-      <c r="V297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:22">
+    </row>
+    <row r="298" spans="1:18">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -20086,10 +16510,9 @@
       <c r="J298" s="7"/>
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
-      <c r="U298" s="7"/>
-      <c r="V298" s="7"/>
-    </row>
-    <row r="299" spans="1:22">
+      <c r="R298" s="7"/>
+    </row>
+    <row r="299" spans="1:18">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -20102,10 +16525,9 @@
       <c r="J299" s="7"/>
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
-      <c r="U299" s="7"/>
-      <c r="V299" s="7"/>
-    </row>
-    <row r="300" spans="1:22">
+      <c r="R299" s="7"/>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -20117,10 +16539,9 @@
       <c r="I300" s="6"/>
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
-      <c r="U300" s="7"/>
-      <c r="V300" s="7"/>
-    </row>
-    <row r="301" spans="1:22">
+      <c r="R300" s="7"/>
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -20132,19 +16553,17 @@
       <c r="I301" s="6"/>
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
-      <c r="U301" s="7"/>
-      <c r="V301" s="7"/>
-    </row>
-    <row r="302" spans="1:22">
+      <c r="R301" s="7"/>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
-      <c r="U302" s="7"/>
-      <c r="V302" s="7"/>
-    </row>
-    <row r="303" spans="1:22">
+      <c r="R302" s="7"/>
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -20155,10 +16574,9 @@
       <c r="I303" s="6"/>
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
-      <c r="U303" s="7"/>
-      <c r="V303" s="7"/>
-    </row>
-    <row r="304" spans="1:22">
+      <c r="R303" s="7"/>
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>
@@ -20169,19 +16587,17 @@
       <c r="I304" s="6"/>
       <c r="J304" s="7"/>
       <c r="L304" s="4"/>
-      <c r="U304" s="7"/>
-      <c r="V304" s="7"/>
-    </row>
-    <row r="305" spans="1:22">
+      <c r="R304" s="7"/>
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305" s="1"/>
       <c r="C305" s="3"/>
       <c r="D305"/>
       <c r="F305" s="20"/>
       <c r="G305" s="5"/>
-      <c r="U305" s="7"/>
-      <c r="V305" s="7"/>
-    </row>
-    <row r="306" spans="1:22">
+      <c r="R305" s="7"/>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" s="1"/>
       <c r="C306" s="3"/>
       <c r="D306"/>
@@ -20192,10 +16608,9 @@
       <c r="I306" s="6"/>
       <c r="J306" s="7"/>
       <c r="L306" s="4"/>
-      <c r="U306" s="7"/>
-      <c r="V306" s="7"/>
-    </row>
-    <row r="307" spans="1:22">
+      <c r="R306" s="7"/>
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307" s="1"/>
       <c r="C307" s="3"/>
       <c r="D307"/>
@@ -20205,20 +16620,18 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="7"/>
-      <c r="U307" s="7"/>
-      <c r="V307" s="7"/>
-    </row>
-    <row r="308" spans="1:22">
+      <c r="R307" s="7"/>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308" s="1"/>
       <c r="C308" s="3"/>
       <c r="D308"/>
       <c r="F308" s="20"/>
       <c r="G308" s="5"/>
       <c r="L308" s="4"/>
-      <c r="U308" s="7"/>
-      <c r="V308" s="7"/>
-    </row>
-    <row r="309" spans="1:22">
+      <c r="R308" s="7"/>
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309" s="1"/>
       <c r="C309" s="3"/>
       <c r="D309"/>
@@ -20229,10 +16642,9 @@
       <c r="I309" s="6"/>
       <c r="J309" s="7"/>
       <c r="L309" s="4"/>
-      <c r="U309" s="7"/>
-      <c r="V309" s="7"/>
-    </row>
-    <row r="310" spans="1:22">
+      <c r="R309" s="7"/>
+    </row>
+    <row r="310" spans="1:18">
       <c r="A310" s="1"/>
       <c r="C310" s="3"/>
       <c r="D310"/>
@@ -20242,20 +16654,18 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="7"/>
-      <c r="U310" s="7"/>
-      <c r="V310" s="7"/>
-    </row>
-    <row r="311" spans="1:22">
+      <c r="R310" s="7"/>
+    </row>
+    <row r="311" spans="1:18">
       <c r="A311" s="1"/>
       <c r="C311" s="3"/>
       <c r="D311"/>
       <c r="F311" s="20"/>
       <c r="G311" s="5"/>
       <c r="L311" s="4"/>
-      <c r="U311" s="7"/>
-      <c r="V311" s="7"/>
-    </row>
-    <row r="312" spans="1:22">
+      <c r="R311" s="7"/>
+    </row>
+    <row r="312" spans="1:18">
       <c r="A312" s="1"/>
       <c r="C312" s="3"/>
       <c r="D312"/>
@@ -20263,58 +16673,52 @@
       <c r="F312" s="20"/>
       <c r="G312" s="5"/>
       <c r="L312" s="4"/>
-      <c r="U312" s="7"/>
-      <c r="V312" s="7"/>
-    </row>
-    <row r="313" spans="1:22">
+      <c r="R312" s="7"/>
+    </row>
+    <row r="313" spans="1:18">
       <c r="A313" s="1"/>
       <c r="C313" s="3"/>
       <c r="D313"/>
       <c r="F313" s="20"/>
       <c r="G313" s="5"/>
-      <c r="U313" s="7"/>
-      <c r="V313" s="7"/>
-    </row>
-    <row r="314" spans="1:22">
+      <c r="R313" s="7"/>
+    </row>
+    <row r="314" spans="1:18">
       <c r="A314" s="1"/>
       <c r="C314" s="3"/>
       <c r="D314"/>
       <c r="F314" s="20"/>
       <c r="G314" s="5"/>
       <c r="L314" s="4"/>
-      <c r="U314" s="7"/>
-      <c r="V314" s="7"/>
-    </row>
-    <row r="315" spans="1:22">
+      <c r="R314" s="7"/>
+    </row>
+    <row r="315" spans="1:18">
       <c r="A315" s="1"/>
       <c r="C315" s="3"/>
       <c r="D315"/>
       <c r="F315" s="20"/>
       <c r="G315" s="5"/>
       <c r="L315" s="4"/>
-      <c r="U315" s="7"/>
-      <c r="V315" s="7"/>
-    </row>
-    <row r="316" spans="1:22">
+      <c r="R315" s="7"/>
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316" s="1"/>
       <c r="C316" s="3"/>
       <c r="D316"/>
       <c r="F316" s="20"/>
       <c r="G316" s="5"/>
-      <c r="U316" s="7"/>
-      <c r="V316" s="7"/>
-    </row>
-    <row r="317" spans="1:22">
+      <c r="R316" s="7"/>
+    </row>
+    <row r="317" spans="1:18">
       <c r="A317" s="1"/>
       <c r="C317" s="3"/>
       <c r="D317"/>
       <c r="F317" s="20"/>
       <c r="G317" s="5"/>
       <c r="L317" s="4"/>
-      <c r="U317" s="7"/>
-      <c r="V317" s="7"/>
-    </row>
-    <row r="318" spans="1:22">
+      <c r="R317" s="7"/>
+    </row>
+    <row r="318" spans="1:18">
       <c r="A318" s="1"/>
       <c r="C318" s="3"/>
       <c r="D318"/>
@@ -20322,14 +16726,14 @@
       <c r="G318" s="5"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:22">
+    <row r="319" spans="1:18">
       <c r="A319" s="1"/>
       <c r="C319" s="3"/>
       <c r="D319"/>
       <c r="F319" s="20"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:22">
+    <row r="320" spans="1:18">
       <c r="A320" s="1"/>
       <c r="C320" s="3"/>
       <c r="D320"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76632E28-D4BC-4B41-9807-78143E65823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12CB16-6EDD-BB45-9408-9A381C0EF906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="21">
   <si>
     <t>Ebc</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
   </si>
 </sst>
 </file>
@@ -562,9 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:R643"/>
+  <dimension ref="A1:Q643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -581,7 +580,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -633,11 +632,8 @@
       <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -680,11 +676,8 @@
       <c r="Q2" s="7">
         <v>0</v>
       </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -727,11 +720,8 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -774,11 +764,8 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -821,11 +808,8 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -868,11 +852,8 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -915,11 +896,8 @@
       <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -962,11 +940,8 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -1009,11 +984,8 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -1056,11 +1028,8 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -1103,11 +1072,8 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1150,11 +1116,8 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1197,11 +1160,8 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1244,11 +1204,8 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1291,11 +1248,8 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1338,11 +1292,8 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1385,11 +1336,8 @@
       <c r="Q17" s="7">
         <v>0</v>
       </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1432,11 +1380,8 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1479,11 +1424,8 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1526,11 +1468,8 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1573,11 +1512,8 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1620,11 +1556,8 @@
       <c r="Q22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1667,11 +1600,8 @@
       <c r="Q23" s="7">
         <v>0</v>
       </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1714,11 +1644,8 @@
       <c r="Q24" s="7">
         <v>0</v>
       </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1761,11 +1688,8 @@
       <c r="Q25" s="7">
         <v>0</v>
       </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1808,11 +1732,8 @@
       <c r="Q26" s="7">
         <v>0</v>
       </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1855,11 +1776,8 @@
       <c r="Q27" s="7">
         <v>0</v>
       </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1902,11 +1820,8 @@
       <c r="Q28" s="7">
         <v>0</v>
       </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1949,11 +1864,8 @@
       <c r="Q29" s="7">
         <v>0</v>
       </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1998,11 +1910,8 @@
       <c r="Q30" s="7">
         <v>0</v>
       </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -2047,11 +1956,8 @@
       <c r="Q31" s="7">
         <v>0</v>
       </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -2096,11 +2002,8 @@
       <c r="Q32" s="7">
         <v>0</v>
       </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -2145,11 +2048,8 @@
       <c r="Q33" s="7">
         <v>0</v>
       </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -2194,11 +2094,8 @@
       <c r="Q34" s="7">
         <v>0</v>
       </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -2243,11 +2140,8 @@
       <c r="Q35" s="7">
         <v>0</v>
       </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -2292,11 +2186,8 @@
       <c r="Q36" s="7">
         <v>0</v>
       </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -2341,11 +2232,8 @@
       <c r="Q37" s="7">
         <v>0</v>
       </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2393,11 +2281,8 @@
       <c r="Q38" s="7">
         <v>0</v>
       </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2445,11 +2330,8 @@
       <c r="Q39" s="7">
         <v>0</v>
       </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2497,11 +2379,8 @@
       <c r="Q40" s="7">
         <v>0</v>
       </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2549,11 +2428,8 @@
       <c r="Q41" s="7">
         <v>0</v>
       </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2601,11 +2477,8 @@
       <c r="Q42" s="7">
         <v>0</v>
       </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2653,11 +2526,8 @@
       <c r="Q43" s="7">
         <v>0</v>
       </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2705,11 +2575,8 @@
       <c r="Q44" s="7">
         <v>0</v>
       </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2757,11 +2624,8 @@
       <c r="Q45" s="7">
         <v>0</v>
       </c>
-      <c r="R45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2809,11 +2673,8 @@
       <c r="Q46" s="7">
         <v>0</v>
       </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2861,11 +2722,8 @@
       <c r="Q47" s="7">
         <v>0</v>
       </c>
-      <c r="R47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2913,11 +2771,8 @@
       <c r="Q48" s="7">
         <v>0</v>
       </c>
-      <c r="R48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2965,11 +2820,8 @@
       <c r="Q49" s="7">
         <v>0</v>
       </c>
-      <c r="R49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -3017,11 +2869,8 @@
       <c r="Q50" s="7">
         <v>0</v>
       </c>
-      <c r="R50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -3069,11 +2918,8 @@
       <c r="Q51" s="7">
         <v>0</v>
       </c>
-      <c r="R51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -3121,11 +2967,8 @@
       <c r="Q52" s="7">
         <v>0</v>
       </c>
-      <c r="R52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3173,11 +3016,8 @@
       <c r="Q53" s="7">
         <v>0</v>
       </c>
-      <c r="R53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -3225,11 +3065,8 @@
       <c r="Q54" s="7">
         <v>0</v>
       </c>
-      <c r="R54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -3277,11 +3114,8 @@
       <c r="Q55" s="7">
         <v>0</v>
       </c>
-      <c r="R55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -3329,11 +3163,8 @@
       <c r="Q56" s="7">
         <v>0</v>
       </c>
-      <c r="R56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -3381,11 +3212,8 @@
       <c r="Q57" s="7">
         <v>0</v>
       </c>
-      <c r="R57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -3433,11 +3261,8 @@
       <c r="Q58" s="7">
         <v>0</v>
       </c>
-      <c r="R58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -3485,11 +3310,8 @@
       <c r="Q59" s="7">
         <v>0</v>
       </c>
-      <c r="R59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -3537,11 +3359,8 @@
       <c r="Q60" s="7">
         <v>0</v>
       </c>
-      <c r="R60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3589,11 +3408,8 @@
       <c r="Q61" s="7">
         <v>0</v>
       </c>
-      <c r="R61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -3641,11 +3457,8 @@
       <c r="Q62" s="7">
         <v>0</v>
       </c>
-      <c r="R62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -3693,11 +3506,8 @@
       <c r="Q63" s="7">
         <v>0</v>
       </c>
-      <c r="R63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3745,11 +3555,8 @@
       <c r="Q64" s="7">
         <v>0</v>
       </c>
-      <c r="R64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3797,11 +3604,8 @@
       <c r="Q65" s="7">
         <v>0</v>
       </c>
-      <c r="R65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3849,11 +3653,8 @@
       <c r="Q66" s="7">
         <v>0</v>
       </c>
-      <c r="R66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3901,11 +3702,8 @@
       <c r="Q67" s="7">
         <v>0</v>
       </c>
-      <c r="R67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3953,11 +3751,8 @@
       <c r="Q68" s="7">
         <v>0</v>
       </c>
-      <c r="R68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -4005,11 +3800,8 @@
       <c r="Q69" s="7">
         <v>0</v>
       </c>
-      <c r="R69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -4057,11 +3849,8 @@
       <c r="Q70" s="7">
         <v>0</v>
       </c>
-      <c r="R70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -4109,11 +3898,8 @@
       <c r="Q71" s="7">
         <v>0</v>
       </c>
-      <c r="R71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -4161,11 +3947,8 @@
       <c r="Q72" s="7">
         <v>0</v>
       </c>
-      <c r="R72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -4213,11 +3996,8 @@
       <c r="Q73" s="7">
         <v>0</v>
       </c>
-      <c r="R73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -4265,11 +4045,8 @@
       <c r="Q74" s="7">
         <v>0</v>
       </c>
-      <c r="R74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -4317,11 +4094,8 @@
       <c r="Q75" s="7">
         <v>0</v>
       </c>
-      <c r="R75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -4369,11 +4143,8 @@
       <c r="Q76" s="7">
         <v>0</v>
       </c>
-      <c r="R76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -4421,11 +4192,8 @@
       <c r="Q77" s="7">
         <v>0</v>
       </c>
-      <c r="R77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -4473,11 +4241,8 @@
       <c r="Q78" s="7">
         <v>0</v>
       </c>
-      <c r="R78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -4525,11 +4290,8 @@
       <c r="Q79" s="7">
         <v>0</v>
       </c>
-      <c r="R79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -4577,11 +4339,8 @@
       <c r="Q80" s="7">
         <v>0</v>
       </c>
-      <c r="R80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -4629,11 +4388,8 @@
       <c r="Q81" s="7">
         <v>0</v>
       </c>
-      <c r="R81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -4681,11 +4437,8 @@
       <c r="Q82" s="7">
         <v>0</v>
       </c>
-      <c r="R82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -4733,11 +4486,8 @@
       <c r="Q83" s="7">
         <v>0</v>
       </c>
-      <c r="R83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -4785,11 +4535,8 @@
       <c r="Q84" s="7">
         <v>0</v>
       </c>
-      <c r="R84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -4837,11 +4584,8 @@
       <c r="Q85" s="7">
         <v>0</v>
       </c>
-      <c r="R85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -4889,11 +4633,8 @@
       <c r="Q86" s="7">
         <v>0</v>
       </c>
-      <c r="R86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -4941,11 +4682,8 @@
       <c r="Q87" s="7">
         <v>0</v>
       </c>
-      <c r="R87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -4993,11 +4731,8 @@
       <c r="Q88" s="7">
         <v>0</v>
       </c>
-      <c r="R88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -5045,11 +4780,8 @@
       <c r="Q89" s="7">
         <v>0</v>
       </c>
-      <c r="R89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -5097,11 +4829,8 @@
       <c r="Q90" s="7">
         <v>0</v>
       </c>
-      <c r="R90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -5149,11 +4878,8 @@
       <c r="Q91" s="7">
         <v>0</v>
       </c>
-      <c r="R91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -5201,11 +4927,8 @@
       <c r="Q92" s="7">
         <v>0</v>
       </c>
-      <c r="R92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -5253,11 +4976,8 @@
       <c r="Q93" s="7">
         <v>0</v>
       </c>
-      <c r="R93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -5305,11 +5025,8 @@
       <c r="Q94" s="7">
         <v>0</v>
       </c>
-      <c r="R94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -5357,11 +5074,8 @@
       <c r="Q95" s="7">
         <v>0</v>
       </c>
-      <c r="R95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -5409,11 +5123,8 @@
       <c r="Q96" s="7">
         <v>0</v>
       </c>
-      <c r="R96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -5461,11 +5172,8 @@
       <c r="Q97" s="7">
         <v>0</v>
       </c>
-      <c r="R97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -5513,11 +5221,8 @@
       <c r="Q98" s="7">
         <v>0</v>
       </c>
-      <c r="R98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -5565,11 +5270,8 @@
       <c r="Q99" s="7">
         <v>0</v>
       </c>
-      <c r="R99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -5617,11 +5319,8 @@
       <c r="Q100" s="7">
         <v>0</v>
       </c>
-      <c r="R100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -5669,11 +5368,8 @@
       <c r="Q101" s="7">
         <v>0</v>
       </c>
-      <c r="R101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -5721,11 +5417,8 @@
       <c r="Q102" s="7">
         <v>0</v>
       </c>
-      <c r="R102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -5773,11 +5466,8 @@
       <c r="Q103" s="7">
         <v>0</v>
       </c>
-      <c r="R103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -5825,11 +5515,8 @@
       <c r="Q104" s="7">
         <v>0</v>
       </c>
-      <c r="R104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -5877,11 +5564,8 @@
       <c r="Q105" s="7">
         <v>0</v>
       </c>
-      <c r="R105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -5929,11 +5613,8 @@
       <c r="Q106" s="7">
         <v>0</v>
       </c>
-      <c r="R106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -5981,11 +5662,8 @@
       <c r="Q107" s="7">
         <v>0</v>
       </c>
-      <c r="R107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -6033,11 +5711,8 @@
       <c r="Q108" s="7">
         <v>0</v>
       </c>
-      <c r="R108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -6085,11 +5760,8 @@
       <c r="Q109" s="7">
         <v>0</v>
       </c>
-      <c r="R109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -6137,11 +5809,8 @@
       <c r="Q110" s="7">
         <v>0</v>
       </c>
-      <c r="R110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -6189,11 +5858,8 @@
       <c r="Q111" s="7">
         <v>0</v>
       </c>
-      <c r="R111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -6241,11 +5907,8 @@
       <c r="Q112" s="7">
         <v>0</v>
       </c>
-      <c r="R112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -6293,11 +5956,8 @@
       <c r="Q113" s="7">
         <v>0</v>
       </c>
-      <c r="R113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -6345,11 +6005,8 @@
       <c r="Q114" s="7">
         <v>0</v>
       </c>
-      <c r="R114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -6397,11 +6054,8 @@
       <c r="Q115" s="7">
         <v>0</v>
       </c>
-      <c r="R115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18">
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -6449,11 +6103,8 @@
       <c r="Q116" s="7">
         <v>0</v>
       </c>
-      <c r="R116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18">
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -6501,11 +6152,8 @@
       <c r="Q117" s="7">
         <v>0</v>
       </c>
-      <c r="R117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -6553,11 +6201,8 @@
       <c r="Q118" s="7">
         <v>0</v>
       </c>
-      <c r="R118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -6605,11 +6250,8 @@
       <c r="Q119" s="7">
         <v>0</v>
       </c>
-      <c r="R119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18">
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -6657,11 +6299,8 @@
       <c r="Q120" s="7">
         <v>0</v>
       </c>
-      <c r="R120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -6709,11 +6348,8 @@
       <c r="Q121" s="7">
         <v>0</v>
       </c>
-      <c r="R121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18">
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -6762,11 +6398,8 @@
       <c r="Q122" s="7">
         <v>0</v>
       </c>
-      <c r="R122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -6815,11 +6448,8 @@
       <c r="Q123" s="7">
         <v>0</v>
       </c>
-      <c r="R123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18">
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -6868,11 +6498,8 @@
       <c r="Q124" s="7">
         <v>0</v>
       </c>
-      <c r="R124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -6921,11 +6548,8 @@
       <c r="Q125" s="7">
         <v>0</v>
       </c>
-      <c r="R125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18">
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -6974,11 +6598,8 @@
       <c r="Q126" s="7">
         <v>0</v>
       </c>
-      <c r="R126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18">
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -7027,11 +6648,8 @@
       <c r="Q127" s="7">
         <v>0</v>
       </c>
-      <c r="R127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -7080,11 +6698,8 @@
       <c r="Q128" s="7">
         <v>0</v>
       </c>
-      <c r="R128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18">
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -7133,11 +6748,8 @@
       <c r="Q129" s="7">
         <v>0</v>
       </c>
-      <c r="R129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18">
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -7186,11 +6798,8 @@
       <c r="Q130" s="7">
         <v>0</v>
       </c>
-      <c r="R130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -7239,11 +6848,8 @@
       <c r="Q131" s="7">
         <v>0</v>
       </c>
-      <c r="R131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18">
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -7292,11 +6898,8 @@
       <c r="Q132" s="7">
         <v>0</v>
       </c>
-      <c r="R132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18">
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -7345,11 +6948,8 @@
       <c r="Q133" s="7">
         <v>0</v>
       </c>
-      <c r="R133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18">
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -7398,11 +6998,8 @@
       <c r="Q134" s="7">
         <v>0</v>
       </c>
-      <c r="R134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18">
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -7451,11 +7048,8 @@
       <c r="Q135" s="7">
         <v>0</v>
       </c>
-      <c r="R135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18">
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -7504,11 +7098,8 @@
       <c r="Q136" s="7">
         <v>0</v>
       </c>
-      <c r="R136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18">
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -7557,11 +7148,8 @@
       <c r="Q137" s="7">
         <v>0</v>
       </c>
-      <c r="R137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18">
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -7610,11 +7198,8 @@
       <c r="Q138" s="7">
         <v>0</v>
       </c>
-      <c r="R138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18">
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -7663,11 +7248,8 @@
       <c r="Q139" s="7">
         <v>0</v>
       </c>
-      <c r="R139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18">
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -7716,11 +7298,8 @@
       <c r="Q140" s="7">
         <v>0</v>
       </c>
-      <c r="R140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18">
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -7769,11 +7348,8 @@
       <c r="Q141" s="7">
         <v>0</v>
       </c>
-      <c r="R141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18">
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -7822,11 +7398,8 @@
       <c r="Q142" s="7">
         <v>0</v>
       </c>
-      <c r="R142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18">
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -7875,11 +7448,8 @@
       <c r="Q143" s="7">
         <v>0</v>
       </c>
-      <c r="R143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18">
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -7928,11 +7498,8 @@
       <c r="Q144" s="7">
         <v>0</v>
       </c>
-      <c r="R144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18">
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -7981,11 +7548,8 @@
       <c r="Q145" s="7">
         <v>0</v>
       </c>
-      <c r="R145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18">
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -8037,11 +7601,8 @@
       <c r="Q146" s="7">
         <v>0</v>
       </c>
-      <c r="R146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18">
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -8093,11 +7654,8 @@
       <c r="Q147" s="7">
         <v>0</v>
       </c>
-      <c r="R147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18">
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -8149,11 +7707,8 @@
       <c r="Q148" s="7">
         <v>0</v>
       </c>
-      <c r="R148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18">
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -8205,11 +7760,8 @@
       <c r="Q149" s="7">
         <v>0</v>
       </c>
-      <c r="R149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18">
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -8261,11 +7813,8 @@
       <c r="Q150" s="7">
         <v>0</v>
       </c>
-      <c r="R150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18">
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -8317,11 +7866,8 @@
       <c r="Q151" s="7">
         <v>0</v>
       </c>
-      <c r="R151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18">
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -8373,11 +7919,8 @@
       <c r="Q152" s="7">
         <v>0</v>
       </c>
-      <c r="R152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18">
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -8429,11 +7972,8 @@
       <c r="Q153" s="7">
         <v>0</v>
       </c>
-      <c r="R153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18">
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -8485,11 +8025,8 @@
       <c r="Q154" s="7">
         <v>0</v>
       </c>
-      <c r="R154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18">
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -8527,7 +8064,7 @@
         <v>95.407449999999997</v>
       </c>
       <c r="M155" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="7">
         <v>0</v>
@@ -8541,11 +8078,8 @@
       <c r="Q155" s="7">
         <v>0</v>
       </c>
-      <c r="R155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18">
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -8583,10 +8117,10 @@
         <v>95.691959999999995</v>
       </c>
       <c r="M156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O156" s="7">
         <v>0</v>
@@ -8597,11 +8131,8 @@
       <c r="Q156" s="7">
         <v>0</v>
       </c>
-      <c r="R156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18">
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -8653,11 +8184,8 @@
       <c r="Q157" s="7">
         <v>0</v>
       </c>
-      <c r="R157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18">
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -8709,11 +8237,8 @@
       <c r="Q158" s="7">
         <v>0</v>
       </c>
-      <c r="R158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18">
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -8754,10 +8279,10 @@
         <v>0</v>
       </c>
       <c r="N159" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P159" s="7">
         <v>0</v>
@@ -8765,11 +8290,8 @@
       <c r="Q159" s="7">
         <v>0</v>
       </c>
-      <c r="R159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18">
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -8813,19 +8335,16 @@
         <v>0</v>
       </c>
       <c r="O160" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P160" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q160" s="7">
         <v>0</v>
       </c>
-      <c r="R160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18">
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -8877,11 +8396,8 @@
       <c r="Q161" s="7">
         <v>0</v>
       </c>
-      <c r="R161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18">
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -8928,16 +8444,13 @@
         <v>0</v>
       </c>
       <c r="P162" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q162" s="7">
-        <v>1</v>
-      </c>
-      <c r="R162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -8987,13 +8500,10 @@
         <v>0</v>
       </c>
       <c r="Q163" s="7">
-        <v>0</v>
-      </c>
-      <c r="R163" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:17">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -9045,11 +8555,8 @@
       <c r="Q164" s="7">
         <v>0</v>
       </c>
-      <c r="R164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18">
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -9101,11 +8608,8 @@
       <c r="Q165" s="7">
         <v>0</v>
       </c>
-      <c r="R165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18">
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -9157,11 +8661,8 @@
       <c r="Q166" s="7">
         <v>0</v>
       </c>
-      <c r="R166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18">
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -9213,11 +8714,8 @@
       <c r="Q167" s="7">
         <v>0</v>
       </c>
-      <c r="R167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18">
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -9269,11 +8767,8 @@
       <c r="Q168" s="7">
         <v>0</v>
       </c>
-      <c r="R168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18">
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -9325,11 +8820,8 @@
       <c r="Q169" s="7">
         <v>0</v>
       </c>
-      <c r="R169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18">
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -9381,11 +8873,8 @@
       <c r="Q170" s="7">
         <v>0</v>
       </c>
-      <c r="R170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18">
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -9437,11 +8926,8 @@
       <c r="Q171" s="7">
         <v>0</v>
       </c>
-      <c r="R171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18">
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -9493,11 +8979,8 @@
       <c r="Q172" s="7">
         <v>0</v>
       </c>
-      <c r="R172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18">
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -9549,11 +9032,8 @@
       <c r="Q173" s="7">
         <v>0</v>
       </c>
-      <c r="R173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18">
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -9605,11 +9085,8 @@
       <c r="Q174" s="7">
         <v>0</v>
       </c>
-      <c r="R174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18">
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -9661,11 +9138,8 @@
       <c r="Q175" s="7">
         <v>0</v>
       </c>
-      <c r="R175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18">
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -9717,11 +9191,8 @@
       <c r="Q176" s="7">
         <v>0</v>
       </c>
-      <c r="R176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18">
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -9773,11 +9244,8 @@
       <c r="Q177" s="7">
         <v>0</v>
       </c>
-      <c r="R177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -9829,11 +9297,8 @@
       <c r="Q178" s="7">
         <v>0</v>
       </c>
-      <c r="R178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18">
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -9885,11 +9350,8 @@
       <c r="Q179" s="7">
         <v>0</v>
       </c>
-      <c r="R179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18">
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -9941,11 +9403,8 @@
       <c r="Q180" s="7">
         <v>0</v>
       </c>
-      <c r="R180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -9997,11 +9456,8 @@
       <c r="Q181" s="7">
         <v>0</v>
       </c>
-      <c r="R181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18">
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -10053,11 +9509,8 @@
       <c r="Q182" s="7">
         <v>0</v>
       </c>
-      <c r="R182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18">
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -10109,11 +9562,8 @@
       <c r="Q183" s="7">
         <v>0</v>
       </c>
-      <c r="R183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18">
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -10165,11 +9615,8 @@
       <c r="Q184" s="7">
         <v>0</v>
       </c>
-      <c r="R184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18">
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -10221,11 +9668,8 @@
       <c r="Q185" s="7">
         <v>0</v>
       </c>
-      <c r="R185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18">
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -10277,11 +9721,8 @@
       <c r="Q186" s="7">
         <v>0</v>
       </c>
-      <c r="R186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18">
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -10333,11 +9774,8 @@
       <c r="Q187" s="7">
         <v>0</v>
       </c>
-      <c r="R187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18">
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -10389,11 +9827,8 @@
       <c r="Q188" s="7">
         <v>0</v>
       </c>
-      <c r="R188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18">
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -10445,11 +9880,8 @@
       <c r="Q189" s="7">
         <v>0</v>
       </c>
-      <c r="R189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18">
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -10501,11 +9933,8 @@
       <c r="Q190" s="7">
         <v>0</v>
       </c>
-      <c r="R190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18">
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -10557,11 +9986,8 @@
       <c r="Q191" s="7">
         <v>0</v>
       </c>
-      <c r="R191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18">
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -10613,11 +10039,8 @@
       <c r="Q192" s="7">
         <v>0</v>
       </c>
-      <c r="R192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18">
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -10669,11 +10092,8 @@
       <c r="Q193" s="7">
         <v>0</v>
       </c>
-      <c r="R193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18">
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -10725,11 +10145,8 @@
       <c r="Q194" s="7">
         <v>0</v>
       </c>
-      <c r="R194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18">
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -10781,11 +10198,8 @@
       <c r="Q195" s="7">
         <v>0</v>
       </c>
-      <c r="R195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18">
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -10837,11 +10251,8 @@
       <c r="Q196" s="7">
         <v>0</v>
       </c>
-      <c r="R196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18">
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -10893,11 +10304,8 @@
       <c r="Q197" s="7">
         <v>0</v>
       </c>
-      <c r="R197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18">
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -10949,11 +10357,8 @@
       <c r="Q198" s="7">
         <v>0</v>
       </c>
-      <c r="R198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18">
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -11005,11 +10410,8 @@
       <c r="Q199" s="7">
         <v>0</v>
       </c>
-      <c r="R199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18">
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -11061,11 +10463,8 @@
       <c r="Q200" s="7">
         <v>0</v>
       </c>
-      <c r="R200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18">
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -11117,11 +10516,8 @@
       <c r="Q201" s="7">
         <v>0</v>
       </c>
-      <c r="R201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18">
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -11173,11 +10569,8 @@
       <c r="Q202" s="7">
         <v>0</v>
       </c>
-      <c r="R202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18">
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -11229,11 +10622,8 @@
       <c r="Q203" s="7">
         <v>0</v>
       </c>
-      <c r="R203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18">
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -11285,11 +10675,8 @@
       <c r="Q204" s="7">
         <v>0</v>
       </c>
-      <c r="R204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18">
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -11341,11 +10728,8 @@
       <c r="Q205" s="7">
         <v>0</v>
       </c>
-      <c r="R205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18">
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -11397,11 +10781,8 @@
       <c r="Q206" s="7">
         <v>0</v>
       </c>
-      <c r="R206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18">
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -11453,11 +10834,8 @@
       <c r="Q207" s="7">
         <v>0</v>
       </c>
-      <c r="R207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18">
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -11509,11 +10887,8 @@
       <c r="Q208" s="7">
         <v>0</v>
       </c>
-      <c r="R208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18">
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -11565,11 +10940,8 @@
       <c r="Q209" s="7">
         <v>0</v>
       </c>
-      <c r="R209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18">
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -11621,11 +10993,8 @@
       <c r="Q210" s="7">
         <v>0</v>
       </c>
-      <c r="R210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18">
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -11677,11 +11046,8 @@
       <c r="Q211" s="7">
         <v>0</v>
       </c>
-      <c r="R211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18">
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -11733,11 +11099,8 @@
       <c r="Q212" s="7">
         <v>0</v>
       </c>
-      <c r="R212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18">
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -11789,11 +11152,8 @@
       <c r="Q213" s="7">
         <v>0</v>
       </c>
-      <c r="R213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18">
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -11845,11 +11205,8 @@
       <c r="Q214" s="7">
         <v>0</v>
       </c>
-      <c r="R214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18">
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -11901,11 +11258,8 @@
       <c r="Q215" s="7">
         <v>0</v>
       </c>
-      <c r="R215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18">
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -11957,11 +11311,8 @@
       <c r="Q216" s="7">
         <v>0</v>
       </c>
-      <c r="R216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18">
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -12013,11 +11364,8 @@
       <c r="Q217" s="7">
         <v>0</v>
       </c>
-      <c r="R217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18">
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -12069,11 +11417,8 @@
       <c r="Q218" s="7">
         <v>0</v>
       </c>
-      <c r="R218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18">
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -12125,11 +11470,8 @@
       <c r="Q219" s="7">
         <v>0</v>
       </c>
-      <c r="R219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18">
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -12181,11 +11523,8 @@
       <c r="Q220" s="7">
         <v>0</v>
       </c>
-      <c r="R220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18">
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -12237,11 +11576,8 @@
       <c r="Q221" s="7">
         <v>0</v>
       </c>
-      <c r="R221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18">
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -12293,11 +11629,8 @@
       <c r="Q222" s="7">
         <v>0</v>
       </c>
-      <c r="R222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18">
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -12349,11 +11682,8 @@
       <c r="Q223" s="7">
         <v>0</v>
       </c>
-      <c r="R223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18">
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -12405,11 +11735,8 @@
       <c r="Q224" s="7">
         <v>0</v>
       </c>
-      <c r="R224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18">
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -12461,11 +11788,8 @@
       <c r="Q225" s="7">
         <v>0</v>
       </c>
-      <c r="R225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18">
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -12517,11 +11841,8 @@
       <c r="Q226" s="7">
         <v>0</v>
       </c>
-      <c r="R226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18">
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -12573,11 +11894,8 @@
       <c r="Q227" s="7">
         <v>0</v>
       </c>
-      <c r="R227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18">
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -12629,11 +11947,8 @@
       <c r="Q228" s="7">
         <v>0</v>
       </c>
-      <c r="R228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18">
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -12685,11 +12000,8 @@
       <c r="Q229" s="7">
         <v>0</v>
       </c>
-      <c r="R229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18">
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -12741,11 +12053,8 @@
       <c r="Q230" s="7">
         <v>0</v>
       </c>
-      <c r="R230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18">
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -12797,11 +12106,8 @@
       <c r="Q231" s="7">
         <v>0</v>
       </c>
-      <c r="R231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18">
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -12853,11 +12159,8 @@
       <c r="Q232" s="7">
         <v>0</v>
       </c>
-      <c r="R232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18">
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -12909,11 +12212,8 @@
       <c r="Q233" s="7">
         <v>0</v>
       </c>
-      <c r="R233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18">
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -12965,11 +12265,8 @@
       <c r="Q234" s="7">
         <v>0</v>
       </c>
-      <c r="R234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18">
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -13021,11 +12318,8 @@
       <c r="Q235" s="7">
         <v>0</v>
       </c>
-      <c r="R235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18">
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -13077,11 +12371,8 @@
       <c r="Q236" s="7">
         <v>0</v>
       </c>
-      <c r="R236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18">
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -13133,11 +12424,8 @@
       <c r="Q237" s="7">
         <v>0</v>
       </c>
-      <c r="R237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18">
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -13189,11 +12477,8 @@
       <c r="Q238" s="7">
         <v>0</v>
       </c>
-      <c r="R238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18">
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -13245,11 +12530,8 @@
       <c r="Q239" s="7">
         <v>0</v>
       </c>
-      <c r="R239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18">
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -13301,11 +12583,8 @@
       <c r="Q240" s="7">
         <v>0</v>
       </c>
-      <c r="R240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18">
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -13357,11 +12636,8 @@
       <c r="Q241" s="7">
         <v>0</v>
       </c>
-      <c r="R241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18">
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -13413,11 +12689,8 @@
       <c r="Q242" s="7">
         <v>0</v>
       </c>
-      <c r="R242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18">
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -13469,11 +12742,8 @@
       <c r="Q243" s="7">
         <v>0</v>
       </c>
-      <c r="R243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18">
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -13525,11 +12795,8 @@
       <c r="Q244" s="7">
         <v>0</v>
       </c>
-      <c r="R244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18">
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -13581,11 +12848,8 @@
       <c r="Q245" s="7">
         <v>0</v>
       </c>
-      <c r="R245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18">
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -13637,11 +12901,8 @@
       <c r="Q246" s="7">
         <v>0</v>
       </c>
-      <c r="R246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18">
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -13693,11 +12954,8 @@
       <c r="Q247" s="7">
         <v>0</v>
       </c>
-      <c r="R247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18">
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -13749,11 +13007,8 @@
       <c r="Q248" s="7">
         <v>0</v>
       </c>
-      <c r="R248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18">
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -13805,11 +13060,8 @@
       <c r="Q249" s="7">
         <v>0</v>
       </c>
-      <c r="R249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18">
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -13861,11 +13113,8 @@
       <c r="Q250" s="7">
         <v>0</v>
       </c>
-      <c r="R250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18">
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -13917,11 +13166,8 @@
       <c r="Q251" s="7">
         <v>0</v>
       </c>
-      <c r="R251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18">
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -13973,11 +13219,8 @@
       <c r="Q252" s="7">
         <v>0</v>
       </c>
-      <c r="R252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18">
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -14029,11 +13272,8 @@
       <c r="Q253" s="7">
         <v>0</v>
       </c>
-      <c r="R253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:18">
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -14085,11 +13325,8 @@
       <c r="Q254" s="7">
         <v>0</v>
       </c>
-      <c r="R254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18">
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -14141,11 +13378,8 @@
       <c r="Q255" s="7">
         <v>0</v>
       </c>
-      <c r="R255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18">
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -14197,11 +13431,8 @@
       <c r="Q256" s="7">
         <v>0</v>
       </c>
-      <c r="R256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18">
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -14253,11 +13484,8 @@
       <c r="Q257" s="7">
         <v>0</v>
       </c>
-      <c r="R257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18">
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -14309,11 +13537,8 @@
       <c r="Q258" s="7">
         <v>0</v>
       </c>
-      <c r="R258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18">
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -14365,11 +13590,8 @@
       <c r="Q259" s="7">
         <v>0</v>
       </c>
-      <c r="R259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18">
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -14421,11 +13643,8 @@
       <c r="Q260" s="7">
         <v>0</v>
       </c>
-      <c r="R260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18">
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -14477,11 +13696,8 @@
       <c r="Q261" s="7">
         <v>0</v>
       </c>
-      <c r="R261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18">
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -14533,11 +13749,8 @@
       <c r="Q262" s="7">
         <v>0</v>
       </c>
-      <c r="R262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18">
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -14589,11 +13802,8 @@
       <c r="Q263" s="7">
         <v>0</v>
       </c>
-      <c r="R263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18">
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -14645,11 +13855,8 @@
       <c r="Q264" s="7">
         <v>0</v>
       </c>
-      <c r="R264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18">
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -14701,11 +13908,8 @@
       <c r="Q265" s="7">
         <v>0</v>
       </c>
-      <c r="R265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18">
+    </row>
+    <row r="266" spans="1:17">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -14757,11 +13961,8 @@
       <c r="Q266" s="7">
         <v>0</v>
       </c>
-      <c r="R266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18">
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -14813,11 +14014,8 @@
       <c r="Q267" s="7">
         <v>0</v>
       </c>
-      <c r="R267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18">
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -14869,11 +14067,8 @@
       <c r="Q268" s="7">
         <v>0</v>
       </c>
-      <c r="R268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18">
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -14925,11 +14120,8 @@
       <c r="Q269" s="7">
         <v>0</v>
       </c>
-      <c r="R269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18">
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -14981,11 +14173,8 @@
       <c r="Q270" s="7">
         <v>0</v>
       </c>
-      <c r="R270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18">
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -15037,11 +14226,8 @@
       <c r="Q271" s="7">
         <v>0</v>
       </c>
-      <c r="R271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18">
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -15093,11 +14279,8 @@
       <c r="Q272" s="7">
         <v>0</v>
       </c>
-      <c r="R272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -15149,11 +14332,8 @@
       <c r="Q273" s="7">
         <v>0</v>
       </c>
-      <c r="R273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -15205,11 +14385,8 @@
       <c r="Q274" s="7">
         <v>0</v>
       </c>
-      <c r="R274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -15261,11 +14438,8 @@
       <c r="Q275" s="7">
         <v>0</v>
       </c>
-      <c r="R275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18">
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -15317,11 +14491,8 @@
       <c r="Q276" s="7">
         <v>0</v>
       </c>
-      <c r="R276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -15373,11 +14544,8 @@
       <c r="Q277" s="7">
         <v>0</v>
       </c>
-      <c r="R277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -15429,11 +14597,8 @@
       <c r="Q278" s="7">
         <v>0</v>
       </c>
-      <c r="R278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18">
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -15485,11 +14650,8 @@
       <c r="Q279" s="7">
         <v>0</v>
       </c>
-      <c r="R279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18">
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -15541,11 +14703,8 @@
       <c r="Q280" s="7">
         <v>0</v>
       </c>
-      <c r="R280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18">
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -15597,11 +14756,8 @@
       <c r="Q281" s="7">
         <v>0</v>
       </c>
-      <c r="R281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18">
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -15653,11 +14809,8 @@
       <c r="Q282" s="7">
         <v>0</v>
       </c>
-      <c r="R282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18">
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -15709,11 +14862,8 @@
       <c r="Q283" s="7">
         <v>0</v>
       </c>
-      <c r="R283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18">
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -15765,11 +14915,8 @@
       <c r="Q284" s="7">
         <v>0</v>
       </c>
-      <c r="R284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18">
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -15821,11 +14968,8 @@
       <c r="Q285" s="7">
         <v>0</v>
       </c>
-      <c r="R285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18">
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -15877,11 +15021,8 @@
       <c r="Q286" s="7">
         <v>0</v>
       </c>
-      <c r="R286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18">
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -15933,11 +15074,8 @@
       <c r="Q287" s="7">
         <v>0</v>
       </c>
-      <c r="R287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18">
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -15989,11 +15127,8 @@
       <c r="Q288" s="7">
         <v>0</v>
       </c>
-      <c r="R288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18">
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -16045,11 +15180,8 @@
       <c r="Q289" s="7">
         <v>0</v>
       </c>
-      <c r="R289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18">
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -16101,11 +15233,8 @@
       <c r="Q290" s="7">
         <v>0</v>
       </c>
-      <c r="R290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18">
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -16157,11 +15286,8 @@
       <c r="Q291" s="7">
         <v>0</v>
       </c>
-      <c r="R291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18">
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -16213,11 +15339,8 @@
       <c r="Q292" s="7">
         <v>0</v>
       </c>
-      <c r="R292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18">
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -16269,11 +15392,8 @@
       <c r="Q293" s="7">
         <v>0</v>
       </c>
-      <c r="R293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18">
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -16325,11 +15445,8 @@
       <c r="Q294" s="7">
         <v>0</v>
       </c>
-      <c r="R294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18">
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -16381,11 +15498,8 @@
       <c r="Q295" s="7">
         <v>0</v>
       </c>
-      <c r="R295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18">
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -16437,11 +15551,8 @@
       <c r="Q296" s="7">
         <v>0</v>
       </c>
-      <c r="R296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18">
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -16493,11 +15604,8 @@
       <c r="Q297" s="7">
         <v>0</v>
       </c>
-      <c r="R297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18">
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -16510,9 +15618,9 @@
       <c r="J298" s="7"/>
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
-      <c r="R298" s="7"/>
-    </row>
-    <row r="299" spans="1:18">
+      <c r="Q298" s="7"/>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -16525,9 +15633,9 @@
       <c r="J299" s="7"/>
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
-      <c r="R299" s="7"/>
-    </row>
-    <row r="300" spans="1:18">
+      <c r="Q299" s="7"/>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -16539,9 +15647,9 @@
       <c r="I300" s="6"/>
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
-      <c r="R300" s="7"/>
-    </row>
-    <row r="301" spans="1:18">
+      <c r="Q300" s="7"/>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -16553,17 +15661,17 @@
       <c r="I301" s="6"/>
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
-      <c r="R301" s="7"/>
-    </row>
-    <row r="302" spans="1:18">
+      <c r="Q301" s="7"/>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
-      <c r="R302" s="7"/>
-    </row>
-    <row r="303" spans="1:18">
+      <c r="Q302" s="7"/>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -16574,9 +15682,9 @@
       <c r="I303" s="6"/>
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
-      <c r="R303" s="7"/>
-    </row>
-    <row r="304" spans="1:18">
+      <c r="Q303" s="7"/>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>
@@ -16587,17 +15695,17 @@
       <c r="I304" s="6"/>
       <c r="J304" s="7"/>
       <c r="L304" s="4"/>
-      <c r="R304" s="7"/>
-    </row>
-    <row r="305" spans="1:18">
+      <c r="Q304" s="7"/>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" s="1"/>
       <c r="C305" s="3"/>
       <c r="D305"/>
       <c r="F305" s="20"/>
       <c r="G305" s="5"/>
-      <c r="R305" s="7"/>
-    </row>
-    <row r="306" spans="1:18">
+      <c r="Q305" s="7"/>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" s="1"/>
       <c r="C306" s="3"/>
       <c r="D306"/>
@@ -16608,9 +15716,9 @@
       <c r="I306" s="6"/>
       <c r="J306" s="7"/>
       <c r="L306" s="4"/>
-      <c r="R306" s="7"/>
-    </row>
-    <row r="307" spans="1:18">
+      <c r="Q306" s="7"/>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" s="1"/>
       <c r="C307" s="3"/>
       <c r="D307"/>
@@ -16620,18 +15728,18 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="7"/>
-      <c r="R307" s="7"/>
-    </row>
-    <row r="308" spans="1:18">
+      <c r="Q307" s="7"/>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" s="1"/>
       <c r="C308" s="3"/>
       <c r="D308"/>
       <c r="F308" s="20"/>
       <c r="G308" s="5"/>
       <c r="L308" s="4"/>
-      <c r="R308" s="7"/>
-    </row>
-    <row r="309" spans="1:18">
+      <c r="Q308" s="7"/>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" s="1"/>
       <c r="C309" s="3"/>
       <c r="D309"/>
@@ -16642,9 +15750,9 @@
       <c r="I309" s="6"/>
       <c r="J309" s="7"/>
       <c r="L309" s="4"/>
-      <c r="R309" s="7"/>
-    </row>
-    <row r="310" spans="1:18">
+      <c r="Q309" s="7"/>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" s="1"/>
       <c r="C310" s="3"/>
       <c r="D310"/>
@@ -16654,18 +15762,18 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="7"/>
-      <c r="R310" s="7"/>
-    </row>
-    <row r="311" spans="1:18">
+      <c r="Q310" s="7"/>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" s="1"/>
       <c r="C311" s="3"/>
       <c r="D311"/>
       <c r="F311" s="20"/>
       <c r="G311" s="5"/>
       <c r="L311" s="4"/>
-      <c r="R311" s="7"/>
-    </row>
-    <row r="312" spans="1:18">
+      <c r="Q311" s="7"/>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" s="1"/>
       <c r="C312" s="3"/>
       <c r="D312"/>
@@ -16673,52 +15781,52 @@
       <c r="F312" s="20"/>
       <c r="G312" s="5"/>
       <c r="L312" s="4"/>
-      <c r="R312" s="7"/>
-    </row>
-    <row r="313" spans="1:18">
+      <c r="Q312" s="7"/>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" s="1"/>
       <c r="C313" s="3"/>
       <c r="D313"/>
       <c r="F313" s="20"/>
       <c r="G313" s="5"/>
-      <c r="R313" s="7"/>
-    </row>
-    <row r="314" spans="1:18">
+      <c r="Q313" s="7"/>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" s="1"/>
       <c r="C314" s="3"/>
       <c r="D314"/>
       <c r="F314" s="20"/>
       <c r="G314" s="5"/>
       <c r="L314" s="4"/>
-      <c r="R314" s="7"/>
-    </row>
-    <row r="315" spans="1:18">
+      <c r="Q314" s="7"/>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" s="1"/>
       <c r="C315" s="3"/>
       <c r="D315"/>
       <c r="F315" s="20"/>
       <c r="G315" s="5"/>
       <c r="L315" s="4"/>
-      <c r="R315" s="7"/>
-    </row>
-    <row r="316" spans="1:18">
+      <c r="Q315" s="7"/>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" s="1"/>
       <c r="C316" s="3"/>
       <c r="D316"/>
       <c r="F316" s="20"/>
       <c r="G316" s="5"/>
-      <c r="R316" s="7"/>
-    </row>
-    <row r="317" spans="1:18">
+      <c r="Q316" s="7"/>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" s="1"/>
       <c r="C317" s="3"/>
       <c r="D317"/>
       <c r="F317" s="20"/>
       <c r="G317" s="5"/>
       <c r="L317" s="4"/>
-      <c r="R317" s="7"/>
-    </row>
-    <row r="318" spans="1:18">
+      <c r="Q317" s="7"/>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" s="1"/>
       <c r="C318" s="3"/>
       <c r="D318"/>
@@ -16726,14 +15834,14 @@
       <c r="G318" s="5"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:18">
+    <row r="319" spans="1:17">
       <c r="A319" s="1"/>
       <c r="C319" s="3"/>
       <c r="D319"/>
       <c r="F319" s="20"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:18">
+    <row r="320" spans="1:17">
       <c r="A320" s="1"/>
       <c r="C320" s="3"/>
       <c r="D320"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12CB16-6EDD-BB45-9408-9A381C0EF906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9826ED8-E9EB-E640-B7FE-49FC728FF0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="20">
   <si>
     <t>Ebc</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
   </si>
 </sst>
 </file>
@@ -559,11 +556,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:Q643"/>
+  <dimension ref="A1:P643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -580,7 +575,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -629,11 +624,8 @@
       <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -673,11 +665,8 @@
       <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -717,11 +706,8 @@
       <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -761,11 +747,8 @@
       <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -805,11 +788,8 @@
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -849,11 +829,8 @@
       <c r="P6" s="7">
         <v>0</v>
       </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -893,11 +870,8 @@
       <c r="P7" s="7">
         <v>0</v>
       </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -937,11 +911,8 @@
       <c r="P8" s="7">
         <v>0</v>
       </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -981,11 +952,8 @@
       <c r="P9" s="7">
         <v>0</v>
       </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -1025,11 +993,8 @@
       <c r="P10" s="7">
         <v>0</v>
       </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -1069,11 +1034,8 @@
       <c r="P11" s="7">
         <v>0</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1113,11 +1075,8 @@
       <c r="P12" s="7">
         <v>0</v>
       </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1157,11 +1116,8 @@
       <c r="P13" s="7">
         <v>0</v>
       </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1201,11 +1157,8 @@
       <c r="P14" s="7">
         <v>0</v>
       </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1245,11 +1198,8 @@
       <c r="P15" s="7">
         <v>0</v>
       </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1289,11 +1239,8 @@
       <c r="P16" s="7">
         <v>0</v>
       </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1333,11 +1280,8 @@
       <c r="P17" s="7">
         <v>0</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1377,11 +1321,8 @@
       <c r="P18" s="7">
         <v>0</v>
       </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1421,11 +1362,8 @@
       <c r="P19" s="7">
         <v>0</v>
       </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1465,11 +1403,8 @@
       <c r="P20" s="7">
         <v>0</v>
       </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1509,11 +1444,8 @@
       <c r="P21" s="7">
         <v>0</v>
       </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1553,11 +1485,8 @@
       <c r="P22" s="7">
         <v>0</v>
       </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1597,11 +1526,8 @@
       <c r="P23" s="7">
         <v>0</v>
       </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1641,11 +1567,8 @@
       <c r="P24" s="7">
         <v>0</v>
       </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1685,11 +1608,8 @@
       <c r="P25" s="7">
         <v>0</v>
       </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1729,11 +1649,8 @@
       <c r="P26" s="7">
         <v>0</v>
       </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1773,11 +1690,8 @@
       <c r="P27" s="7">
         <v>0</v>
       </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1817,11 +1731,8 @@
       <c r="P28" s="7">
         <v>0</v>
       </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1861,11 +1772,8 @@
       <c r="P29" s="7">
         <v>0</v>
       </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1907,11 +1815,8 @@
       <c r="P30" s="7">
         <v>0</v>
       </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1953,11 +1858,8 @@
       <c r="P31" s="7">
         <v>0</v>
       </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1999,11 +1901,8 @@
       <c r="P32" s="7">
         <v>0</v>
       </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -2045,11 +1944,8 @@
       <c r="P33" s="7">
         <v>0</v>
       </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -2091,11 +1987,8 @@
       <c r="P34" s="7">
         <v>0</v>
       </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -2137,11 +2030,8 @@
       <c r="P35" s="7">
         <v>0</v>
       </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -2183,11 +2073,8 @@
       <c r="P36" s="7">
         <v>0</v>
       </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -2229,11 +2116,8 @@
       <c r="P37" s="7">
         <v>0</v>
       </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2278,11 +2162,8 @@
       <c r="P38" s="7">
         <v>0</v>
       </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2327,11 +2208,8 @@
       <c r="P39" s="7">
         <v>0</v>
       </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2376,11 +2254,8 @@
       <c r="P40" s="7">
         <v>0</v>
       </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2425,11 +2300,8 @@
       <c r="P41" s="7">
         <v>0</v>
       </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2474,11 +2346,8 @@
       <c r="P42" s="7">
         <v>0</v>
       </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2523,11 +2392,8 @@
       <c r="P43" s="7">
         <v>0</v>
       </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2572,11 +2438,8 @@
       <c r="P44" s="7">
         <v>0</v>
       </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2621,11 +2484,8 @@
       <c r="P45" s="7">
         <v>0</v>
       </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2670,11 +2530,8 @@
       <c r="P46" s="7">
         <v>0</v>
       </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2719,11 +2576,8 @@
       <c r="P47" s="7">
         <v>0</v>
       </c>
-      <c r="Q47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2768,11 +2622,8 @@
       <c r="P48" s="7">
         <v>0</v>
       </c>
-      <c r="Q48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2817,11 +2668,8 @@
       <c r="P49" s="7">
         <v>0</v>
       </c>
-      <c r="Q49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2866,11 +2714,8 @@
       <c r="P50" s="7">
         <v>0</v>
       </c>
-      <c r="Q50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2915,11 +2760,8 @@
       <c r="P51" s="7">
         <v>0</v>
       </c>
-      <c r="Q51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2964,11 +2806,8 @@
       <c r="P52" s="7">
         <v>0</v>
       </c>
-      <c r="Q52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3013,11 +2852,8 @@
       <c r="P53" s="7">
         <v>0</v>
       </c>
-      <c r="Q53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -3062,11 +2898,8 @@
       <c r="P54" s="7">
         <v>0</v>
       </c>
-      <c r="Q54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -3111,11 +2944,8 @@
       <c r="P55" s="7">
         <v>0</v>
       </c>
-      <c r="Q55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -3160,11 +2990,8 @@
       <c r="P56" s="7">
         <v>0</v>
       </c>
-      <c r="Q56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -3209,11 +3036,8 @@
       <c r="P57" s="7">
         <v>0</v>
       </c>
-      <c r="Q57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -3258,11 +3082,8 @@
       <c r="P58" s="7">
         <v>0</v>
       </c>
-      <c r="Q58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -3307,11 +3128,8 @@
       <c r="P59" s="7">
         <v>0</v>
       </c>
-      <c r="Q59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -3356,11 +3174,8 @@
       <c r="P60" s="7">
         <v>0</v>
       </c>
-      <c r="Q60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3405,11 +3220,8 @@
       <c r="P61" s="7">
         <v>0</v>
       </c>
-      <c r="Q61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -3454,11 +3266,8 @@
       <c r="P62" s="7">
         <v>0</v>
       </c>
-      <c r="Q62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -3503,11 +3312,8 @@
       <c r="P63" s="7">
         <v>0</v>
       </c>
-      <c r="Q63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3552,11 +3358,8 @@
       <c r="P64" s="7">
         <v>0</v>
       </c>
-      <c r="Q64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3601,11 +3404,8 @@
       <c r="P65" s="7">
         <v>0</v>
       </c>
-      <c r="Q65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3650,11 +3450,8 @@
       <c r="P66" s="7">
         <v>0</v>
       </c>
-      <c r="Q66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3699,11 +3496,8 @@
       <c r="P67" s="7">
         <v>0</v>
       </c>
-      <c r="Q67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3748,11 +3542,8 @@
       <c r="P68" s="7">
         <v>0</v>
       </c>
-      <c r="Q68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -3797,11 +3588,8 @@
       <c r="P69" s="7">
         <v>0</v>
       </c>
-      <c r="Q69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -3846,11 +3634,8 @@
       <c r="P70" s="7">
         <v>0</v>
       </c>
-      <c r="Q70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3895,11 +3680,8 @@
       <c r="P71" s="7">
         <v>0</v>
       </c>
-      <c r="Q71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3944,11 +3726,8 @@
       <c r="P72" s="7">
         <v>0</v>
       </c>
-      <c r="Q72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3993,11 +3772,8 @@
       <c r="P73" s="7">
         <v>0</v>
       </c>
-      <c r="Q73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -4042,11 +3818,8 @@
       <c r="P74" s="7">
         <v>0</v>
       </c>
-      <c r="Q74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -4091,11 +3864,8 @@
       <c r="P75" s="7">
         <v>0</v>
       </c>
-      <c r="Q75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -4140,11 +3910,8 @@
       <c r="P76" s="7">
         <v>0</v>
       </c>
-      <c r="Q76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -4189,11 +3956,8 @@
       <c r="P77" s="7">
         <v>0</v>
       </c>
-      <c r="Q77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -4238,11 +4002,8 @@
       <c r="P78" s="7">
         <v>0</v>
       </c>
-      <c r="Q78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -4287,11 +4048,8 @@
       <c r="P79" s="7">
         <v>0</v>
       </c>
-      <c r="Q79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -4336,11 +4094,8 @@
       <c r="P80" s="7">
         <v>0</v>
       </c>
-      <c r="Q80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -4385,11 +4140,8 @@
       <c r="P81" s="7">
         <v>0</v>
       </c>
-      <c r="Q81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -4434,11 +4186,8 @@
       <c r="P82" s="7">
         <v>0</v>
       </c>
-      <c r="Q82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -4483,11 +4232,8 @@
       <c r="P83" s="7">
         <v>0</v>
       </c>
-      <c r="Q83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -4532,11 +4278,8 @@
       <c r="P84" s="7">
         <v>0</v>
       </c>
-      <c r="Q84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -4581,11 +4324,8 @@
       <c r="P85" s="7">
         <v>0</v>
       </c>
-      <c r="Q85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -4630,11 +4370,8 @@
       <c r="P86" s="7">
         <v>0</v>
       </c>
-      <c r="Q86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -4679,11 +4416,8 @@
       <c r="P87" s="7">
         <v>0</v>
       </c>
-      <c r="Q87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -4728,11 +4462,8 @@
       <c r="P88" s="7">
         <v>0</v>
       </c>
-      <c r="Q88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -4777,11 +4508,8 @@
       <c r="P89" s="7">
         <v>0</v>
       </c>
-      <c r="Q89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -4826,11 +4554,8 @@
       <c r="P90" s="7">
         <v>0</v>
       </c>
-      <c r="Q90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -4875,11 +4600,8 @@
       <c r="P91" s="7">
         <v>0</v>
       </c>
-      <c r="Q91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -4924,11 +4646,8 @@
       <c r="P92" s="7">
         <v>0</v>
       </c>
-      <c r="Q92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -4973,11 +4692,8 @@
       <c r="P93" s="7">
         <v>0</v>
       </c>
-      <c r="Q93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -5022,11 +4738,8 @@
       <c r="P94" s="7">
         <v>0</v>
       </c>
-      <c r="Q94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -5071,11 +4784,8 @@
       <c r="P95" s="7">
         <v>0</v>
       </c>
-      <c r="Q95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -5120,11 +4830,8 @@
       <c r="P96" s="7">
         <v>0</v>
       </c>
-      <c r="Q96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -5169,11 +4876,8 @@
       <c r="P97" s="7">
         <v>0</v>
       </c>
-      <c r="Q97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -5218,11 +4922,8 @@
       <c r="P98" s="7">
         <v>0</v>
       </c>
-      <c r="Q98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -5267,11 +4968,8 @@
       <c r="P99" s="7">
         <v>0</v>
       </c>
-      <c r="Q99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -5316,11 +5014,8 @@
       <c r="P100" s="7">
         <v>0</v>
       </c>
-      <c r="Q100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -5365,11 +5060,8 @@
       <c r="P101" s="7">
         <v>0</v>
       </c>
-      <c r="Q101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -5414,11 +5106,8 @@
       <c r="P102" s="7">
         <v>0</v>
       </c>
-      <c r="Q102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -5463,11 +5152,8 @@
       <c r="P103" s="7">
         <v>0</v>
       </c>
-      <c r="Q103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -5512,11 +5198,8 @@
       <c r="P104" s="7">
         <v>0</v>
       </c>
-      <c r="Q104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -5561,11 +5244,8 @@
       <c r="P105" s="7">
         <v>0</v>
       </c>
-      <c r="Q105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -5610,11 +5290,8 @@
       <c r="P106" s="7">
         <v>0</v>
       </c>
-      <c r="Q106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -5659,11 +5336,8 @@
       <c r="P107" s="7">
         <v>0</v>
       </c>
-      <c r="Q107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -5708,11 +5382,8 @@
       <c r="P108" s="7">
         <v>0</v>
       </c>
-      <c r="Q108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -5757,11 +5428,8 @@
       <c r="P109" s="7">
         <v>0</v>
       </c>
-      <c r="Q109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -5806,11 +5474,8 @@
       <c r="P110" s="7">
         <v>0</v>
       </c>
-      <c r="Q110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -5855,11 +5520,8 @@
       <c r="P111" s="7">
         <v>0</v>
       </c>
-      <c r="Q111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -5904,11 +5566,8 @@
       <c r="P112" s="7">
         <v>0</v>
       </c>
-      <c r="Q112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -5953,11 +5612,8 @@
       <c r="P113" s="7">
         <v>0</v>
       </c>
-      <c r="Q113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -6002,11 +5658,8 @@
       <c r="P114" s="7">
         <v>0</v>
       </c>
-      <c r="Q114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -6051,11 +5704,8 @@
       <c r="P115" s="7">
         <v>0</v>
       </c>
-      <c r="Q115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -6100,11 +5750,8 @@
       <c r="P116" s="7">
         <v>0</v>
       </c>
-      <c r="Q116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -6149,11 +5796,8 @@
       <c r="P117" s="7">
         <v>0</v>
       </c>
-      <c r="Q117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -6198,11 +5842,8 @@
       <c r="P118" s="7">
         <v>0</v>
       </c>
-      <c r="Q118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -6247,11 +5888,8 @@
       <c r="P119" s="7">
         <v>0</v>
       </c>
-      <c r="Q119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -6296,11 +5934,8 @@
       <c r="P120" s="7">
         <v>0</v>
       </c>
-      <c r="Q120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -6345,11 +5980,8 @@
       <c r="P121" s="7">
         <v>0</v>
       </c>
-      <c r="Q121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -6395,11 +6027,8 @@
       <c r="P122" s="7">
         <v>0</v>
       </c>
-      <c r="Q122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17">
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -6445,11 +6074,8 @@
       <c r="P123" s="7">
         <v>0</v>
       </c>
-      <c r="Q123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -6495,11 +6121,8 @@
       <c r="P124" s="7">
         <v>0</v>
       </c>
-      <c r="Q124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17">
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -6545,11 +6168,8 @@
       <c r="P125" s="7">
         <v>0</v>
       </c>
-      <c r="Q125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -6595,11 +6215,8 @@
       <c r="P126" s="7">
         <v>0</v>
       </c>
-      <c r="Q126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17">
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -6645,11 +6262,8 @@
       <c r="P127" s="7">
         <v>0</v>
       </c>
-      <c r="Q127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -6695,11 +6309,8 @@
       <c r="P128" s="7">
         <v>0</v>
       </c>
-      <c r="Q128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -6745,11 +6356,8 @@
       <c r="P129" s="7">
         <v>0</v>
       </c>
-      <c r="Q129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -6795,11 +6403,8 @@
       <c r="P130" s="7">
         <v>0</v>
       </c>
-      <c r="Q130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17">
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -6845,11 +6450,8 @@
       <c r="P131" s="7">
         <v>0</v>
       </c>
-      <c r="Q131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17">
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -6895,11 +6497,8 @@
       <c r="P132" s="7">
         <v>0</v>
       </c>
-      <c r="Q132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -6945,11 +6544,8 @@
       <c r="P133" s="7">
         <v>0</v>
       </c>
-      <c r="Q133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -6995,11 +6591,8 @@
       <c r="P134" s="7">
         <v>0</v>
       </c>
-      <c r="Q134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -7045,11 +6638,8 @@
       <c r="P135" s="7">
         <v>0</v>
       </c>
-      <c r="Q135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -7095,11 +6685,8 @@
       <c r="P136" s="7">
         <v>0</v>
       </c>
-      <c r="Q136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -7145,11 +6732,8 @@
       <c r="P137" s="7">
         <v>0</v>
       </c>
-      <c r="Q137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -7195,11 +6779,8 @@
       <c r="P138" s="7">
         <v>0</v>
       </c>
-      <c r="Q138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -7245,11 +6826,8 @@
       <c r="P139" s="7">
         <v>0</v>
       </c>
-      <c r="Q139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -7295,11 +6873,8 @@
       <c r="P140" s="7">
         <v>0</v>
       </c>
-      <c r="Q140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -7345,11 +6920,8 @@
       <c r="P141" s="7">
         <v>0</v>
       </c>
-      <c r="Q141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -7395,11 +6967,8 @@
       <c r="P142" s="7">
         <v>0</v>
       </c>
-      <c r="Q142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -7445,11 +7014,8 @@
       <c r="P143" s="7">
         <v>0</v>
       </c>
-      <c r="Q143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -7495,11 +7061,8 @@
       <c r="P144" s="7">
         <v>0</v>
       </c>
-      <c r="Q144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -7545,11 +7108,8 @@
       <c r="P145" s="7">
         <v>0</v>
       </c>
-      <c r="Q145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -7598,11 +7158,8 @@
       <c r="P146" s="7">
         <v>0</v>
       </c>
-      <c r="Q146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -7651,11 +7208,8 @@
       <c r="P147" s="7">
         <v>0</v>
       </c>
-      <c r="Q147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -7704,11 +7258,8 @@
       <c r="P148" s="7">
         <v>0</v>
       </c>
-      <c r="Q148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -7757,11 +7308,8 @@
       <c r="P149" s="7">
         <v>0</v>
       </c>
-      <c r="Q149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -7810,11 +7358,8 @@
       <c r="P150" s="7">
         <v>0</v>
       </c>
-      <c r="Q150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -7863,11 +7408,8 @@
       <c r="P151" s="7">
         <v>0</v>
       </c>
-      <c r="Q151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -7916,11 +7458,8 @@
       <c r="P152" s="7">
         <v>0</v>
       </c>
-      <c r="Q152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -7969,11 +7508,8 @@
       <c r="P153" s="7">
         <v>0</v>
       </c>
-      <c r="Q153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -8022,11 +7558,8 @@
       <c r="P154" s="7">
         <v>0</v>
       </c>
-      <c r="Q154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -8075,11 +7608,8 @@
       <c r="P155" s="7">
         <v>0</v>
       </c>
-      <c r="Q155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -8117,7 +7647,7 @@
         <v>95.691959999999995</v>
       </c>
       <c r="M156" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" s="7">
         <v>0</v>
@@ -8128,11 +7658,8 @@
       <c r="P156" s="7">
         <v>0</v>
       </c>
-      <c r="Q156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -8181,11 +7708,8 @@
       <c r="P157" s="7">
         <v>0</v>
       </c>
-      <c r="Q157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -8234,11 +7758,8 @@
       <c r="P158" s="7">
         <v>0</v>
       </c>
-      <c r="Q158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -8276,10 +7797,10 @@
         <v>95.272379999999998</v>
       </c>
       <c r="M159" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O159" s="7">
         <v>0</v>
@@ -8287,11 +7808,8 @@
       <c r="P159" s="7">
         <v>0</v>
       </c>
-      <c r="Q159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -8332,19 +7850,16 @@
         <v>0</v>
       </c>
       <c r="N160" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P160" s="7">
         <v>0</v>
       </c>
-      <c r="Q160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -8393,11 +7908,8 @@
       <c r="P161" s="7">
         <v>0</v>
       </c>
-      <c r="Q161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -8441,16 +7953,13 @@
         <v>0</v>
       </c>
       <c r="O162" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -8497,13 +8006,10 @@
         <v>0</v>
       </c>
       <c r="P163" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:16">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -8552,11 +8058,8 @@
       <c r="P164" s="7">
         <v>0</v>
       </c>
-      <c r="Q164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -8605,11 +8108,8 @@
       <c r="P165" s="7">
         <v>0</v>
       </c>
-      <c r="Q165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -8658,11 +8158,8 @@
       <c r="P166" s="7">
         <v>0</v>
       </c>
-      <c r="Q166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -8711,11 +8208,8 @@
       <c r="P167" s="7">
         <v>0</v>
       </c>
-      <c r="Q167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -8764,11 +8258,8 @@
       <c r="P168" s="7">
         <v>0</v>
       </c>
-      <c r="Q168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -8817,11 +8308,8 @@
       <c r="P169" s="7">
         <v>0</v>
       </c>
-      <c r="Q169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17">
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -8870,11 +8358,8 @@
       <c r="P170" s="7">
         <v>0</v>
       </c>
-      <c r="Q170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17">
+    </row>
+    <row r="171" spans="1:16">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -8923,11 +8408,8 @@
       <c r="P171" s="7">
         <v>0</v>
       </c>
-      <c r="Q171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17">
+    </row>
+    <row r="172" spans="1:16">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -8976,11 +8458,8 @@
       <c r="P172" s="7">
         <v>0</v>
       </c>
-      <c r="Q172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
+    </row>
+    <row r="173" spans="1:16">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -9029,11 +8508,8 @@
       <c r="P173" s="7">
         <v>0</v>
       </c>
-      <c r="Q173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17">
+    </row>
+    <row r="174" spans="1:16">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -9082,11 +8558,8 @@
       <c r="P174" s="7">
         <v>0</v>
       </c>
-      <c r="Q174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17">
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -9135,11 +8608,8 @@
       <c r="P175" s="7">
         <v>0</v>
       </c>
-      <c r="Q175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17">
+    </row>
+    <row r="176" spans="1:16">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -9188,11 +8658,8 @@
       <c r="P176" s="7">
         <v>0</v>
       </c>
-      <c r="Q176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17">
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -9241,11 +8708,8 @@
       <c r="P177" s="7">
         <v>0</v>
       </c>
-      <c r="Q177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17">
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -9294,11 +8758,8 @@
       <c r="P178" s="7">
         <v>0</v>
       </c>
-      <c r="Q178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17">
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -9347,11 +8808,8 @@
       <c r="P179" s="7">
         <v>0</v>
       </c>
-      <c r="Q179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17">
+    </row>
+    <row r="180" spans="1:16">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -9400,11 +8858,8 @@
       <c r="P180" s="7">
         <v>0</v>
       </c>
-      <c r="Q180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17">
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -9453,11 +8908,8 @@
       <c r="P181" s="7">
         <v>0</v>
       </c>
-      <c r="Q181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17">
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -9506,11 +8958,8 @@
       <c r="P182" s="7">
         <v>0</v>
       </c>
-      <c r="Q182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17">
+    </row>
+    <row r="183" spans="1:16">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -9559,11 +9008,8 @@
       <c r="P183" s="7">
         <v>0</v>
       </c>
-      <c r="Q183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17">
+    </row>
+    <row r="184" spans="1:16">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -9612,11 +9058,8 @@
       <c r="P184" s="7">
         <v>0</v>
       </c>
-      <c r="Q184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17">
+    </row>
+    <row r="185" spans="1:16">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -9665,11 +9108,8 @@
       <c r="P185" s="7">
         <v>0</v>
       </c>
-      <c r="Q185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17">
+    </row>
+    <row r="186" spans="1:16">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -9718,11 +9158,8 @@
       <c r="P186" s="7">
         <v>0</v>
       </c>
-      <c r="Q186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17">
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -9771,11 +9208,8 @@
       <c r="P187" s="7">
         <v>0</v>
       </c>
-      <c r="Q187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17">
+    </row>
+    <row r="188" spans="1:16">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -9824,11 +9258,8 @@
       <c r="P188" s="7">
         <v>0</v>
       </c>
-      <c r="Q188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17">
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -9877,11 +9308,8 @@
       <c r="P189" s="7">
         <v>0</v>
       </c>
-      <c r="Q189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17">
+    </row>
+    <row r="190" spans="1:16">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -9930,11 +9358,8 @@
       <c r="P190" s="7">
         <v>0</v>
       </c>
-      <c r="Q190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17">
+    </row>
+    <row r="191" spans="1:16">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -9983,11 +9408,8 @@
       <c r="P191" s="7">
         <v>0</v>
       </c>
-      <c r="Q191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17">
+    </row>
+    <row r="192" spans="1:16">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -10036,11 +9458,8 @@
       <c r="P192" s="7">
         <v>0</v>
       </c>
-      <c r="Q192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17">
+    </row>
+    <row r="193" spans="1:16">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -10089,11 +9508,8 @@
       <c r="P193" s="7">
         <v>0</v>
       </c>
-      <c r="Q193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17">
+    </row>
+    <row r="194" spans="1:16">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -10142,11 +9558,8 @@
       <c r="P194" s="7">
         <v>0</v>
       </c>
-      <c r="Q194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17">
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -10195,11 +9608,8 @@
       <c r="P195" s="7">
         <v>0</v>
       </c>
-      <c r="Q195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17">
+    </row>
+    <row r="196" spans="1:16">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -10248,11 +9658,8 @@
       <c r="P196" s="7">
         <v>0</v>
       </c>
-      <c r="Q196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17">
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -10301,11 +9708,8 @@
       <c r="P197" s="7">
         <v>0</v>
       </c>
-      <c r="Q197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17">
+    </row>
+    <row r="198" spans="1:16">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -10354,11 +9758,8 @@
       <c r="P198" s="7">
         <v>0</v>
       </c>
-      <c r="Q198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17">
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -10407,11 +9808,8 @@
       <c r="P199" s="7">
         <v>0</v>
       </c>
-      <c r="Q199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17">
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -10460,11 +9858,8 @@
       <c r="P200" s="7">
         <v>0</v>
       </c>
-      <c r="Q200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17">
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -10513,11 +9908,8 @@
       <c r="P201" s="7">
         <v>0</v>
       </c>
-      <c r="Q201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17">
+    </row>
+    <row r="202" spans="1:16">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -10566,11 +9958,8 @@
       <c r="P202" s="7">
         <v>0</v>
       </c>
-      <c r="Q202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17">
+    </row>
+    <row r="203" spans="1:16">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -10619,11 +10008,8 @@
       <c r="P203" s="7">
         <v>0</v>
       </c>
-      <c r="Q203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17">
+    </row>
+    <row r="204" spans="1:16">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -10672,11 +10058,8 @@
       <c r="P204" s="7">
         <v>0</v>
       </c>
-      <c r="Q204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17">
+    </row>
+    <row r="205" spans="1:16">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -10725,11 +10108,8 @@
       <c r="P205" s="7">
         <v>0</v>
       </c>
-      <c r="Q205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17">
+    </row>
+    <row r="206" spans="1:16">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -10778,11 +10158,8 @@
       <c r="P206" s="7">
         <v>0</v>
       </c>
-      <c r="Q206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17">
+    </row>
+    <row r="207" spans="1:16">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -10831,11 +10208,8 @@
       <c r="P207" s="7">
         <v>0</v>
       </c>
-      <c r="Q207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17">
+    </row>
+    <row r="208" spans="1:16">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -10884,11 +10258,8 @@
       <c r="P208" s="7">
         <v>0</v>
       </c>
-      <c r="Q208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17">
+    </row>
+    <row r="209" spans="1:16">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -10937,11 +10308,8 @@
       <c r="P209" s="7">
         <v>0</v>
       </c>
-      <c r="Q209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17">
+    </row>
+    <row r="210" spans="1:16">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -10990,11 +10358,8 @@
       <c r="P210" s="7">
         <v>0</v>
       </c>
-      <c r="Q210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17">
+    </row>
+    <row r="211" spans="1:16">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -11043,11 +10408,8 @@
       <c r="P211" s="7">
         <v>0</v>
       </c>
-      <c r="Q211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17">
+    </row>
+    <row r="212" spans="1:16">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -11096,11 +10458,8 @@
       <c r="P212" s="7">
         <v>0</v>
       </c>
-      <c r="Q212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17">
+    </row>
+    <row r="213" spans="1:16">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -11149,11 +10508,8 @@
       <c r="P213" s="7">
         <v>0</v>
       </c>
-      <c r="Q213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17">
+    </row>
+    <row r="214" spans="1:16">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -11202,11 +10558,8 @@
       <c r="P214" s="7">
         <v>0</v>
       </c>
-      <c r="Q214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17">
+    </row>
+    <row r="215" spans="1:16">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -11255,11 +10608,8 @@
       <c r="P215" s="7">
         <v>0</v>
       </c>
-      <c r="Q215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17">
+    </row>
+    <row r="216" spans="1:16">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -11308,11 +10658,8 @@
       <c r="P216" s="7">
         <v>0</v>
       </c>
-      <c r="Q216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17">
+    </row>
+    <row r="217" spans="1:16">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -11361,11 +10708,8 @@
       <c r="P217" s="7">
         <v>0</v>
       </c>
-      <c r="Q217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17">
+    </row>
+    <row r="218" spans="1:16">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -11414,11 +10758,8 @@
       <c r="P218" s="7">
         <v>0</v>
       </c>
-      <c r="Q218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17">
+    </row>
+    <row r="219" spans="1:16">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -11467,11 +10808,8 @@
       <c r="P219" s="7">
         <v>0</v>
       </c>
-      <c r="Q219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17">
+    </row>
+    <row r="220" spans="1:16">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -11520,11 +10858,8 @@
       <c r="P220" s="7">
         <v>0</v>
       </c>
-      <c r="Q220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17">
+    </row>
+    <row r="221" spans="1:16">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -11573,11 +10908,8 @@
       <c r="P221" s="7">
         <v>0</v>
       </c>
-      <c r="Q221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17">
+    </row>
+    <row r="222" spans="1:16">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -11626,11 +10958,8 @@
       <c r="P222" s="7">
         <v>0</v>
       </c>
-      <c r="Q222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17">
+    </row>
+    <row r="223" spans="1:16">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -11679,11 +11008,8 @@
       <c r="P223" s="7">
         <v>0</v>
       </c>
-      <c r="Q223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17">
+    </row>
+    <row r="224" spans="1:16">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -11732,11 +11058,8 @@
       <c r="P224" s="7">
         <v>0</v>
       </c>
-      <c r="Q224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17">
+    </row>
+    <row r="225" spans="1:16">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -11785,11 +11108,8 @@
       <c r="P225" s="7">
         <v>0</v>
       </c>
-      <c r="Q225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17">
+    </row>
+    <row r="226" spans="1:16">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -11838,11 +11158,8 @@
       <c r="P226" s="7">
         <v>0</v>
       </c>
-      <c r="Q226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17">
+    </row>
+    <row r="227" spans="1:16">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -11891,11 +11208,8 @@
       <c r="P227" s="7">
         <v>0</v>
       </c>
-      <c r="Q227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17">
+    </row>
+    <row r="228" spans="1:16">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -11944,11 +11258,8 @@
       <c r="P228" s="7">
         <v>0</v>
       </c>
-      <c r="Q228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17">
+    </row>
+    <row r="229" spans="1:16">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -11997,11 +11308,8 @@
       <c r="P229" s="7">
         <v>0</v>
       </c>
-      <c r="Q229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17">
+    </row>
+    <row r="230" spans="1:16">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -12050,11 +11358,8 @@
       <c r="P230" s="7">
         <v>0</v>
       </c>
-      <c r="Q230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17">
+    </row>
+    <row r="231" spans="1:16">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -12103,11 +11408,8 @@
       <c r="P231" s="7">
         <v>0</v>
       </c>
-      <c r="Q231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17">
+    </row>
+    <row r="232" spans="1:16">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -12156,11 +11458,8 @@
       <c r="P232" s="7">
         <v>0</v>
       </c>
-      <c r="Q232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17">
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -12209,11 +11508,8 @@
       <c r="P233" s="7">
         <v>0</v>
       </c>
-      <c r="Q233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17">
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -12262,11 +11558,8 @@
       <c r="P234" s="7">
         <v>0</v>
       </c>
-      <c r="Q234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17">
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -12315,11 +11608,8 @@
       <c r="P235" s="7">
         <v>0</v>
       </c>
-      <c r="Q235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17">
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -12368,11 +11658,8 @@
       <c r="P236" s="7">
         <v>0</v>
       </c>
-      <c r="Q236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:17">
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -12421,11 +11708,8 @@
       <c r="P237" s="7">
         <v>0</v>
       </c>
-      <c r="Q237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17">
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -12474,11 +11758,8 @@
       <c r="P238" s="7">
         <v>0</v>
       </c>
-      <c r="Q238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17">
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -12527,11 +11808,8 @@
       <c r="P239" s="7">
         <v>0</v>
       </c>
-      <c r="Q239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17">
+    </row>
+    <row r="240" spans="1:16">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -12580,11 +11858,8 @@
       <c r="P240" s="7">
         <v>0</v>
       </c>
-      <c r="Q240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17">
+    </row>
+    <row r="241" spans="1:16">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -12633,11 +11908,8 @@
       <c r="P241" s="7">
         <v>0</v>
       </c>
-      <c r="Q241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17">
+    </row>
+    <row r="242" spans="1:16">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -12686,11 +11958,8 @@
       <c r="P242" s="7">
         <v>0</v>
       </c>
-      <c r="Q242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17">
+    </row>
+    <row r="243" spans="1:16">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -12739,11 +12008,8 @@
       <c r="P243" s="7">
         <v>0</v>
       </c>
-      <c r="Q243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17">
+    </row>
+    <row r="244" spans="1:16">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -12792,11 +12058,8 @@
       <c r="P244" s="7">
         <v>0</v>
       </c>
-      <c r="Q244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17">
+    </row>
+    <row r="245" spans="1:16">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -12845,11 +12108,8 @@
       <c r="P245" s="7">
         <v>0</v>
       </c>
-      <c r="Q245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17">
+    </row>
+    <row r="246" spans="1:16">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -12898,11 +12158,8 @@
       <c r="P246" s="7">
         <v>0</v>
       </c>
-      <c r="Q246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17">
+    </row>
+    <row r="247" spans="1:16">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -12951,11 +12208,8 @@
       <c r="P247" s="7">
         <v>0</v>
       </c>
-      <c r="Q247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17">
+    </row>
+    <row r="248" spans="1:16">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -13004,11 +12258,8 @@
       <c r="P248" s="7">
         <v>0</v>
       </c>
-      <c r="Q248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17">
+    </row>
+    <row r="249" spans="1:16">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -13057,11 +12308,8 @@
       <c r="P249" s="7">
         <v>0</v>
       </c>
-      <c r="Q249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17">
+    </row>
+    <row r="250" spans="1:16">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -13110,11 +12358,8 @@
       <c r="P250" s="7">
         <v>0</v>
       </c>
-      <c r="Q250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
+    </row>
+    <row r="251" spans="1:16">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -13163,11 +12408,8 @@
       <c r="P251" s="7">
         <v>0</v>
       </c>
-      <c r="Q251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17">
+    </row>
+    <row r="252" spans="1:16">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -13216,11 +12458,8 @@
       <c r="P252" s="7">
         <v>0</v>
       </c>
-      <c r="Q252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17">
+    </row>
+    <row r="253" spans="1:16">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -13269,11 +12508,8 @@
       <c r="P253" s="7">
         <v>0</v>
       </c>
-      <c r="Q253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17">
+    </row>
+    <row r="254" spans="1:16">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -13322,11 +12558,8 @@
       <c r="P254" s="7">
         <v>0</v>
       </c>
-      <c r="Q254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17">
+    </row>
+    <row r="255" spans="1:16">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -13375,11 +12608,8 @@
       <c r="P255" s="7">
         <v>0</v>
       </c>
-      <c r="Q255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17">
+    </row>
+    <row r="256" spans="1:16">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -13428,11 +12658,8 @@
       <c r="P256" s="7">
         <v>0</v>
       </c>
-      <c r="Q256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17">
+    </row>
+    <row r="257" spans="1:16">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -13481,11 +12708,8 @@
       <c r="P257" s="7">
         <v>0</v>
       </c>
-      <c r="Q257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17">
+    </row>
+    <row r="258" spans="1:16">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -13534,11 +12758,8 @@
       <c r="P258" s="7">
         <v>0</v>
       </c>
-      <c r="Q258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:17">
+    </row>
+    <row r="259" spans="1:16">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -13587,11 +12808,8 @@
       <c r="P259" s="7">
         <v>0</v>
       </c>
-      <c r="Q259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17">
+    </row>
+    <row r="260" spans="1:16">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -13640,11 +12858,8 @@
       <c r="P260" s="7">
         <v>0</v>
       </c>
-      <c r="Q260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17">
+    </row>
+    <row r="261" spans="1:16">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -13693,11 +12908,8 @@
       <c r="P261" s="7">
         <v>0</v>
       </c>
-      <c r="Q261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17">
+    </row>
+    <row r="262" spans="1:16">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -13746,11 +12958,8 @@
       <c r="P262" s="7">
         <v>0</v>
       </c>
-      <c r="Q262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17">
+    </row>
+    <row r="263" spans="1:16">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -13799,11 +13008,8 @@
       <c r="P263" s="7">
         <v>0</v>
       </c>
-      <c r="Q263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:17">
+    </row>
+    <row r="264" spans="1:16">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -13852,11 +13058,8 @@
       <c r="P264" s="7">
         <v>0</v>
       </c>
-      <c r="Q264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17">
+    </row>
+    <row r="265" spans="1:16">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -13905,11 +13108,8 @@
       <c r="P265" s="7">
         <v>0</v>
       </c>
-      <c r="Q265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17">
+    </row>
+    <row r="266" spans="1:16">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -13958,11 +13158,8 @@
       <c r="P266" s="7">
         <v>0</v>
       </c>
-      <c r="Q266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:17">
+    </row>
+    <row r="267" spans="1:16">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -14011,11 +13208,8 @@
       <c r="P267" s="7">
         <v>0</v>
       </c>
-      <c r="Q267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17">
+    </row>
+    <row r="268" spans="1:16">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -14064,11 +13258,8 @@
       <c r="P268" s="7">
         <v>0</v>
       </c>
-      <c r="Q268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17">
+    </row>
+    <row r="269" spans="1:16">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -14117,11 +13308,8 @@
       <c r="P269" s="7">
         <v>0</v>
       </c>
-      <c r="Q269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:17">
+    </row>
+    <row r="270" spans="1:16">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -14170,11 +13358,8 @@
       <c r="P270" s="7">
         <v>0</v>
       </c>
-      <c r="Q270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:17">
+    </row>
+    <row r="271" spans="1:16">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -14223,11 +13408,8 @@
       <c r="P271" s="7">
         <v>0</v>
       </c>
-      <c r="Q271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:17">
+    </row>
+    <row r="272" spans="1:16">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -14276,11 +13458,8 @@
       <c r="P272" s="7">
         <v>0</v>
       </c>
-      <c r="Q272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:17">
+    </row>
+    <row r="273" spans="1:16">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -14329,11 +13508,8 @@
       <c r="P273" s="7">
         <v>0</v>
       </c>
-      <c r="Q273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:17">
+    </row>
+    <row r="274" spans="1:16">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -14382,11 +13558,8 @@
       <c r="P274" s="7">
         <v>0</v>
       </c>
-      <c r="Q274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:17">
+    </row>
+    <row r="275" spans="1:16">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -14435,11 +13608,8 @@
       <c r="P275" s="7">
         <v>0</v>
       </c>
-      <c r="Q275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:17">
+    </row>
+    <row r="276" spans="1:16">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -14488,11 +13658,8 @@
       <c r="P276" s="7">
         <v>0</v>
       </c>
-      <c r="Q276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17">
+    </row>
+    <row r="277" spans="1:16">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -14541,11 +13708,8 @@
       <c r="P277" s="7">
         <v>0</v>
       </c>
-      <c r="Q277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:17">
+    </row>
+    <row r="278" spans="1:16">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -14594,11 +13758,8 @@
       <c r="P278" s="7">
         <v>0</v>
       </c>
-      <c r="Q278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:17">
+    </row>
+    <row r="279" spans="1:16">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -14647,11 +13808,8 @@
       <c r="P279" s="7">
         <v>0</v>
       </c>
-      <c r="Q279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:17">
+    </row>
+    <row r="280" spans="1:16">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -14700,11 +13858,8 @@
       <c r="P280" s="7">
         <v>0</v>
       </c>
-      <c r="Q280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:17">
+    </row>
+    <row r="281" spans="1:16">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -14753,11 +13908,8 @@
       <c r="P281" s="7">
         <v>0</v>
       </c>
-      <c r="Q281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17">
+    </row>
+    <row r="282" spans="1:16">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -14806,11 +13958,8 @@
       <c r="P282" s="7">
         <v>0</v>
       </c>
-      <c r="Q282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17">
+    </row>
+    <row r="283" spans="1:16">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -14859,11 +14008,8 @@
       <c r="P283" s="7">
         <v>0</v>
       </c>
-      <c r="Q283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17">
+    </row>
+    <row r="284" spans="1:16">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -14912,11 +14058,8 @@
       <c r="P284" s="7">
         <v>0</v>
       </c>
-      <c r="Q284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17">
+    </row>
+    <row r="285" spans="1:16">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -14965,11 +14108,8 @@
       <c r="P285" s="7">
         <v>0</v>
       </c>
-      <c r="Q285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:17">
+    </row>
+    <row r="286" spans="1:16">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -15018,11 +14158,8 @@
       <c r="P286" s="7">
         <v>0</v>
       </c>
-      <c r="Q286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:17">
+    </row>
+    <row r="287" spans="1:16">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -15071,11 +14208,8 @@
       <c r="P287" s="7">
         <v>0</v>
       </c>
-      <c r="Q287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:17">
+    </row>
+    <row r="288" spans="1:16">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -15124,11 +14258,8 @@
       <c r="P288" s="7">
         <v>0</v>
       </c>
-      <c r="Q288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:17">
+    </row>
+    <row r="289" spans="1:16">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -15177,11 +14308,8 @@
       <c r="P289" s="7">
         <v>0</v>
       </c>
-      <c r="Q289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17">
+    </row>
+    <row r="290" spans="1:16">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -15230,11 +14358,8 @@
       <c r="P290" s="7">
         <v>0</v>
       </c>
-      <c r="Q290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:17">
+    </row>
+    <row r="291" spans="1:16">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -15283,11 +14408,8 @@
       <c r="P291" s="7">
         <v>0</v>
       </c>
-      <c r="Q291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:17">
+    </row>
+    <row r="292" spans="1:16">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -15336,11 +14458,8 @@
       <c r="P292" s="7">
         <v>0</v>
       </c>
-      <c r="Q292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:17">
+    </row>
+    <row r="293" spans="1:16">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -15389,11 +14508,8 @@
       <c r="P293" s="7">
         <v>0</v>
       </c>
-      <c r="Q293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:17">
+    </row>
+    <row r="294" spans="1:16">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -15442,11 +14558,8 @@
       <c r="P294" s="7">
         <v>0</v>
       </c>
-      <c r="Q294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:17">
+    </row>
+    <row r="295" spans="1:16">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -15495,11 +14608,8 @@
       <c r="P295" s="7">
         <v>0</v>
       </c>
-      <c r="Q295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:17">
+    </row>
+    <row r="296" spans="1:16">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -15548,11 +14658,8 @@
       <c r="P296" s="7">
         <v>0</v>
       </c>
-      <c r="Q296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:17">
+    </row>
+    <row r="297" spans="1:16">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -15601,11 +14708,8 @@
       <c r="P297" s="7">
         <v>0</v>
       </c>
-      <c r="Q297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:17">
+    </row>
+    <row r="298" spans="1:16">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -15618,9 +14722,9 @@
       <c r="J298" s="7"/>
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
-      <c r="Q298" s="7"/>
-    </row>
-    <row r="299" spans="1:17">
+      <c r="P298" s="7"/>
+    </row>
+    <row r="299" spans="1:16">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -15633,9 +14737,9 @@
       <c r="J299" s="7"/>
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
-      <c r="Q299" s="7"/>
-    </row>
-    <row r="300" spans="1:17">
+      <c r="P299" s="7"/>
+    </row>
+    <row r="300" spans="1:16">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -15647,9 +14751,9 @@
       <c r="I300" s="6"/>
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
-      <c r="Q300" s="7"/>
-    </row>
-    <row r="301" spans="1:17">
+      <c r="P300" s="7"/>
+    </row>
+    <row r="301" spans="1:16">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -15661,17 +14765,17 @@
       <c r="I301" s="6"/>
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
-      <c r="Q301" s="7"/>
-    </row>
-    <row r="302" spans="1:17">
+      <c r="P301" s="7"/>
+    </row>
+    <row r="302" spans="1:16">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
-      <c r="Q302" s="7"/>
-    </row>
-    <row r="303" spans="1:17">
+      <c r="P302" s="7"/>
+    </row>
+    <row r="303" spans="1:16">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -15682,9 +14786,9 @@
       <c r="I303" s="6"/>
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
-      <c r="Q303" s="7"/>
-    </row>
-    <row r="304" spans="1:17">
+      <c r="P303" s="7"/>
+    </row>
+    <row r="304" spans="1:16">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>
@@ -15695,17 +14799,17 @@
       <c r="I304" s="6"/>
       <c r="J304" s="7"/>
       <c r="L304" s="4"/>
-      <c r="Q304" s="7"/>
-    </row>
-    <row r="305" spans="1:17">
+      <c r="P304" s="7"/>
+    </row>
+    <row r="305" spans="1:16">
       <c r="A305" s="1"/>
       <c r="C305" s="3"/>
       <c r="D305"/>
       <c r="F305" s="20"/>
       <c r="G305" s="5"/>
-      <c r="Q305" s="7"/>
-    </row>
-    <row r="306" spans="1:17">
+      <c r="P305" s="7"/>
+    </row>
+    <row r="306" spans="1:16">
       <c r="A306" s="1"/>
       <c r="C306" s="3"/>
       <c r="D306"/>
@@ -15716,9 +14820,9 @@
       <c r="I306" s="6"/>
       <c r="J306" s="7"/>
       <c r="L306" s="4"/>
-      <c r="Q306" s="7"/>
-    </row>
-    <row r="307" spans="1:17">
+      <c r="P306" s="7"/>
+    </row>
+    <row r="307" spans="1:16">
       <c r="A307" s="1"/>
       <c r="C307" s="3"/>
       <c r="D307"/>
@@ -15728,18 +14832,18 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="7"/>
-      <c r="Q307" s="7"/>
-    </row>
-    <row r="308" spans="1:17">
+      <c r="P307" s="7"/>
+    </row>
+    <row r="308" spans="1:16">
       <c r="A308" s="1"/>
       <c r="C308" s="3"/>
       <c r="D308"/>
       <c r="F308" s="20"/>
       <c r="G308" s="5"/>
       <c r="L308" s="4"/>
-      <c r="Q308" s="7"/>
-    </row>
-    <row r="309" spans="1:17">
+      <c r="P308" s="7"/>
+    </row>
+    <row r="309" spans="1:16">
       <c r="A309" s="1"/>
       <c r="C309" s="3"/>
       <c r="D309"/>
@@ -15750,9 +14854,9 @@
       <c r="I309" s="6"/>
       <c r="J309" s="7"/>
       <c r="L309" s="4"/>
-      <c r="Q309" s="7"/>
-    </row>
-    <row r="310" spans="1:17">
+      <c r="P309" s="7"/>
+    </row>
+    <row r="310" spans="1:16">
       <c r="A310" s="1"/>
       <c r="C310" s="3"/>
       <c r="D310"/>
@@ -15762,18 +14866,18 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="7"/>
-      <c r="Q310" s="7"/>
-    </row>
-    <row r="311" spans="1:17">
+      <c r="P310" s="7"/>
+    </row>
+    <row r="311" spans="1:16">
       <c r="A311" s="1"/>
       <c r="C311" s="3"/>
       <c r="D311"/>
       <c r="F311" s="20"/>
       <c r="G311" s="5"/>
       <c r="L311" s="4"/>
-      <c r="Q311" s="7"/>
-    </row>
-    <row r="312" spans="1:17">
+      <c r="P311" s="7"/>
+    </row>
+    <row r="312" spans="1:16">
       <c r="A312" s="1"/>
       <c r="C312" s="3"/>
       <c r="D312"/>
@@ -15781,52 +14885,52 @@
       <c r="F312" s="20"/>
       <c r="G312" s="5"/>
       <c r="L312" s="4"/>
-      <c r="Q312" s="7"/>
-    </row>
-    <row r="313" spans="1:17">
+      <c r="P312" s="7"/>
+    </row>
+    <row r="313" spans="1:16">
       <c r="A313" s="1"/>
       <c r="C313" s="3"/>
       <c r="D313"/>
       <c r="F313" s="20"/>
       <c r="G313" s="5"/>
-      <c r="Q313" s="7"/>
-    </row>
-    <row r="314" spans="1:17">
+      <c r="P313" s="7"/>
+    </row>
+    <row r="314" spans="1:16">
       <c r="A314" s="1"/>
       <c r="C314" s="3"/>
       <c r="D314"/>
       <c r="F314" s="20"/>
       <c r="G314" s="5"/>
       <c r="L314" s="4"/>
-      <c r="Q314" s="7"/>
-    </row>
-    <row r="315" spans="1:17">
+      <c r="P314" s="7"/>
+    </row>
+    <row r="315" spans="1:16">
       <c r="A315" s="1"/>
       <c r="C315" s="3"/>
       <c r="D315"/>
       <c r="F315" s="20"/>
       <c r="G315" s="5"/>
       <c r="L315" s="4"/>
-      <c r="Q315" s="7"/>
-    </row>
-    <row r="316" spans="1:17">
+      <c r="P315" s="7"/>
+    </row>
+    <row r="316" spans="1:16">
       <c r="A316" s="1"/>
       <c r="C316" s="3"/>
       <c r="D316"/>
       <c r="F316" s="20"/>
       <c r="G316" s="5"/>
-      <c r="Q316" s="7"/>
-    </row>
-    <row r="317" spans="1:17">
+      <c r="P316" s="7"/>
+    </row>
+    <row r="317" spans="1:16">
       <c r="A317" s="1"/>
       <c r="C317" s="3"/>
       <c r="D317"/>
       <c r="F317" s="20"/>
       <c r="G317" s="5"/>
       <c r="L317" s="4"/>
-      <c r="Q317" s="7"/>
-    </row>
-    <row r="318" spans="1:17">
+      <c r="P317" s="7"/>
+    </row>
+    <row r="318" spans="1:16">
       <c r="A318" s="1"/>
       <c r="C318" s="3"/>
       <c r="D318"/>
@@ -15834,14 +14938,14 @@
       <c r="G318" s="5"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:16">
       <c r="A319" s="1"/>
       <c r="C319" s="3"/>
       <c r="D319"/>
       <c r="F319" s="20"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:16">
       <c r="A320" s="1"/>
       <c r="C320" s="3"/>
       <c r="D320"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9826ED8-E9EB-E640-B7FE-49FC728FF0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F6831-89D3-464B-8580-C887D616593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
   <si>
     <t>Ebc</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
   </si>
 </sst>
 </file>
@@ -556,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:P643"/>
+  <dimension ref="A1:O643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,7 +572,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -621,11 +618,8 @@
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -662,11 +656,8 @@
       <c r="O2" s="7">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -703,11 +694,8 @@
       <c r="O3" s="7">
         <v>0</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -744,11 +732,8 @@
       <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -785,11 +770,8 @@
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -826,11 +808,8 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -867,11 +846,8 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -908,11 +884,8 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -949,11 +922,8 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -990,11 +960,8 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -1031,11 +998,8 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1072,11 +1036,8 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1113,11 +1074,8 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1154,11 +1112,8 @@
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1195,11 +1150,8 @@
       <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1236,11 +1188,8 @@
       <c r="O16" s="7">
         <v>0</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1277,11 +1226,8 @@
       <c r="O17" s="7">
         <v>0</v>
       </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1318,11 +1264,8 @@
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1359,11 +1302,8 @@
       <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1400,11 +1340,8 @@
       <c r="O20" s="7">
         <v>0</v>
       </c>
-      <c r="P20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1441,11 +1378,8 @@
       <c r="O21" s="7">
         <v>0</v>
       </c>
-      <c r="P21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1482,11 +1416,8 @@
       <c r="O22" s="7">
         <v>0</v>
       </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1523,11 +1454,8 @@
       <c r="O23" s="7">
         <v>0</v>
       </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1564,11 +1492,8 @@
       <c r="O24" s="7">
         <v>0</v>
       </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1605,11 +1530,8 @@
       <c r="O25" s="7">
         <v>0</v>
       </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1646,11 +1568,8 @@
       <c r="O26" s="7">
         <v>0</v>
       </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1687,11 +1606,8 @@
       <c r="O27" s="7">
         <v>0</v>
       </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1728,11 +1644,8 @@
       <c r="O28" s="7">
         <v>0</v>
       </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1769,11 +1682,8 @@
       <c r="O29" s="7">
         <v>0</v>
       </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1812,11 +1722,8 @@
       <c r="O30" s="7">
         <v>0</v>
       </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1855,11 +1762,8 @@
       <c r="O31" s="7">
         <v>0</v>
       </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1898,11 +1802,8 @@
       <c r="O32" s="7">
         <v>0</v>
       </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1941,11 +1842,8 @@
       <c r="O33" s="7">
         <v>0</v>
       </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1984,11 +1882,8 @@
       <c r="O34" s="7">
         <v>0</v>
       </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -2027,11 +1922,8 @@
       <c r="O35" s="7">
         <v>0</v>
       </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -2070,11 +1962,8 @@
       <c r="O36" s="7">
         <v>0</v>
       </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -2113,11 +2002,8 @@
       <c r="O37" s="7">
         <v>0</v>
       </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2159,11 +2045,8 @@
       <c r="O38" s="7">
         <v>0</v>
       </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2205,11 +2088,8 @@
       <c r="O39" s="7">
         <v>0</v>
       </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2251,11 +2131,8 @@
       <c r="O40" s="7">
         <v>0</v>
       </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2297,11 +2174,8 @@
       <c r="O41" s="7">
         <v>0</v>
       </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2343,11 +2217,8 @@
       <c r="O42" s="7">
         <v>0</v>
       </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2389,11 +2260,8 @@
       <c r="O43" s="7">
         <v>0</v>
       </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2435,11 +2303,8 @@
       <c r="O44" s="7">
         <v>0</v>
       </c>
-      <c r="P44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2481,11 +2346,8 @@
       <c r="O45" s="7">
         <v>0</v>
       </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2527,11 +2389,8 @@
       <c r="O46" s="7">
         <v>0</v>
       </c>
-      <c r="P46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2573,11 +2432,8 @@
       <c r="O47" s="7">
         <v>0</v>
       </c>
-      <c r="P47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2619,11 +2475,8 @@
       <c r="O48" s="7">
         <v>0</v>
       </c>
-      <c r="P48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2665,11 +2518,8 @@
       <c r="O49" s="7">
         <v>0</v>
       </c>
-      <c r="P49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2711,11 +2561,8 @@
       <c r="O50" s="7">
         <v>0</v>
       </c>
-      <c r="P50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2757,11 +2604,8 @@
       <c r="O51" s="7">
         <v>0</v>
       </c>
-      <c r="P51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2803,11 +2647,8 @@
       <c r="O52" s="7">
         <v>0</v>
       </c>
-      <c r="P52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2849,11 +2690,8 @@
       <c r="O53" s="7">
         <v>0</v>
       </c>
-      <c r="P53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2895,11 +2733,8 @@
       <c r="O54" s="7">
         <v>0</v>
       </c>
-      <c r="P54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2941,11 +2776,8 @@
       <c r="O55" s="7">
         <v>0</v>
       </c>
-      <c r="P55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2987,11 +2819,8 @@
       <c r="O56" s="7">
         <v>0</v>
       </c>
-      <c r="P56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -3033,11 +2862,8 @@
       <c r="O57" s="7">
         <v>0</v>
       </c>
-      <c r="P57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -3079,11 +2905,8 @@
       <c r="O58" s="7">
         <v>0</v>
       </c>
-      <c r="P58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -3125,11 +2948,8 @@
       <c r="O59" s="7">
         <v>0</v>
       </c>
-      <c r="P59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -3171,11 +2991,8 @@
       <c r="O60" s="7">
         <v>0</v>
       </c>
-      <c r="P60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3217,11 +3034,8 @@
       <c r="O61" s="7">
         <v>0</v>
       </c>
-      <c r="P61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -3263,11 +3077,8 @@
       <c r="O62" s="7">
         <v>0</v>
       </c>
-      <c r="P62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -3309,11 +3120,8 @@
       <c r="O63" s="7">
         <v>0</v>
       </c>
-      <c r="P63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3355,11 +3163,8 @@
       <c r="O64" s="7">
         <v>0</v>
       </c>
-      <c r="P64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3401,11 +3206,8 @@
       <c r="O65" s="7">
         <v>0</v>
       </c>
-      <c r="P65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3447,11 +3249,8 @@
       <c r="O66" s="7">
         <v>0</v>
       </c>
-      <c r="P66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3493,11 +3292,8 @@
       <c r="O67" s="7">
         <v>0</v>
       </c>
-      <c r="P67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3539,11 +3335,8 @@
       <c r="O68" s="7">
         <v>0</v>
       </c>
-      <c r="P68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -3585,11 +3378,8 @@
       <c r="O69" s="7">
         <v>0</v>
       </c>
-      <c r="P69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -3631,11 +3421,8 @@
       <c r="O70" s="7">
         <v>0</v>
       </c>
-      <c r="P70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3677,11 +3464,8 @@
       <c r="O71" s="7">
         <v>0</v>
       </c>
-      <c r="P71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3723,11 +3507,8 @@
       <c r="O72" s="7">
         <v>0</v>
       </c>
-      <c r="P72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3769,11 +3550,8 @@
       <c r="O73" s="7">
         <v>0</v>
       </c>
-      <c r="P73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3815,11 +3593,8 @@
       <c r="O74" s="7">
         <v>0</v>
       </c>
-      <c r="P74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3861,11 +3636,8 @@
       <c r="O75" s="7">
         <v>0</v>
       </c>
-      <c r="P75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3907,11 +3679,8 @@
       <c r="O76" s="7">
         <v>0</v>
       </c>
-      <c r="P76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3953,11 +3722,8 @@
       <c r="O77" s="7">
         <v>0</v>
       </c>
-      <c r="P77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3999,11 +3765,8 @@
       <c r="O78" s="7">
         <v>0</v>
       </c>
-      <c r="P78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -4045,11 +3808,8 @@
       <c r="O79" s="7">
         <v>0</v>
       </c>
-      <c r="P79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -4091,11 +3851,8 @@
       <c r="O80" s="7">
         <v>0</v>
       </c>
-      <c r="P80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -4137,11 +3894,8 @@
       <c r="O81" s="7">
         <v>0</v>
       </c>
-      <c r="P81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -4183,11 +3937,8 @@
       <c r="O82" s="7">
         <v>0</v>
       </c>
-      <c r="P82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -4229,11 +3980,8 @@
       <c r="O83" s="7">
         <v>0</v>
       </c>
-      <c r="P83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -4275,11 +4023,8 @@
       <c r="O84" s="7">
         <v>0</v>
       </c>
-      <c r="P84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -4321,11 +4066,8 @@
       <c r="O85" s="7">
         <v>0</v>
       </c>
-      <c r="P85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -4367,11 +4109,8 @@
       <c r="O86" s="7">
         <v>0</v>
       </c>
-      <c r="P86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -4413,11 +4152,8 @@
       <c r="O87" s="7">
         <v>0</v>
       </c>
-      <c r="P87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -4459,11 +4195,8 @@
       <c r="O88" s="7">
         <v>0</v>
       </c>
-      <c r="P88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -4505,11 +4238,8 @@
       <c r="O89" s="7">
         <v>0</v>
       </c>
-      <c r="P89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -4551,11 +4281,8 @@
       <c r="O90" s="7">
         <v>0</v>
       </c>
-      <c r="P90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -4597,11 +4324,8 @@
       <c r="O91" s="7">
         <v>0</v>
       </c>
-      <c r="P91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -4643,11 +4367,8 @@
       <c r="O92" s="7">
         <v>0</v>
       </c>
-      <c r="P92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -4689,11 +4410,8 @@
       <c r="O93" s="7">
         <v>0</v>
       </c>
-      <c r="P93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -4735,11 +4453,8 @@
       <c r="O94" s="7">
         <v>0</v>
       </c>
-      <c r="P94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -4781,11 +4496,8 @@
       <c r="O95" s="7">
         <v>0</v>
       </c>
-      <c r="P95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -4827,11 +4539,8 @@
       <c r="O96" s="7">
         <v>0</v>
       </c>
-      <c r="P96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -4873,11 +4582,8 @@
       <c r="O97" s="7">
         <v>0</v>
       </c>
-      <c r="P97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4919,11 +4625,8 @@
       <c r="O98" s="7">
         <v>0</v>
       </c>
-      <c r="P98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4965,11 +4668,8 @@
       <c r="O99" s="7">
         <v>0</v>
       </c>
-      <c r="P99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -5011,11 +4711,8 @@
       <c r="O100" s="7">
         <v>0</v>
       </c>
-      <c r="P100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -5057,11 +4754,8 @@
       <c r="O101" s="7">
         <v>0</v>
       </c>
-      <c r="P101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -5103,11 +4797,8 @@
       <c r="O102" s="7">
         <v>0</v>
       </c>
-      <c r="P102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -5149,11 +4840,8 @@
       <c r="O103" s="7">
         <v>0</v>
       </c>
-      <c r="P103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -5195,11 +4883,8 @@
       <c r="O104" s="7">
         <v>0</v>
       </c>
-      <c r="P104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -5241,11 +4926,8 @@
       <c r="O105" s="7">
         <v>0</v>
       </c>
-      <c r="P105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -5287,11 +4969,8 @@
       <c r="O106" s="7">
         <v>0</v>
       </c>
-      <c r="P106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -5333,11 +5012,8 @@
       <c r="O107" s="7">
         <v>0</v>
       </c>
-      <c r="P107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -5379,11 +5055,8 @@
       <c r="O108" s="7">
         <v>0</v>
       </c>
-      <c r="P108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -5425,11 +5098,8 @@
       <c r="O109" s="7">
         <v>0</v>
       </c>
-      <c r="P109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -5471,11 +5141,8 @@
       <c r="O110" s="7">
         <v>0</v>
       </c>
-      <c r="P110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -5517,11 +5184,8 @@
       <c r="O111" s="7">
         <v>0</v>
       </c>
-      <c r="P111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -5563,11 +5227,8 @@
       <c r="O112" s="7">
         <v>0</v>
       </c>
-      <c r="P112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -5609,11 +5270,8 @@
       <c r="O113" s="7">
         <v>0</v>
       </c>
-      <c r="P113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -5655,11 +5313,8 @@
       <c r="O114" s="7">
         <v>0</v>
       </c>
-      <c r="P114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16">
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -5701,11 +5356,8 @@
       <c r="O115" s="7">
         <v>0</v>
       </c>
-      <c r="P115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -5747,11 +5399,8 @@
       <c r="O116" s="7">
         <v>0</v>
       </c>
-      <c r="P116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -5793,11 +5442,8 @@
       <c r="O117" s="7">
         <v>0</v>
       </c>
-      <c r="P117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -5839,11 +5485,8 @@
       <c r="O118" s="7">
         <v>0</v>
       </c>
-      <c r="P118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -5885,11 +5528,8 @@
       <c r="O119" s="7">
         <v>0</v>
       </c>
-      <c r="P119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -5931,11 +5571,8 @@
       <c r="O120" s="7">
         <v>0</v>
       </c>
-      <c r="P120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -5977,11 +5614,8 @@
       <c r="O121" s="7">
         <v>0</v>
       </c>
-      <c r="P121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -6024,11 +5658,8 @@
       <c r="O122" s="7">
         <v>0</v>
       </c>
-      <c r="P122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -6071,11 +5702,8 @@
       <c r="O123" s="7">
         <v>0</v>
       </c>
-      <c r="P123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -6118,11 +5746,8 @@
       <c r="O124" s="7">
         <v>0</v>
       </c>
-      <c r="P124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -6165,11 +5790,8 @@
       <c r="O125" s="7">
         <v>0</v>
       </c>
-      <c r="P125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -6212,11 +5834,8 @@
       <c r="O126" s="7">
         <v>0</v>
       </c>
-      <c r="P126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -6259,11 +5878,8 @@
       <c r="O127" s="7">
         <v>0</v>
       </c>
-      <c r="P127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -6306,11 +5922,8 @@
       <c r="O128" s="7">
         <v>0</v>
       </c>
-      <c r="P128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -6353,11 +5966,8 @@
       <c r="O129" s="7">
         <v>0</v>
       </c>
-      <c r="P129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -6400,11 +6010,8 @@
       <c r="O130" s="7">
         <v>0</v>
       </c>
-      <c r="P130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -6447,11 +6054,8 @@
       <c r="O131" s="7">
         <v>0</v>
       </c>
-      <c r="P131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -6494,11 +6098,8 @@
       <c r="O132" s="7">
         <v>0</v>
       </c>
-      <c r="P132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -6541,11 +6142,8 @@
       <c r="O133" s="7">
         <v>0</v>
       </c>
-      <c r="P133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -6588,11 +6186,8 @@
       <c r="O134" s="7">
         <v>0</v>
       </c>
-      <c r="P134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -6635,11 +6230,8 @@
       <c r="O135" s="7">
         <v>0</v>
       </c>
-      <c r="P135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -6682,11 +6274,8 @@
       <c r="O136" s="7">
         <v>0</v>
       </c>
-      <c r="P136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -6729,11 +6318,8 @@
       <c r="O137" s="7">
         <v>0</v>
       </c>
-      <c r="P137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -6776,11 +6362,8 @@
       <c r="O138" s="7">
         <v>0</v>
       </c>
-      <c r="P138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -6823,11 +6406,8 @@
       <c r="O139" s="7">
         <v>0</v>
       </c>
-      <c r="P139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -6870,11 +6450,8 @@
       <c r="O140" s="7">
         <v>0</v>
       </c>
-      <c r="P140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -6917,11 +6494,8 @@
       <c r="O141" s="7">
         <v>0</v>
       </c>
-      <c r="P141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -6964,11 +6538,8 @@
       <c r="O142" s="7">
         <v>0</v>
       </c>
-      <c r="P142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -7011,11 +6582,8 @@
       <c r="O143" s="7">
         <v>0</v>
       </c>
-      <c r="P143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -7058,11 +6626,8 @@
       <c r="O144" s="7">
         <v>0</v>
       </c>
-      <c r="P144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -7105,11 +6670,8 @@
       <c r="O145" s="7">
         <v>0</v>
       </c>
-      <c r="P145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -7155,11 +6717,8 @@
       <c r="O146" s="7">
         <v>0</v>
       </c>
-      <c r="P146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -7205,11 +6764,8 @@
       <c r="O147" s="7">
         <v>0</v>
       </c>
-      <c r="P147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -7255,11 +6811,8 @@
       <c r="O148" s="7">
         <v>0</v>
       </c>
-      <c r="P148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -7305,11 +6858,8 @@
       <c r="O149" s="7">
         <v>0</v>
       </c>
-      <c r="P149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -7355,11 +6905,8 @@
       <c r="O150" s="7">
         <v>0</v>
       </c>
-      <c r="P150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -7405,11 +6952,8 @@
       <c r="O151" s="7">
         <v>0</v>
       </c>
-      <c r="P151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -7455,11 +6999,8 @@
       <c r="O152" s="7">
         <v>0</v>
       </c>
-      <c r="P152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -7505,11 +7046,8 @@
       <c r="O153" s="7">
         <v>0</v>
       </c>
-      <c r="P153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -7555,11 +7093,8 @@
       <c r="O154" s="7">
         <v>0</v>
       </c>
-      <c r="P154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -7605,11 +7140,8 @@
       <c r="O155" s="7">
         <v>0</v>
       </c>
-      <c r="P155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -7655,11 +7187,8 @@
       <c r="O156" s="7">
         <v>0</v>
       </c>
-      <c r="P156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -7705,11 +7234,8 @@
       <c r="O157" s="7">
         <v>0</v>
       </c>
-      <c r="P157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -7755,11 +7281,8 @@
       <c r="O158" s="7">
         <v>0</v>
       </c>
-      <c r="P158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -7805,11 +7328,8 @@
       <c r="O159" s="7">
         <v>0</v>
       </c>
-      <c r="P159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -7855,11 +7375,8 @@
       <c r="O160" s="7">
         <v>0</v>
       </c>
-      <c r="P160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -7905,11 +7422,8 @@
       <c r="O161" s="7">
         <v>0</v>
       </c>
-      <c r="P161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -7955,11 +7469,8 @@
       <c r="O162" s="7">
         <v>1</v>
       </c>
-      <c r="P162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -8005,11 +7516,8 @@
       <c r="O163" s="7">
         <v>0</v>
       </c>
-      <c r="P163" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -8055,11 +7563,8 @@
       <c r="O164" s="7">
         <v>0</v>
       </c>
-      <c r="P164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -8105,11 +7610,8 @@
       <c r="O165" s="7">
         <v>0</v>
       </c>
-      <c r="P165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -8155,11 +7657,8 @@
       <c r="O166" s="7">
         <v>0</v>
       </c>
-      <c r="P166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -8205,11 +7704,8 @@
       <c r="O167" s="7">
         <v>0</v>
       </c>
-      <c r="P167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -8255,11 +7751,8 @@
       <c r="O168" s="7">
         <v>0</v>
       </c>
-      <c r="P168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -8305,11 +7798,8 @@
       <c r="O169" s="7">
         <v>0</v>
       </c>
-      <c r="P169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -8355,11 +7845,8 @@
       <c r="O170" s="7">
         <v>0</v>
       </c>
-      <c r="P170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16">
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -8405,11 +7892,8 @@
       <c r="O171" s="7">
         <v>0</v>
       </c>
-      <c r="P171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -8455,11 +7939,8 @@
       <c r="O172" s="7">
         <v>0</v>
       </c>
-      <c r="P172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -8505,11 +7986,8 @@
       <c r="O173" s="7">
         <v>0</v>
       </c>
-      <c r="P173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -8555,11 +8033,8 @@
       <c r="O174" s="7">
         <v>0</v>
       </c>
-      <c r="P174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -8605,11 +8080,8 @@
       <c r="O175" s="7">
         <v>0</v>
       </c>
-      <c r="P175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -8655,11 +8127,8 @@
       <c r="O176" s="7">
         <v>0</v>
       </c>
-      <c r="P176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -8705,11 +8174,8 @@
       <c r="O177" s="7">
         <v>0</v>
       </c>
-      <c r="P177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16">
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -8755,11 +8221,8 @@
       <c r="O178" s="7">
         <v>0</v>
       </c>
-      <c r="P178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -8805,11 +8268,8 @@
       <c r="O179" s="7">
         <v>0</v>
       </c>
-      <c r="P179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -8855,11 +8315,8 @@
       <c r="O180" s="7">
         <v>0</v>
       </c>
-      <c r="P180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -8905,11 +8362,8 @@
       <c r="O181" s="7">
         <v>0</v>
       </c>
-      <c r="P181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -8955,11 +8409,8 @@
       <c r="O182" s="7">
         <v>0</v>
       </c>
-      <c r="P182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -9005,11 +8456,8 @@
       <c r="O183" s="7">
         <v>0</v>
       </c>
-      <c r="P183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16">
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -9055,11 +8503,8 @@
       <c r="O184" s="7">
         <v>0</v>
       </c>
-      <c r="P184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -9105,11 +8550,8 @@
       <c r="O185" s="7">
         <v>0</v>
       </c>
-      <c r="P185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -9155,11 +8597,8 @@
       <c r="O186" s="7">
         <v>0</v>
       </c>
-      <c r="P186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -9205,11 +8644,8 @@
       <c r="O187" s="7">
         <v>0</v>
       </c>
-      <c r="P187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16">
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -9255,11 +8691,8 @@
       <c r="O188" s="7">
         <v>0</v>
       </c>
-      <c r="P188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -9305,11 +8738,8 @@
       <c r="O189" s="7">
         <v>0</v>
       </c>
-      <c r="P189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -9355,11 +8785,8 @@
       <c r="O190" s="7">
         <v>0</v>
       </c>
-      <c r="P190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -9405,11 +8832,8 @@
       <c r="O191" s="7">
         <v>0</v>
       </c>
-      <c r="P191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -9455,11 +8879,8 @@
       <c r="O192" s="7">
         <v>0</v>
       </c>
-      <c r="P192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16">
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -9505,11 +8926,8 @@
       <c r="O193" s="7">
         <v>0</v>
       </c>
-      <c r="P193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16">
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -9555,11 +8973,8 @@
       <c r="O194" s="7">
         <v>0</v>
       </c>
-      <c r="P194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -9605,11 +9020,8 @@
       <c r="O195" s="7">
         <v>0</v>
       </c>
-      <c r="P195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16">
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -9655,11 +9067,8 @@
       <c r="O196" s="7">
         <v>0</v>
       </c>
-      <c r="P196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -9705,11 +9114,8 @@
       <c r="O197" s="7">
         <v>0</v>
       </c>
-      <c r="P197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16">
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -9755,11 +9161,8 @@
       <c r="O198" s="7">
         <v>0</v>
       </c>
-      <c r="P198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -9805,11 +9208,8 @@
       <c r="O199" s="7">
         <v>0</v>
       </c>
-      <c r="P199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -9855,11 +9255,8 @@
       <c r="O200" s="7">
         <v>0</v>
       </c>
-      <c r="P200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -9905,11 +9302,8 @@
       <c r="O201" s="7">
         <v>0</v>
       </c>
-      <c r="P201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -9955,11 +9349,8 @@
       <c r="O202" s="7">
         <v>0</v>
       </c>
-      <c r="P202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16">
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -10005,11 +9396,8 @@
       <c r="O203" s="7">
         <v>0</v>
       </c>
-      <c r="P203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16">
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -10055,11 +9443,8 @@
       <c r="O204" s="7">
         <v>0</v>
       </c>
-      <c r="P204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16">
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -10105,11 +9490,8 @@
       <c r="O205" s="7">
         <v>0</v>
       </c>
-      <c r="P205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
+    </row>
+    <row r="206" spans="1:15">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -10155,11 +9537,8 @@
       <c r="O206" s="7">
         <v>0</v>
       </c>
-      <c r="P206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16">
+    </row>
+    <row r="207" spans="1:15">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -10205,11 +9584,8 @@
       <c r="O207" s="7">
         <v>0</v>
       </c>
-      <c r="P207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16">
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -10255,11 +9631,8 @@
       <c r="O208" s="7">
         <v>0</v>
       </c>
-      <c r="P208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16">
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -10305,11 +9678,8 @@
       <c r="O209" s="7">
         <v>0</v>
       </c>
-      <c r="P209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16">
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -10355,11 +9725,8 @@
       <c r="O210" s="7">
         <v>0</v>
       </c>
-      <c r="P210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16">
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -10405,11 +9772,8 @@
       <c r="O211" s="7">
         <v>0</v>
       </c>
-      <c r="P211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16">
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -10455,11 +9819,8 @@
       <c r="O212" s="7">
         <v>0</v>
       </c>
-      <c r="P212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16">
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -10505,11 +9866,8 @@
       <c r="O213" s="7">
         <v>0</v>
       </c>
-      <c r="P213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16">
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -10555,11 +9913,8 @@
       <c r="O214" s="7">
         <v>0</v>
       </c>
-      <c r="P214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16">
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -10605,11 +9960,8 @@
       <c r="O215" s="7">
         <v>0</v>
       </c>
-      <c r="P215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16">
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -10655,11 +10007,8 @@
       <c r="O216" s="7">
         <v>0</v>
       </c>
-      <c r="P216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16">
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -10705,11 +10054,8 @@
       <c r="O217" s="7">
         <v>0</v>
       </c>
-      <c r="P217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16">
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -10755,11 +10101,8 @@
       <c r="O218" s="7">
         <v>0</v>
       </c>
-      <c r="P218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16">
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -10805,11 +10148,8 @@
       <c r="O219" s="7">
         <v>0</v>
       </c>
-      <c r="P219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16">
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -10855,11 +10195,8 @@
       <c r="O220" s="7">
         <v>0</v>
       </c>
-      <c r="P220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16">
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -10905,11 +10242,8 @@
       <c r="O221" s="7">
         <v>0</v>
       </c>
-      <c r="P221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16">
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -10955,11 +10289,8 @@
       <c r="O222" s="7">
         <v>0</v>
       </c>
-      <c r="P222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16">
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -11005,11 +10336,8 @@
       <c r="O223" s="7">
         <v>0</v>
       </c>
-      <c r="P223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16">
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -11055,11 +10383,8 @@
       <c r="O224" s="7">
         <v>0</v>
       </c>
-      <c r="P224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16">
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -11105,11 +10430,8 @@
       <c r="O225" s="7">
         <v>0</v>
       </c>
-      <c r="P225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16">
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -11155,11 +10477,8 @@
       <c r="O226" s="7">
         <v>0</v>
       </c>
-      <c r="P226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16">
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -11205,11 +10524,8 @@
       <c r="O227" s="7">
         <v>0</v>
       </c>
-      <c r="P227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16">
+    </row>
+    <row r="228" spans="1:15">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -11255,11 +10571,8 @@
       <c r="O228" s="7">
         <v>0</v>
       </c>
-      <c r="P228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16">
+    </row>
+    <row r="229" spans="1:15">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -11305,11 +10618,8 @@
       <c r="O229" s="7">
         <v>0</v>
       </c>
-      <c r="P229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16">
+    </row>
+    <row r="230" spans="1:15">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -11355,11 +10665,8 @@
       <c r="O230" s="7">
         <v>0</v>
       </c>
-      <c r="P230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16">
+    </row>
+    <row r="231" spans="1:15">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -11405,11 +10712,8 @@
       <c r="O231" s="7">
         <v>0</v>
       </c>
-      <c r="P231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16">
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -11455,11 +10759,8 @@
       <c r="O232" s="7">
         <v>0</v>
       </c>
-      <c r="P232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16">
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -11505,11 +10806,8 @@
       <c r="O233" s="7">
         <v>0</v>
       </c>
-      <c r="P233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16">
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -11555,11 +10853,8 @@
       <c r="O234" s="7">
         <v>0</v>
       </c>
-      <c r="P234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16">
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -11605,11 +10900,8 @@
       <c r="O235" s="7">
         <v>0</v>
       </c>
-      <c r="P235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16">
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -11655,11 +10947,8 @@
       <c r="O236" s="7">
         <v>0</v>
       </c>
-      <c r="P236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16">
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -11705,11 +10994,8 @@
       <c r="O237" s="7">
         <v>0</v>
       </c>
-      <c r="P237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16">
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -11755,11 +11041,8 @@
       <c r="O238" s="7">
         <v>0</v>
       </c>
-      <c r="P238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16">
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -11805,11 +11088,8 @@
       <c r="O239" s="7">
         <v>0</v>
       </c>
-      <c r="P239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16">
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -11855,11 +11135,8 @@
       <c r="O240" s="7">
         <v>0</v>
       </c>
-      <c r="P240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16">
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -11905,11 +11182,8 @@
       <c r="O241" s="7">
         <v>0</v>
       </c>
-      <c r="P241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16">
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -11955,11 +11229,8 @@
       <c r="O242" s="7">
         <v>0</v>
       </c>
-      <c r="P242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16">
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -12005,11 +11276,8 @@
       <c r="O243" s="7">
         <v>0</v>
       </c>
-      <c r="P243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16">
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -12055,11 +11323,8 @@
       <c r="O244" s="7">
         <v>0</v>
       </c>
-      <c r="P244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16">
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -12105,11 +11370,8 @@
       <c r="O245" s="7">
         <v>0</v>
       </c>
-      <c r="P245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16">
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -12155,11 +11417,8 @@
       <c r="O246" s="7">
         <v>0</v>
       </c>
-      <c r="P246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16">
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -12205,11 +11464,8 @@
       <c r="O247" s="7">
         <v>0</v>
       </c>
-      <c r="P247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16">
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -12255,11 +11511,8 @@
       <c r="O248" s="7">
         <v>0</v>
       </c>
-      <c r="P248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16">
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -12305,11 +11558,8 @@
       <c r="O249" s="7">
         <v>0</v>
       </c>
-      <c r="P249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16">
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -12355,11 +11605,8 @@
       <c r="O250" s="7">
         <v>0</v>
       </c>
-      <c r="P250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16">
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -12405,11 +11652,8 @@
       <c r="O251" s="7">
         <v>0</v>
       </c>
-      <c r="P251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16">
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -12455,11 +11699,8 @@
       <c r="O252" s="7">
         <v>0</v>
       </c>
-      <c r="P252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16">
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -12505,11 +11746,8 @@
       <c r="O253" s="7">
         <v>0</v>
       </c>
-      <c r="P253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16">
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -12555,11 +11793,8 @@
       <c r="O254" s="7">
         <v>0</v>
       </c>
-      <c r="P254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16">
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -12605,11 +11840,8 @@
       <c r="O255" s="7">
         <v>0</v>
       </c>
-      <c r="P255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16">
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -12655,11 +11887,8 @@
       <c r="O256" s="7">
         <v>0</v>
       </c>
-      <c r="P256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16">
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -12705,11 +11934,8 @@
       <c r="O257" s="7">
         <v>0</v>
       </c>
-      <c r="P257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16">
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -12755,11 +11981,8 @@
       <c r="O258" s="7">
         <v>0</v>
       </c>
-      <c r="P258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16">
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -12805,11 +12028,8 @@
       <c r="O259" s="7">
         <v>0</v>
       </c>
-      <c r="P259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16">
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -12855,11 +12075,8 @@
       <c r="O260" s="7">
         <v>0</v>
       </c>
-      <c r="P260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16">
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -12905,11 +12122,8 @@
       <c r="O261" s="7">
         <v>0</v>
       </c>
-      <c r="P261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16">
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -12955,11 +12169,8 @@
       <c r="O262" s="7">
         <v>0</v>
       </c>
-      <c r="P262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16">
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -13005,11 +12216,8 @@
       <c r="O263" s="7">
         <v>0</v>
       </c>
-      <c r="P263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16">
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -13055,11 +12263,8 @@
       <c r="O264" s="7">
         <v>0</v>
       </c>
-      <c r="P264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16">
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -13105,11 +12310,8 @@
       <c r="O265" s="7">
         <v>0</v>
       </c>
-      <c r="P265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16">
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -13155,11 +12357,8 @@
       <c r="O266" s="7">
         <v>0</v>
       </c>
-      <c r="P266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16">
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -13205,11 +12404,8 @@
       <c r="O267" s="7">
         <v>0</v>
       </c>
-      <c r="P267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16">
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -13255,11 +12451,8 @@
       <c r="O268" s="7">
         <v>0</v>
       </c>
-      <c r="P268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16">
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -13305,11 +12498,8 @@
       <c r="O269" s="7">
         <v>0</v>
       </c>
-      <c r="P269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16">
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -13355,11 +12545,8 @@
       <c r="O270" s="7">
         <v>0</v>
       </c>
-      <c r="P270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16">
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -13405,11 +12592,8 @@
       <c r="O271" s="7">
         <v>0</v>
       </c>
-      <c r="P271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16">
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -13455,11 +12639,8 @@
       <c r="O272" s="7">
         <v>0</v>
       </c>
-      <c r="P272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16">
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -13505,11 +12686,8 @@
       <c r="O273" s="7">
         <v>0</v>
       </c>
-      <c r="P273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16">
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -13555,11 +12733,8 @@
       <c r="O274" s="7">
         <v>0</v>
       </c>
-      <c r="P274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16">
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -13605,11 +12780,8 @@
       <c r="O275" s="7">
         <v>0</v>
       </c>
-      <c r="P275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16">
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -13655,11 +12827,8 @@
       <c r="O276" s="7">
         <v>0</v>
       </c>
-      <c r="P276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16">
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -13705,11 +12874,8 @@
       <c r="O277" s="7">
         <v>0</v>
       </c>
-      <c r="P277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16">
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -13755,11 +12921,8 @@
       <c r="O278" s="7">
         <v>0</v>
       </c>
-      <c r="P278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16">
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -13805,11 +12968,8 @@
       <c r="O279" s="7">
         <v>0</v>
       </c>
-      <c r="P279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16">
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -13855,11 +13015,8 @@
       <c r="O280" s="7">
         <v>0</v>
       </c>
-      <c r="P280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16">
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -13905,11 +13062,8 @@
       <c r="O281" s="7">
         <v>0</v>
       </c>
-      <c r="P281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16">
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -13955,11 +13109,8 @@
       <c r="O282" s="7">
         <v>0</v>
       </c>
-      <c r="P282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16">
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -14005,11 +13156,8 @@
       <c r="O283" s="7">
         <v>0</v>
       </c>
-      <c r="P283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16">
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -14055,11 +13203,8 @@
       <c r="O284" s="7">
         <v>0</v>
       </c>
-      <c r="P284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16">
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -14105,11 +13250,8 @@
       <c r="O285" s="7">
         <v>0</v>
       </c>
-      <c r="P285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16">
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -14155,11 +13297,8 @@
       <c r="O286" s="7">
         <v>0</v>
       </c>
-      <c r="P286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16">
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -14205,11 +13344,8 @@
       <c r="O287" s="7">
         <v>0</v>
       </c>
-      <c r="P287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16">
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -14255,11 +13391,8 @@
       <c r="O288" s="7">
         <v>0</v>
       </c>
-      <c r="P288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16">
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -14305,11 +13438,8 @@
       <c r="O289" s="7">
         <v>0</v>
       </c>
-      <c r="P289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16">
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -14355,11 +13485,8 @@
       <c r="O290" s="7">
         <v>0</v>
       </c>
-      <c r="P290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16">
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -14405,11 +13532,8 @@
       <c r="O291" s="7">
         <v>0</v>
       </c>
-      <c r="P291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16">
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -14455,11 +13579,8 @@
       <c r="O292" s="7">
         <v>0</v>
       </c>
-      <c r="P292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16">
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -14505,11 +13626,8 @@
       <c r="O293" s="7">
         <v>0</v>
       </c>
-      <c r="P293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16">
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -14555,11 +13673,8 @@
       <c r="O294" s="7">
         <v>0</v>
       </c>
-      <c r="P294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16">
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -14605,11 +13720,8 @@
       <c r="O295" s="7">
         <v>0</v>
       </c>
-      <c r="P295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16">
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -14655,11 +13767,8 @@
       <c r="O296" s="7">
         <v>0</v>
       </c>
-      <c r="P296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16">
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -14705,11 +13814,8 @@
       <c r="O297" s="7">
         <v>0</v>
       </c>
-      <c r="P297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16">
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -14722,9 +13828,8 @@
       <c r="J298" s="7"/>
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
-      <c r="P298" s="7"/>
-    </row>
-    <row r="299" spans="1:16">
+    </row>
+    <row r="299" spans="1:15">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -14737,9 +13842,8 @@
       <c r="J299" s="7"/>
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
-      <c r="P299" s="7"/>
-    </row>
-    <row r="300" spans="1:16">
+    </row>
+    <row r="300" spans="1:15">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -14751,9 +13855,8 @@
       <c r="I300" s="6"/>
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
-      <c r="P300" s="7"/>
-    </row>
-    <row r="301" spans="1:16">
+    </row>
+    <row r="301" spans="1:15">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -14765,17 +13868,15 @@
       <c r="I301" s="6"/>
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
-      <c r="P301" s="7"/>
-    </row>
-    <row r="302" spans="1:16">
+    </row>
+    <row r="302" spans="1:15">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
-      <c r="P302" s="7"/>
-    </row>
-    <row r="303" spans="1:16">
+    </row>
+    <row r="303" spans="1:15">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -14786,9 +13887,8 @@
       <c r="I303" s="6"/>
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
-      <c r="P303" s="7"/>
-    </row>
-    <row r="304" spans="1:16">
+    </row>
+    <row r="304" spans="1:15">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>
@@ -14799,17 +13899,15 @@
       <c r="I304" s="6"/>
       <c r="J304" s="7"/>
       <c r="L304" s="4"/>
-      <c r="P304" s="7"/>
-    </row>
-    <row r="305" spans="1:16">
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" s="1"/>
       <c r="C305" s="3"/>
       <c r="D305"/>
       <c r="F305" s="20"/>
       <c r="G305" s="5"/>
-      <c r="P305" s="7"/>
-    </row>
-    <row r="306" spans="1:16">
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" s="1"/>
       <c r="C306" s="3"/>
       <c r="D306"/>
@@ -14820,9 +13918,8 @@
       <c r="I306" s="6"/>
       <c r="J306" s="7"/>
       <c r="L306" s="4"/>
-      <c r="P306" s="7"/>
-    </row>
-    <row r="307" spans="1:16">
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" s="1"/>
       <c r="C307" s="3"/>
       <c r="D307"/>
@@ -14832,18 +13929,16 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="7"/>
-      <c r="P307" s="7"/>
-    </row>
-    <row r="308" spans="1:16">
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" s="1"/>
       <c r="C308" s="3"/>
       <c r="D308"/>
       <c r="F308" s="20"/>
       <c r="G308" s="5"/>
       <c r="L308" s="4"/>
-      <c r="P308" s="7"/>
-    </row>
-    <row r="309" spans="1:16">
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" s="1"/>
       <c r="C309" s="3"/>
       <c r="D309"/>
@@ -14854,9 +13949,8 @@
       <c r="I309" s="6"/>
       <c r="J309" s="7"/>
       <c r="L309" s="4"/>
-      <c r="P309" s="7"/>
-    </row>
-    <row r="310" spans="1:16">
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" s="1"/>
       <c r="C310" s="3"/>
       <c r="D310"/>
@@ -14866,18 +13960,16 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="7"/>
-      <c r="P310" s="7"/>
-    </row>
-    <row r="311" spans="1:16">
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" s="1"/>
       <c r="C311" s="3"/>
       <c r="D311"/>
       <c r="F311" s="20"/>
       <c r="G311" s="5"/>
       <c r="L311" s="4"/>
-      <c r="P311" s="7"/>
-    </row>
-    <row r="312" spans="1:16">
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" s="1"/>
       <c r="C312" s="3"/>
       <c r="D312"/>
@@ -14885,52 +13977,46 @@
       <c r="F312" s="20"/>
       <c r="G312" s="5"/>
       <c r="L312" s="4"/>
-      <c r="P312" s="7"/>
-    </row>
-    <row r="313" spans="1:16">
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" s="1"/>
       <c r="C313" s="3"/>
       <c r="D313"/>
       <c r="F313" s="20"/>
       <c r="G313" s="5"/>
-      <c r="P313" s="7"/>
-    </row>
-    <row r="314" spans="1:16">
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" s="1"/>
       <c r="C314" s="3"/>
       <c r="D314"/>
       <c r="F314" s="20"/>
       <c r="G314" s="5"/>
       <c r="L314" s="4"/>
-      <c r="P314" s="7"/>
-    </row>
-    <row r="315" spans="1:16">
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" s="1"/>
       <c r="C315" s="3"/>
       <c r="D315"/>
       <c r="F315" s="20"/>
       <c r="G315" s="5"/>
       <c r="L315" s="4"/>
-      <c r="P315" s="7"/>
-    </row>
-    <row r="316" spans="1:16">
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" s="1"/>
       <c r="C316" s="3"/>
       <c r="D316"/>
       <c r="F316" s="20"/>
       <c r="G316" s="5"/>
-      <c r="P316" s="7"/>
-    </row>
-    <row r="317" spans="1:16">
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" s="1"/>
       <c r="C317" s="3"/>
       <c r="D317"/>
       <c r="F317" s="20"/>
       <c r="G317" s="5"/>
       <c r="L317" s="4"/>
-      <c r="P317" s="7"/>
-    </row>
-    <row r="318" spans="1:16">
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" s="1"/>
       <c r="C318" s="3"/>
       <c r="D318"/>
@@ -14938,14 +14024,14 @@
       <c r="G318" s="5"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:12">
       <c r="A319" s="1"/>
       <c r="C319" s="3"/>
       <c r="D319"/>
       <c r="F319" s="20"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:12">
       <c r="A320" s="1"/>
       <c r="C320" s="3"/>
       <c r="D320"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F6831-89D3-464B-8580-C887D616593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB012D0D-8734-8549-8AA8-4E08D10DF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="18">
   <si>
     <t>Ebc</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -553,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:O643"/>
+  <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,7 +569,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -615,11 +612,8 @@
       <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -653,11 +647,8 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -691,11 +682,8 @@
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -729,11 +717,8 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -767,11 +752,8 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -805,11 +787,8 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -843,11 +822,8 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -881,11 +857,8 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -919,11 +892,8 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -957,11 +927,8 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -995,11 +962,8 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1033,11 +997,8 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1071,11 +1032,8 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1109,11 +1067,8 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1147,11 +1102,8 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1185,11 +1137,8 @@
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1223,11 +1172,8 @@
       <c r="N17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1261,11 +1207,8 @@
       <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1299,11 +1242,8 @@
       <c r="N19" s="7">
         <v>0</v>
       </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1337,11 +1277,8 @@
       <c r="N20" s="7">
         <v>0</v>
       </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1375,11 +1312,8 @@
       <c r="N21" s="7">
         <v>0</v>
       </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1413,11 +1347,8 @@
       <c r="N22" s="7">
         <v>0</v>
       </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1451,11 +1382,8 @@
       <c r="N23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1489,11 +1417,8 @@
       <c r="N24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1527,11 +1452,8 @@
       <c r="N25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1565,11 +1487,8 @@
       <c r="N26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1603,11 +1522,8 @@
       <c r="N27" s="7">
         <v>0</v>
       </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1641,11 +1557,8 @@
       <c r="N28" s="7">
         <v>0</v>
       </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1679,11 +1592,8 @@
       <c r="N29" s="7">
         <v>0</v>
       </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1719,11 +1629,8 @@
       <c r="N30" s="7">
         <v>0</v>
       </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1759,11 +1666,8 @@
       <c r="N31" s="7">
         <v>0</v>
       </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1799,11 +1703,8 @@
       <c r="N32" s="7">
         <v>0</v>
       </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1839,11 +1740,8 @@
       <c r="N33" s="7">
         <v>0</v>
       </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1879,11 +1777,8 @@
       <c r="N34" s="7">
         <v>0</v>
       </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1919,11 +1814,8 @@
       <c r="N35" s="7">
         <v>0</v>
       </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -1959,11 +1851,8 @@
       <c r="N36" s="7">
         <v>0</v>
       </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -1999,11 +1888,8 @@
       <c r="N37" s="7">
         <v>0</v>
       </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2042,11 +1928,8 @@
       <c r="N38" s="7">
         <v>0</v>
       </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2085,11 +1968,8 @@
       <c r="N39" s="7">
         <v>0</v>
       </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2128,11 +2008,8 @@
       <c r="N40" s="7">
         <v>0</v>
       </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2171,11 +2048,8 @@
       <c r="N41" s="7">
         <v>0</v>
       </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2214,11 +2088,8 @@
       <c r="N42" s="7">
         <v>0</v>
       </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2257,11 +2128,8 @@
       <c r="N43" s="7">
         <v>0</v>
       </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2300,11 +2168,8 @@
       <c r="N44" s="7">
         <v>0</v>
       </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2343,11 +2208,8 @@
       <c r="N45" s="7">
         <v>0</v>
       </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2386,11 +2248,8 @@
       <c r="N46" s="7">
         <v>0</v>
       </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2429,11 +2288,8 @@
       <c r="N47" s="7">
         <v>0</v>
       </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2472,11 +2328,8 @@
       <c r="N48" s="7">
         <v>0</v>
       </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2515,11 +2368,8 @@
       <c r="N49" s="7">
         <v>0</v>
       </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2558,11 +2408,8 @@
       <c r="N50" s="7">
         <v>0</v>
       </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2601,11 +2448,8 @@
       <c r="N51" s="7">
         <v>0</v>
       </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2644,11 +2488,8 @@
       <c r="N52" s="7">
         <v>0</v>
       </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2687,11 +2528,8 @@
       <c r="N53" s="7">
         <v>0</v>
       </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2730,11 +2568,8 @@
       <c r="N54" s="7">
         <v>0</v>
       </c>
-      <c r="O54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2773,11 +2608,8 @@
       <c r="N55" s="7">
         <v>0</v>
       </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2816,11 +2648,8 @@
       <c r="N56" s="7">
         <v>0</v>
       </c>
-      <c r="O56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -2859,11 +2688,8 @@
       <c r="N57" s="7">
         <v>0</v>
       </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -2902,11 +2728,8 @@
       <c r="N58" s="7">
         <v>0</v>
       </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -2945,11 +2768,8 @@
       <c r="N59" s="7">
         <v>0</v>
       </c>
-      <c r="O59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -2988,11 +2808,8 @@
       <c r="N60" s="7">
         <v>0</v>
       </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3031,11 +2848,8 @@
       <c r="N61" s="7">
         <v>0</v>
       </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -3074,11 +2888,8 @@
       <c r="N62" s="7">
         <v>0</v>
       </c>
-      <c r="O62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -3117,11 +2928,8 @@
       <c r="N63" s="7">
         <v>0</v>
       </c>
-      <c r="O63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3160,11 +2968,8 @@
       <c r="N64" s="7">
         <v>0</v>
       </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3203,11 +3008,8 @@
       <c r="N65" s="7">
         <v>0</v>
       </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3246,11 +3048,8 @@
       <c r="N66" s="7">
         <v>0</v>
       </c>
-      <c r="O66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3289,11 +3088,8 @@
       <c r="N67" s="7">
         <v>0</v>
       </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3332,11 +3128,8 @@
       <c r="N68" s="7">
         <v>0</v>
       </c>
-      <c r="O68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -3375,11 +3168,8 @@
       <c r="N69" s="7">
         <v>0</v>
       </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -3418,11 +3208,8 @@
       <c r="N70" s="7">
         <v>0</v>
       </c>
-      <c r="O70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3461,11 +3248,8 @@
       <c r="N71" s="7">
         <v>0</v>
       </c>
-      <c r="O71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3504,11 +3288,8 @@
       <c r="N72" s="7">
         <v>0</v>
       </c>
-      <c r="O72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3547,11 +3328,8 @@
       <c r="N73" s="7">
         <v>0</v>
       </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3590,11 +3368,8 @@
       <c r="N74" s="7">
         <v>0</v>
       </c>
-      <c r="O74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3633,11 +3408,8 @@
       <c r="N75" s="7">
         <v>0</v>
       </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3676,11 +3448,8 @@
       <c r="N76" s="7">
         <v>0</v>
       </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3719,11 +3488,8 @@
       <c r="N77" s="7">
         <v>0</v>
       </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3762,11 +3528,8 @@
       <c r="N78" s="7">
         <v>0</v>
       </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -3805,11 +3568,8 @@
       <c r="N79" s="7">
         <v>0</v>
       </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -3848,11 +3608,8 @@
       <c r="N80" s="7">
         <v>0</v>
       </c>
-      <c r="O80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -3891,11 +3648,8 @@
       <c r="N81" s="7">
         <v>0</v>
       </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -3934,11 +3688,8 @@
       <c r="N82" s="7">
         <v>0</v>
       </c>
-      <c r="O82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -3977,11 +3728,8 @@
       <c r="N83" s="7">
         <v>0</v>
       </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -4020,11 +3768,8 @@
       <c r="N84" s="7">
         <v>0</v>
       </c>
-      <c r="O84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -4063,11 +3808,8 @@
       <c r="N85" s="7">
         <v>0</v>
       </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -4106,11 +3848,8 @@
       <c r="N86" s="7">
         <v>0</v>
       </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -4149,11 +3888,8 @@
       <c r="N87" s="7">
         <v>0</v>
       </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -4192,11 +3928,8 @@
       <c r="N88" s="7">
         <v>0</v>
       </c>
-      <c r="O88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -4235,11 +3968,8 @@
       <c r="N89" s="7">
         <v>0</v>
       </c>
-      <c r="O89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -4278,11 +4008,8 @@
       <c r="N90" s="7">
         <v>0</v>
       </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -4321,11 +4048,8 @@
       <c r="N91" s="7">
         <v>0</v>
       </c>
-      <c r="O91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -4364,11 +4088,8 @@
       <c r="N92" s="7">
         <v>0</v>
       </c>
-      <c r="O92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -4407,11 +4128,8 @@
       <c r="N93" s="7">
         <v>0</v>
       </c>
-      <c r="O93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -4450,11 +4168,8 @@
       <c r="N94" s="7">
         <v>0</v>
       </c>
-      <c r="O94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -4493,11 +4208,8 @@
       <c r="N95" s="7">
         <v>0</v>
       </c>
-      <c r="O95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -4536,11 +4248,8 @@
       <c r="N96" s="7">
         <v>0</v>
       </c>
-      <c r="O96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -4579,11 +4288,8 @@
       <c r="N97" s="7">
         <v>0</v>
       </c>
-      <c r="O97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4622,11 +4328,8 @@
       <c r="N98" s="7">
         <v>0</v>
       </c>
-      <c r="O98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4665,11 +4368,8 @@
       <c r="N99" s="7">
         <v>0</v>
       </c>
-      <c r="O99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -4708,11 +4408,8 @@
       <c r="N100" s="7">
         <v>0</v>
       </c>
-      <c r="O100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -4751,11 +4448,8 @@
       <c r="N101" s="7">
         <v>0</v>
       </c>
-      <c r="O101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -4794,11 +4488,8 @@
       <c r="N102" s="7">
         <v>0</v>
       </c>
-      <c r="O102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -4837,11 +4528,8 @@
       <c r="N103" s="7">
         <v>0</v>
       </c>
-      <c r="O103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -4880,11 +4568,8 @@
       <c r="N104" s="7">
         <v>0</v>
       </c>
-      <c r="O104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -4923,11 +4608,8 @@
       <c r="N105" s="7">
         <v>0</v>
       </c>
-      <c r="O105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -4966,11 +4648,8 @@
       <c r="N106" s="7">
         <v>0</v>
       </c>
-      <c r="O106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -5009,11 +4688,8 @@
       <c r="N107" s="7">
         <v>0</v>
       </c>
-      <c r="O107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -5052,11 +4728,8 @@
       <c r="N108" s="7">
         <v>0</v>
       </c>
-      <c r="O108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -5095,11 +4768,8 @@
       <c r="N109" s="7">
         <v>0</v>
       </c>
-      <c r="O109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -5138,11 +4808,8 @@
       <c r="N110" s="7">
         <v>0</v>
       </c>
-      <c r="O110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -5181,11 +4848,8 @@
       <c r="N111" s="7">
         <v>0</v>
       </c>
-      <c r="O111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -5224,11 +4888,8 @@
       <c r="N112" s="7">
         <v>0</v>
       </c>
-      <c r="O112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -5267,11 +4928,8 @@
       <c r="N113" s="7">
         <v>0</v>
       </c>
-      <c r="O113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -5310,11 +4968,8 @@
       <c r="N114" s="7">
         <v>0</v>
       </c>
-      <c r="O114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -5353,11 +5008,8 @@
       <c r="N115" s="7">
         <v>0</v>
       </c>
-      <c r="O115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -5396,11 +5048,8 @@
       <c r="N116" s="7">
         <v>0</v>
       </c>
-      <c r="O116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -5439,11 +5088,8 @@
       <c r="N117" s="7">
         <v>0</v>
       </c>
-      <c r="O117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -5482,11 +5128,8 @@
       <c r="N118" s="7">
         <v>0</v>
       </c>
-      <c r="O118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -5525,11 +5168,8 @@
       <c r="N119" s="7">
         <v>0</v>
       </c>
-      <c r="O119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -5568,11 +5208,8 @@
       <c r="N120" s="7">
         <v>0</v>
       </c>
-      <c r="O120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -5611,11 +5248,8 @@
       <c r="N121" s="7">
         <v>0</v>
       </c>
-      <c r="O121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -5655,11 +5289,8 @@
       <c r="N122" s="7">
         <v>0</v>
       </c>
-      <c r="O122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -5699,11 +5330,8 @@
       <c r="N123" s="7">
         <v>0</v>
       </c>
-      <c r="O123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -5743,11 +5371,8 @@
       <c r="N124" s="7">
         <v>0</v>
       </c>
-      <c r="O124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -5787,11 +5412,8 @@
       <c r="N125" s="7">
         <v>0</v>
       </c>
-      <c r="O125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -5831,11 +5453,8 @@
       <c r="N126" s="7">
         <v>0</v>
       </c>
-      <c r="O126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -5875,11 +5494,8 @@
       <c r="N127" s="7">
         <v>0</v>
       </c>
-      <c r="O127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -5919,11 +5535,8 @@
       <c r="N128" s="7">
         <v>0</v>
       </c>
-      <c r="O128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -5963,11 +5576,8 @@
       <c r="N129" s="7">
         <v>0</v>
       </c>
-      <c r="O129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -6007,11 +5617,8 @@
       <c r="N130" s="7">
         <v>0</v>
       </c>
-      <c r="O130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -6051,11 +5658,8 @@
       <c r="N131" s="7">
         <v>0</v>
       </c>
-      <c r="O131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -6095,11 +5699,8 @@
       <c r="N132" s="7">
         <v>0</v>
       </c>
-      <c r="O132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -6139,11 +5740,8 @@
       <c r="N133" s="7">
         <v>0</v>
       </c>
-      <c r="O133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -6183,11 +5781,8 @@
       <c r="N134" s="7">
         <v>0</v>
       </c>
-      <c r="O134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -6227,11 +5822,8 @@
       <c r="N135" s="7">
         <v>0</v>
       </c>
-      <c r="O135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -6271,11 +5863,8 @@
       <c r="N136" s="7">
         <v>0</v>
       </c>
-      <c r="O136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -6315,11 +5904,8 @@
       <c r="N137" s="7">
         <v>0</v>
       </c>
-      <c r="O137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -6359,11 +5945,8 @@
       <c r="N138" s="7">
         <v>0</v>
       </c>
-      <c r="O138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -6403,11 +5986,8 @@
       <c r="N139" s="7">
         <v>0</v>
       </c>
-      <c r="O139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -6447,11 +6027,8 @@
       <c r="N140" s="7">
         <v>0</v>
       </c>
-      <c r="O140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -6491,11 +6068,8 @@
       <c r="N141" s="7">
         <v>0</v>
       </c>
-      <c r="O141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -6535,11 +6109,8 @@
       <c r="N142" s="7">
         <v>0</v>
       </c>
-      <c r="O142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -6579,11 +6150,8 @@
       <c r="N143" s="7">
         <v>0</v>
       </c>
-      <c r="O143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -6623,11 +6191,8 @@
       <c r="N144" s="7">
         <v>0</v>
       </c>
-      <c r="O144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -6667,11 +6232,8 @@
       <c r="N145" s="7">
         <v>0</v>
       </c>
-      <c r="O145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -6714,11 +6276,8 @@
       <c r="N146" s="7">
         <v>0</v>
       </c>
-      <c r="O146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -6761,11 +6320,8 @@
       <c r="N147" s="7">
         <v>0</v>
       </c>
-      <c r="O147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -6808,11 +6364,8 @@
       <c r="N148" s="7">
         <v>0</v>
       </c>
-      <c r="O148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -6855,11 +6408,8 @@
       <c r="N149" s="7">
         <v>0</v>
       </c>
-      <c r="O149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -6902,11 +6452,8 @@
       <c r="N150" s="7">
         <v>0</v>
       </c>
-      <c r="O150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -6949,11 +6496,8 @@
       <c r="N151" s="7">
         <v>0</v>
       </c>
-      <c r="O151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -6996,11 +6540,8 @@
       <c r="N152" s="7">
         <v>0</v>
       </c>
-      <c r="O152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -7043,11 +6584,8 @@
       <c r="N153" s="7">
         <v>0</v>
       </c>
-      <c r="O153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -7090,11 +6628,8 @@
       <c r="N154" s="7">
         <v>0</v>
       </c>
-      <c r="O154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -7137,11 +6672,8 @@
       <c r="N155" s="7">
         <v>0</v>
       </c>
-      <c r="O155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -7184,11 +6716,8 @@
       <c r="N156" s="7">
         <v>0</v>
       </c>
-      <c r="O156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -7231,11 +6760,8 @@
       <c r="N157" s="7">
         <v>0</v>
       </c>
-      <c r="O157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -7278,11 +6804,8 @@
       <c r="N158" s="7">
         <v>0</v>
       </c>
-      <c r="O158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -7320,16 +6843,13 @@
         <v>95.272379999999998</v>
       </c>
       <c r="M159" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159" s="7">
         <v>0</v>
       </c>
-      <c r="O159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -7367,16 +6887,13 @@
         <v>95.125399999999999</v>
       </c>
       <c r="M160" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" s="7">
-        <v>1</v>
-      </c>
-      <c r="O160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -7419,11 +6936,8 @@
       <c r="N161" s="7">
         <v>0</v>
       </c>
-      <c r="O161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -7464,13 +6978,10 @@
         <v>0</v>
       </c>
       <c r="N162" s="7">
-        <v>0</v>
-      </c>
-      <c r="O162" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:14">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -7513,11 +7024,8 @@
       <c r="N163" s="7">
         <v>0</v>
       </c>
-      <c r="O163" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -7560,11 +7068,8 @@
       <c r="N164" s="7">
         <v>0</v>
       </c>
-      <c r="O164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -7607,11 +7112,8 @@
       <c r="N165" s="7">
         <v>0</v>
       </c>
-      <c r="O165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -7654,11 +7156,8 @@
       <c r="N166" s="7">
         <v>0</v>
       </c>
-      <c r="O166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -7701,11 +7200,8 @@
       <c r="N167" s="7">
         <v>0</v>
       </c>
-      <c r="O167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -7748,11 +7244,8 @@
       <c r="N168" s="7">
         <v>0</v>
       </c>
-      <c r="O168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -7795,11 +7288,8 @@
       <c r="N169" s="7">
         <v>0</v>
       </c>
-      <c r="O169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -7842,11 +7332,8 @@
       <c r="N170" s="7">
         <v>0</v>
       </c>
-      <c r="O170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -7889,11 +7376,8 @@
       <c r="N171" s="7">
         <v>0</v>
       </c>
-      <c r="O171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -7936,11 +7420,8 @@
       <c r="N172" s="7">
         <v>0</v>
       </c>
-      <c r="O172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -7983,11 +7464,8 @@
       <c r="N173" s="7">
         <v>0</v>
       </c>
-      <c r="O173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -8030,11 +7508,8 @@
       <c r="N174" s="7">
         <v>0</v>
       </c>
-      <c r="O174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -8077,11 +7552,8 @@
       <c r="N175" s="7">
         <v>0</v>
       </c>
-      <c r="O175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -8124,11 +7596,8 @@
       <c r="N176" s="7">
         <v>0</v>
       </c>
-      <c r="O176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -8171,11 +7640,8 @@
       <c r="N177" s="7">
         <v>0</v>
       </c>
-      <c r="O177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -8218,11 +7684,8 @@
       <c r="N178" s="7">
         <v>0</v>
       </c>
-      <c r="O178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -8265,11 +7728,8 @@
       <c r="N179" s="7">
         <v>0</v>
       </c>
-      <c r="O179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -8312,11 +7772,8 @@
       <c r="N180" s="7">
         <v>0</v>
       </c>
-      <c r="O180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -8359,11 +7816,8 @@
       <c r="N181" s="7">
         <v>0</v>
       </c>
-      <c r="O181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -8406,11 +7860,8 @@
       <c r="N182" s="7">
         <v>0</v>
       </c>
-      <c r="O182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -8453,11 +7904,8 @@
       <c r="N183" s="7">
         <v>0</v>
       </c>
-      <c r="O183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -8500,11 +7948,8 @@
       <c r="N184" s="7">
         <v>0</v>
       </c>
-      <c r="O184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -8547,11 +7992,8 @@
       <c r="N185" s="7">
         <v>0</v>
       </c>
-      <c r="O185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -8594,11 +8036,8 @@
       <c r="N186" s="7">
         <v>0</v>
       </c>
-      <c r="O186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -8641,11 +8080,8 @@
       <c r="N187" s="7">
         <v>0</v>
       </c>
-      <c r="O187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -8688,11 +8124,8 @@
       <c r="N188" s="7">
         <v>0</v>
       </c>
-      <c r="O188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -8735,11 +8168,8 @@
       <c r="N189" s="7">
         <v>0</v>
       </c>
-      <c r="O189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -8782,11 +8212,8 @@
       <c r="N190" s="7">
         <v>0</v>
       </c>
-      <c r="O190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -8829,11 +8256,8 @@
       <c r="N191" s="7">
         <v>0</v>
       </c>
-      <c r="O191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -8876,11 +8300,8 @@
       <c r="N192" s="7">
         <v>0</v>
       </c>
-      <c r="O192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15">
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -8923,11 +8344,8 @@
       <c r="N193" s="7">
         <v>0</v>
       </c>
-      <c r="O193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -8970,11 +8388,8 @@
       <c r="N194" s="7">
         <v>0</v>
       </c>
-      <c r="O194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -9017,11 +8432,8 @@
       <c r="N195" s="7">
         <v>0</v>
       </c>
-      <c r="O195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -9064,11 +8476,8 @@
       <c r="N196" s="7">
         <v>0</v>
       </c>
-      <c r="O196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15">
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -9111,11 +8520,8 @@
       <c r="N197" s="7">
         <v>0</v>
       </c>
-      <c r="O197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15">
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -9158,11 +8564,8 @@
       <c r="N198" s="7">
         <v>0</v>
       </c>
-      <c r="O198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -9205,11 +8608,8 @@
       <c r="N199" s="7">
         <v>0</v>
       </c>
-      <c r="O199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -9252,11 +8652,8 @@
       <c r="N200" s="7">
         <v>0</v>
       </c>
-      <c r="O200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -9299,11 +8696,8 @@
       <c r="N201" s="7">
         <v>0</v>
       </c>
-      <c r="O201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15">
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -9346,11 +8740,8 @@
       <c r="N202" s="7">
         <v>0</v>
       </c>
-      <c r="O202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15">
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -9393,11 +8784,8 @@
       <c r="N203" s="7">
         <v>0</v>
       </c>
-      <c r="O203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15">
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -9440,11 +8828,8 @@
       <c r="N204" s="7">
         <v>0</v>
       </c>
-      <c r="O204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15">
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -9487,11 +8872,8 @@
       <c r="N205" s="7">
         <v>0</v>
       </c>
-      <c r="O205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15">
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -9534,11 +8916,8 @@
       <c r="N206" s="7">
         <v>0</v>
       </c>
-      <c r="O206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -9581,11 +8960,8 @@
       <c r="N207" s="7">
         <v>0</v>
       </c>
-      <c r="O207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15">
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -9628,11 +9004,8 @@
       <c r="N208" s="7">
         <v>0</v>
       </c>
-      <c r="O208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15">
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -9675,11 +9048,8 @@
       <c r="N209" s="7">
         <v>0</v>
       </c>
-      <c r="O209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15">
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -9722,11 +9092,8 @@
       <c r="N210" s="7">
         <v>0</v>
       </c>
-      <c r="O210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15">
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -9769,11 +9136,8 @@
       <c r="N211" s="7">
         <v>0</v>
       </c>
-      <c r="O211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15">
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -9816,11 +9180,8 @@
       <c r="N212" s="7">
         <v>0</v>
       </c>
-      <c r="O212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15">
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -9863,11 +9224,8 @@
       <c r="N213" s="7">
         <v>0</v>
       </c>
-      <c r="O213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15">
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -9910,11 +9268,8 @@
       <c r="N214" s="7">
         <v>0</v>
       </c>
-      <c r="O214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -9957,11 +9312,8 @@
       <c r="N215" s="7">
         <v>0</v>
       </c>
-      <c r="O215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15">
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -10004,11 +9356,8 @@
       <c r="N216" s="7">
         <v>0</v>
       </c>
-      <c r="O216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -10051,11 +9400,8 @@
       <c r="N217" s="7">
         <v>0</v>
       </c>
-      <c r="O217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -10098,11 +9444,8 @@
       <c r="N218" s="7">
         <v>0</v>
       </c>
-      <c r="O218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -10145,11 +9488,8 @@
       <c r="N219" s="7">
         <v>0</v>
       </c>
-      <c r="O219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15">
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -10192,11 +9532,8 @@
       <c r="N220" s="7">
         <v>0</v>
       </c>
-      <c r="O220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -10239,11 +9576,8 @@
       <c r="N221" s="7">
         <v>0</v>
       </c>
-      <c r="O221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15">
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -10286,11 +9620,8 @@
       <c r="N222" s="7">
         <v>0</v>
       </c>
-      <c r="O222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -10333,11 +9664,8 @@
       <c r="N223" s="7">
         <v>0</v>
       </c>
-      <c r="O223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -10380,11 +9708,8 @@
       <c r="N224" s="7">
         <v>0</v>
       </c>
-      <c r="O224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -10427,11 +9752,8 @@
       <c r="N225" s="7">
         <v>0</v>
       </c>
-      <c r="O225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -10474,11 +9796,8 @@
       <c r="N226" s="7">
         <v>0</v>
       </c>
-      <c r="O226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -10521,11 +9840,8 @@
       <c r="N227" s="7">
         <v>0</v>
       </c>
-      <c r="O227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15">
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -10568,11 +9884,8 @@
       <c r="N228" s="7">
         <v>0</v>
       </c>
-      <c r="O228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -10615,11 +9928,8 @@
       <c r="N229" s="7">
         <v>0</v>
       </c>
-      <c r="O229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -10662,11 +9972,8 @@
       <c r="N230" s="7">
         <v>0</v>
       </c>
-      <c r="O230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15">
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -10709,11 +10016,8 @@
       <c r="N231" s="7">
         <v>0</v>
       </c>
-      <c r="O231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15">
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -10756,11 +10060,8 @@
       <c r="N232" s="7">
         <v>0</v>
       </c>
-      <c r="O232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15">
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -10803,11 +10104,8 @@
       <c r="N233" s="7">
         <v>0</v>
       </c>
-      <c r="O233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15">
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -10850,11 +10148,8 @@
       <c r="N234" s="7">
         <v>0</v>
       </c>
-      <c r="O234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15">
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -10897,11 +10192,8 @@
       <c r="N235" s="7">
         <v>0</v>
       </c>
-      <c r="O235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -10944,11 +10236,8 @@
       <c r="N236" s="7">
         <v>0</v>
       </c>
-      <c r="O236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15">
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -10991,11 +10280,8 @@
       <c r="N237" s="7">
         <v>0</v>
       </c>
-      <c r="O237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15">
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -11038,11 +10324,8 @@
       <c r="N238" s="7">
         <v>0</v>
       </c>
-      <c r="O238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -11085,11 +10368,8 @@
       <c r="N239" s="7">
         <v>0</v>
       </c>
-      <c r="O239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15">
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -11132,11 +10412,8 @@
       <c r="N240" s="7">
         <v>0</v>
       </c>
-      <c r="O240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15">
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -11179,11 +10456,8 @@
       <c r="N241" s="7">
         <v>0</v>
       </c>
-      <c r="O241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15">
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -11226,11 +10500,8 @@
       <c r="N242" s="7">
         <v>0</v>
       </c>
-      <c r="O242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15">
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -11273,11 +10544,8 @@
       <c r="N243" s="7">
         <v>0</v>
       </c>
-      <c r="O243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15">
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -11320,11 +10588,8 @@
       <c r="N244" s="7">
         <v>0</v>
       </c>
-      <c r="O244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15">
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -11367,11 +10632,8 @@
       <c r="N245" s="7">
         <v>0</v>
       </c>
-      <c r="O245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15">
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -11414,11 +10676,8 @@
       <c r="N246" s="7">
         <v>0</v>
       </c>
-      <c r="O246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15">
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -11461,11 +10720,8 @@
       <c r="N247" s="7">
         <v>0</v>
       </c>
-      <c r="O247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15">
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -11508,11 +10764,8 @@
       <c r="N248" s="7">
         <v>0</v>
       </c>
-      <c r="O248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15">
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -11555,11 +10808,8 @@
       <c r="N249" s="7">
         <v>0</v>
       </c>
-      <c r="O249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15">
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -11602,11 +10852,8 @@
       <c r="N250" s="7">
         <v>0</v>
       </c>
-      <c r="O250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15">
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -11649,11 +10896,8 @@
       <c r="N251" s="7">
         <v>0</v>
       </c>
-      <c r="O251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15">
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -11696,11 +10940,8 @@
       <c r="N252" s="7">
         <v>0</v>
       </c>
-      <c r="O252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -11743,11 +10984,8 @@
       <c r="N253" s="7">
         <v>0</v>
       </c>
-      <c r="O253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15">
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -11790,11 +11028,8 @@
       <c r="N254" s="7">
         <v>0</v>
       </c>
-      <c r="O254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15">
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -11837,11 +11072,8 @@
       <c r="N255" s="7">
         <v>0</v>
       </c>
-      <c r="O255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15">
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -11884,11 +11116,8 @@
       <c r="N256" s="7">
         <v>0</v>
       </c>
-      <c r="O256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15">
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -11931,11 +11160,8 @@
       <c r="N257" s="7">
         <v>0</v>
       </c>
-      <c r="O257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15">
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -11978,11 +11204,8 @@
       <c r="N258" s="7">
         <v>0</v>
       </c>
-      <c r="O258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15">
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -12025,11 +11248,8 @@
       <c r="N259" s="7">
         <v>0</v>
       </c>
-      <c r="O259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15">
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -12072,11 +11292,8 @@
       <c r="N260" s="7">
         <v>0</v>
       </c>
-      <c r="O260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15">
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -12119,11 +11336,8 @@
       <c r="N261" s="7">
         <v>0</v>
       </c>
-      <c r="O261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15">
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -12166,11 +11380,8 @@
       <c r="N262" s="7">
         <v>0</v>
       </c>
-      <c r="O262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15">
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -12213,11 +11424,8 @@
       <c r="N263" s="7">
         <v>0</v>
       </c>
-      <c r="O263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15">
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -12260,11 +11468,8 @@
       <c r="N264" s="7">
         <v>0</v>
       </c>
-      <c r="O264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15">
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -12307,11 +11512,8 @@
       <c r="N265" s="7">
         <v>0</v>
       </c>
-      <c r="O265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15">
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -12354,11 +11556,8 @@
       <c r="N266" s="7">
         <v>0</v>
       </c>
-      <c r="O266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15">
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -12401,11 +11600,8 @@
       <c r="N267" s="7">
         <v>0</v>
       </c>
-      <c r="O267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15">
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -12448,11 +11644,8 @@
       <c r="N268" s="7">
         <v>0</v>
       </c>
-      <c r="O268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15">
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -12495,11 +11688,8 @@
       <c r="N269" s="7">
         <v>0</v>
       </c>
-      <c r="O269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15">
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -12542,11 +11732,8 @@
       <c r="N270" s="7">
         <v>0</v>
       </c>
-      <c r="O270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15">
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -12589,11 +11776,8 @@
       <c r="N271" s="7">
         <v>0</v>
       </c>
-      <c r="O271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -12636,11 +11820,8 @@
       <c r="N272" s="7">
         <v>0</v>
       </c>
-      <c r="O272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15">
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -12683,11 +11864,8 @@
       <c r="N273" s="7">
         <v>0</v>
       </c>
-      <c r="O273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15">
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -12730,11 +11908,8 @@
       <c r="N274" s="7">
         <v>0</v>
       </c>
-      <c r="O274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15">
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -12777,11 +11952,8 @@
       <c r="N275" s="7">
         <v>0</v>
       </c>
-      <c r="O275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15">
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -12824,11 +11996,8 @@
       <c r="N276" s="7">
         <v>0</v>
       </c>
-      <c r="O276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15">
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -12871,11 +12040,8 @@
       <c r="N277" s="7">
         <v>0</v>
       </c>
-      <c r="O277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15">
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -12918,11 +12084,8 @@
       <c r="N278" s="7">
         <v>0</v>
       </c>
-      <c r="O278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15">
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -12965,11 +12128,8 @@
       <c r="N279" s="7">
         <v>0</v>
       </c>
-      <c r="O279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15">
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -13012,11 +12172,8 @@
       <c r="N280" s="7">
         <v>0</v>
       </c>
-      <c r="O280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15">
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -13059,11 +12216,8 @@
       <c r="N281" s="7">
         <v>0</v>
       </c>
-      <c r="O281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15">
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -13106,11 +12260,8 @@
       <c r="N282" s="7">
         <v>0</v>
       </c>
-      <c r="O282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15">
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -13153,11 +12304,8 @@
       <c r="N283" s="7">
         <v>0</v>
       </c>
-      <c r="O283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15">
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -13200,11 +12348,8 @@
       <c r="N284" s="7">
         <v>0</v>
       </c>
-      <c r="O284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15">
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -13247,11 +12392,8 @@
       <c r="N285" s="7">
         <v>0</v>
       </c>
-      <c r="O285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15">
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -13294,11 +12436,8 @@
       <c r="N286" s="7">
         <v>0</v>
       </c>
-      <c r="O286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15">
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -13341,11 +12480,8 @@
       <c r="N287" s="7">
         <v>0</v>
       </c>
-      <c r="O287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15">
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -13388,11 +12524,8 @@
       <c r="N288" s="7">
         <v>0</v>
       </c>
-      <c r="O288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15">
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -13435,11 +12568,8 @@
       <c r="N289" s="7">
         <v>0</v>
       </c>
-      <c r="O289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15">
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -13482,11 +12612,8 @@
       <c r="N290" s="7">
         <v>0</v>
       </c>
-      <c r="O290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15">
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -13529,11 +12656,8 @@
       <c r="N291" s="7">
         <v>0</v>
       </c>
-      <c r="O291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15">
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -13576,11 +12700,8 @@
       <c r="N292" s="7">
         <v>0</v>
       </c>
-      <c r="O292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15">
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -13623,11 +12744,8 @@
       <c r="N293" s="7">
         <v>0</v>
       </c>
-      <c r="O293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15">
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -13670,11 +12788,8 @@
       <c r="N294" s="7">
         <v>0</v>
       </c>
-      <c r="O294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15">
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -13717,11 +12832,8 @@
       <c r="N295" s="7">
         <v>0</v>
       </c>
-      <c r="O295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15">
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -13764,11 +12876,8 @@
       <c r="N296" s="7">
         <v>0</v>
       </c>
-      <c r="O296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15">
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -13811,11 +12920,8 @@
       <c r="N297" s="7">
         <v>0</v>
       </c>
-      <c r="O297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15">
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -13829,7 +12935,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:14">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -13843,7 +12949,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:14">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -13856,7 +12962,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:14">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -13869,14 +12975,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:14">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:14">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -13888,7 +12994,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:14">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB012D0D-8734-8549-8AA8-4E08D10DF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4666EF-F3D2-6D42-849D-74DF679C58EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -552,7 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:N643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6843,7 +6845,7 @@
         <v>95.272379999999998</v>
       </c>
       <c r="M159" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" s="7">
         <v>0</v>
@@ -6887,10 +6889,10 @@
         <v>95.125399999999999</v>
       </c>
       <c r="M160" s="7">
+        <v>0</v>
+      </c>
+      <c r="N160" s="7">
         <v>1</v>
-      </c>
-      <c r="N160" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6978,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:14">

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4666EF-F3D2-6D42-849D-74DF679C58EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDC6B6-85D8-BA41-87D5-EB464045EC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
   <si>
     <t>Ebc</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -550,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:N643"/>
+  <dimension ref="A1:M643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -571,7 +568,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -611,11 +608,8 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -646,11 +640,8 @@
       <c r="M2" s="7">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -681,11 +672,8 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -716,11 +704,8 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -751,11 +736,8 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -786,11 +768,8 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -821,11 +800,8 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -856,11 +832,8 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -891,11 +864,8 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -926,11 +896,8 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -961,11 +928,8 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -996,11 +960,8 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1031,11 +992,8 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1066,11 +1024,8 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1101,11 +1056,8 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1136,11 +1088,8 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1171,11 +1120,8 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1206,11 +1152,8 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1241,11 +1184,8 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1276,11 +1216,8 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1311,11 +1248,8 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1346,11 +1280,8 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1381,11 +1312,8 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1416,11 +1344,8 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1451,11 +1376,8 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1486,11 +1408,8 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1521,11 +1440,8 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1556,11 +1472,8 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1591,11 +1504,8 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1628,11 +1538,8 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1665,11 +1572,8 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1702,11 +1606,8 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1739,11 +1640,8 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1776,11 +1674,8 @@
       <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1813,11 +1708,8 @@
       <c r="M35" s="7">
         <v>0</v>
       </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -1850,11 +1742,8 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -1887,11 +1776,8 @@
       <c r="M37" s="7">
         <v>0</v>
       </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -1927,11 +1813,8 @@
       <c r="M38" s="7">
         <v>0</v>
       </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -1967,11 +1850,8 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2007,11 +1887,8 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2047,11 +1924,8 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2087,11 +1961,8 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2127,11 +1998,8 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2167,11 +2035,8 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2207,11 +2072,8 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2247,11 +2109,8 @@
       <c r="M46" s="7">
         <v>0</v>
       </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2287,11 +2146,8 @@
       <c r="M47" s="7">
         <v>0</v>
       </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2327,11 +2183,8 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2367,11 +2220,8 @@
       <c r="M49" s="7">
         <v>0</v>
       </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2407,11 +2257,8 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2447,11 +2294,8 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2487,11 +2331,8 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2527,11 +2368,8 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2567,11 +2405,8 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2607,11 +2442,8 @@
       <c r="M55" s="7">
         <v>0</v>
       </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2647,11 +2479,8 @@
       <c r="M56" s="7">
         <v>0</v>
       </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -2687,11 +2516,8 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-      <c r="N57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -2727,11 +2553,8 @@
       <c r="M58" s="7">
         <v>0</v>
       </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -2767,11 +2590,8 @@
       <c r="M59" s="7">
         <v>0</v>
       </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -2807,11 +2627,8 @@
       <c r="M60" s="7">
         <v>0</v>
       </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -2847,11 +2664,8 @@
       <c r="M61" s="7">
         <v>0</v>
       </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -2887,11 +2701,8 @@
       <c r="M62" s="7">
         <v>0</v>
       </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -2927,11 +2738,8 @@
       <c r="M63" s="7">
         <v>0</v>
       </c>
-      <c r="N63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -2967,11 +2775,8 @@
       <c r="M64" s="7">
         <v>0</v>
       </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3007,11 +2812,8 @@
       <c r="M65" s="7">
         <v>0</v>
       </c>
-      <c r="N65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3047,11 +2849,8 @@
       <c r="M66" s="7">
         <v>0</v>
       </c>
-      <c r="N66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3087,11 +2886,8 @@
       <c r="M67" s="7">
         <v>0</v>
       </c>
-      <c r="N67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3127,11 +2923,8 @@
       <c r="M68" s="7">
         <v>0</v>
       </c>
-      <c r="N68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -3167,11 +2960,8 @@
       <c r="M69" s="7">
         <v>0</v>
       </c>
-      <c r="N69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -3207,11 +2997,8 @@
       <c r="M70" s="7">
         <v>0</v>
       </c>
-      <c r="N70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3247,11 +3034,8 @@
       <c r="M71" s="7">
         <v>0</v>
       </c>
-      <c r="N71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3287,11 +3071,8 @@
       <c r="M72" s="7">
         <v>0</v>
       </c>
-      <c r="N72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3327,11 +3108,8 @@
       <c r="M73" s="7">
         <v>0</v>
       </c>
-      <c r="N73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3367,11 +3145,8 @@
       <c r="M74" s="7">
         <v>0</v>
       </c>
-      <c r="N74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3407,11 +3182,8 @@
       <c r="M75" s="7">
         <v>0</v>
       </c>
-      <c r="N75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3447,11 +3219,8 @@
       <c r="M76" s="7">
         <v>0</v>
       </c>
-      <c r="N76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3487,11 +3256,8 @@
       <c r="M77" s="7">
         <v>0</v>
       </c>
-      <c r="N77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3527,11 +3293,8 @@
       <c r="M78" s="7">
         <v>0</v>
       </c>
-      <c r="N78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -3567,11 +3330,8 @@
       <c r="M79" s="7">
         <v>0</v>
       </c>
-      <c r="N79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -3607,11 +3367,8 @@
       <c r="M80" s="7">
         <v>0</v>
       </c>
-      <c r="N80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -3647,11 +3404,8 @@
       <c r="M81" s="7">
         <v>0</v>
       </c>
-      <c r="N81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -3687,11 +3441,8 @@
       <c r="M82" s="7">
         <v>0</v>
       </c>
-      <c r="N82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -3727,11 +3478,8 @@
       <c r="M83" s="7">
         <v>0</v>
       </c>
-      <c r="N83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -3767,11 +3515,8 @@
       <c r="M84" s="7">
         <v>0</v>
       </c>
-      <c r="N84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -3807,11 +3552,8 @@
       <c r="M85" s="7">
         <v>0</v>
       </c>
-      <c r="N85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -3847,11 +3589,8 @@
       <c r="M86" s="7">
         <v>0</v>
       </c>
-      <c r="N86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -3887,11 +3626,8 @@
       <c r="M87" s="7">
         <v>0</v>
       </c>
-      <c r="N87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -3927,11 +3663,8 @@
       <c r="M88" s="7">
         <v>0</v>
       </c>
-      <c r="N88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -3967,11 +3700,8 @@
       <c r="M89" s="7">
         <v>0</v>
       </c>
-      <c r="N89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -4007,11 +3737,8 @@
       <c r="M90" s="7">
         <v>0</v>
       </c>
-      <c r="N90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -4047,11 +3774,8 @@
       <c r="M91" s="7">
         <v>0</v>
       </c>
-      <c r="N91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -4087,11 +3811,8 @@
       <c r="M92" s="7">
         <v>0</v>
       </c>
-      <c r="N92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -4127,11 +3848,8 @@
       <c r="M93" s="7">
         <v>0</v>
       </c>
-      <c r="N93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -4167,11 +3885,8 @@
       <c r="M94" s="7">
         <v>0</v>
       </c>
-      <c r="N94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -4207,11 +3922,8 @@
       <c r="M95" s="7">
         <v>0</v>
       </c>
-      <c r="N95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -4247,11 +3959,8 @@
       <c r="M96" s="7">
         <v>0</v>
       </c>
-      <c r="N96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -4287,11 +3996,8 @@
       <c r="M97" s="7">
         <v>0</v>
       </c>
-      <c r="N97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4327,11 +4033,8 @@
       <c r="M98" s="7">
         <v>0</v>
       </c>
-      <c r="N98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4367,11 +4070,8 @@
       <c r="M99" s="7">
         <v>0</v>
       </c>
-      <c r="N99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -4407,11 +4107,8 @@
       <c r="M100" s="7">
         <v>0</v>
       </c>
-      <c r="N100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -4447,11 +4144,8 @@
       <c r="M101" s="7">
         <v>0</v>
       </c>
-      <c r="N101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -4487,11 +4181,8 @@
       <c r="M102" s="7">
         <v>0</v>
       </c>
-      <c r="N102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -4527,11 +4218,8 @@
       <c r="M103" s="7">
         <v>0</v>
       </c>
-      <c r="N103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -4567,11 +4255,8 @@
       <c r="M104" s="7">
         <v>0</v>
       </c>
-      <c r="N104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -4607,11 +4292,8 @@
       <c r="M105" s="7">
         <v>0</v>
       </c>
-      <c r="N105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -4647,11 +4329,8 @@
       <c r="M106" s="7">
         <v>0</v>
       </c>
-      <c r="N106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -4687,11 +4366,8 @@
       <c r="M107" s="7">
         <v>0</v>
       </c>
-      <c r="N107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -4727,11 +4403,8 @@
       <c r="M108" s="7">
         <v>0</v>
       </c>
-      <c r="N108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -4767,11 +4440,8 @@
       <c r="M109" s="7">
         <v>0</v>
       </c>
-      <c r="N109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -4807,11 +4477,8 @@
       <c r="M110" s="7">
         <v>0</v>
       </c>
-      <c r="N110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -4847,11 +4514,8 @@
       <c r="M111" s="7">
         <v>0</v>
       </c>
-      <c r="N111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -4887,11 +4551,8 @@
       <c r="M112" s="7">
         <v>0</v>
       </c>
-      <c r="N112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -4927,11 +4588,8 @@
       <c r="M113" s="7">
         <v>0</v>
       </c>
-      <c r="N113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -4967,11 +4625,8 @@
       <c r="M114" s="7">
         <v>0</v>
       </c>
-      <c r="N114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -5007,11 +4662,8 @@
       <c r="M115" s="7">
         <v>0</v>
       </c>
-      <c r="N115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -5047,11 +4699,8 @@
       <c r="M116" s="7">
         <v>0</v>
       </c>
-      <c r="N116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -5087,11 +4736,8 @@
       <c r="M117" s="7">
         <v>0</v>
       </c>
-      <c r="N117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -5127,11 +4773,8 @@
       <c r="M118" s="7">
         <v>0</v>
       </c>
-      <c r="N118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -5167,11 +4810,8 @@
       <c r="M119" s="7">
         <v>0</v>
       </c>
-      <c r="N119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -5207,11 +4847,8 @@
       <c r="M120" s="7">
         <v>0</v>
       </c>
-      <c r="N120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -5247,11 +4884,8 @@
       <c r="M121" s="7">
         <v>0</v>
       </c>
-      <c r="N121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -5288,11 +4922,8 @@
       <c r="M122" s="7">
         <v>0</v>
       </c>
-      <c r="N122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -5329,11 +4960,8 @@
       <c r="M123" s="7">
         <v>0</v>
       </c>
-      <c r="N123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -5370,11 +4998,8 @@
       <c r="M124" s="7">
         <v>0</v>
       </c>
-      <c r="N124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -5411,11 +5036,8 @@
       <c r="M125" s="7">
         <v>0</v>
       </c>
-      <c r="N125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -5452,11 +5074,8 @@
       <c r="M126" s="7">
         <v>0</v>
       </c>
-      <c r="N126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -5493,11 +5112,8 @@
       <c r="M127" s="7">
         <v>0</v>
       </c>
-      <c r="N127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -5534,11 +5150,8 @@
       <c r="M128" s="7">
         <v>0</v>
       </c>
-      <c r="N128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -5575,11 +5188,8 @@
       <c r="M129" s="7">
         <v>0</v>
       </c>
-      <c r="N129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -5616,11 +5226,8 @@
       <c r="M130" s="7">
         <v>0</v>
       </c>
-      <c r="N130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -5657,11 +5264,8 @@
       <c r="M131" s="7">
         <v>0</v>
       </c>
-      <c r="N131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -5698,11 +5302,8 @@
       <c r="M132" s="7">
         <v>0</v>
       </c>
-      <c r="N132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -5739,11 +5340,8 @@
       <c r="M133" s="7">
         <v>0</v>
       </c>
-      <c r="N133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -5780,11 +5378,8 @@
       <c r="M134" s="7">
         <v>0</v>
       </c>
-      <c r="N134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -5821,11 +5416,8 @@
       <c r="M135" s="7">
         <v>0</v>
       </c>
-      <c r="N135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -5862,11 +5454,8 @@
       <c r="M136" s="7">
         <v>0</v>
       </c>
-      <c r="N136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -5903,11 +5492,8 @@
       <c r="M137" s="7">
         <v>0</v>
       </c>
-      <c r="N137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -5944,11 +5530,8 @@
       <c r="M138" s="7">
         <v>0</v>
       </c>
-      <c r="N138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -5985,11 +5568,8 @@
       <c r="M139" s="7">
         <v>0</v>
       </c>
-      <c r="N139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -6026,11 +5606,8 @@
       <c r="M140" s="7">
         <v>0</v>
       </c>
-      <c r="N140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -6067,11 +5644,8 @@
       <c r="M141" s="7">
         <v>0</v>
       </c>
-      <c r="N141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -6108,11 +5682,8 @@
       <c r="M142" s="7">
         <v>0</v>
       </c>
-      <c r="N142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -6149,11 +5720,8 @@
       <c r="M143" s="7">
         <v>0</v>
       </c>
-      <c r="N143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -6190,11 +5758,8 @@
       <c r="M144" s="7">
         <v>0</v>
       </c>
-      <c r="N144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -6231,11 +5796,8 @@
       <c r="M145" s="7">
         <v>0</v>
       </c>
-      <c r="N145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -6275,11 +5837,8 @@
       <c r="M146" s="7">
         <v>0</v>
       </c>
-      <c r="N146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -6319,11 +5878,8 @@
       <c r="M147" s="7">
         <v>0</v>
       </c>
-      <c r="N147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -6363,11 +5919,8 @@
       <c r="M148" s="7">
         <v>0</v>
       </c>
-      <c r="N148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -6407,11 +5960,8 @@
       <c r="M149" s="7">
         <v>0</v>
       </c>
-      <c r="N149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -6451,11 +6001,8 @@
       <c r="M150" s="7">
         <v>0</v>
       </c>
-      <c r="N150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -6495,11 +6042,8 @@
       <c r="M151" s="7">
         <v>0</v>
       </c>
-      <c r="N151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -6539,11 +6083,8 @@
       <c r="M152" s="7">
         <v>0</v>
       </c>
-      <c r="N152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -6583,11 +6124,8 @@
       <c r="M153" s="7">
         <v>0</v>
       </c>
-      <c r="N153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -6627,11 +6165,8 @@
       <c r="M154" s="7">
         <v>0</v>
       </c>
-      <c r="N154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -6671,11 +6206,8 @@
       <c r="M155" s="7">
         <v>0</v>
       </c>
-      <c r="N155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -6715,11 +6247,8 @@
       <c r="M156" s="7">
         <v>0</v>
       </c>
-      <c r="N156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -6759,11 +6288,8 @@
       <c r="M157" s="7">
         <v>0</v>
       </c>
-      <c r="N157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -6803,11 +6329,8 @@
       <c r="M158" s="7">
         <v>0</v>
       </c>
-      <c r="N158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -6845,13 +6368,10 @@
         <v>95.272379999999998</v>
       </c>
       <c r="M159" s="7">
-        <v>1</v>
-      </c>
-      <c r="N159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -6889,13 +6409,10 @@
         <v>95.125399999999999</v>
       </c>
       <c r="M160" s="7">
-        <v>0</v>
-      </c>
-      <c r="N160" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:13">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -6935,11 +6452,8 @@
       <c r="M161" s="7">
         <v>0</v>
       </c>
-      <c r="N161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -6979,11 +6493,8 @@
       <c r="M162" s="7">
         <v>0</v>
       </c>
-      <c r="N162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -7023,11 +6534,8 @@
       <c r="M163" s="7">
         <v>0</v>
       </c>
-      <c r="N163" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -7067,11 +6575,8 @@
       <c r="M164" s="7">
         <v>0</v>
       </c>
-      <c r="N164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -7111,11 +6616,8 @@
       <c r="M165" s="7">
         <v>0</v>
       </c>
-      <c r="N165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -7155,11 +6657,8 @@
       <c r="M166" s="7">
         <v>0</v>
       </c>
-      <c r="N166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -7199,11 +6698,8 @@
       <c r="M167" s="7">
         <v>0</v>
       </c>
-      <c r="N167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -7243,11 +6739,8 @@
       <c r="M168" s="7">
         <v>0</v>
       </c>
-      <c r="N168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -7287,11 +6780,8 @@
       <c r="M169" s="7">
         <v>0</v>
       </c>
-      <c r="N169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -7331,11 +6821,8 @@
       <c r="M170" s="7">
         <v>0</v>
       </c>
-      <c r="N170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -7375,11 +6862,8 @@
       <c r="M171" s="7">
         <v>0</v>
       </c>
-      <c r="N171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -7419,11 +6903,8 @@
       <c r="M172" s="7">
         <v>0</v>
       </c>
-      <c r="N172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -7463,11 +6944,8 @@
       <c r="M173" s="7">
         <v>0</v>
       </c>
-      <c r="N173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -7507,11 +6985,8 @@
       <c r="M174" s="7">
         <v>0</v>
       </c>
-      <c r="N174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -7551,11 +7026,8 @@
       <c r="M175" s="7">
         <v>0</v>
       </c>
-      <c r="N175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -7595,11 +7067,8 @@
       <c r="M176" s="7">
         <v>0</v>
       </c>
-      <c r="N176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -7639,11 +7108,8 @@
       <c r="M177" s="7">
         <v>0</v>
       </c>
-      <c r="N177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -7683,11 +7149,8 @@
       <c r="M178" s="7">
         <v>0</v>
       </c>
-      <c r="N178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -7727,11 +7190,8 @@
       <c r="M179" s="7">
         <v>0</v>
       </c>
-      <c r="N179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -7771,11 +7231,8 @@
       <c r="M180" s="7">
         <v>0</v>
       </c>
-      <c r="N180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -7815,11 +7272,8 @@
       <c r="M181" s="7">
         <v>0</v>
       </c>
-      <c r="N181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -7859,11 +7313,8 @@
       <c r="M182" s="7">
         <v>0</v>
       </c>
-      <c r="N182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -7903,11 +7354,8 @@
       <c r="M183" s="7">
         <v>0</v>
       </c>
-      <c r="N183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -7947,11 +7395,8 @@
       <c r="M184" s="7">
         <v>0</v>
       </c>
-      <c r="N184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -7991,11 +7436,8 @@
       <c r="M185" s="7">
         <v>0</v>
       </c>
-      <c r="N185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -8035,11 +7477,8 @@
       <c r="M186" s="7">
         <v>0</v>
       </c>
-      <c r="N186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -8079,11 +7518,8 @@
       <c r="M187" s="7">
         <v>0</v>
       </c>
-      <c r="N187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -8123,11 +7559,8 @@
       <c r="M188" s="7">
         <v>0</v>
       </c>
-      <c r="N188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -8167,11 +7600,8 @@
       <c r="M189" s="7">
         <v>0</v>
       </c>
-      <c r="N189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -8211,11 +7641,8 @@
       <c r="M190" s="7">
         <v>0</v>
       </c>
-      <c r="N190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -8255,11 +7682,8 @@
       <c r="M191" s="7">
         <v>0</v>
       </c>
-      <c r="N191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -8299,11 +7723,8 @@
       <c r="M192" s="7">
         <v>0</v>
       </c>
-      <c r="N192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -8343,11 +7764,8 @@
       <c r="M193" s="7">
         <v>0</v>
       </c>
-      <c r="N193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -8387,11 +7805,8 @@
       <c r="M194" s="7">
         <v>0</v>
       </c>
-      <c r="N194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14">
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -8431,11 +7846,8 @@
       <c r="M195" s="7">
         <v>0</v>
       </c>
-      <c r="N195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -8475,11 +7887,8 @@
       <c r="M196" s="7">
         <v>0</v>
       </c>
-      <c r="N196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -8519,11 +7928,8 @@
       <c r="M197" s="7">
         <v>0</v>
       </c>
-      <c r="N197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -8563,11 +7969,8 @@
       <c r="M198" s="7">
         <v>0</v>
       </c>
-      <c r="N198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14">
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -8607,11 +8010,8 @@
       <c r="M199" s="7">
         <v>0</v>
       </c>
-      <c r="N199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14">
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -8651,11 +8051,8 @@
       <c r="M200" s="7">
         <v>0</v>
       </c>
-      <c r="N200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14">
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -8695,11 +8092,8 @@
       <c r="M201" s="7">
         <v>0</v>
       </c>
-      <c r="N201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14">
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -8739,11 +8133,8 @@
       <c r="M202" s="7">
         <v>0</v>
       </c>
-      <c r="N202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14">
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -8783,11 +8174,8 @@
       <c r="M203" s="7">
         <v>0</v>
       </c>
-      <c r="N203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14">
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -8827,11 +8215,8 @@
       <c r="M204" s="7">
         <v>0</v>
       </c>
-      <c r="N204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -8871,11 +8256,8 @@
       <c r="M205" s="7">
         <v>0</v>
       </c>
-      <c r="N205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -8915,11 +8297,8 @@
       <c r="M206" s="7">
         <v>0</v>
       </c>
-      <c r="N206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14">
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -8959,11 +8338,8 @@
       <c r="M207" s="7">
         <v>0</v>
       </c>
-      <c r="N207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -9003,11 +8379,8 @@
       <c r="M208" s="7">
         <v>0</v>
       </c>
-      <c r="N208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -9047,11 +8420,8 @@
       <c r="M209" s="7">
         <v>0</v>
       </c>
-      <c r="N209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -9091,11 +8461,8 @@
       <c r="M210" s="7">
         <v>0</v>
       </c>
-      <c r="N210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -9135,11 +8502,8 @@
       <c r="M211" s="7">
         <v>0</v>
       </c>
-      <c r="N211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -9179,11 +8543,8 @@
       <c r="M212" s="7">
         <v>0</v>
       </c>
-      <c r="N212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -9223,11 +8584,8 @@
       <c r="M213" s="7">
         <v>0</v>
       </c>
-      <c r="N213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -9267,11 +8625,8 @@
       <c r="M214" s="7">
         <v>0</v>
       </c>
-      <c r="N214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -9311,11 +8666,8 @@
       <c r="M215" s="7">
         <v>0</v>
       </c>
-      <c r="N215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14">
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -9355,11 +8707,8 @@
       <c r="M216" s="7">
         <v>0</v>
       </c>
-      <c r="N216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -9399,11 +8748,8 @@
       <c r="M217" s="7">
         <v>0</v>
       </c>
-      <c r="N217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -9443,11 +8789,8 @@
       <c r="M218" s="7">
         <v>0</v>
       </c>
-      <c r="N218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14">
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -9487,11 +8830,8 @@
       <c r="M219" s="7">
         <v>0</v>
       </c>
-      <c r="N219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -9531,11 +8871,8 @@
       <c r="M220" s="7">
         <v>0</v>
       </c>
-      <c r="N220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -9575,11 +8912,8 @@
       <c r="M221" s="7">
         <v>0</v>
       </c>
-      <c r="N221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -9619,11 +8953,8 @@
       <c r="M222" s="7">
         <v>0</v>
       </c>
-      <c r="N222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -9663,11 +8994,8 @@
       <c r="M223" s="7">
         <v>0</v>
       </c>
-      <c r="N223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14">
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -9707,11 +9035,8 @@
       <c r="M224" s="7">
         <v>0</v>
       </c>
-      <c r="N224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -9751,11 +9076,8 @@
       <c r="M225" s="7">
         <v>0</v>
       </c>
-      <c r="N225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14">
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -9795,11 +9117,8 @@
       <c r="M226" s="7">
         <v>0</v>
       </c>
-      <c r="N226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -9839,11 +9158,8 @@
       <c r="M227" s="7">
         <v>0</v>
       </c>
-      <c r="N227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14">
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -9883,11 +9199,8 @@
       <c r="M228" s="7">
         <v>0</v>
       </c>
-      <c r="N228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14">
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -9927,11 +9240,8 @@
       <c r="M229" s="7">
         <v>0</v>
       </c>
-      <c r="N229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14">
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -9971,11 +9281,8 @@
       <c r="M230" s="7">
         <v>0</v>
       </c>
-      <c r="N230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14">
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -10015,11 +9322,8 @@
       <c r="M231" s="7">
         <v>0</v>
       </c>
-      <c r="N231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14">
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -10059,11 +9363,8 @@
       <c r="M232" s="7">
         <v>0</v>
       </c>
-      <c r="N232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14">
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -10103,11 +9404,8 @@
       <c r="M233" s="7">
         <v>0</v>
       </c>
-      <c r="N233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14">
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -10147,11 +9445,8 @@
       <c r="M234" s="7">
         <v>0</v>
       </c>
-      <c r="N234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14">
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -10191,11 +9486,8 @@
       <c r="M235" s="7">
         <v>0</v>
       </c>
-      <c r="N235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -10235,11 +9527,8 @@
       <c r="M236" s="7">
         <v>0</v>
       </c>
-      <c r="N236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14">
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -10279,11 +9568,8 @@
       <c r="M237" s="7">
         <v>0</v>
       </c>
-      <c r="N237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14">
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -10323,11 +9609,8 @@
       <c r="M238" s="7">
         <v>0</v>
       </c>
-      <c r="N238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14">
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -10367,11 +9650,8 @@
       <c r="M239" s="7">
         <v>0</v>
       </c>
-      <c r="N239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14">
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -10411,11 +9691,8 @@
       <c r="M240" s="7">
         <v>0</v>
       </c>
-      <c r="N240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14">
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -10455,11 +9732,8 @@
       <c r="M241" s="7">
         <v>0</v>
       </c>
-      <c r="N241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14">
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -10499,11 +9773,8 @@
       <c r="M242" s="7">
         <v>0</v>
       </c>
-      <c r="N242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14">
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -10543,11 +9814,8 @@
       <c r="M243" s="7">
         <v>0</v>
       </c>
-      <c r="N243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14">
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -10587,11 +9855,8 @@
       <c r="M244" s="7">
         <v>0</v>
       </c>
-      <c r="N244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14">
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -10631,11 +9896,8 @@
       <c r="M245" s="7">
         <v>0</v>
       </c>
-      <c r="N245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14">
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -10675,11 +9937,8 @@
       <c r="M246" s="7">
         <v>0</v>
       </c>
-      <c r="N246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14">
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -10719,11 +9978,8 @@
       <c r="M247" s="7">
         <v>0</v>
       </c>
-      <c r="N247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -10763,11 +10019,8 @@
       <c r="M248" s="7">
         <v>0</v>
       </c>
-      <c r="N248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14">
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -10807,11 +10060,8 @@
       <c r="M249" s="7">
         <v>0</v>
       </c>
-      <c r="N249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -10851,11 +10101,8 @@
       <c r="M250" s="7">
         <v>0</v>
       </c>
-      <c r="N250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14">
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -10895,11 +10142,8 @@
       <c r="M251" s="7">
         <v>0</v>
       </c>
-      <c r="N251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -10939,11 +10183,8 @@
       <c r="M252" s="7">
         <v>0</v>
       </c>
-      <c r="N252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -10983,11 +10224,8 @@
       <c r="M253" s="7">
         <v>0</v>
       </c>
-      <c r="N253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -11027,11 +10265,8 @@
       <c r="M254" s="7">
         <v>0</v>
       </c>
-      <c r="N254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -11071,11 +10306,8 @@
       <c r="M255" s="7">
         <v>0</v>
       </c>
-      <c r="N255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -11115,11 +10347,8 @@
       <c r="M256" s="7">
         <v>0</v>
       </c>
-      <c r="N256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -11159,11 +10388,8 @@
       <c r="M257" s="7">
         <v>0</v>
       </c>
-      <c r="N257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -11203,11 +10429,8 @@
       <c r="M258" s="7">
         <v>0</v>
       </c>
-      <c r="N258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14">
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -11247,11 +10470,8 @@
       <c r="M259" s="7">
         <v>0</v>
       </c>
-      <c r="N259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14">
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -11291,11 +10511,8 @@
       <c r="M260" s="7">
         <v>0</v>
       </c>
-      <c r="N260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14">
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -11335,11 +10552,8 @@
       <c r="M261" s="7">
         <v>0</v>
       </c>
-      <c r="N261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -11379,11 +10593,8 @@
       <c r="M262" s="7">
         <v>0</v>
       </c>
-      <c r="N262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -11423,11 +10634,8 @@
       <c r="M263" s="7">
         <v>0</v>
       </c>
-      <c r="N263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14">
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -11467,11 +10675,8 @@
       <c r="M264" s="7">
         <v>0</v>
       </c>
-      <c r="N264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14">
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -11511,11 +10716,8 @@
       <c r="M265" s="7">
         <v>0</v>
       </c>
-      <c r="N265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14">
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -11555,11 +10757,8 @@
       <c r="M266" s="7">
         <v>0</v>
       </c>
-      <c r="N266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14">
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -11599,11 +10798,8 @@
       <c r="M267" s="7">
         <v>0</v>
       </c>
-      <c r="N267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -11643,11 +10839,8 @@
       <c r="M268" s="7">
         <v>0</v>
       </c>
-      <c r="N268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14">
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -11687,11 +10880,8 @@
       <c r="M269" s="7">
         <v>0</v>
       </c>
-      <c r="N269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14">
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -11731,11 +10921,8 @@
       <c r="M270" s="7">
         <v>0</v>
       </c>
-      <c r="N270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14">
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -11775,11 +10962,8 @@
       <c r="M271" s="7">
         <v>0</v>
       </c>
-      <c r="N271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14">
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -11819,11 +11003,8 @@
       <c r="M272" s="7">
         <v>0</v>
       </c>
-      <c r="N272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14">
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -11863,11 +11044,8 @@
       <c r="M273" s="7">
         <v>0</v>
       </c>
-      <c r="N273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14">
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -11907,11 +11085,8 @@
       <c r="M274" s="7">
         <v>0</v>
       </c>
-      <c r="N274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14">
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -11951,11 +11126,8 @@
       <c r="M275" s="7">
         <v>0</v>
       </c>
-      <c r="N275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14">
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -11995,11 +11167,8 @@
       <c r="M276" s="7">
         <v>0</v>
       </c>
-      <c r="N276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14">
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -12039,11 +11208,8 @@
       <c r="M277" s="7">
         <v>0</v>
       </c>
-      <c r="N277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14">
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -12083,11 +11249,8 @@
       <c r="M278" s="7">
         <v>0</v>
       </c>
-      <c r="N278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14">
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -12127,11 +11290,8 @@
       <c r="M279" s="7">
         <v>0</v>
       </c>
-      <c r="N279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14">
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -12171,11 +11331,8 @@
       <c r="M280" s="7">
         <v>0</v>
       </c>
-      <c r="N280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14">
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -12215,11 +11372,8 @@
       <c r="M281" s="7">
         <v>0</v>
       </c>
-      <c r="N281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14">
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -12259,11 +11413,8 @@
       <c r="M282" s="7">
         <v>0</v>
       </c>
-      <c r="N282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14">
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -12303,11 +11454,8 @@
       <c r="M283" s="7">
         <v>0</v>
       </c>
-      <c r="N283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14">
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -12347,11 +11495,8 @@
       <c r="M284" s="7">
         <v>0</v>
       </c>
-      <c r="N284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14">
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -12391,11 +11536,8 @@
       <c r="M285" s="7">
         <v>0</v>
       </c>
-      <c r="N285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14">
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -12435,11 +11577,8 @@
       <c r="M286" s="7">
         <v>0</v>
       </c>
-      <c r="N286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14">
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -12479,11 +11618,8 @@
       <c r="M287" s="7">
         <v>0</v>
       </c>
-      <c r="N287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14">
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -12523,11 +11659,8 @@
       <c r="M288" s="7">
         <v>0</v>
       </c>
-      <c r="N288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14">
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -12567,11 +11700,8 @@
       <c r="M289" s="7">
         <v>0</v>
       </c>
-      <c r="N289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -12611,11 +11741,8 @@
       <c r="M290" s="7">
         <v>0</v>
       </c>
-      <c r="N290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14">
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -12655,11 +11782,8 @@
       <c r="M291" s="7">
         <v>0</v>
       </c>
-      <c r="N291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14">
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -12699,11 +11823,8 @@
       <c r="M292" s="7">
         <v>0</v>
       </c>
-      <c r="N292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14">
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -12743,11 +11864,8 @@
       <c r="M293" s="7">
         <v>0</v>
       </c>
-      <c r="N293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14">
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -12787,11 +11905,8 @@
       <c r="M294" s="7">
         <v>0</v>
       </c>
-      <c r="N294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14">
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -12831,11 +11946,8 @@
       <c r="M295" s="7">
         <v>0</v>
       </c>
-      <c r="N295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14">
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -12875,11 +11987,8 @@
       <c r="M296" s="7">
         <v>0</v>
       </c>
-      <c r="N296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14">
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -12919,11 +12028,8 @@
       <c r="M297" s="7">
         <v>0</v>
       </c>
-      <c r="N297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14">
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -12937,7 +12043,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:13">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -12951,7 +12057,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:13">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -12964,7 +12070,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:13">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -12977,14 +12083,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:13">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:13">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -12996,7 +12102,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:13">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDC6B6-85D8-BA41-87D5-EB464045EC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1974398-9847-D045-A7E3-9433C7D6CB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
   <si>
     <t>Ebc</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -547,11 +553,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:M643"/>
+  <dimension ref="A1:O643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -568,7 +572,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -608,8 +612,14 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -640,8 +650,14 @@
       <c r="M2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -672,8 +688,14 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -704,8 +726,14 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -736,8 +764,14 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -768,8 +802,14 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -800,8 +840,14 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -832,8 +878,14 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -864,8 +916,14 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -896,8 +954,14 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -928,8 +992,14 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -960,8 +1030,14 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -992,8 +1068,14 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1024,8 +1106,14 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1056,8 +1144,14 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1088,8 +1182,14 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1120,8 +1220,14 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1152,8 +1258,14 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1184,8 +1296,14 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1216,8 +1334,14 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1248,8 +1372,14 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1280,8 +1410,14 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1312,8 +1448,14 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1344,8 +1486,14 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1376,8 +1524,14 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1408,8 +1562,14 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1440,8 +1600,14 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1472,8 +1638,14 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1504,8 +1676,14 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1538,8 +1716,14 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1572,8 +1756,14 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1606,8 +1796,14 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1640,8 +1836,14 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1674,8 +1876,14 @@
       <c r="M34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1708,8 +1916,14 @@
       <c r="M35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -1742,8 +1956,14 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -1776,8 +1996,14 @@
       <c r="M37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -1813,8 +2039,14 @@
       <c r="M38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -1850,8 +2082,14 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -1887,8 +2125,14 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -1924,8 +2168,14 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -1961,8 +2211,14 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -1998,8 +2254,14 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2035,8 +2297,14 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2072,8 +2340,14 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2109,8 +2383,14 @@
       <c r="M46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2146,8 +2426,14 @@
       <c r="M47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2183,8 +2469,14 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2220,8 +2512,14 @@
       <c r="M49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2257,8 +2555,14 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2294,8 +2598,14 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2331,8 +2641,14 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2368,8 +2684,14 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2405,8 +2727,14 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2442,8 +2770,14 @@
       <c r="M55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2479,8 +2813,14 @@
       <c r="M56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -2516,8 +2856,14 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -2553,8 +2899,14 @@
       <c r="M58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -2590,8 +2942,14 @@
       <c r="M59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -2627,8 +2985,14 @@
       <c r="M60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -2664,8 +3028,14 @@
       <c r="M61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -2701,8 +3071,14 @@
       <c r="M62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -2738,8 +3114,14 @@
       <c r="M63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -2775,8 +3157,14 @@
       <c r="M64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -2812,8 +3200,14 @@
       <c r="M65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -2849,8 +3243,14 @@
       <c r="M66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -2886,8 +3286,14 @@
       <c r="M67" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -2923,8 +3329,14 @@
       <c r="M68" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -2960,8 +3372,14 @@
       <c r="M69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -2997,8 +3415,14 @@
       <c r="M70" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3034,8 +3458,14 @@
       <c r="M71" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3071,8 +3501,14 @@
       <c r="M72" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3108,8 +3544,14 @@
       <c r="M73" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3145,8 +3587,14 @@
       <c r="M74" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3182,8 +3630,14 @@
       <c r="M75" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3219,8 +3673,14 @@
       <c r="M76" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3256,8 +3716,14 @@
       <c r="M77" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3293,8 +3759,14 @@
       <c r="M78" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -3330,8 +3802,14 @@
       <c r="M79" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -3367,8 +3845,14 @@
       <c r="M80" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -3404,8 +3888,14 @@
       <c r="M81" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -3441,8 +3931,14 @@
       <c r="M82" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -3478,8 +3974,14 @@
       <c r="M83" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -3515,8 +4017,14 @@
       <c r="M84" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -3552,8 +4060,14 @@
       <c r="M85" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -3589,8 +4103,14 @@
       <c r="M86" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -3626,8 +4146,14 @@
       <c r="M87" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -3663,8 +4189,14 @@
       <c r="M88" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -3700,8 +4232,14 @@
       <c r="M89" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -3737,8 +4275,14 @@
       <c r="M90" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -3774,8 +4318,14 @@
       <c r="M91" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -3811,8 +4361,14 @@
       <c r="M92" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -3848,8 +4404,14 @@
       <c r="M93" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="7">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -3885,8 +4447,14 @@
       <c r="M94" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -3922,8 +4490,14 @@
       <c r="M95" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -3959,8 +4533,14 @@
       <c r="M96" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -3996,8 +4576,14 @@
       <c r="M97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4033,8 +4619,14 @@
       <c r="M98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4070,8 +4662,14 @@
       <c r="M99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -4107,8 +4705,14 @@
       <c r="M100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -4144,8 +4748,14 @@
       <c r="M101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -4181,8 +4791,14 @@
       <c r="M102" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -4218,8 +4834,14 @@
       <c r="M103" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="7">
+        <v>0</v>
+      </c>
+      <c r="O103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -4255,8 +4877,14 @@
       <c r="M104" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="7">
+        <v>0</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -4292,8 +4920,14 @@
       <c r="M105" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -4329,8 +4963,14 @@
       <c r="M106" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="7">
+        <v>0</v>
+      </c>
+      <c r="O106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -4366,8 +5006,14 @@
       <c r="M107" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -4403,8 +5049,14 @@
       <c r="M108" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -4440,8 +5092,14 @@
       <c r="M109" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -4477,8 +5135,14 @@
       <c r="M110" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -4514,8 +5178,14 @@
       <c r="M111" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -4551,8 +5221,14 @@
       <c r="M112" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="7">
+        <v>0</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -4588,8 +5264,14 @@
       <c r="M113" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="7">
+        <v>0</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -4625,8 +5307,14 @@
       <c r="M114" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="7">
+        <v>0</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -4662,8 +5350,14 @@
       <c r="M115" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -4699,8 +5393,14 @@
       <c r="M116" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="7">
+        <v>0</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -4736,8 +5436,14 @@
       <c r="M117" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="7">
+        <v>0</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -4773,8 +5479,14 @@
       <c r="M118" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="7">
+        <v>0</v>
+      </c>
+      <c r="O118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -4810,8 +5522,14 @@
       <c r="M119" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="7">
+        <v>0</v>
+      </c>
+      <c r="O119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -4847,8 +5565,14 @@
       <c r="M120" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -4884,8 +5608,14 @@
       <c r="M121" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -4922,8 +5652,14 @@
       <c r="M122" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -4960,8 +5696,14 @@
       <c r="M123" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -4998,8 +5740,14 @@
       <c r="M124" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="7">
+        <v>0</v>
+      </c>
+      <c r="O124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -5036,8 +5784,14 @@
       <c r="M125" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+      <c r="O125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -5074,8 +5828,14 @@
       <c r="M126" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -5112,8 +5872,14 @@
       <c r="M127" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" s="7">
+        <v>0</v>
+      </c>
+      <c r="O127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -5150,8 +5916,14 @@
       <c r="M128" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" s="7">
+        <v>0</v>
+      </c>
+      <c r="O128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -5188,8 +5960,14 @@
       <c r="M129" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="7">
+        <v>0</v>
+      </c>
+      <c r="O129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -5226,8 +6004,14 @@
       <c r="M130" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" s="7">
+        <v>0</v>
+      </c>
+      <c r="O130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -5264,8 +6048,14 @@
       <c r="M131" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -5302,8 +6092,14 @@
       <c r="M132" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" s="7">
+        <v>0</v>
+      </c>
+      <c r="O132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -5340,8 +6136,14 @@
       <c r="M133" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" s="7">
+        <v>0</v>
+      </c>
+      <c r="O133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -5378,8 +6180,14 @@
       <c r="M134" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134" s="7">
+        <v>0</v>
+      </c>
+      <c r="O134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -5416,8 +6224,14 @@
       <c r="M135" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135" s="7">
+        <v>0</v>
+      </c>
+      <c r="O135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -5454,8 +6268,14 @@
       <c r="M136" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" s="7">
+        <v>0</v>
+      </c>
+      <c r="O136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -5492,8 +6312,14 @@
       <c r="M137" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" s="7">
+        <v>0</v>
+      </c>
+      <c r="O137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -5530,8 +6356,14 @@
       <c r="M138" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" s="7">
+        <v>0</v>
+      </c>
+      <c r="O138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -5568,8 +6400,14 @@
       <c r="M139" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" s="7">
+        <v>0</v>
+      </c>
+      <c r="O139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -5606,8 +6444,14 @@
       <c r="M140" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" s="7">
+        <v>0</v>
+      </c>
+      <c r="O140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -5644,8 +6488,14 @@
       <c r="M141" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -5682,8 +6532,14 @@
       <c r="M142" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" s="7">
+        <v>0</v>
+      </c>
+      <c r="O142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -5720,8 +6576,14 @@
       <c r="M143" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143" s="7">
+        <v>0</v>
+      </c>
+      <c r="O143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -5758,8 +6620,14 @@
       <c r="M144" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" s="7">
+        <v>0</v>
+      </c>
+      <c r="O144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -5796,8 +6664,14 @@
       <c r="M145" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145" s="7">
+        <v>0</v>
+      </c>
+      <c r="O145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -5837,8 +6711,14 @@
       <c r="M146" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="7">
+        <v>0</v>
+      </c>
+      <c r="O146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -5878,8 +6758,14 @@
       <c r="M147" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="7">
+        <v>0</v>
+      </c>
+      <c r="O147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -5919,8 +6805,14 @@
       <c r="M148" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" s="7">
+        <v>0</v>
+      </c>
+      <c r="O148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -5960,8 +6852,14 @@
       <c r="M149" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" s="7">
+        <v>0</v>
+      </c>
+      <c r="O149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -6001,8 +6899,14 @@
       <c r="M150" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150" s="7">
+        <v>0</v>
+      </c>
+      <c r="O150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -6042,8 +6946,14 @@
       <c r="M151" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" s="7">
+        <v>0</v>
+      </c>
+      <c r="O151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -6083,8 +6993,14 @@
       <c r="M152" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" s="7">
+        <v>0</v>
+      </c>
+      <c r="O152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -6124,8 +7040,14 @@
       <c r="M153" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153" s="7">
+        <v>0</v>
+      </c>
+      <c r="O153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -6165,8 +7087,14 @@
       <c r="M154" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154" s="7">
+        <v>0</v>
+      </c>
+      <c r="O154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -6206,8 +7134,14 @@
       <c r="M155" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155" s="7">
+        <v>0</v>
+      </c>
+      <c r="O155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -6245,10 +7179,16 @@
         <v>95.691959999999995</v>
       </c>
       <c r="M156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N156" s="7">
+        <v>0</v>
+      </c>
+      <c r="O156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -6288,8 +7228,14 @@
       <c r="M157" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" s="7">
+        <v>0</v>
+      </c>
+      <c r="O157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -6329,8 +7275,14 @@
       <c r="M158" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158" s="7">
+        <v>0</v>
+      </c>
+      <c r="O158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -6370,8 +7322,14 @@
       <c r="M159" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159" s="7">
+        <v>0</v>
+      </c>
+      <c r="O159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -6409,10 +7367,16 @@
         <v>95.125399999999999</v>
       </c>
       <c r="M160" s="7">
+        <v>0</v>
+      </c>
+      <c r="N160" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="O160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -6452,8 +7416,14 @@
       <c r="M161" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161" s="7">
+        <v>0</v>
+      </c>
+      <c r="O161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -6493,8 +7463,14 @@
       <c r="M162" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162" s="7">
+        <v>0</v>
+      </c>
+      <c r="O162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -6534,8 +7510,14 @@
       <c r="M163" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163" s="7">
+        <v>0</v>
+      </c>
+      <c r="O163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -6575,8 +7557,14 @@
       <c r="M164" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164" s="7">
+        <v>0</v>
+      </c>
+      <c r="O164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -6616,8 +7604,14 @@
       <c r="M165" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165" s="7">
+        <v>0</v>
+      </c>
+      <c r="O165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -6657,8 +7651,14 @@
       <c r="M166" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" s="7">
+        <v>0</v>
+      </c>
+      <c r="O166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -6698,8 +7698,14 @@
       <c r="M167" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167" s="7">
+        <v>0</v>
+      </c>
+      <c r="O167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -6739,8 +7745,14 @@
       <c r="M168" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168" s="7">
+        <v>0</v>
+      </c>
+      <c r="O168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -6780,8 +7792,14 @@
       <c r="M169" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169" s="7">
+        <v>0</v>
+      </c>
+      <c r="O169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -6821,8 +7839,14 @@
       <c r="M170" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170" s="7">
+        <v>0</v>
+      </c>
+      <c r="O170" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -6862,8 +7886,14 @@
       <c r="M171" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171" s="7">
+        <v>0</v>
+      </c>
+      <c r="O171" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -6903,8 +7933,14 @@
       <c r="M172" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172" s="7">
+        <v>0</v>
+      </c>
+      <c r="O172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -6944,8 +7980,14 @@
       <c r="M173" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173" s="7">
+        <v>0</v>
+      </c>
+      <c r="O173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -6985,8 +8027,14 @@
       <c r="M174" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174" s="7">
+        <v>0</v>
+      </c>
+      <c r="O174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -7026,8 +8074,14 @@
       <c r="M175" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175" s="7">
+        <v>0</v>
+      </c>
+      <c r="O175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -7067,8 +8121,14 @@
       <c r="M176" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176" s="7">
+        <v>0</v>
+      </c>
+      <c r="O176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -7108,8 +8168,14 @@
       <c r="M177" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177" s="7">
+        <v>0</v>
+      </c>
+      <c r="O177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -7149,8 +8215,14 @@
       <c r="M178" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" s="7">
+        <v>0</v>
+      </c>
+      <c r="O178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -7190,8 +8262,14 @@
       <c r="M179" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" s="7">
+        <v>0</v>
+      </c>
+      <c r="O179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -7231,8 +8309,14 @@
       <c r="M180" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180" s="7">
+        <v>0</v>
+      </c>
+      <c r="O180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -7272,8 +8356,14 @@
       <c r="M181" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181" s="7">
+        <v>0</v>
+      </c>
+      <c r="O181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -7313,8 +8403,14 @@
       <c r="M182" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182" s="7">
+        <v>0</v>
+      </c>
+      <c r="O182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -7354,8 +8450,14 @@
       <c r="M183" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183" s="7">
+        <v>0</v>
+      </c>
+      <c r="O183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -7395,8 +8497,14 @@
       <c r="M184" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184" s="7">
+        <v>0</v>
+      </c>
+      <c r="O184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -7436,8 +8544,14 @@
       <c r="M185" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185" s="7">
+        <v>0</v>
+      </c>
+      <c r="O185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -7477,8 +8591,14 @@
       <c r="M186" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186" s="7">
+        <v>0</v>
+      </c>
+      <c r="O186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -7518,8 +8638,14 @@
       <c r="M187" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187" s="7">
+        <v>0</v>
+      </c>
+      <c r="O187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -7559,8 +8685,14 @@
       <c r="M188" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188" s="7">
+        <v>0</v>
+      </c>
+      <c r="O188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -7600,8 +8732,14 @@
       <c r="M189" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189" s="7">
+        <v>0</v>
+      </c>
+      <c r="O189" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -7641,8 +8779,14 @@
       <c r="M190" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190" s="7">
+        <v>0</v>
+      </c>
+      <c r="O190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -7682,8 +8826,14 @@
       <c r="M191" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191" s="7">
+        <v>0</v>
+      </c>
+      <c r="O191" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -7723,8 +8873,14 @@
       <c r="M192" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192" s="7">
+        <v>0</v>
+      </c>
+      <c r="O192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -7764,8 +8920,14 @@
       <c r="M193" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193" s="7">
+        <v>0</v>
+      </c>
+      <c r="O193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -7805,8 +8967,14 @@
       <c r="M194" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194" s="7">
+        <v>0</v>
+      </c>
+      <c r="O194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -7846,8 +9014,14 @@
       <c r="M195" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" s="7">
+        <v>0</v>
+      </c>
+      <c r="O195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -7887,8 +9061,14 @@
       <c r="M196" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" s="7">
+        <v>0</v>
+      </c>
+      <c r="O196" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -7928,8 +9108,14 @@
       <c r="M197" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197" s="7">
+        <v>0</v>
+      </c>
+      <c r="O197" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -7969,8 +9155,14 @@
       <c r="M198" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" s="7">
+        <v>0</v>
+      </c>
+      <c r="O198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -8010,8 +9202,14 @@
       <c r="M199" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" s="7">
+        <v>0</v>
+      </c>
+      <c r="O199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -8051,8 +9249,14 @@
       <c r="M200" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" s="7">
+        <v>0</v>
+      </c>
+      <c r="O200" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -8092,8 +9296,14 @@
       <c r="M201" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" s="7">
+        <v>0</v>
+      </c>
+      <c r="O201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -8133,8 +9343,14 @@
       <c r="M202" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202" s="7">
+        <v>0</v>
+      </c>
+      <c r="O202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -8174,8 +9390,14 @@
       <c r="M203" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203" s="7">
+        <v>0</v>
+      </c>
+      <c r="O203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -8215,8 +9437,14 @@
       <c r="M204" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" s="7">
+        <v>0</v>
+      </c>
+      <c r="O204" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -8256,8 +9484,14 @@
       <c r="M205" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" s="7">
+        <v>0</v>
+      </c>
+      <c r="O205" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -8297,8 +9531,14 @@
       <c r="M206" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" s="7">
+        <v>0</v>
+      </c>
+      <c r="O206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -8338,8 +9578,14 @@
       <c r="M207" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" s="7">
+        <v>0</v>
+      </c>
+      <c r="O207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -8379,8 +9625,14 @@
       <c r="M208" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208" s="7">
+        <v>0</v>
+      </c>
+      <c r="O208" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -8420,8 +9672,14 @@
       <c r="M209" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209" s="7">
+        <v>0</v>
+      </c>
+      <c r="O209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -8461,8 +9719,14 @@
       <c r="M210" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210" s="7">
+        <v>0</v>
+      </c>
+      <c r="O210" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -8502,8 +9766,14 @@
       <c r="M211" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211" s="7">
+        <v>0</v>
+      </c>
+      <c r="O211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -8543,8 +9813,14 @@
       <c r="M212" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212" s="7">
+        <v>0</v>
+      </c>
+      <c r="O212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -8584,8 +9860,14 @@
       <c r="M213" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213" s="7">
+        <v>0</v>
+      </c>
+      <c r="O213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -8625,8 +9907,14 @@
       <c r="M214" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214" s="7">
+        <v>0</v>
+      </c>
+      <c r="O214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -8666,8 +9954,14 @@
       <c r="M215" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215" s="7">
+        <v>0</v>
+      </c>
+      <c r="O215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -8707,8 +10001,14 @@
       <c r="M216" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216" s="7">
+        <v>0</v>
+      </c>
+      <c r="O216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -8748,8 +10048,14 @@
       <c r="M217" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217" s="7">
+        <v>0</v>
+      </c>
+      <c r="O217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -8789,8 +10095,14 @@
       <c r="M218" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218" s="7">
+        <v>0</v>
+      </c>
+      <c r="O218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -8830,8 +10142,14 @@
       <c r="M219" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219" s="7">
+        <v>0</v>
+      </c>
+      <c r="O219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -8871,8 +10189,14 @@
       <c r="M220" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220" s="7">
+        <v>0</v>
+      </c>
+      <c r="O220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -8912,8 +10236,14 @@
       <c r="M221" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221" s="7">
+        <v>0</v>
+      </c>
+      <c r="O221" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -8953,8 +10283,14 @@
       <c r="M222" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222" s="7">
+        <v>0</v>
+      </c>
+      <c r="O222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -8994,8 +10330,14 @@
       <c r="M223" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223" s="7">
+        <v>0</v>
+      </c>
+      <c r="O223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -9035,8 +10377,14 @@
       <c r="M224" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" s="7">
+        <v>0</v>
+      </c>
+      <c r="O224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -9076,8 +10424,14 @@
       <c r="M225" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225" s="7">
+        <v>0</v>
+      </c>
+      <c r="O225" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -9117,8 +10471,14 @@
       <c r="M226" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" s="7">
+        <v>0</v>
+      </c>
+      <c r="O226" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -9158,8 +10518,14 @@
       <c r="M227" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" s="7">
+        <v>0</v>
+      </c>
+      <c r="O227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -9199,8 +10565,14 @@
       <c r="M228" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" s="7">
+        <v>0</v>
+      </c>
+      <c r="O228" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -9240,8 +10612,14 @@
       <c r="M229" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229" s="7">
+        <v>0</v>
+      </c>
+      <c r="O229" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -9281,8 +10659,14 @@
       <c r="M230" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" s="7">
+        <v>0</v>
+      </c>
+      <c r="O230" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -9322,8 +10706,14 @@
       <c r="M231" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" s="7">
+        <v>0</v>
+      </c>
+      <c r="O231" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -9363,8 +10753,14 @@
       <c r="M232" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232" s="7">
+        <v>0</v>
+      </c>
+      <c r="O232" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -9404,8 +10800,14 @@
       <c r="M233" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233" s="7">
+        <v>0</v>
+      </c>
+      <c r="O233" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -9445,8 +10847,14 @@
       <c r="M234" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234" s="7">
+        <v>0</v>
+      </c>
+      <c r="O234" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -9486,8 +10894,14 @@
       <c r="M235" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235" s="7">
+        <v>0</v>
+      </c>
+      <c r="O235" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -9527,8 +10941,14 @@
       <c r="M236" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236" s="7">
+        <v>0</v>
+      </c>
+      <c r="O236" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -9568,8 +10988,14 @@
       <c r="M237" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237" s="7">
+        <v>0</v>
+      </c>
+      <c r="O237" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -9609,8 +11035,14 @@
       <c r="M238" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238" s="7">
+        <v>0</v>
+      </c>
+      <c r="O238" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -9650,8 +11082,14 @@
       <c r="M239" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239" s="7">
+        <v>0</v>
+      </c>
+      <c r="O239" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -9691,8 +11129,14 @@
       <c r="M240" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240" s="7">
+        <v>0</v>
+      </c>
+      <c r="O240" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -9732,8 +11176,14 @@
       <c r="M241" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241" s="7">
+        <v>0</v>
+      </c>
+      <c r="O241" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -9773,8 +11223,14 @@
       <c r="M242" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242" s="7">
+        <v>0</v>
+      </c>
+      <c r="O242" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -9814,8 +11270,14 @@
       <c r="M243" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243" s="7">
+        <v>0</v>
+      </c>
+      <c r="O243" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -9855,8 +11317,14 @@
       <c r="M244" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244" s="7">
+        <v>0</v>
+      </c>
+      <c r="O244" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -9896,8 +11364,14 @@
       <c r="M245" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245" s="7">
+        <v>0</v>
+      </c>
+      <c r="O245" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -9937,8 +11411,14 @@
       <c r="M246" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246" s="7">
+        <v>0</v>
+      </c>
+      <c r="O246" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -9978,8 +11458,14 @@
       <c r="M247" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247" s="7">
+        <v>0</v>
+      </c>
+      <c r="O247" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -10019,8 +11505,14 @@
       <c r="M248" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248" s="7">
+        <v>0</v>
+      </c>
+      <c r="O248" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -10060,8 +11552,14 @@
       <c r="M249" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249" s="7">
+        <v>0</v>
+      </c>
+      <c r="O249" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -10101,8 +11599,14 @@
       <c r="M250" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250" s="7">
+        <v>0</v>
+      </c>
+      <c r="O250" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -10142,8 +11646,14 @@
       <c r="M251" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251" s="7">
+        <v>0</v>
+      </c>
+      <c r="O251" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -10183,8 +11693,14 @@
       <c r="M252" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252" s="7">
+        <v>0</v>
+      </c>
+      <c r="O252" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -10224,8 +11740,14 @@
       <c r="M253" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253" s="7">
+        <v>0</v>
+      </c>
+      <c r="O253" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -10265,8 +11787,14 @@
       <c r="M254" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254" s="7">
+        <v>0</v>
+      </c>
+      <c r="O254" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -10306,8 +11834,14 @@
       <c r="M255" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255" s="7">
+        <v>0</v>
+      </c>
+      <c r="O255" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -10347,8 +11881,14 @@
       <c r="M256" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256" s="7">
+        <v>0</v>
+      </c>
+      <c r="O256" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -10388,8 +11928,14 @@
       <c r="M257" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257" s="7">
+        <v>0</v>
+      </c>
+      <c r="O257" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -10429,8 +11975,14 @@
       <c r="M258" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258" s="7">
+        <v>0</v>
+      </c>
+      <c r="O258" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -10470,8 +12022,14 @@
       <c r="M259" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259" s="7">
+        <v>0</v>
+      </c>
+      <c r="O259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -10511,8 +12069,14 @@
       <c r="M260" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="N260" s="7">
+        <v>0</v>
+      </c>
+      <c r="O260" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -10552,8 +12116,14 @@
       <c r="M261" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261" s="7">
+        <v>0</v>
+      </c>
+      <c r="O261" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -10593,8 +12163,14 @@
       <c r="M262" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262" s="7">
+        <v>0</v>
+      </c>
+      <c r="O262" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -10634,8 +12210,14 @@
       <c r="M263" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" s="7">
+        <v>0</v>
+      </c>
+      <c r="O263" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -10675,8 +12257,14 @@
       <c r="M264" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264" s="7">
+        <v>0</v>
+      </c>
+      <c r="O264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -10716,8 +12304,14 @@
       <c r="M265" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="N265" s="7">
+        <v>0</v>
+      </c>
+      <c r="O265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -10757,8 +12351,14 @@
       <c r="M266" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266" s="7">
+        <v>0</v>
+      </c>
+      <c r="O266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -10798,8 +12398,14 @@
       <c r="M267" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267" s="7">
+        <v>0</v>
+      </c>
+      <c r="O267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -10839,8 +12445,14 @@
       <c r="M268" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268" s="7">
+        <v>0</v>
+      </c>
+      <c r="O268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -10880,8 +12492,14 @@
       <c r="M269" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269" s="7">
+        <v>0</v>
+      </c>
+      <c r="O269" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -10921,8 +12539,14 @@
       <c r="M270" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270" s="7">
+        <v>0</v>
+      </c>
+      <c r="O270" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -10962,8 +12586,14 @@
       <c r="M271" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271" s="7">
+        <v>0</v>
+      </c>
+      <c r="O271" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -11003,8 +12633,14 @@
       <c r="M272" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272" s="7">
+        <v>0</v>
+      </c>
+      <c r="O272" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -11044,8 +12680,14 @@
       <c r="M273" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273" s="7">
+        <v>0</v>
+      </c>
+      <c r="O273" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -11085,8 +12727,14 @@
       <c r="M274" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274" s="7">
+        <v>0</v>
+      </c>
+      <c r="O274" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -11126,8 +12774,14 @@
       <c r="M275" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275" s="7">
+        <v>0</v>
+      </c>
+      <c r="O275" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -11167,8 +12821,14 @@
       <c r="M276" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276" s="7">
+        <v>0</v>
+      </c>
+      <c r="O276" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -11208,8 +12868,14 @@
       <c r="M277" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277" s="7">
+        <v>0</v>
+      </c>
+      <c r="O277" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -11249,8 +12915,14 @@
       <c r="M278" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278" s="7">
+        <v>0</v>
+      </c>
+      <c r="O278" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -11290,8 +12962,14 @@
       <c r="M279" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="N279" s="7">
+        <v>0</v>
+      </c>
+      <c r="O279" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -11331,8 +13009,14 @@
       <c r="M280" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280" s="7">
+        <v>0</v>
+      </c>
+      <c r="O280" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -11372,8 +13056,14 @@
       <c r="M281" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281" s="7">
+        <v>0</v>
+      </c>
+      <c r="O281" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -11413,8 +13103,14 @@
       <c r="M282" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282" s="7">
+        <v>0</v>
+      </c>
+      <c r="O282" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -11454,8 +13150,14 @@
       <c r="M283" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="N283" s="7">
+        <v>0</v>
+      </c>
+      <c r="O283" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -11495,8 +13197,14 @@
       <c r="M284" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284" s="7">
+        <v>0</v>
+      </c>
+      <c r="O284" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -11536,8 +13244,14 @@
       <c r="M285" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285" s="7">
+        <v>0</v>
+      </c>
+      <c r="O285" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -11577,8 +13291,14 @@
       <c r="M286" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286" s="7">
+        <v>0</v>
+      </c>
+      <c r="O286" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -11618,8 +13338,14 @@
       <c r="M287" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" s="7">
+        <v>0</v>
+      </c>
+      <c r="O287" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -11659,8 +13385,14 @@
       <c r="M288" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288" s="7">
+        <v>0</v>
+      </c>
+      <c r="O288" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -11700,8 +13432,14 @@
       <c r="M289" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289" s="7">
+        <v>0</v>
+      </c>
+      <c r="O289" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -11741,8 +13479,14 @@
       <c r="M290" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290" s="7">
+        <v>0</v>
+      </c>
+      <c r="O290" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -11782,8 +13526,14 @@
       <c r="M291" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291" s="7">
+        <v>0</v>
+      </c>
+      <c r="O291" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -11823,8 +13573,14 @@
       <c r="M292" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="N292" s="7">
+        <v>0</v>
+      </c>
+      <c r="O292" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -11864,8 +13620,14 @@
       <c r="M293" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293" s="7">
+        <v>0</v>
+      </c>
+      <c r="O293" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -11905,8 +13667,14 @@
       <c r="M294" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294" s="7">
+        <v>0</v>
+      </c>
+      <c r="O294" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -11946,8 +13714,14 @@
       <c r="M295" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="N295" s="7">
+        <v>0</v>
+      </c>
+      <c r="O295" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -11987,8 +13761,14 @@
       <c r="M296" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296" s="7">
+        <v>0</v>
+      </c>
+      <c r="O296" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -12028,8 +13808,14 @@
       <c r="M297" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297" s="7">
+        <v>0</v>
+      </c>
+      <c r="O297" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -12043,7 +13829,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:15">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -12057,7 +13843,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:15">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -12070,7 +13856,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:15">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -12083,14 +13869,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:15">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:15">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -12102,7 +13888,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:15">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1974398-9847-D045-A7E3-9433C7D6CB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE6AC87-43AC-B54F-87D6-7C94B4FF31A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -237,6 +237,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cambiar to&amp;do" xfId="1" xr:uid="{1D7D66DF-1FEE-2145-8694-1850E3213805}"/>
@@ -555,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:O643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4841,2867 +4869,2867 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="A104">
+    <row r="104" spans="1:15" s="23" customFormat="1">
+      <c r="A104" s="23">
         <v>1975</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="23">
         <v>3.8757133693112799E-9</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="23">
         <v>4.1999999999E-10</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="23">
         <v>5.5123333333333336E-10</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="25">
         <v>327377</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="26">
         <v>33.310473925234803</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="27">
         <v>5.4666666666666659</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="27">
         <v>2.81</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104" s="27">
         <v>3.7766666666666673</v>
       </c>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="7">
-        <v>0</v>
-      </c>
-      <c r="N104" s="7">
-        <v>0</v>
-      </c>
-      <c r="O104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105">
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="27">
+        <v>1</v>
+      </c>
+      <c r="N104" s="27">
+        <v>0</v>
+      </c>
+      <c r="O104" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" s="23" customFormat="1">
+      <c r="A105" s="23">
         <v>1975</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="23">
         <v>5.6658747702082795E-9</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="23">
         <v>7.3233333333333298E-10</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="23">
         <v>7.6970000000000004E-10</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="25">
         <v>330489</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="26">
         <v>33.3356328934563</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="27">
         <v>4.5500000000000007</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="27">
         <v>2.44</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J105" s="27">
         <v>3.67</v>
       </c>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="7">
-        <v>0</v>
-      </c>
-      <c r="N105" s="7">
-        <v>0</v>
-      </c>
-      <c r="O105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106">
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="27">
+        <v>0</v>
+      </c>
+      <c r="N105" s="27">
+        <v>0</v>
+      </c>
+      <c r="O105" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="23" customFormat="1">
+      <c r="A106" s="23">
         <v>1976</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="23">
         <v>9.0609375757009499E-9</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="23">
         <v>9.8333333332999992E-10</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="23">
         <v>2.4400000000000003E-9</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="25">
         <v>332632</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="26">
         <v>34.040084003660297</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="27">
         <v>4.4733333333333336</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="27">
         <v>2.4733333333333332</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J106" s="27">
         <v>3.58</v>
       </c>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="7">
-        <v>0</v>
-      </c>
-      <c r="N106" s="7">
-        <v>0</v>
-      </c>
-      <c r="O106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107">
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="27">
+        <v>1</v>
+      </c>
+      <c r="N106" s="27">
+        <v>0</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" s="23" customFormat="1">
+      <c r="A107" s="23">
         <v>1976</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="23">
         <v>1.69861064002122E-8</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="23">
         <v>1.3856666666666701E-9</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="23">
         <v>2.4800000000000001E-9</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="25">
         <v>327756</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="26">
         <v>34.6816376933104</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="27">
         <v>5.1833333333333336</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="27">
         <v>2.6033333333333335</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107" s="27">
         <v>3.4633333333333334</v>
       </c>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="7">
-        <v>0</v>
-      </c>
-      <c r="N107" s="7">
-        <v>0</v>
-      </c>
-      <c r="O107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108">
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="27">
+        <v>1</v>
+      </c>
+      <c r="N107" s="27">
+        <v>0</v>
+      </c>
+      <c r="O107" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="23" customFormat="1">
+      <c r="A108" s="23">
         <v>1976</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="23">
         <v>2.0073208698162401E-8</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="23">
         <v>1.3999999999999999E-9</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="23">
         <v>2.4950000000000002E-9</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="25">
         <v>330423</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="26">
         <v>35.184817057741803</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="27">
         <v>6.4833333333333343</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="27">
         <v>2.686666666666667</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J108" s="27">
         <v>3.06</v>
       </c>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="7">
-        <v>0</v>
-      </c>
-      <c r="N108" s="7">
-        <v>0</v>
-      </c>
-      <c r="O108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109">
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="27">
+        <v>0</v>
+      </c>
+      <c r="N108" s="27">
+        <v>0</v>
+      </c>
+      <c r="O108" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="23" customFormat="1">
+      <c r="A109" s="23">
         <v>1976</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="23">
         <v>2.6124313737106636E-8</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="23">
         <v>1.83033333333E-9</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="23">
         <v>2.6433333333333339E-9</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="25">
         <v>333800</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="26">
         <v>35.537042612843798</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="27">
         <v>6.19</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="27">
         <v>2.1966666666666668</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="27">
         <v>2.48</v>
       </c>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="7">
-        <v>0</v>
-      </c>
-      <c r="N109" s="7">
-        <v>0</v>
-      </c>
-      <c r="O109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110">
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="27">
+        <v>0</v>
+      </c>
+      <c r="N109" s="27">
+        <v>0</v>
+      </c>
+      <c r="O109" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" s="23" customFormat="1">
+      <c r="A110" s="23">
         <v>1977</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="23">
         <v>3.4132435701177765E-8</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="23">
         <v>3.03833333333E-9</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="23">
         <v>3.1633333333333338E-9</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="25">
         <v>349000</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="26">
         <v>36.656616698829602</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="27">
         <v>7.2333333333333334</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="27">
         <v>2.3433333333333333</v>
       </c>
-      <c r="J110" s="7">
+      <c r="J110" s="27">
         <v>2.4433333333333334</v>
       </c>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="7">
-        <v>0</v>
-      </c>
-      <c r="N110" s="7">
-        <v>0</v>
-      </c>
-      <c r="O110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111">
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="27">
+        <v>0</v>
+      </c>
+      <c r="N110" s="27">
+        <v>0</v>
+      </c>
+      <c r="O110" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="23" customFormat="1">
+      <c r="A111" s="23">
         <v>1977</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="23">
         <v>4.1667265262570499E-8</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="23">
         <v>3.6333333333333299E-9</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="23">
         <v>3.7433333333333343E-9</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="25">
         <v>357580</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="26">
         <v>37.6126574911235</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="27">
         <v>8.8066666666666666</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111" s="27">
         <v>2.226666666666667</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111" s="27">
         <v>2.1966666666666668</v>
       </c>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="7">
-        <v>0</v>
-      </c>
-      <c r="N111" s="7">
-        <v>0</v>
-      </c>
-      <c r="O111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112">
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="27">
+        <v>0</v>
+      </c>
+      <c r="N111" s="27">
+        <v>0</v>
+      </c>
+      <c r="O111" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" s="23" customFormat="1">
+      <c r="A112" s="23">
         <v>1977</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="23">
         <v>5.2999861263594731E-8</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="23">
         <v>4.2759999999933302E-9</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="23">
         <v>4.4399999999999996E-9</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="25">
         <v>364062</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="26">
         <v>38.090677887207498</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="27">
         <v>5.7233333333333336</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="27">
         <v>1.7033333333333331</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="27">
         <v>2.11</v>
       </c>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="7">
-        <v>0</v>
-      </c>
-      <c r="N112" s="7">
-        <v>0</v>
-      </c>
-      <c r="O112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113">
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="27">
+        <v>0</v>
+      </c>
+      <c r="N112" s="27">
+        <v>0</v>
+      </c>
+      <c r="O112" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="23" customFormat="1">
+      <c r="A113" s="23">
         <v>1977</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="23">
         <v>7.0618394660742997E-8</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="23">
         <v>5.35766666665667E-9</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="23">
         <v>5.5766666666666675E-9</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="25">
         <v>346939</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="26">
         <v>38.178734276108798</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="27">
         <v>5.5233333333333334</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="27">
         <v>1.8399999999999999</v>
       </c>
-      <c r="J113" s="7">
+      <c r="J113" s="27">
         <v>2.41</v>
       </c>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="7">
-        <v>0</v>
-      </c>
-      <c r="N113" s="7">
-        <v>0</v>
-      </c>
-      <c r="O113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114">
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="27">
+        <v>0</v>
+      </c>
+      <c r="N113" s="27">
+        <v>0</v>
+      </c>
+      <c r="O113" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="23" customFormat="1">
+      <c r="A114" s="23">
         <v>1978</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="23">
         <v>9.2645718133377028E-8</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="23">
         <v>6.6140000000066701E-9</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="23">
         <v>6.8299999999999998E-9</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="25">
         <v>330252</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="26">
         <v>39.675692885418101</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="27">
         <v>5.8266666666666671</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="27">
         <v>2.06</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114" s="27">
         <v>2.5966666666666662</v>
       </c>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="7">
-        <v>0</v>
-      </c>
-      <c r="N114" s="7">
-        <v>0</v>
-      </c>
-      <c r="O114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115">
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="27">
+        <v>0</v>
+      </c>
+      <c r="N114" s="27">
+        <v>0</v>
+      </c>
+      <c r="O114" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="23" customFormat="1">
+      <c r="A115" s="23">
         <v>1978</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="23">
         <v>1.2038725532306933E-7</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="23">
         <v>7.6643333333433299E-9</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="23">
         <v>7.7833333333333335E-9</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="25">
         <v>336617</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="26">
         <v>40.858164391454601</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="27">
         <v>6.6499999999999995</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="27">
         <v>2.27</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="27">
         <v>2.8166666666666664</v>
       </c>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="7">
-        <v>0</v>
-      </c>
-      <c r="N115" s="7">
-        <v>0</v>
-      </c>
-      <c r="O115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116">
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="27">
+        <v>0</v>
+      </c>
+      <c r="N115" s="27">
+        <v>0</v>
+      </c>
+      <c r="O115" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="23" customFormat="1">
+      <c r="A116" s="23">
         <v>1978</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="23">
         <v>1.4765356534298002E-7</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="23">
         <v>8.2226666666533302E-9</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="23">
         <v>8.3766666666666669E-9</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="25">
         <v>344016</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="26">
         <v>41.134913042143502</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="27">
         <v>6.27</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="27">
         <v>2.0500000000000003</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116" s="27">
         <v>2.8699999999999997</v>
       </c>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="7">
-        <v>0</v>
-      </c>
-      <c r="N116" s="7">
-        <v>0</v>
-      </c>
-      <c r="O116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117">
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="27">
+        <v>0</v>
+      </c>
+      <c r="N116" s="27">
+        <v>0</v>
+      </c>
+      <c r="O116" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="23" customFormat="1">
+      <c r="A117" s="23">
         <v>1978</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="23">
         <v>1.8872746171951499E-7</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="23">
         <v>9.3289999999800008E-9</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="23">
         <v>9.5966666666666672E-9</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="25">
         <v>347498</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="26">
         <v>42.002897445661901</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="27">
         <v>6.3866666666666667</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="27">
         <v>2.0266666666666668</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117" s="27">
         <v>3.0133333333333332</v>
       </c>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="7">
-        <v>0</v>
-      </c>
-      <c r="N117" s="7">
-        <v>0</v>
-      </c>
-      <c r="O117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118">
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="27">
+        <v>0</v>
+      </c>
+      <c r="N117" s="27">
+        <v>0</v>
+      </c>
+      <c r="O117" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="23" customFormat="1">
+      <c r="A118" s="23">
         <v>1979</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="23">
         <v>2.4926330131247004E-7</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="23">
         <v>1.084533333331E-8</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="23">
         <v>1.1090000000000002E-8</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="25">
         <v>361221</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="26">
         <v>43.562753475399298</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="27">
         <v>6.91</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="27">
         <v>2.17</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118" s="27">
         <v>2.9833333333333338</v>
       </c>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="7">
-        <v>0</v>
-      </c>
-      <c r="N118" s="7">
-        <v>0</v>
-      </c>
-      <c r="O118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119">
+      <c r="K118" s="28"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="27">
+        <v>0</v>
+      </c>
+      <c r="N118" s="27">
+        <v>0</v>
+      </c>
+      <c r="O118" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" s="23" customFormat="1">
+      <c r="A119" s="23">
         <v>1979</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="23">
         <v>3.0972598252432667E-7</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="23">
         <v>1.237599999999E-8</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="23">
         <v>1.2666666666666668E-8</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="25">
         <v>370061</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="26">
         <v>45.852219583688097</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="27">
         <v>7.16</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119" s="27">
         <v>2.37</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119" s="27">
         <v>3.31</v>
       </c>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="7">
-        <v>0</v>
-      </c>
-      <c r="N119" s="7">
-        <v>0</v>
-      </c>
-      <c r="O119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120">
+      <c r="K119" s="28"/>
+      <c r="L119" s="28"/>
+      <c r="M119" s="27">
+        <v>0</v>
+      </c>
+      <c r="N119" s="27">
+        <v>0</v>
+      </c>
+      <c r="O119" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="23" customFormat="1">
+      <c r="A120" s="23">
         <v>1979</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="23">
         <v>3.9683826674187297E-7</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="23">
         <v>1.39746666666367E-8</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="23">
         <v>1.4246666666666668E-8</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="25">
         <v>364211</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="26">
         <v>49.374475134582298</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="27">
         <v>7.0799999999999992</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="27">
         <v>2.563333333333333</v>
       </c>
-      <c r="J120" s="7">
+      <c r="J120" s="27">
         <v>3.8333333333333335</v>
       </c>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="7">
-        <v>0</v>
-      </c>
-      <c r="N120" s="7">
-        <v>0</v>
-      </c>
-      <c r="O120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121">
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="27">
+        <v>0</v>
+      </c>
+      <c r="N120" s="27">
+        <v>0</v>
+      </c>
+      <c r="O120" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" s="23" customFormat="1">
+      <c r="A121" s="23">
         <v>1979</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="23">
         <v>4.6996218480156765E-7</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="23">
         <v>1.5482666666626698E-8</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="23">
         <v>1.5743333333333337E-8</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="25">
         <v>366025</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="26">
         <v>53.186058820024599</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H121" s="27">
         <v>6.3066666666666658</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121" s="27">
         <v>2.3533333333333331</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J121" s="27">
         <v>3.91</v>
       </c>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="7">
-        <v>0</v>
-      </c>
-      <c r="N121" s="7">
-        <v>0</v>
-      </c>
-      <c r="O121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122">
+      <c r="K121" s="28"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="27">
+        <v>0</v>
+      </c>
+      <c r="N121" s="27">
+        <v>0</v>
+      </c>
+      <c r="O121" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="23" customFormat="1">
+      <c r="A122" s="23">
         <v>1980</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="23">
         <v>5.5682597236926591E-7</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="23">
         <v>1.6849333333319999E-8</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="29">
         <v>1.7093333333333336E-8</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="30">
         <v>367779.87191736099</v>
       </c>
-      <c r="G122" s="22">
+      <c r="G122" s="31">
         <v>58.393965242015597</v>
       </c>
-      <c r="H122" s="6">
+      <c r="H122" s="32">
         <v>6.1766666666666667</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="27">
         <v>2.4133333333333336</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="27">
         <v>3.72</v>
       </c>
-      <c r="L122" s="4">
+      <c r="L122" s="33">
         <v>96.343050000000005</v>
       </c>
-      <c r="M122" s="7">
-        <v>0</v>
-      </c>
-      <c r="N122" s="7">
-        <v>0</v>
-      </c>
-      <c r="O122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123">
+      <c r="M122" s="27">
+        <v>0</v>
+      </c>
+      <c r="N122" s="27">
+        <v>0</v>
+      </c>
+      <c r="O122" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="23" customFormat="1">
+      <c r="A123" s="23">
         <v>1980</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="23">
         <v>6.6066855049906803E-7</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="23">
         <v>1.80349999999967E-8</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="29">
         <v>1.824E-8</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F123" s="30">
         <v>364177.58519652899</v>
       </c>
-      <c r="G123" s="22">
+      <c r="G123" s="31">
         <v>60.733749286621801</v>
       </c>
-      <c r="H123" s="6">
+      <c r="H123" s="32">
         <v>5.7666666666666666</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="27">
         <v>2.4233333333333333</v>
       </c>
-      <c r="J123" s="7">
+      <c r="J123" s="27">
         <v>3.6533333333333329</v>
       </c>
-      <c r="L123" s="4">
+      <c r="L123" s="33">
         <v>96.085849999999994</v>
       </c>
-      <c r="M123" s="7">
-        <v>0</v>
-      </c>
-      <c r="N123" s="7">
-        <v>0</v>
-      </c>
-      <c r="O123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="10">
+      <c r="M123" s="27">
+        <v>0</v>
+      </c>
+      <c r="N123" s="27">
+        <v>0</v>
+      </c>
+      <c r="O123" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" s="23" customFormat="1">
+      <c r="A124" s="34">
         <v>1980</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="23">
         <v>7.57957105065975E-7</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="23">
         <v>1.897033333331E-8</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="29">
         <v>1.9130000000000003E-8</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F124" s="30">
         <v>376246.89133424498</v>
       </c>
-      <c r="G124" s="22">
+      <c r="G124" s="31">
         <v>62.092333570586803</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H124" s="32">
         <v>7.1733333333333329</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="27">
         <v>2.8866666666666667</v>
       </c>
-      <c r="J124" s="7">
+      <c r="J124" s="27">
         <v>3.9133333333333336</v>
       </c>
-      <c r="L124" s="4">
+      <c r="L124" s="33">
         <v>96.541250000000005</v>
       </c>
-      <c r="M124" s="7">
-        <v>0</v>
-      </c>
-      <c r="N124" s="7">
-        <v>0</v>
-      </c>
-      <c r="O124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="10">
+      <c r="M124" s="27">
+        <v>0</v>
+      </c>
+      <c r="N124" s="27">
+        <v>0</v>
+      </c>
+      <c r="O124" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="23" customFormat="1">
+      <c r="A125" s="34">
         <v>1980</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="23">
         <v>8.8702420930684169E-7</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="23">
         <v>1.9631666666663299E-8</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="29">
         <v>1.9760000000000003E-8</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F125" s="30">
         <v>377646.29742703802</v>
       </c>
-      <c r="G125" s="22">
+      <c r="G125" s="31">
         <v>63.312543529458502</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H125" s="32">
         <v>7.8866666666666667</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I125" s="27">
         <v>3.0933333333333333</v>
       </c>
-      <c r="J125" s="7">
+      <c r="J125" s="27">
         <v>4.2433333333333332</v>
       </c>
-      <c r="L125" s="4">
+      <c r="L125" s="33">
         <v>96.683340000000001</v>
       </c>
-      <c r="M125" s="7">
-        <v>0</v>
-      </c>
-      <c r="N125" s="7">
-        <v>0</v>
-      </c>
-      <c r="O125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="10">
+      <c r="M125" s="27">
+        <v>0</v>
+      </c>
+      <c r="N125" s="27">
+        <v>0</v>
+      </c>
+      <c r="O125" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="23" customFormat="1">
+      <c r="A126" s="34">
         <v>1981</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="23">
         <v>1.0151481145847787E-6</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="23">
         <v>2.1956333333299999E-8</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="29">
         <v>2.2146666666666667E-8</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="30">
         <v>363119.92021309899</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="31">
         <v>65.853599319585697</v>
       </c>
-      <c r="H126" s="6">
+      <c r="H126" s="32">
         <v>7.63</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="27">
         <v>3.22</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="27">
         <v>4.1566666666666663</v>
       </c>
-      <c r="L126" s="4">
+      <c r="L126" s="33">
         <v>96.426490000000001</v>
       </c>
-      <c r="M126" s="7">
-        <v>0</v>
-      </c>
-      <c r="N126" s="7">
-        <v>0</v>
-      </c>
-      <c r="O126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="10">
+      <c r="M126" s="27">
+        <v>0</v>
+      </c>
+      <c r="N126" s="27">
+        <v>0</v>
+      </c>
+      <c r="O126" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="23" customFormat="1">
+      <c r="A127" s="34">
         <v>1981</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="23">
         <v>1.2499200102925032E-6</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="23">
         <v>3.76053333333567E-8</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="29">
         <v>4.3446666666666669E-8</v>
       </c>
-      <c r="F127" s="19">
+      <c r="F127" s="30">
         <v>354928.98153557902</v>
       </c>
-      <c r="G127" s="22">
+      <c r="G127" s="31">
         <v>65.513953248720298</v>
       </c>
-      <c r="H127" s="6">
+      <c r="H127" s="32">
         <v>7.3500000000000005</v>
       </c>
-      <c r="I127" s="7">
+      <c r="I127" s="27">
         <v>3.2166666666666668</v>
       </c>
-      <c r="J127" s="7">
+      <c r="J127" s="27">
         <v>3.9066666666666663</v>
       </c>
-      <c r="L127" s="4">
+      <c r="L127" s="33">
         <v>96.362250000000003</v>
       </c>
-      <c r="M127" s="7">
-        <v>0</v>
-      </c>
-      <c r="N127" s="7">
-        <v>0</v>
-      </c>
-      <c r="O127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="10">
+      <c r="M127" s="27">
+        <v>0</v>
+      </c>
+      <c r="N127" s="27">
+        <v>0</v>
+      </c>
+      <c r="O127" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="23" customFormat="1">
+      <c r="A128" s="34">
         <v>1981</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="23">
         <v>1.6127493036589868E-6</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="23">
         <v>5.1344000000153299E-8</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="29">
         <v>7.4733333333333341E-8</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="30">
         <v>344833.96946955298</v>
       </c>
-      <c r="G128" s="22">
+      <c r="G128" s="31">
         <v>63.4131794022192</v>
       </c>
-      <c r="H128" s="6">
+      <c r="H128" s="32">
         <v>6.6833333333333336</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="27">
         <v>2.8533333333333331</v>
       </c>
-      <c r="J128" s="7">
+      <c r="J128" s="27">
         <v>3.6300000000000003</v>
       </c>
-      <c r="L128" s="4">
+      <c r="L128" s="33">
         <v>96.230779999999996</v>
       </c>
-      <c r="M128" s="7">
-        <v>0</v>
-      </c>
-      <c r="N128" s="7">
-        <v>0</v>
-      </c>
-      <c r="O128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="10">
+      <c r="M128" s="27">
+        <v>0</v>
+      </c>
+      <c r="N128" s="27">
+        <v>0</v>
+      </c>
+      <c r="O128" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="23" customFormat="1">
+      <c r="A129" s="34">
         <v>1981</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="23">
         <v>1.9752762896655568E-6</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="23">
         <v>6.5201999999880003E-8</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="29">
         <v>1.015E-7</v>
       </c>
-      <c r="F129" s="19">
+      <c r="F129" s="30">
         <v>341461.91969468503</v>
       </c>
-      <c r="G129" s="22">
+      <c r="G129" s="31">
         <v>62.8345231331229</v>
       </c>
-      <c r="H129" s="6">
+      <c r="H129" s="32">
         <v>6.0333333333333341</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="27">
         <v>2.3933333333333331</v>
       </c>
-      <c r="J129" s="7">
+      <c r="J129" s="27">
         <v>3.8066666666666666</v>
       </c>
-      <c r="L129" s="4">
+      <c r="L129" s="33">
         <v>96.089560000000006</v>
       </c>
-      <c r="M129" s="7">
-        <v>0</v>
-      </c>
-      <c r="N129" s="7">
-        <v>0</v>
-      </c>
-      <c r="O129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="10">
+      <c r="M129" s="27">
+        <v>0</v>
+      </c>
+      <c r="N129" s="27">
+        <v>0</v>
+      </c>
+      <c r="O129" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" s="23" customFormat="1">
+      <c r="A130" s="34">
         <v>1982</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="23">
         <v>2.5125369297013133E-6</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="23">
         <v>1.0263099999984E-7</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="29">
         <v>1.0575E-7</v>
       </c>
-      <c r="F130" s="19">
+      <c r="F130" s="30">
         <v>343586.85240184597</v>
       </c>
-      <c r="G130" s="22">
+      <c r="G130" s="31">
         <v>64.5075945199833</v>
       </c>
-      <c r="H130" s="6">
+      <c r="H130" s="32">
         <v>6.0533333333333337</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="27">
         <v>2.48</v>
       </c>
-      <c r="J130" s="7">
+      <c r="J130" s="27">
         <v>3.7166666666666668</v>
       </c>
-      <c r="L130" s="4">
+      <c r="L130" s="33">
         <v>96.085629999999995</v>
       </c>
-      <c r="M130" s="7">
-        <v>0</v>
-      </c>
-      <c r="N130" s="7">
-        <v>0</v>
-      </c>
-      <c r="O130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="10">
+      <c r="M130" s="27">
+        <v>0</v>
+      </c>
+      <c r="N130" s="27">
+        <v>0</v>
+      </c>
+      <c r="O130" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" s="23" customFormat="1">
+      <c r="A131" s="34">
         <v>1982</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="23">
         <v>2.8743988395160803E-6</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="23">
         <v>1.3670033333321301E-7</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="29">
         <v>1.4116666666666669E-7</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F131" s="30">
         <v>331333.421081651</v>
       </c>
-      <c r="G131" s="22">
+      <c r="G131" s="31">
         <v>63.249646108653302</v>
       </c>
-      <c r="H131" s="6">
+      <c r="H131" s="32">
         <v>6.1866666666666665</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="27">
         <v>2.5733333333333337</v>
       </c>
-      <c r="J131" s="7">
+      <c r="J131" s="27">
         <v>3.5700000000000003</v>
       </c>
-      <c r="L131" s="4">
+      <c r="L131" s="33">
         <v>96.061179999999993</v>
       </c>
-      <c r="M131" s="7">
-        <v>0</v>
-      </c>
-      <c r="N131" s="7">
-        <v>0</v>
-      </c>
-      <c r="O131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" s="10">
+      <c r="M131" s="27">
+        <v>0</v>
+      </c>
+      <c r="N131" s="27">
+        <v>0</v>
+      </c>
+      <c r="O131" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="23" customFormat="1">
+      <c r="A132" s="34">
         <v>1982</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="23">
         <v>4.1261931554400406E-6</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="23">
         <v>3.7726666666666699E-7</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="29">
         <v>3.9000000000000002E-7</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="30">
         <v>342870.42862439802</v>
       </c>
-      <c r="G132" s="22">
+      <c r="G132" s="31">
         <v>62.4697180937845</v>
       </c>
-      <c r="H132" s="6">
+      <c r="H132" s="32">
         <v>5.6000000000000005</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="27">
         <v>2.3166666666666664</v>
       </c>
-      <c r="J132" s="7">
+      <c r="J132" s="27">
         <v>3.3266666666666667</v>
       </c>
-      <c r="L132" s="4">
+      <c r="L132" s="33">
         <v>95.910550000000001</v>
       </c>
-      <c r="M132" s="7">
-        <v>0</v>
-      </c>
-      <c r="N132" s="7">
-        <v>0</v>
-      </c>
-      <c r="O132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="10">
+      <c r="M132" s="27">
+        <v>0</v>
+      </c>
+      <c r="N132" s="27">
+        <v>0</v>
+      </c>
+      <c r="O132" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" s="23" customFormat="1">
+      <c r="A133" s="34">
         <v>1982</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="23">
         <v>5.9846578812355705E-6</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="23">
         <v>4.2030333333333297E-7</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="29">
         <v>4.3656666666666673E-7</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="30">
         <v>347860.05944581999</v>
       </c>
-      <c r="G133" s="22">
+      <c r="G133" s="31">
         <v>62.2055489277097</v>
       </c>
-      <c r="H133" s="6">
+      <c r="H133" s="32">
         <v>5.2866666666666662</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="27">
         <v>2.1233333333333331</v>
       </c>
-      <c r="J133" s="7">
+      <c r="J133" s="27">
         <v>3.4733333333333332</v>
       </c>
-      <c r="L133" s="4">
+      <c r="L133" s="33">
         <v>95.876329999999996</v>
       </c>
-      <c r="M133" s="7">
-        <v>0</v>
-      </c>
-      <c r="N133" s="7">
-        <v>0</v>
-      </c>
-      <c r="O133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" s="10">
+      <c r="M133" s="27">
+        <v>0</v>
+      </c>
+      <c r="N133" s="27">
+        <v>0</v>
+      </c>
+      <c r="O133" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" s="23" customFormat="1">
+      <c r="A134" s="34">
         <v>1983</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="23">
         <v>8.658687402601919E-6</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="23">
         <v>5.7522633333365002E-7</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="29">
         <v>6.0256666666666666E-7</v>
       </c>
-      <c r="F134" s="19">
+      <c r="F134" s="30">
         <v>353533.64229996101</v>
       </c>
-      <c r="G134" s="22">
+      <c r="G134" s="31">
         <v>61.362723492286896</v>
       </c>
-      <c r="H134" s="6">
+      <c r="H134" s="32">
         <v>5.68</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="27">
         <v>2.5433333333333334</v>
       </c>
-      <c r="J134" s="7">
+      <c r="J134" s="27">
         <v>3.6</v>
       </c>
-      <c r="L134" s="4">
+      <c r="L134" s="33">
         <v>96.019750000000002</v>
       </c>
-      <c r="M134" s="7">
-        <v>0</v>
-      </c>
-      <c r="N134" s="7">
-        <v>0</v>
-      </c>
-      <c r="O134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="10">
+      <c r="M134" s="27">
+        <v>0</v>
+      </c>
+      <c r="N134" s="27">
+        <v>0</v>
+      </c>
+      <c r="O134" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" s="23" customFormat="1">
+      <c r="A135" s="34">
         <v>1983</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="23">
         <v>1.1886725391743134E-5</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="23">
         <v>7.8198999993333303E-7</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="29">
         <v>8.1483333333333332E-7</v>
       </c>
-      <c r="F135" s="19">
+      <c r="F135" s="30">
         <v>355532.82782145799</v>
       </c>
-      <c r="G135" s="22">
+      <c r="G135" s="31">
         <v>60.356364763424097</v>
       </c>
-      <c r="H135" s="6">
+      <c r="H135" s="32">
         <v>6.0166666666666657</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135" s="27">
         <v>3.0066666666666664</v>
       </c>
-      <c r="J135" s="7">
+      <c r="J135" s="27">
         <v>3.66</v>
       </c>
-      <c r="L135" s="4">
+      <c r="L135" s="33">
         <v>96.16677</v>
       </c>
-      <c r="M135" s="7">
-        <v>0</v>
-      </c>
-      <c r="N135" s="7">
-        <v>0</v>
-      </c>
-      <c r="O135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="10">
+      <c r="M135" s="27">
+        <v>0</v>
+      </c>
+      <c r="N135" s="27">
+        <v>0</v>
+      </c>
+      <c r="O135" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" s="23" customFormat="1">
+      <c r="A136" s="34">
         <v>1983</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="23">
         <v>1.8101560096815802E-5</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="23">
         <v>1.0733466666000001E-6</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="29">
         <v>1.1446333333333334E-6</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="30">
         <v>360604.43028807198</v>
       </c>
-      <c r="G136" s="22">
+      <c r="G136" s="31">
         <v>60.4318416679629</v>
       </c>
-      <c r="H136" s="6">
+      <c r="H136" s="32">
         <v>7.3733333333333322</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I136" s="27">
         <v>3.2666666666666671</v>
       </c>
-      <c r="J136" s="7">
+      <c r="J136" s="27">
         <v>3.5333333333333332</v>
       </c>
-      <c r="L136" s="4">
+      <c r="L136" s="33">
         <v>96.390550000000005</v>
       </c>
-      <c r="M136" s="7">
-        <v>0</v>
-      </c>
-      <c r="N136" s="7">
-        <v>0</v>
-      </c>
-      <c r="O136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" s="10">
+      <c r="M136" s="27">
+        <v>0</v>
+      </c>
+      <c r="N136" s="27">
+        <v>1</v>
+      </c>
+      <c r="O136" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" s="23" customFormat="1">
+      <c r="A137" s="34">
         <v>1983</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="23">
         <v>3.0132183791877068E-5</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="23">
         <v>1.78141999996667E-6</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="29">
         <v>1.9460000000000001E-6</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="30">
         <v>356406.31294722599</v>
       </c>
-      <c r="G137" s="22">
+      <c r="G137" s="31">
         <v>60.935021032646198</v>
       </c>
-      <c r="H137" s="6">
+      <c r="H137" s="32">
         <v>7.84</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137" s="27">
         <v>3.1566666666666667</v>
       </c>
-      <c r="J137" s="7">
+      <c r="J137" s="27">
         <v>3.5400000000000005</v>
       </c>
-      <c r="L137" s="4">
+      <c r="L137" s="33">
         <v>96.398269999999997</v>
       </c>
-      <c r="M137" s="7">
-        <v>0</v>
-      </c>
-      <c r="N137" s="7">
-        <v>0</v>
-      </c>
-      <c r="O137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="10">
+      <c r="M137" s="27">
+        <v>0</v>
+      </c>
+      <c r="N137" s="27">
+        <v>1</v>
+      </c>
+      <c r="O137" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" s="23" customFormat="1">
+      <c r="A138" s="34">
         <v>1984</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="23">
         <v>4.732924026783586E-5</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="23">
         <v>2.7836533332333302E-6</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="29">
         <v>2.9373333333333336E-6</v>
       </c>
-      <c r="F138" s="19">
+      <c r="F138" s="30">
         <v>359573.567407066</v>
       </c>
-      <c r="G138" s="22">
+      <c r="G138" s="31">
         <v>61.362723492286797</v>
       </c>
-      <c r="H138" s="6">
+      <c r="H138" s="32">
         <v>7.6033333333333326</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138" s="27">
         <v>3.1566666666666663</v>
       </c>
-      <c r="J138" s="7">
+      <c r="J138" s="27">
         <v>3.4633333333333334</v>
       </c>
-      <c r="L138" s="4">
+      <c r="L138" s="33">
         <v>96.302340000000001</v>
       </c>
-      <c r="M138" s="7">
-        <v>0</v>
-      </c>
-      <c r="N138" s="7">
-        <v>0</v>
-      </c>
-      <c r="O138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="10">
+      <c r="M138" s="27">
+        <v>0</v>
+      </c>
+      <c r="N138" s="27">
+        <v>1</v>
+      </c>
+      <c r="O138" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" s="23" customFormat="1">
+      <c r="A139" s="34">
         <v>1984</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="23">
         <v>7.8345975394815667E-5</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="23">
         <v>4.1180699999333301E-6</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="29">
         <v>4.4268999999999999E-6</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="30">
         <v>366827.22911528603</v>
       </c>
-      <c r="G139" s="22">
+      <c r="G139" s="31">
         <v>62.0294361499069</v>
       </c>
-      <c r="H139" s="6">
+      <c r="H139" s="32">
         <v>7.9799999999999995</v>
       </c>
-      <c r="I139" s="7">
+      <c r="I139" s="27">
         <v>3.34</v>
       </c>
-      <c r="J139" s="7">
+      <c r="J139" s="27">
         <v>3.5833333333333335</v>
       </c>
-      <c r="L139" s="4">
+      <c r="L139" s="33">
         <v>96.380380000000002</v>
       </c>
-      <c r="M139" s="7">
-        <v>0</v>
-      </c>
-      <c r="N139" s="7">
-        <v>0</v>
-      </c>
-      <c r="O139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="10">
+      <c r="M139" s="27">
+        <v>0</v>
+      </c>
+      <c r="N139" s="27">
+        <v>1</v>
+      </c>
+      <c r="O139" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="23" customFormat="1">
+      <c r="A140" s="34">
         <v>1984</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="23">
         <v>1.3671548044664136E-4</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="23">
         <v>6.9343899999333302E-6</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="29">
         <v>7.6008333333333344E-6</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="30">
         <v>364304.37732207897</v>
       </c>
-      <c r="G140" s="22">
+      <c r="G140" s="31">
         <v>62.042015634143603</v>
       </c>
-      <c r="H140" s="6">
+      <c r="H140" s="32">
         <v>6.5133333333333328</v>
       </c>
-      <c r="I140" s="7">
+      <c r="I140" s="27">
         <v>3.1066666666666669</v>
       </c>
-      <c r="J140" s="7">
+      <c r="J140" s="27">
         <v>3.3833333333333333</v>
       </c>
-      <c r="L140" s="4">
+      <c r="L140" s="33">
         <v>96.077349999999996</v>
       </c>
-      <c r="M140" s="7">
-        <v>0</v>
-      </c>
-      <c r="N140" s="7">
-        <v>0</v>
-      </c>
-      <c r="O140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="10">
+      <c r="M140" s="27">
+        <v>0</v>
+      </c>
+      <c r="N140" s="27">
+        <v>1</v>
+      </c>
+      <c r="O140" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="23" customFormat="1">
+      <c r="A141" s="34">
         <v>1984</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="23">
         <v>2.3745033891654568E-4</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="23">
         <v>1.3223533333300001E-5</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="29">
         <v>1.4921800000000002E-5</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="30">
         <v>361366.26697734901</v>
       </c>
-      <c r="G141" s="22">
+      <c r="G141" s="31">
         <v>61.828164404385802</v>
       </c>
-      <c r="H141" s="6">
+      <c r="H141" s="32">
         <v>5.9666666666666659</v>
       </c>
-      <c r="I141" s="7">
+      <c r="I141" s="27">
         <v>2.5866666666666664</v>
       </c>
-      <c r="J141" s="7">
+      <c r="J141" s="27">
         <v>3.4200000000000004</v>
       </c>
-      <c r="L141" s="4">
+      <c r="L141" s="33">
         <v>95.925200000000004</v>
       </c>
-      <c r="M141" s="7">
-        <v>0</v>
-      </c>
-      <c r="N141" s="7">
-        <v>0</v>
-      </c>
-      <c r="O141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="10">
+      <c r="M141" s="27">
+        <v>0</v>
+      </c>
+      <c r="N141" s="27">
+        <v>1</v>
+      </c>
+      <c r="O141" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" s="23" customFormat="1">
+      <c r="A142" s="34">
         <v>1985</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="23">
         <v>4.3296460086608701E-4</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="23">
         <v>2.4951966666666701E-5</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="29">
         <v>2.7817333333333332E-5</v>
       </c>
-      <c r="F142" s="19">
+      <c r="F142" s="30">
         <v>346206.66506450903</v>
       </c>
-      <c r="G142" s="22">
+      <c r="G142" s="31">
         <v>60.406682699741303</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="32">
         <v>5.8533333333333326</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="27">
         <v>2.6433333333333331</v>
       </c>
-      <c r="J142" s="7">
+      <c r="J142" s="27">
         <v>3.3800000000000003</v>
       </c>
-      <c r="L142" s="4">
+      <c r="L142" s="33">
         <v>95.815200000000004</v>
       </c>
-      <c r="M142" s="7">
-        <v>0</v>
-      </c>
-      <c r="N142" s="7">
-        <v>0</v>
-      </c>
-      <c r="O142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="10">
+      <c r="M142" s="27">
+        <v>0</v>
+      </c>
+      <c r="N142" s="27">
+        <v>1</v>
+      </c>
+      <c r="O142" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" s="23" customFormat="1">
+      <c r="A143" s="34">
         <v>1985</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="23">
         <v>8.9017425199712258E-4</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="23">
         <v>5.5671633333333297E-5</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="29">
         <v>6.1721000000000001E-5</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="30">
         <v>333543.974588276</v>
       </c>
-      <c r="G143" s="22">
+      <c r="G143" s="31">
         <v>60.092195596971798</v>
       </c>
-      <c r="H143" s="6">
+      <c r="H143" s="32">
         <v>5.7333333333333334</v>
       </c>
-      <c r="I143" s="7">
+      <c r="I143" s="27">
         <v>2.6733333333333338</v>
       </c>
-      <c r="J143" s="7">
+      <c r="J143" s="27">
         <v>3.2733333333333334</v>
       </c>
-      <c r="L143" s="4">
+      <c r="L143" s="33">
         <v>95.715419999999995</v>
       </c>
-      <c r="M143" s="7">
-        <v>0</v>
-      </c>
-      <c r="N143" s="7">
-        <v>0</v>
-      </c>
-      <c r="O143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="10">
+      <c r="M143" s="27">
+        <v>0</v>
+      </c>
+      <c r="N143" s="27">
+        <v>1</v>
+      </c>
+      <c r="O143" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" s="23" customFormat="1">
+      <c r="A144" s="34">
         <v>1985</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="23">
         <v>1.2248284994197968E-3</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="23">
         <v>8.0049999999999994E-5</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="29">
         <v>8.0100000000000009E-5</v>
       </c>
-      <c r="F144" s="19">
+      <c r="F144" s="30">
         <v>326044.96843614901</v>
       </c>
-      <c r="G144" s="22">
+      <c r="G144" s="31">
         <v>59.966400755863901</v>
       </c>
-      <c r="H144" s="6">
+      <c r="H144" s="32">
         <v>5.17</v>
       </c>
-      <c r="I144" s="7">
+      <c r="I144" s="27">
         <v>2.4433333333333334</v>
       </c>
-      <c r="J144" s="7">
+      <c r="J144" s="27">
         <v>2.9433333333333334</v>
       </c>
-      <c r="L144" s="4">
+      <c r="L144" s="33">
         <v>95.512349999999998</v>
       </c>
-      <c r="M144" s="7">
-        <v>0</v>
-      </c>
-      <c r="N144" s="7">
-        <v>0</v>
-      </c>
-      <c r="O144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="10">
+      <c r="M144" s="27">
+        <v>0</v>
+      </c>
+      <c r="N144" s="27">
+        <v>0</v>
+      </c>
+      <c r="O144" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="23" customFormat="1">
+      <c r="A145" s="34">
         <v>1985</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="23">
         <v>1.3117116346585333E-3</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="23">
         <v>8.0049999999999994E-5</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="29">
         <v>8.0100000000000009E-5</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="30">
         <v>340098.33678035502</v>
       </c>
-      <c r="G145" s="22">
+      <c r="G145" s="31">
         <v>60.721169802762702</v>
       </c>
-      <c r="H145" s="6">
+      <c r="H145" s="32">
         <v>4.9266666666666667</v>
       </c>
-      <c r="I145" s="7">
+      <c r="I145" s="27">
         <v>2.2033333333333336</v>
       </c>
-      <c r="J145" s="7">
+      <c r="J145" s="27">
         <v>3.19</v>
       </c>
-      <c r="L145" s="4">
+      <c r="L145" s="33">
         <v>95.635459999999995</v>
       </c>
-      <c r="M145" s="7">
-        <v>0</v>
-      </c>
-      <c r="N145" s="7">
-        <v>0</v>
-      </c>
-      <c r="O145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="10">
+      <c r="M145" s="27">
+        <v>0</v>
+      </c>
+      <c r="N145" s="27">
+        <v>0</v>
+      </c>
+      <c r="O145" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" s="23" customFormat="1">
+      <c r="A146" s="34">
         <v>1986</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="23">
         <v>1.4279185838087366E-3</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="23">
         <v>8.0049999999999994E-5</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="29">
         <v>8.0100000000000009E-5</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="30">
         <v>348379.75702303299</v>
       </c>
-      <c r="G146" s="22">
+      <c r="G146" s="31">
         <v>59.387744486893602</v>
       </c>
-      <c r="H146" s="6">
+      <c r="H146" s="32">
         <v>5.19</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146" s="27">
         <v>2.3133333333333335</v>
       </c>
-      <c r="J146" s="7">
+      <c r="J146" s="27">
         <v>3.2099999999999995</v>
       </c>
-      <c r="K146" s="7">
+      <c r="K146" s="27">
         <v>73.551106427818794</v>
       </c>
-      <c r="L146" s="4">
+      <c r="L146" s="33">
         <v>95.433189999999996</v>
       </c>
-      <c r="M146" s="7">
-        <v>0</v>
-      </c>
-      <c r="N146" s="7">
-        <v>0</v>
-      </c>
-      <c r="O146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="10">
+      <c r="M146" s="27">
+        <v>0</v>
+      </c>
+      <c r="N146" s="27">
+        <v>0</v>
+      </c>
+      <c r="O146" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" s="23" customFormat="1">
+      <c r="A147" s="34">
         <v>1986</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="23">
         <v>1.6155909928421599E-3</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="23">
         <v>8.4895666666666701E-5</v>
       </c>
-      <c r="E147" s="11">
+      <c r="E147" s="29">
         <v>8.6433333333333338E-5</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="30">
         <v>358745.85180372599</v>
       </c>
-      <c r="G147" s="22">
+      <c r="G147" s="31">
         <v>57.551139806718801</v>
       </c>
-      <c r="H147" s="6">
+      <c r="H147" s="32">
         <v>5.2233333333333336</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I147" s="27">
         <v>2.3366666666666664</v>
       </c>
-      <c r="J147" s="7">
+      <c r="J147" s="27">
         <v>2.9499999999999997</v>
       </c>
-      <c r="K147" s="7">
+      <c r="K147" s="27">
         <v>74.48770491803279</v>
       </c>
-      <c r="L147" s="4">
+      <c r="L147" s="33">
         <v>95.173559999999995</v>
       </c>
-      <c r="M147" s="7">
-        <v>0</v>
-      </c>
-      <c r="N147" s="7">
-        <v>0</v>
-      </c>
-      <c r="O147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="10">
+      <c r="M147" s="27">
+        <v>0</v>
+      </c>
+      <c r="N147" s="27">
+        <v>0</v>
+      </c>
+      <c r="O147" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" s="23" customFormat="1">
+      <c r="A148" s="34">
         <v>1986</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="23">
         <v>1.9518172385363834E-3</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="23">
         <v>9.7215666666666706E-5</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="29">
         <v>9.996666666666668E-5</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="30">
         <v>372267.49637122598</v>
       </c>
-      <c r="G148" s="22">
+      <c r="G148" s="31">
         <v>57.4379244498476</v>
       </c>
-      <c r="H148" s="6">
+      <c r="H148" s="32">
         <v>4.9833333333333334</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148" s="27">
         <v>1.7266666666666666</v>
       </c>
-      <c r="J148" s="7">
+      <c r="J148" s="27">
         <v>2.2633333333333332</v>
       </c>
-      <c r="K148" s="7">
+      <c r="K148" s="27">
         <v>76.804123711340196</v>
       </c>
-      <c r="L148" s="4">
+      <c r="L148" s="33">
         <v>94.609830000000002</v>
       </c>
-      <c r="M148" s="7">
-        <v>0</v>
-      </c>
-      <c r="N148" s="7">
-        <v>0</v>
-      </c>
-      <c r="O148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="10">
+      <c r="M148" s="27">
+        <v>0</v>
+      </c>
+      <c r="N148" s="27">
+        <v>0</v>
+      </c>
+      <c r="O148" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" s="23" customFormat="1">
+      <c r="A149" s="34">
         <v>1986</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="23">
         <v>2.34155188693504E-3</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="23">
         <v>1.15051333333333E-4</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E149" s="29">
         <v>1.1903333333333336E-4</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="30">
         <v>364813.66787920799</v>
       </c>
-      <c r="G149" s="22">
+      <c r="G149" s="31">
         <v>58.922303574920299</v>
       </c>
-      <c r="H149" s="6">
+      <c r="H149" s="32">
         <v>4.62</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I149" s="27">
         <v>1.4566666666666668</v>
       </c>
-      <c r="J149" s="7">
+      <c r="J149" s="27">
         <v>2.4066666666666667</v>
       </c>
-      <c r="K149" s="7">
+      <c r="K149" s="27">
         <v>76.617954070981199</v>
       </c>
-      <c r="L149" s="4">
+      <c r="L149" s="33">
         <v>94.573629999999994</v>
       </c>
-      <c r="M149" s="7">
-        <v>0</v>
-      </c>
-      <c r="N149" s="7">
-        <v>0</v>
-      </c>
-      <c r="O149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="10">
+      <c r="M149" s="27">
+        <v>0</v>
+      </c>
+      <c r="N149" s="27">
+        <v>0</v>
+      </c>
+      <c r="O149" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" s="23" customFormat="1">
+      <c r="A150" s="34">
         <v>1987</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="23">
         <v>2.8320153476564069E-3</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="23">
         <v>1.40493E-4</v>
       </c>
-      <c r="E150" s="11">
+      <c r="E150" s="29">
         <v>1.4713333333333332E-4</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="30">
         <v>364205.54849123902</v>
       </c>
-      <c r="G150" s="22">
+      <c r="G150" s="31">
         <v>59.802867462675302</v>
       </c>
-      <c r="H150" s="6">
+      <c r="H150" s="32">
         <v>4.706666666666667</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150" s="27">
         <v>1.4566666666666668</v>
       </c>
-      <c r="J150" s="7">
+      <c r="J150" s="27">
         <v>2.56</v>
       </c>
-      <c r="K150" s="7">
+      <c r="K150" s="27">
         <v>73.695198329853895</v>
       </c>
-      <c r="L150" s="4">
+      <c r="L150" s="33">
         <v>94.673630000000003</v>
       </c>
-      <c r="M150" s="7">
-        <v>0</v>
-      </c>
-      <c r="N150" s="7">
-        <v>0</v>
-      </c>
-      <c r="O150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="10">
+      <c r="M150" s="27">
+        <v>0</v>
+      </c>
+      <c r="N150" s="27">
+        <v>0</v>
+      </c>
+      <c r="O150" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" s="23" customFormat="1">
+      <c r="A151" s="34">
         <v>1987</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="23">
         <v>3.3199394265545066E-3</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="23">
         <v>1.6100000000000001E-4</v>
       </c>
-      <c r="E151" s="11">
+      <c r="E151" s="29">
         <v>1.6550000000000004E-4</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="30">
         <v>374559.89287837897</v>
       </c>
-      <c r="G151" s="22">
+      <c r="G151" s="31">
         <v>61.626892658739003</v>
       </c>
-      <c r="H151" s="6">
+      <c r="H151" s="32">
         <v>5.1533333333333333</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="27">
         <v>1.6233333333333331</v>
       </c>
-      <c r="J151" s="7">
+      <c r="J151" s="27">
         <v>2.58</v>
       </c>
-      <c r="K151" s="7">
+      <c r="K151" s="27">
         <v>80.739934711643102</v>
       </c>
-      <c r="L151" s="4">
+      <c r="L151" s="33">
         <v>94.963390000000004</v>
       </c>
-      <c r="M151" s="7">
-        <v>0</v>
-      </c>
-      <c r="N151" s="7">
-        <v>0</v>
-      </c>
-      <c r="O151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="10">
+      <c r="M151" s="27">
+        <v>0</v>
+      </c>
+      <c r="N151" s="27">
+        <v>0</v>
+      </c>
+      <c r="O151" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" s="23" customFormat="1">
+      <c r="A152" s="34">
         <v>1987</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="23">
         <v>4.425175134393086E-3</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="23">
         <v>2.14627E-4</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="29">
         <v>2.2943333333333332E-4</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="30">
         <v>381074.44661202998</v>
       </c>
-      <c r="G152" s="22">
+      <c r="G152" s="31">
         <v>63.9666767033453</v>
       </c>
-      <c r="H152" s="6">
+      <c r="H152" s="32">
         <v>5.0966666666666667</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="27">
         <v>1.5200000000000002</v>
       </c>
-      <c r="J152" s="7">
+      <c r="J152" s="27">
         <v>2.4</v>
       </c>
-      <c r="K152" s="7">
+      <c r="K152" s="27">
         <v>89.237668161434996</v>
       </c>
-      <c r="L152" s="4">
+      <c r="L152" s="33">
         <v>94.79374</v>
       </c>
-      <c r="M152" s="7">
-        <v>0</v>
-      </c>
-      <c r="N152" s="7">
-        <v>0</v>
-      </c>
-      <c r="O152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="10">
+      <c r="M152" s="27">
+        <v>0</v>
+      </c>
+      <c r="N152" s="27">
+        <v>0</v>
+      </c>
+      <c r="O152" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="23" customFormat="1">
+      <c r="A153" s="34">
         <v>1987</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="23">
         <v>6.3956145063000505E-3</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="23">
         <v>3.4159933333333299E-4</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="29">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="F153" s="19">
+      <c r="F153" s="30">
         <v>365257.588891341</v>
       </c>
-      <c r="G153" s="22">
+      <c r="G153" s="31">
         <v>63.878620314569702</v>
       </c>
-      <c r="H153" s="6">
+      <c r="H153" s="32">
         <v>5.3433333333333337</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I153" s="27">
         <v>1.6266666666666667</v>
       </c>
-      <c r="J153" s="7">
+      <c r="J153" s="27">
         <v>2.6700000000000004</v>
       </c>
-      <c r="K153" s="7">
+      <c r="K153" s="27">
         <v>79.601990049751194</v>
       </c>
-      <c r="L153" s="4">
+      <c r="L153" s="33">
         <v>94.961250000000007</v>
       </c>
-      <c r="M153" s="7">
-        <v>0</v>
-      </c>
-      <c r="N153" s="7">
-        <v>0</v>
-      </c>
-      <c r="O153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="10">
+      <c r="M153" s="27">
+        <v>0</v>
+      </c>
+      <c r="N153" s="27">
+        <v>0</v>
+      </c>
+      <c r="O153" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" s="23" customFormat="1">
+      <c r="A154" s="34">
         <v>1988</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="23">
         <v>8.2699201377549655E-3</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="23">
         <v>4.3787666666666699E-4</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="29">
         <v>6.1100000000000011E-4</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="30">
         <v>375494.97197118797</v>
       </c>
-      <c r="G154" s="22">
+      <c r="G154" s="31">
         <v>64.230845869671995</v>
       </c>
-      <c r="H154" s="6">
+      <c r="H154" s="32">
         <v>5.913333333333334</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154" s="27">
         <v>1.82</v>
       </c>
-      <c r="J154" s="7">
+      <c r="J154" s="27">
         <v>2.7600000000000002</v>
       </c>
-      <c r="K154" s="7">
+      <c r="K154" s="27">
         <v>80.298507462686601</v>
       </c>
-      <c r="L154" s="4">
+      <c r="L154" s="33">
         <v>95.063609999999997</v>
       </c>
-      <c r="M154" s="7">
-        <v>0</v>
-      </c>
-      <c r="N154" s="7">
-        <v>0</v>
-      </c>
-      <c r="O154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="A155" s="10">
+      <c r="M154" s="27">
+        <v>0</v>
+      </c>
+      <c r="N154" s="27">
+        <v>0</v>
+      </c>
+      <c r="O154" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="23" customFormat="1">
+      <c r="A155" s="34">
         <v>1988</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="23">
         <v>1.2834761272427464E-2</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="23">
         <v>6.7977100000000002E-4</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="29">
         <v>9.2999999999999995E-4</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F155" s="30">
         <v>368038.271917245</v>
       </c>
-      <c r="G155" s="22">
+      <c r="G155" s="31">
         <v>66.092609518068201</v>
       </c>
-      <c r="H155" s="6">
+      <c r="H155" s="32">
         <v>7.1833333333333336</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I155" s="27">
         <v>2.0766666666666667</v>
       </c>
-      <c r="J155" s="7">
+      <c r="J155" s="27">
         <v>3.043333333333333</v>
       </c>
-      <c r="K155" s="7">
+      <c r="K155" s="27">
         <v>86.497461928934001</v>
       </c>
-      <c r="L155" s="4">
+      <c r="L155" s="33">
         <v>95.407449999999997</v>
       </c>
-      <c r="M155" s="7">
-        <v>0</v>
-      </c>
-      <c r="N155" s="7">
-        <v>0</v>
-      </c>
-      <c r="O155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
-      <c r="A156" s="10">
+      <c r="M155" s="27">
+        <v>0</v>
+      </c>
+      <c r="N155" s="27">
+        <v>0</v>
+      </c>
+      <c r="O155" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="23" customFormat="1">
+      <c r="A156" s="34">
         <v>1988</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="23">
         <v>2.3134977639351999E-2</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="23">
         <v>1.11815066666667E-3</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="29">
         <v>1.4120000000000001E-3</v>
       </c>
-      <c r="F156" s="19">
+      <c r="F156" s="30">
         <v>355927.02625418402</v>
       </c>
-      <c r="G156" s="22">
+      <c r="G156" s="31">
         <v>65.866178804074096</v>
       </c>
-      <c r="H156" s="6">
+      <c r="H156" s="32">
         <v>8.2533333333333321</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="27">
         <v>2.6566666666666667</v>
       </c>
-      <c r="J156" s="7">
+      <c r="J156" s="27">
         <v>3.6166666666666667</v>
       </c>
-      <c r="K156" s="7">
+      <c r="K156" s="27">
         <v>95.820271682340589</v>
       </c>
-      <c r="L156" s="4">
+      <c r="L156" s="33">
         <v>95.691959999999995</v>
       </c>
-      <c r="M156" s="7">
+      <c r="M156" s="27">
+        <v>0</v>
+      </c>
+      <c r="N156" s="27">
+        <v>0</v>
+      </c>
+      <c r="O156" s="27">
         <v>1</v>
       </c>
-      <c r="N156" s="7">
-        <v>0</v>
-      </c>
-      <c r="O156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="10">
+    </row>
+    <row r="157" spans="1:15" s="23" customFormat="1">
+      <c r="A157" s="34">
         <v>1988</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="23">
         <v>3.0941762901721601E-2</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="23">
         <v>1.26524333333333E-3</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="29">
         <v>1.5773333333333334E-3</v>
       </c>
-      <c r="F157" s="19">
+      <c r="F157" s="30">
         <v>354761.28332559398</v>
       </c>
-      <c r="G157" s="22">
+      <c r="G157" s="31">
         <v>66.866801288034495</v>
       </c>
-      <c r="H157" s="6">
+      <c r="H157" s="32">
         <v>7.496666666666667</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157" s="27">
         <v>2.5399999999999996</v>
       </c>
-      <c r="J157" s="7">
+      <c r="J157" s="27">
         <v>3.8866666666666667</v>
       </c>
-      <c r="K157" s="7">
+      <c r="K157" s="27">
         <v>85.805860805860789</v>
       </c>
-      <c r="L157" s="4">
+      <c r="L157" s="33">
         <v>95.418700000000001</v>
       </c>
-      <c r="M157" s="7">
-        <v>0</v>
-      </c>
-      <c r="N157" s="7">
-        <v>0</v>
-      </c>
-      <c r="O157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="10">
+      <c r="M157" s="27">
+        <v>0</v>
+      </c>
+      <c r="N157" s="27">
+        <v>0</v>
+      </c>
+      <c r="O157" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" s="23" customFormat="1">
+      <c r="A158" s="34">
         <v>1989</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="23">
         <v>4.0353800245224503E-2</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="23">
         <v>1.4481433333333299E-3</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="29">
         <v>3.1836666666666667E-3</v>
       </c>
-      <c r="F158" s="19">
+      <c r="F158" s="30">
         <v>357562.87209004501</v>
       </c>
-      <c r="G158" s="22">
+      <c r="G158" s="31">
         <v>71.765025969758099</v>
       </c>
-      <c r="H158" s="6">
+      <c r="H158" s="32">
         <v>7.5366666666666662</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="27">
         <v>2.5966666666666662</v>
       </c>
-      <c r="J158" s="7">
+      <c r="J158" s="27">
         <v>4.04</v>
       </c>
-      <c r="K158" s="7">
+      <c r="K158" s="27">
         <v>83.744292237442906</v>
       </c>
-      <c r="L158" s="4">
+      <c r="L158" s="33">
         <v>95.395269999999996</v>
       </c>
-      <c r="M158" s="7">
-        <v>0</v>
-      </c>
-      <c r="N158" s="7">
-        <v>0</v>
-      </c>
-      <c r="O158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="10">
+      <c r="M158" s="27">
+        <v>0</v>
+      </c>
+      <c r="N158" s="27">
+        <v>0</v>
+      </c>
+      <c r="O158" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" s="23" customFormat="1">
+      <c r="A159" s="34">
         <v>1989</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="23">
         <v>0.13508179620018471</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="23">
         <v>1.32722E-2</v>
       </c>
-      <c r="E159" s="11">
+      <c r="E159" s="29">
         <v>1.72E-2</v>
       </c>
-      <c r="F159" s="19">
+      <c r="F159" s="30">
         <v>334866.80327309802</v>
       </c>
-      <c r="G159" s="22">
+      <c r="G159" s="31">
         <v>72.526990481311799</v>
       </c>
-      <c r="H159" s="6">
+      <c r="H159" s="32">
         <v>7.18</v>
       </c>
-      <c r="I159" s="7">
+      <c r="I159" s="27">
         <v>2.5533333333333332</v>
       </c>
-      <c r="J159" s="7">
+      <c r="J159" s="27">
         <v>3.9633333333333329</v>
       </c>
-      <c r="K159" s="7">
+      <c r="K159" s="27">
         <v>84.014869888475786</v>
       </c>
-      <c r="L159" s="4">
+      <c r="L159" s="33">
         <v>95.272379999999998</v>
       </c>
-      <c r="M159" s="7">
-        <v>0</v>
-      </c>
-      <c r="N159" s="7">
-        <v>0</v>
-      </c>
-      <c r="O159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="10">
+      <c r="M159" s="27">
+        <v>0</v>
+      </c>
+      <c r="N159" s="27">
+        <v>0</v>
+      </c>
+      <c r="O159" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" s="23" customFormat="1">
+      <c r="A160" s="34">
         <v>1989</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="23">
         <v>0.90140741299414995</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="23">
         <v>6.2346833333333303E-2</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="29">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="F160" s="19">
+      <c r="F160" s="30">
         <v>320525.84313601698</v>
       </c>
-      <c r="G160" s="22">
+      <c r="G160" s="31">
         <v>71.1434233419116</v>
       </c>
-      <c r="H160" s="6">
+      <c r="H160" s="32">
         <v>6.2</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I160" s="27">
         <v>2.3433333333333333</v>
       </c>
-      <c r="J160" s="7">
+      <c r="J160" s="27">
         <v>3.7466666666666666</v>
       </c>
-      <c r="K160" s="7">
+      <c r="K160" s="27">
         <v>82.493125572868891</v>
       </c>
-      <c r="L160" s="4">
+      <c r="L160" s="33">
         <v>95.125399999999999</v>
       </c>
-      <c r="M160" s="7">
-        <v>0</v>
-      </c>
-      <c r="N160" s="7">
+      <c r="M160" s="27">
+        <v>0</v>
+      </c>
+      <c r="N160" s="27">
+        <v>0</v>
+      </c>
+      <c r="O160" s="27">
         <v>1</v>
       </c>
-      <c r="O160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="10">
+    </row>
+    <row r="161" spans="1:15" s="23" customFormat="1">
+      <c r="A161" s="34">
         <v>1989</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="23">
         <v>1.31351581165182</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="23">
         <v>9.2268666666666693E-2</v>
       </c>
-      <c r="E161" s="11">
+      <c r="E161" s="29">
         <v>0.10366666666666668</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F161" s="30">
         <v>334946.405521354</v>
       </c>
-      <c r="G161" s="22">
+      <c r="G161" s="31">
         <v>71.8452327604479</v>
       </c>
-      <c r="H161" s="6">
+      <c r="H161" s="32">
         <v>5.6166666666666671</v>
       </c>
-      <c r="I161" s="7">
+      <c r="I161" s="27">
         <v>2.2433333333333336</v>
       </c>
-      <c r="J161" s="7">
+      <c r="J161" s="27">
         <v>3.7533333333333339</v>
       </c>
-      <c r="K161" s="7">
+      <c r="K161" s="27">
         <v>76.450216450216502</v>
       </c>
-      <c r="L161" s="4">
+      <c r="L161" s="33">
         <v>95.049710000000005</v>
       </c>
-      <c r="M161" s="7">
-        <v>0</v>
-      </c>
-      <c r="N161" s="7">
-        <v>0</v>
-      </c>
-      <c r="O161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="10">
+      <c r="M161" s="27">
+        <v>0</v>
+      </c>
+      <c r="N161" s="27">
+        <v>0</v>
+      </c>
+      <c r="O161" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" s="23" customFormat="1">
+      <c r="A162" s="34">
         <v>1990</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="23">
         <v>5.7015470635272036</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="23">
         <v>0.33902599999999999</v>
       </c>
-      <c r="E162" s="11">
+      <c r="E162" s="29">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F162" s="30">
         <v>314886.62315300899</v>
       </c>
-      <c r="G162" s="22">
+      <c r="G162" s="31">
         <v>72.948076132433599</v>
       </c>
-      <c r="H162" s="6">
+      <c r="H162" s="32">
         <v>5.62</v>
       </c>
-      <c r="I162" s="7">
+      <c r="I162" s="27">
         <v>2.3333333333333335</v>
       </c>
-      <c r="J162" s="7">
+      <c r="J162" s="27">
         <v>3.5833333333333335</v>
       </c>
-      <c r="K162" s="7">
+      <c r="K162" s="27">
         <v>81.142339075249296</v>
       </c>
-      <c r="L162" s="4">
+      <c r="L162" s="33">
         <v>94.919470000000004</v>
       </c>
-      <c r="M162" s="7">
-        <v>0</v>
-      </c>
-      <c r="N162" s="7">
-        <v>0</v>
-      </c>
-      <c r="O162" s="7">
+      <c r="M162" s="27">
+        <v>0</v>
+      </c>
+      <c r="N162" s="27">
+        <v>0</v>
+      </c>
+      <c r="O162" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="10">
+    <row r="163" spans="1:15" s="23" customFormat="1">
+      <c r="A163" s="34">
         <v>1990</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="23">
         <v>11.915088745399734</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="23">
         <v>0.507317666666667</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="29">
         <v>0.5096666666666666</v>
       </c>
-      <c r="F163" s="19">
+      <c r="F163" s="30">
         <v>319830.27488821</v>
       </c>
-      <c r="G163" s="22">
+      <c r="G163" s="31">
         <v>71.885336155792899</v>
       </c>
-      <c r="H163" s="6">
+      <c r="H163" s="32">
         <v>5.89</v>
       </c>
-      <c r="I163" s="7">
+      <c r="I163" s="27">
         <v>2.5866666666666664</v>
       </c>
-      <c r="J163" s="7">
+      <c r="J163" s="27">
         <v>3.3233333333333337</v>
       </c>
-      <c r="K163" s="7">
+      <c r="K163" s="27">
         <v>75.491949910554595</v>
       </c>
-      <c r="L163" s="4">
+      <c r="L163" s="33">
         <v>95.020539999999997</v>
       </c>
-      <c r="M163" s="7">
-        <v>0</v>
-      </c>
-      <c r="N163" s="7">
-        <v>0</v>
-      </c>
-      <c r="O163" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="10">
+      <c r="M163" s="27">
+        <v>0</v>
+      </c>
+      <c r="N163" s="27">
+        <v>0</v>
+      </c>
+      <c r="O163" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" s="23" customFormat="1">
+      <c r="A164" s="34">
         <v>1990</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="23">
         <v>17.373337290909433</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="23">
         <v>0.57143966666666701</v>
       </c>
-      <c r="E164" s="11">
+      <c r="E164" s="29">
         <v>0.57550000000000001</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="30">
         <v>334669.48663840198</v>
       </c>
-      <c r="G164" s="22">
+      <c r="G164" s="31">
         <v>73.930609318384498</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H164" s="32">
         <v>5.9866666666666672</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="27">
         <v>2.4833333333333329</v>
       </c>
-      <c r="J164" s="7">
+      <c r="J164" s="27">
         <v>2.61</v>
       </c>
-      <c r="K164" s="7">
+      <c r="K164" s="27">
         <v>77.4710596616207</v>
       </c>
-      <c r="L164" s="4">
+      <c r="L164" s="33">
         <v>94.878389999999996</v>
       </c>
-      <c r="M164" s="7">
-        <v>0</v>
-      </c>
-      <c r="N164" s="7">
-        <v>0</v>
-      </c>
-      <c r="O164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" s="10">
+      <c r="M164" s="27">
+        <v>0</v>
+      </c>
+      <c r="N164" s="27">
+        <v>0</v>
+      </c>
+      <c r="O164" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" s="23" customFormat="1">
+      <c r="A165" s="34">
         <v>1990</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="23">
         <v>22.712399377817132</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="23">
         <v>0.53257299999999996</v>
       </c>
-      <c r="E165" s="11">
+      <c r="E165" s="29">
         <v>0.54300000000000004</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="30">
         <v>343154.20732623403</v>
       </c>
-      <c r="G165" s="22">
+      <c r="G165" s="31">
         <v>77.820638666842996</v>
       </c>
-      <c r="H165" s="6">
+      <c r="H165" s="32">
         <v>5.793333333333333</v>
       </c>
-      <c r="I165" s="7">
+      <c r="I165" s="27">
         <v>2.19</v>
       </c>
-      <c r="J165" s="7">
+      <c r="J165" s="27">
         <v>2.4066666666666667</v>
       </c>
-      <c r="K165" s="7">
+      <c r="K165" s="27">
         <v>78.272027373823789</v>
       </c>
-      <c r="L165" s="4">
+      <c r="L165" s="33">
         <v>94.715140000000005</v>
       </c>
-      <c r="M165" s="7">
-        <v>0</v>
-      </c>
-      <c r="N165" s="7">
-        <v>0</v>
-      </c>
-      <c r="O165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="10">
+      <c r="M165" s="27">
+        <v>0</v>
+      </c>
+      <c r="N165" s="27">
+        <v>0</v>
+      </c>
+      <c r="O165" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" s="23" customFormat="1">
+      <c r="A166" s="34">
         <v>1991</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="23">
         <v>31.529157117392401</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="23">
         <v>0.84438666666666695</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="29">
         <v>0.96850000000000003</v>
       </c>
-      <c r="F166" s="19">
+      <c r="F166" s="30">
         <v>342893.95753299299</v>
       </c>
-      <c r="G166" s="22">
+      <c r="G166" s="31">
         <v>75.354279853129597</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H166" s="32">
         <v>5.7066666666666661</v>
       </c>
-      <c r="I166" s="7">
+      <c r="I166" s="27">
         <v>2.3266666666666667</v>
       </c>
-      <c r="J166" s="7">
+      <c r="J166" s="27">
         <v>2.4566666666666666</v>
       </c>
-      <c r="K166" s="7">
+      <c r="K166" s="27">
         <v>73.711790393013089</v>
       </c>
-      <c r="L166" s="4">
+      <c r="L166" s="33">
         <v>94.487639999999999</v>
       </c>
-      <c r="M166" s="7">
-        <v>0</v>
-      </c>
-      <c r="N166" s="7">
-        <v>0</v>
-      </c>
-      <c r="O166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="A167" s="10">
+      <c r="M166" s="27">
+        <v>0</v>
+      </c>
+      <c r="N166" s="27">
+        <v>0</v>
+      </c>
+      <c r="O166" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" s="23" customFormat="1">
+      <c r="A167" s="34">
         <v>1991</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="23">
         <v>39.366029561795806</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="23">
         <v>0.98617866666666698</v>
       </c>
-      <c r="E167" s="11">
+      <c r="E167" s="29">
         <v>0.98983333333333334</v>
       </c>
-      <c r="F167" s="19">
+      <c r="F167" s="30">
         <v>356105.744809233</v>
       </c>
-      <c r="G167" s="22">
+      <c r="G167" s="31">
         <v>73.689988946314898</v>
       </c>
-      <c r="H167" s="6">
+      <c r="H167" s="32">
         <v>5.666666666666667</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="27">
         <v>2.3699999999999997</v>
       </c>
-      <c r="J167" s="7">
+      <c r="J167" s="27">
         <v>2.6</v>
       </c>
-      <c r="K167" s="7">
+      <c r="K167" s="27">
         <v>75.625</v>
       </c>
-      <c r="L167" s="4">
+      <c r="L167" s="33">
         <v>94.447860000000006</v>
       </c>
-      <c r="M167" s="7">
-        <v>0</v>
-      </c>
-      <c r="N167" s="7">
-        <v>0</v>
-      </c>
-      <c r="O167" s="7">
+      <c r="M167" s="27">
+        <v>0</v>
+      </c>
+      <c r="N167" s="27">
+        <v>0</v>
+      </c>
+      <c r="O167" s="27">
         <v>0</v>
       </c>
     </row>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE6AC87-43AC-B54F-87D6-7C94B4FF31A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B3E43-0A99-E648-9F60-25D5847307B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:O643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4989,7 +4989,7 @@
       <c r="K106" s="28"/>
       <c r="L106" s="28"/>
       <c r="M106" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" s="27">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136" s="27">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" s="27">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138" s="27">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="N139" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139" s="27">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:15" s="23" customFormat="1">

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B3E43-0A99-E648-9F60-25D5847307B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38732391-0454-D14C-AC29-D010DD3B70BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140" s="27">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" s="27">
         <v>0</v>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38732391-0454-D14C-AC29-D010DD3B70BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E504387-52EA-7347-BA45-E908EA8A9919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="-19400" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -237,34 +237,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cambiar to&amp;do" xfId="1" xr:uid="{1D7D66DF-1FEE-2145-8694-1850E3213805}"/>
@@ -4869,2867 +4841,2867 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="23" customFormat="1">
-      <c r="A104" s="23">
+    <row r="104" spans="1:15">
+      <c r="A104">
         <v>1975</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104">
         <v>3.8757133693112799E-9</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104">
         <v>4.1999999999E-10</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104">
         <v>5.5123333333333336E-10</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="18">
         <v>327377</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G104" s="5">
         <v>33.310473925234803</v>
       </c>
-      <c r="H104" s="27">
+      <c r="H104" s="7">
         <v>5.4666666666666659</v>
       </c>
-      <c r="I104" s="27">
+      <c r="I104" s="7">
         <v>2.81</v>
       </c>
-      <c r="J104" s="27">
+      <c r="J104" s="7">
         <v>3.7766666666666673</v>
       </c>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="27">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="7">
+        <v>0</v>
+      </c>
+      <c r="N104" s="7">
+        <v>0</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>1975</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>5.6658747702082795E-9</v>
+      </c>
+      <c r="D105">
+        <v>7.3233333333333298E-10</v>
+      </c>
+      <c r="E105">
+        <v>7.6970000000000004E-10</v>
+      </c>
+      <c r="F105" s="18">
+        <v>330489</v>
+      </c>
+      <c r="G105" s="5">
+        <v>33.3356328934563</v>
+      </c>
+      <c r="H105" s="7">
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="J105" s="7">
+        <v>3.67</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="7">
+        <v>0</v>
+      </c>
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>1976</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>9.0609375757009499E-9</v>
+      </c>
+      <c r="D106">
+        <v>9.8333333332999992E-10</v>
+      </c>
+      <c r="E106">
+        <v>2.4400000000000003E-9</v>
+      </c>
+      <c r="F106" s="18">
+        <v>332632</v>
+      </c>
+      <c r="G106" s="5">
+        <v>34.040084003660297</v>
+      </c>
+      <c r="H106" s="7">
+        <v>4.4733333333333336</v>
+      </c>
+      <c r="I106" s="7">
+        <v>2.4733333333333332</v>
+      </c>
+      <c r="J106" s="7">
+        <v>3.58</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="7">
+        <v>0</v>
+      </c>
+      <c r="N106" s="7">
+        <v>0</v>
+      </c>
+      <c r="O106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>1976</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>1.69861064002122E-8</v>
+      </c>
+      <c r="D107">
+        <v>1.3856666666666701E-9</v>
+      </c>
+      <c r="E107">
+        <v>2.4800000000000001E-9</v>
+      </c>
+      <c r="F107" s="18">
+        <v>327756</v>
+      </c>
+      <c r="G107" s="5">
+        <v>34.6816376933104</v>
+      </c>
+      <c r="H107" s="7">
+        <v>5.1833333333333336</v>
+      </c>
+      <c r="I107" s="7">
+        <v>2.6033333333333335</v>
+      </c>
+      <c r="J107" s="7">
+        <v>3.4633333333333334</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="7">
+        <v>0</v>
+      </c>
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>1976</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>2.0073208698162401E-8</v>
+      </c>
+      <c r="D108">
+        <v>1.3999999999999999E-9</v>
+      </c>
+      <c r="E108">
+        <v>2.4950000000000002E-9</v>
+      </c>
+      <c r="F108" s="18">
+        <v>330423</v>
+      </c>
+      <c r="G108" s="5">
+        <v>35.184817057741803</v>
+      </c>
+      <c r="H108" s="7">
+        <v>6.4833333333333343</v>
+      </c>
+      <c r="I108" s="7">
+        <v>2.686666666666667</v>
+      </c>
+      <c r="J108" s="7">
+        <v>3.06</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="7">
+        <v>0</v>
+      </c>
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>1976</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>2.6124313737106636E-8</v>
+      </c>
+      <c r="D109">
+        <v>1.83033333333E-9</v>
+      </c>
+      <c r="E109">
+        <v>2.6433333333333339E-9</v>
+      </c>
+      <c r="F109" s="18">
+        <v>333800</v>
+      </c>
+      <c r="G109" s="5">
+        <v>35.537042612843798</v>
+      </c>
+      <c r="H109" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="I109" s="7">
+        <v>2.1966666666666668</v>
+      </c>
+      <c r="J109" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="7">
+        <v>0</v>
+      </c>
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>1977</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>3.4132435701177765E-8</v>
+      </c>
+      <c r="D110">
+        <v>3.03833333333E-9</v>
+      </c>
+      <c r="E110">
+        <v>3.1633333333333338E-9</v>
+      </c>
+      <c r="F110" s="18">
+        <v>349000</v>
+      </c>
+      <c r="G110" s="5">
+        <v>36.656616698829602</v>
+      </c>
+      <c r="H110" s="7">
+        <v>7.2333333333333334</v>
+      </c>
+      <c r="I110" s="7">
+        <v>2.3433333333333333</v>
+      </c>
+      <c r="J110" s="7">
+        <v>2.4433333333333334</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="7">
+        <v>0</v>
+      </c>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>1977</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>4.1667265262570499E-8</v>
+      </c>
+      <c r="D111">
+        <v>3.6333333333333299E-9</v>
+      </c>
+      <c r="E111">
+        <v>3.7433333333333343E-9</v>
+      </c>
+      <c r="F111" s="18">
+        <v>357580</v>
+      </c>
+      <c r="G111" s="5">
+        <v>37.6126574911235</v>
+      </c>
+      <c r="H111" s="7">
+        <v>8.8066666666666666</v>
+      </c>
+      <c r="I111" s="7">
+        <v>2.226666666666667</v>
+      </c>
+      <c r="J111" s="7">
+        <v>2.1966666666666668</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="7">
+        <v>0</v>
+      </c>
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>1977</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>5.2999861263594731E-8</v>
+      </c>
+      <c r="D112">
+        <v>4.2759999999933302E-9</v>
+      </c>
+      <c r="E112">
+        <v>4.4399999999999996E-9</v>
+      </c>
+      <c r="F112" s="18">
+        <v>364062</v>
+      </c>
+      <c r="G112" s="5">
+        <v>38.090677887207498</v>
+      </c>
+      <c r="H112" s="7">
+        <v>5.7233333333333336</v>
+      </c>
+      <c r="I112" s="7">
+        <v>1.7033333333333331</v>
+      </c>
+      <c r="J112" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="7">
+        <v>0</v>
+      </c>
+      <c r="N112" s="7">
+        <v>0</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>1977</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>7.0618394660742997E-8</v>
+      </c>
+      <c r="D113">
+        <v>5.35766666665667E-9</v>
+      </c>
+      <c r="E113">
+        <v>5.5766666666666675E-9</v>
+      </c>
+      <c r="F113" s="18">
+        <v>346939</v>
+      </c>
+      <c r="G113" s="5">
+        <v>38.178734276108798</v>
+      </c>
+      <c r="H113" s="7">
+        <v>5.5233333333333334</v>
+      </c>
+      <c r="I113" s="7">
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="J113" s="7">
+        <v>2.41</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="7">
+        <v>0</v>
+      </c>
+      <c r="N113" s="7">
+        <v>0</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>1978</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>9.2645718133377028E-8</v>
+      </c>
+      <c r="D114">
+        <v>6.6140000000066701E-9</v>
+      </c>
+      <c r="E114">
+        <v>6.8299999999999998E-9</v>
+      </c>
+      <c r="F114" s="18">
+        <v>330252</v>
+      </c>
+      <c r="G114" s="5">
+        <v>39.675692885418101</v>
+      </c>
+      <c r="H114" s="7">
+        <v>5.8266666666666671</v>
+      </c>
+      <c r="I114" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="J114" s="7">
+        <v>2.5966666666666662</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="7">
+        <v>0</v>
+      </c>
+      <c r="N114" s="7">
+        <v>0</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>1978</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>1.2038725532306933E-7</v>
+      </c>
+      <c r="D115">
+        <v>7.6643333333433299E-9</v>
+      </c>
+      <c r="E115">
+        <v>7.7833333333333335E-9</v>
+      </c>
+      <c r="F115" s="18">
+        <v>336617</v>
+      </c>
+      <c r="G115" s="5">
+        <v>40.858164391454601</v>
+      </c>
+      <c r="H115" s="7">
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="I115" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="J115" s="7">
+        <v>2.8166666666666664</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="7">
+        <v>0</v>
+      </c>
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>1978</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>1.4765356534298002E-7</v>
+      </c>
+      <c r="D116">
+        <v>8.2226666666533302E-9</v>
+      </c>
+      <c r="E116">
+        <v>8.3766666666666669E-9</v>
+      </c>
+      <c r="F116" s="18">
+        <v>344016</v>
+      </c>
+      <c r="G116" s="5">
+        <v>41.134913042143502</v>
+      </c>
+      <c r="H116" s="7">
+        <v>6.27</v>
+      </c>
+      <c r="I116" s="7">
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="J116" s="7">
+        <v>2.8699999999999997</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="7">
+        <v>0</v>
+      </c>
+      <c r="N116" s="7">
+        <v>0</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>1978</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>1.8872746171951499E-7</v>
+      </c>
+      <c r="D117">
+        <v>9.3289999999800008E-9</v>
+      </c>
+      <c r="E117">
+        <v>9.5966666666666672E-9</v>
+      </c>
+      <c r="F117" s="18">
+        <v>347498</v>
+      </c>
+      <c r="G117" s="5">
+        <v>42.002897445661901</v>
+      </c>
+      <c r="H117" s="7">
+        <v>6.3866666666666667</v>
+      </c>
+      <c r="I117" s="7">
+        <v>2.0266666666666668</v>
+      </c>
+      <c r="J117" s="7">
+        <v>3.0133333333333332</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="7">
+        <v>0</v>
+      </c>
+      <c r="N117" s="7">
+        <v>0</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>1979</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>2.4926330131247004E-7</v>
+      </c>
+      <c r="D118">
+        <v>1.084533333331E-8</v>
+      </c>
+      <c r="E118">
+        <v>1.1090000000000002E-8</v>
+      </c>
+      <c r="F118" s="18">
+        <v>361221</v>
+      </c>
+      <c r="G118" s="5">
+        <v>43.562753475399298</v>
+      </c>
+      <c r="H118" s="7">
+        <v>6.91</v>
+      </c>
+      <c r="I118" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="J118" s="7">
+        <v>2.9833333333333338</v>
+      </c>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="7">
+        <v>0</v>
+      </c>
+      <c r="N118" s="7">
+        <v>0</v>
+      </c>
+      <c r="O118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>1979</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>3.0972598252432667E-7</v>
+      </c>
+      <c r="D119">
+        <v>1.237599999999E-8</v>
+      </c>
+      <c r="E119">
+        <v>1.2666666666666668E-8</v>
+      </c>
+      <c r="F119" s="18">
+        <v>370061</v>
+      </c>
+      <c r="G119" s="5">
+        <v>45.852219583688097</v>
+      </c>
+      <c r="H119" s="7">
+        <v>7.16</v>
+      </c>
+      <c r="I119" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="J119" s="7">
+        <v>3.31</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="7">
+        <v>0</v>
+      </c>
+      <c r="N119" s="7">
+        <v>0</v>
+      </c>
+      <c r="O119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>1979</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>3.9683826674187297E-7</v>
+      </c>
+      <c r="D120">
+        <v>1.39746666666367E-8</v>
+      </c>
+      <c r="E120">
+        <v>1.4246666666666668E-8</v>
+      </c>
+      <c r="F120" s="18">
+        <v>364211</v>
+      </c>
+      <c r="G120" s="5">
+        <v>49.374475134582298</v>
+      </c>
+      <c r="H120" s="7">
+        <v>7.0799999999999992</v>
+      </c>
+      <c r="I120" s="7">
+        <v>2.563333333333333</v>
+      </c>
+      <c r="J120" s="7">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="7">
+        <v>0</v>
+      </c>
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>1979</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>4.6996218480156765E-7</v>
+      </c>
+      <c r="D121">
+        <v>1.5482666666626698E-8</v>
+      </c>
+      <c r="E121">
+        <v>1.5743333333333337E-8</v>
+      </c>
+      <c r="F121" s="18">
+        <v>366025</v>
+      </c>
+      <c r="G121" s="5">
+        <v>53.186058820024599</v>
+      </c>
+      <c r="H121" s="7">
+        <v>6.3066666666666658</v>
+      </c>
+      <c r="I121" s="7">
+        <v>2.3533333333333331</v>
+      </c>
+      <c r="J121" s="7">
+        <v>3.91</v>
+      </c>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="7">
+        <v>0</v>
+      </c>
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>1980</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>5.5682597236926591E-7</v>
+      </c>
+      <c r="D122">
+        <v>1.6849333333319999E-8</v>
+      </c>
+      <c r="E122" s="11">
+        <v>1.7093333333333336E-8</v>
+      </c>
+      <c r="F122" s="19">
+        <v>367779.87191736099</v>
+      </c>
+      <c r="G122" s="22">
+        <v>58.393965242015597</v>
+      </c>
+      <c r="H122" s="6">
+        <v>6.1766666666666667</v>
+      </c>
+      <c r="I122" s="7">
+        <v>2.4133333333333336</v>
+      </c>
+      <c r="J122" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="L122" s="4">
+        <v>96.343050000000005</v>
+      </c>
+      <c r="M122" s="7">
+        <v>0</v>
+      </c>
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>1980</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>6.6066855049906803E-7</v>
+      </c>
+      <c r="D123">
+        <v>1.80349999999967E-8</v>
+      </c>
+      <c r="E123" s="11">
+        <v>1.824E-8</v>
+      </c>
+      <c r="F123" s="19">
+        <v>364177.58519652899</v>
+      </c>
+      <c r="G123" s="22">
+        <v>60.733749286621801</v>
+      </c>
+      <c r="H123" s="6">
+        <v>5.7666666666666666</v>
+      </c>
+      <c r="I123" s="7">
+        <v>2.4233333333333333</v>
+      </c>
+      <c r="J123" s="7">
+        <v>3.6533333333333329</v>
+      </c>
+      <c r="L123" s="4">
+        <v>96.085849999999994</v>
+      </c>
+      <c r="M123" s="7">
+        <v>0</v>
+      </c>
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="10">
+        <v>1980</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124">
+        <v>7.57957105065975E-7</v>
+      </c>
+      <c r="D124">
+        <v>1.897033333331E-8</v>
+      </c>
+      <c r="E124" s="11">
+        <v>1.9130000000000003E-8</v>
+      </c>
+      <c r="F124" s="19">
+        <v>376246.89133424498</v>
+      </c>
+      <c r="G124" s="22">
+        <v>62.092333570586803</v>
+      </c>
+      <c r="H124" s="6">
+        <v>7.1733333333333329</v>
+      </c>
+      <c r="I124" s="7">
+        <v>2.8866666666666667</v>
+      </c>
+      <c r="J124" s="7">
+        <v>3.9133333333333336</v>
+      </c>
+      <c r="L124" s="4">
+        <v>96.541250000000005</v>
+      </c>
+      <c r="M124" s="7">
+        <v>0</v>
+      </c>
+      <c r="N124" s="7">
+        <v>0</v>
+      </c>
+      <c r="O124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="10">
+        <v>1980</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>8.8702420930684169E-7</v>
+      </c>
+      <c r="D125">
+        <v>1.9631666666663299E-8</v>
+      </c>
+      <c r="E125" s="11">
+        <v>1.9760000000000003E-8</v>
+      </c>
+      <c r="F125" s="19">
+        <v>377646.29742703802</v>
+      </c>
+      <c r="G125" s="22">
+        <v>63.312543529458502</v>
+      </c>
+      <c r="H125" s="6">
+        <v>7.8866666666666667</v>
+      </c>
+      <c r="I125" s="7">
+        <v>3.0933333333333333</v>
+      </c>
+      <c r="J125" s="7">
+        <v>4.2433333333333332</v>
+      </c>
+      <c r="L125" s="4">
+        <v>96.683340000000001</v>
+      </c>
+      <c r="M125" s="7">
+        <v>0</v>
+      </c>
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+      <c r="O125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>1.0151481145847787E-6</v>
+      </c>
+      <c r="D126">
+        <v>2.1956333333299999E-8</v>
+      </c>
+      <c r="E126" s="11">
+        <v>2.2146666666666667E-8</v>
+      </c>
+      <c r="F126" s="19">
+        <v>363119.92021309899</v>
+      </c>
+      <c r="G126" s="22">
+        <v>65.853599319585697</v>
+      </c>
+      <c r="H126" s="6">
+        <v>7.63</v>
+      </c>
+      <c r="I126" s="7">
+        <v>3.22</v>
+      </c>
+      <c r="J126" s="7">
+        <v>4.1566666666666663</v>
+      </c>
+      <c r="L126" s="4">
+        <v>96.426490000000001</v>
+      </c>
+      <c r="M126" s="7">
+        <v>0</v>
+      </c>
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>1.2499200102925032E-6</v>
+      </c>
+      <c r="D127">
+        <v>3.76053333333567E-8</v>
+      </c>
+      <c r="E127" s="11">
+        <v>4.3446666666666669E-8</v>
+      </c>
+      <c r="F127" s="19">
+        <v>354928.98153557902</v>
+      </c>
+      <c r="G127" s="22">
+        <v>65.513953248720298</v>
+      </c>
+      <c r="H127" s="6">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="I127" s="7">
+        <v>3.2166666666666668</v>
+      </c>
+      <c r="J127" s="7">
+        <v>3.9066666666666663</v>
+      </c>
+      <c r="L127" s="4">
+        <v>96.362250000000003</v>
+      </c>
+      <c r="M127" s="7">
+        <v>0</v>
+      </c>
+      <c r="N127" s="7">
+        <v>0</v>
+      </c>
+      <c r="O127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128">
+        <v>1.6127493036589868E-6</v>
+      </c>
+      <c r="D128">
+        <v>5.1344000000153299E-8</v>
+      </c>
+      <c r="E128" s="11">
+        <v>7.4733333333333341E-8</v>
+      </c>
+      <c r="F128" s="19">
+        <v>344833.96946955298</v>
+      </c>
+      <c r="G128" s="22">
+        <v>63.4131794022192</v>
+      </c>
+      <c r="H128" s="6">
+        <v>6.6833333333333336</v>
+      </c>
+      <c r="I128" s="7">
+        <v>2.8533333333333331</v>
+      </c>
+      <c r="J128" s="7">
+        <v>3.6300000000000003</v>
+      </c>
+      <c r="L128" s="4">
+        <v>96.230779999999996</v>
+      </c>
+      <c r="M128" s="7">
+        <v>0</v>
+      </c>
+      <c r="N128" s="7">
+        <v>0</v>
+      </c>
+      <c r="O128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>1.9752762896655568E-6</v>
+      </c>
+      <c r="D129">
+        <v>6.5201999999880003E-8</v>
+      </c>
+      <c r="E129" s="11">
+        <v>1.015E-7</v>
+      </c>
+      <c r="F129" s="19">
+        <v>341461.91969468503</v>
+      </c>
+      <c r="G129" s="22">
+        <v>62.8345231331229</v>
+      </c>
+      <c r="H129" s="6">
+        <v>6.0333333333333341</v>
+      </c>
+      <c r="I129" s="7">
+        <v>2.3933333333333331</v>
+      </c>
+      <c r="J129" s="7">
+        <v>3.8066666666666666</v>
+      </c>
+      <c r="L129" s="4">
+        <v>96.089560000000006</v>
+      </c>
+      <c r="M129" s="7">
+        <v>0</v>
+      </c>
+      <c r="N129" s="7">
+        <v>0</v>
+      </c>
+      <c r="O129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>2.5125369297013133E-6</v>
+      </c>
+      <c r="D130">
+        <v>1.0263099999984E-7</v>
+      </c>
+      <c r="E130" s="11">
+        <v>1.0575E-7</v>
+      </c>
+      <c r="F130" s="19">
+        <v>343586.85240184597</v>
+      </c>
+      <c r="G130" s="22">
+        <v>64.5075945199833</v>
+      </c>
+      <c r="H130" s="6">
+        <v>6.0533333333333337</v>
+      </c>
+      <c r="I130" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="J130" s="7">
+        <v>3.7166666666666668</v>
+      </c>
+      <c r="L130" s="4">
+        <v>96.085629999999995</v>
+      </c>
+      <c r="M130" s="7">
+        <v>0</v>
+      </c>
+      <c r="N130" s="7">
+        <v>0</v>
+      </c>
+      <c r="O130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>2.8743988395160803E-6</v>
+      </c>
+      <c r="D131">
+        <v>1.3670033333321301E-7</v>
+      </c>
+      <c r="E131" s="11">
+        <v>1.4116666666666669E-7</v>
+      </c>
+      <c r="F131" s="19">
+        <v>331333.421081651</v>
+      </c>
+      <c r="G131" s="22">
+        <v>63.249646108653302</v>
+      </c>
+      <c r="H131" s="6">
+        <v>6.1866666666666665</v>
+      </c>
+      <c r="I131" s="7">
+        <v>2.5733333333333337</v>
+      </c>
+      <c r="J131" s="7">
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="L131" s="4">
+        <v>96.061179999999993</v>
+      </c>
+      <c r="M131" s="7">
+        <v>0</v>
+      </c>
+      <c r="N131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>4.1261931554400406E-6</v>
+      </c>
+      <c r="D132">
+        <v>3.7726666666666699E-7</v>
+      </c>
+      <c r="E132" s="11">
+        <v>3.9000000000000002E-7</v>
+      </c>
+      <c r="F132" s="19">
+        <v>342870.42862439802</v>
+      </c>
+      <c r="G132" s="22">
+        <v>62.4697180937845</v>
+      </c>
+      <c r="H132" s="6">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="I132" s="7">
+        <v>2.3166666666666664</v>
+      </c>
+      <c r="J132" s="7">
+        <v>3.3266666666666667</v>
+      </c>
+      <c r="L132" s="4">
+        <v>95.910550000000001</v>
+      </c>
+      <c r="M132" s="7">
+        <v>0</v>
+      </c>
+      <c r="N132" s="7">
+        <v>0</v>
+      </c>
+      <c r="O132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133">
+        <v>5.9846578812355705E-6</v>
+      </c>
+      <c r="D133">
+        <v>4.2030333333333297E-7</v>
+      </c>
+      <c r="E133" s="11">
+        <v>4.3656666666666673E-7</v>
+      </c>
+      <c r="F133" s="19">
+        <v>347860.05944581999</v>
+      </c>
+      <c r="G133" s="22">
+        <v>62.2055489277097</v>
+      </c>
+      <c r="H133" s="6">
+        <v>5.2866666666666662</v>
+      </c>
+      <c r="I133" s="7">
+        <v>2.1233333333333331</v>
+      </c>
+      <c r="J133" s="7">
+        <v>3.4733333333333332</v>
+      </c>
+      <c r="L133" s="4">
+        <v>95.876329999999996</v>
+      </c>
+      <c r="M133" s="7">
+        <v>0</v>
+      </c>
+      <c r="N133" s="7">
+        <v>0</v>
+      </c>
+      <c r="O133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>8.658687402601919E-6</v>
+      </c>
+      <c r="D134">
+        <v>5.7522633333365002E-7</v>
+      </c>
+      <c r="E134" s="11">
+        <v>6.0256666666666666E-7</v>
+      </c>
+      <c r="F134" s="19">
+        <v>353533.64229996101</v>
+      </c>
+      <c r="G134" s="22">
+        <v>61.362723492286896</v>
+      </c>
+      <c r="H134" s="6">
+        <v>5.68</v>
+      </c>
+      <c r="I134" s="7">
+        <v>2.5433333333333334</v>
+      </c>
+      <c r="J134" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="L134" s="4">
+        <v>96.019750000000002</v>
+      </c>
+      <c r="M134" s="7">
+        <v>0</v>
+      </c>
+      <c r="N134" s="7">
+        <v>0</v>
+      </c>
+      <c r="O134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>1.1886725391743134E-5</v>
+      </c>
+      <c r="D135">
+        <v>7.8198999993333303E-7</v>
+      </c>
+      <c r="E135" s="11">
+        <v>8.1483333333333332E-7</v>
+      </c>
+      <c r="F135" s="19">
+        <v>355532.82782145799</v>
+      </c>
+      <c r="G135" s="22">
+        <v>60.356364763424097</v>
+      </c>
+      <c r="H135" s="6">
+        <v>6.0166666666666657</v>
+      </c>
+      <c r="I135" s="7">
+        <v>3.0066666666666664</v>
+      </c>
+      <c r="J135" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="L135" s="4">
+        <v>96.16677</v>
+      </c>
+      <c r="M135" s="7">
+        <v>0</v>
+      </c>
+      <c r="N135" s="7">
+        <v>0</v>
+      </c>
+      <c r="O135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>1.8101560096815802E-5</v>
+      </c>
+      <c r="D136">
+        <v>1.0733466666000001E-6</v>
+      </c>
+      <c r="E136" s="11">
+        <v>1.1446333333333334E-6</v>
+      </c>
+      <c r="F136" s="19">
+        <v>360604.43028807198</v>
+      </c>
+      <c r="G136" s="22">
+        <v>60.4318416679629</v>
+      </c>
+      <c r="H136" s="6">
+        <v>7.3733333333333322</v>
+      </c>
+      <c r="I136" s="7">
+        <v>3.2666666666666671</v>
+      </c>
+      <c r="J136" s="7">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="L136" s="4">
+        <v>96.390550000000005</v>
+      </c>
+      <c r="M136" s="7">
+        <v>0</v>
+      </c>
+      <c r="N136" s="7">
+        <v>0</v>
+      </c>
+      <c r="O136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>3.0132183791877068E-5</v>
+      </c>
+      <c r="D137">
+        <v>1.78141999996667E-6</v>
+      </c>
+      <c r="E137" s="11">
+        <v>1.9460000000000001E-6</v>
+      </c>
+      <c r="F137" s="19">
+        <v>356406.31294722599</v>
+      </c>
+      <c r="G137" s="22">
+        <v>60.935021032646198</v>
+      </c>
+      <c r="H137" s="6">
+        <v>7.84</v>
+      </c>
+      <c r="I137" s="7">
+        <v>3.1566666666666667</v>
+      </c>
+      <c r="J137" s="7">
+        <v>3.5400000000000005</v>
+      </c>
+      <c r="L137" s="4">
+        <v>96.398269999999997</v>
+      </c>
+      <c r="M137" s="7">
+        <v>0</v>
+      </c>
+      <c r="N137" s="7">
+        <v>0</v>
+      </c>
+      <c r="O137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>4.732924026783586E-5</v>
+      </c>
+      <c r="D138">
+        <v>2.7836533332333302E-6</v>
+      </c>
+      <c r="E138" s="11">
+        <v>2.9373333333333336E-6</v>
+      </c>
+      <c r="F138" s="19">
+        <v>359573.567407066</v>
+      </c>
+      <c r="G138" s="22">
+        <v>61.362723492286797</v>
+      </c>
+      <c r="H138" s="6">
+        <v>7.6033333333333326</v>
+      </c>
+      <c r="I138" s="7">
+        <v>3.1566666666666663</v>
+      </c>
+      <c r="J138" s="7">
+        <v>3.4633333333333334</v>
+      </c>
+      <c r="L138" s="4">
+        <v>96.302340000000001</v>
+      </c>
+      <c r="M138" s="7">
+        <v>0</v>
+      </c>
+      <c r="N138" s="7">
+        <v>0</v>
+      </c>
+      <c r="O138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>7.8345975394815667E-5</v>
+      </c>
+      <c r="D139">
+        <v>4.1180699999333301E-6</v>
+      </c>
+      <c r="E139" s="11">
+        <v>4.4268999999999999E-6</v>
+      </c>
+      <c r="F139" s="19">
+        <v>366827.22911528603</v>
+      </c>
+      <c r="G139" s="22">
+        <v>62.0294361499069</v>
+      </c>
+      <c r="H139" s="6">
+        <v>7.9799999999999995</v>
+      </c>
+      <c r="I139" s="7">
+        <v>3.34</v>
+      </c>
+      <c r="J139" s="7">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="L139" s="4">
+        <v>96.380380000000002</v>
+      </c>
+      <c r="M139" s="7">
+        <v>0</v>
+      </c>
+      <c r="N139" s="7">
+        <v>0</v>
+      </c>
+      <c r="O139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>1.3671548044664136E-4</v>
+      </c>
+      <c r="D140">
+        <v>6.9343899999333302E-6</v>
+      </c>
+      <c r="E140" s="11">
+        <v>7.6008333333333344E-6</v>
+      </c>
+      <c r="F140" s="19">
+        <v>364304.37732207897</v>
+      </c>
+      <c r="G140" s="22">
+        <v>62.042015634143603</v>
+      </c>
+      <c r="H140" s="6">
+        <v>6.5133333333333328</v>
+      </c>
+      <c r="I140" s="7">
+        <v>3.1066666666666669</v>
+      </c>
+      <c r="J140" s="7">
+        <v>3.3833333333333333</v>
+      </c>
+      <c r="L140" s="4">
+        <v>96.077349999999996</v>
+      </c>
+      <c r="M140" s="7">
+        <v>0</v>
+      </c>
+      <c r="N140" s="7">
+        <v>0</v>
+      </c>
+      <c r="O140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141">
+        <v>2.3745033891654568E-4</v>
+      </c>
+      <c r="D141">
+        <v>1.3223533333300001E-5</v>
+      </c>
+      <c r="E141" s="11">
+        <v>1.4921800000000002E-5</v>
+      </c>
+      <c r="F141" s="19">
+        <v>361366.26697734901</v>
+      </c>
+      <c r="G141" s="22">
+        <v>61.828164404385802</v>
+      </c>
+      <c r="H141" s="6">
+        <v>5.9666666666666659</v>
+      </c>
+      <c r="I141" s="7">
+        <v>2.5866666666666664</v>
+      </c>
+      <c r="J141" s="7">
+        <v>3.4200000000000004</v>
+      </c>
+      <c r="L141" s="4">
+        <v>95.925200000000004</v>
+      </c>
+      <c r="M141" s="7">
+        <v>0</v>
+      </c>
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>4.3296460086608701E-4</v>
+      </c>
+      <c r="D142">
+        <v>2.4951966666666701E-5</v>
+      </c>
+      <c r="E142" s="11">
+        <v>2.7817333333333332E-5</v>
+      </c>
+      <c r="F142" s="19">
+        <v>346206.66506450903</v>
+      </c>
+      <c r="G142" s="22">
+        <v>60.406682699741303</v>
+      </c>
+      <c r="H142" s="6">
+        <v>5.8533333333333326</v>
+      </c>
+      <c r="I142" s="7">
+        <v>2.6433333333333331</v>
+      </c>
+      <c r="J142" s="7">
+        <v>3.3800000000000003</v>
+      </c>
+      <c r="L142" s="4">
+        <v>95.815200000000004</v>
+      </c>
+      <c r="M142" s="7">
+        <v>0</v>
+      </c>
+      <c r="N142" s="7">
+        <v>0</v>
+      </c>
+      <c r="O142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>8.9017425199712258E-4</v>
+      </c>
+      <c r="D143">
+        <v>5.5671633333333297E-5</v>
+      </c>
+      <c r="E143" s="11">
+        <v>6.1721000000000001E-5</v>
+      </c>
+      <c r="F143" s="19">
+        <v>333543.974588276</v>
+      </c>
+      <c r="G143" s="22">
+        <v>60.092195596971798</v>
+      </c>
+      <c r="H143" s="6">
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="I143" s="7">
+        <v>2.6733333333333338</v>
+      </c>
+      <c r="J143" s="7">
+        <v>3.2733333333333334</v>
+      </c>
+      <c r="L143" s="4">
+        <v>95.715419999999995</v>
+      </c>
+      <c r="M143" s="7">
         <v>1</v>
       </c>
-      <c r="N104" s="27">
-        <v>0</v>
-      </c>
-      <c r="O104" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" s="23" customFormat="1">
-      <c r="A105" s="23">
-        <v>1975</v>
-      </c>
-      <c r="B105" s="24" t="s">
+      <c r="N143" s="7">
+        <v>0</v>
+      </c>
+      <c r="O143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144">
+        <v>1.2248284994197968E-3</v>
+      </c>
+      <c r="D144">
+        <v>8.0049999999999994E-5</v>
+      </c>
+      <c r="E144" s="11">
+        <v>8.0100000000000009E-5</v>
+      </c>
+      <c r="F144" s="19">
+        <v>326044.96843614901</v>
+      </c>
+      <c r="G144" s="22">
+        <v>59.966400755863901</v>
+      </c>
+      <c r="H144" s="6">
+        <v>5.17</v>
+      </c>
+      <c r="I144" s="7">
+        <v>2.4433333333333334</v>
+      </c>
+      <c r="J144" s="7">
+        <v>2.9433333333333334</v>
+      </c>
+      <c r="L144" s="4">
+        <v>95.512349999999998</v>
+      </c>
+      <c r="M144" s="7">
+        <v>0</v>
+      </c>
+      <c r="N144" s="7">
+        <v>0</v>
+      </c>
+      <c r="O144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="23">
-        <v>5.6658747702082795E-9</v>
-      </c>
-      <c r="D105" s="23">
-        <v>7.3233333333333298E-10</v>
-      </c>
-      <c r="E105" s="23">
-        <v>7.6970000000000004E-10</v>
-      </c>
-      <c r="F105" s="25">
-        <v>330489</v>
-      </c>
-      <c r="G105" s="26">
-        <v>33.3356328934563</v>
-      </c>
-      <c r="H105" s="27">
-        <v>4.5500000000000007</v>
-      </c>
-      <c r="I105" s="27">
-        <v>2.44</v>
-      </c>
-      <c r="J105" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="27">
-        <v>0</v>
-      </c>
-      <c r="N105" s="27">
-        <v>0</v>
-      </c>
-      <c r="O105" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="23" customFormat="1">
-      <c r="A106" s="23">
-        <v>1976</v>
-      </c>
-      <c r="B106" s="24" t="s">
+      <c r="C145">
+        <v>1.3117116346585333E-3</v>
+      </c>
+      <c r="D145">
+        <v>8.0049999999999994E-5</v>
+      </c>
+      <c r="E145" s="11">
+        <v>8.0100000000000009E-5</v>
+      </c>
+      <c r="F145" s="19">
+        <v>340098.33678035502</v>
+      </c>
+      <c r="G145" s="22">
+        <v>60.721169802762702</v>
+      </c>
+      <c r="H145" s="6">
+        <v>4.9266666666666667</v>
+      </c>
+      <c r="I145" s="7">
+        <v>2.2033333333333336</v>
+      </c>
+      <c r="J145" s="7">
+        <v>3.19</v>
+      </c>
+      <c r="L145" s="4">
+        <v>95.635459999999995</v>
+      </c>
+      <c r="M145" s="7">
+        <v>0</v>
+      </c>
+      <c r="N145" s="7">
+        <v>0</v>
+      </c>
+      <c r="O145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="23">
-        <v>9.0609375757009499E-9</v>
-      </c>
-      <c r="D106" s="23">
-        <v>9.8333333332999992E-10</v>
-      </c>
-      <c r="E106" s="23">
-        <v>2.4400000000000003E-9</v>
-      </c>
-      <c r="F106" s="25">
-        <v>332632</v>
-      </c>
-      <c r="G106" s="26">
-        <v>34.040084003660297</v>
-      </c>
-      <c r="H106" s="27">
-        <v>4.4733333333333336</v>
-      </c>
-      <c r="I106" s="27">
-        <v>2.4733333333333332</v>
-      </c>
-      <c r="J106" s="27">
-        <v>3.58</v>
-      </c>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="27">
-        <v>0</v>
-      </c>
-      <c r="N106" s="27">
-        <v>0</v>
-      </c>
-      <c r="O106" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" s="23" customFormat="1">
-      <c r="A107" s="23">
-        <v>1976</v>
-      </c>
-      <c r="B107" s="24" t="s">
+      <c r="C146">
+        <v>1.4279185838087366E-3</v>
+      </c>
+      <c r="D146">
+        <v>8.0049999999999994E-5</v>
+      </c>
+      <c r="E146" s="11">
+        <v>8.0100000000000009E-5</v>
+      </c>
+      <c r="F146" s="19">
+        <v>348379.75702303299</v>
+      </c>
+      <c r="G146" s="22">
+        <v>59.387744486893602</v>
+      </c>
+      <c r="H146" s="6">
+        <v>5.19</v>
+      </c>
+      <c r="I146" s="7">
+        <v>2.3133333333333335</v>
+      </c>
+      <c r="J146" s="7">
+        <v>3.2099999999999995</v>
+      </c>
+      <c r="K146" s="7">
+        <v>73.551106427818794</v>
+      </c>
+      <c r="L146" s="4">
+        <v>95.433189999999996</v>
+      </c>
+      <c r="M146" s="7">
+        <v>0</v>
+      </c>
+      <c r="N146" s="7">
+        <v>0</v>
+      </c>
+      <c r="O146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="23">
-        <v>1.69861064002122E-8</v>
-      </c>
-      <c r="D107" s="23">
-        <v>1.3856666666666701E-9</v>
-      </c>
-      <c r="E107" s="23">
-        <v>2.4800000000000001E-9</v>
-      </c>
-      <c r="F107" s="25">
-        <v>327756</v>
-      </c>
-      <c r="G107" s="26">
-        <v>34.6816376933104</v>
-      </c>
-      <c r="H107" s="27">
-        <v>5.1833333333333336</v>
-      </c>
-      <c r="I107" s="27">
-        <v>2.6033333333333335</v>
-      </c>
-      <c r="J107" s="27">
-        <v>3.4633333333333334</v>
-      </c>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="27">
+      <c r="C147">
+        <v>1.6155909928421599E-3</v>
+      </c>
+      <c r="D147">
+        <v>8.4895666666666701E-5</v>
+      </c>
+      <c r="E147" s="11">
+        <v>8.6433333333333338E-5</v>
+      </c>
+      <c r="F147" s="19">
+        <v>358745.85180372599</v>
+      </c>
+      <c r="G147" s="22">
+        <v>57.551139806718801</v>
+      </c>
+      <c r="H147" s="6">
+        <v>5.2233333333333336</v>
+      </c>
+      <c r="I147" s="7">
+        <v>2.3366666666666664</v>
+      </c>
+      <c r="J147" s="7">
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="K147" s="7">
+        <v>74.48770491803279</v>
+      </c>
+      <c r="L147" s="4">
+        <v>95.173559999999995</v>
+      </c>
+      <c r="M147" s="7">
+        <v>0</v>
+      </c>
+      <c r="N147" s="7">
+        <v>0</v>
+      </c>
+      <c r="O147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>1.9518172385363834E-3</v>
+      </c>
+      <c r="D148">
+        <v>9.7215666666666706E-5</v>
+      </c>
+      <c r="E148" s="11">
+        <v>9.996666666666668E-5</v>
+      </c>
+      <c r="F148" s="19">
+        <v>372267.49637122598</v>
+      </c>
+      <c r="G148" s="22">
+        <v>57.4379244498476</v>
+      </c>
+      <c r="H148" s="6">
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="I148" s="7">
+        <v>1.7266666666666666</v>
+      </c>
+      <c r="J148" s="7">
+        <v>2.2633333333333332</v>
+      </c>
+      <c r="K148" s="7">
+        <v>76.804123711340196</v>
+      </c>
+      <c r="L148" s="4">
+        <v>94.609830000000002</v>
+      </c>
+      <c r="M148" s="7">
+        <v>0</v>
+      </c>
+      <c r="N148" s="7">
+        <v>0</v>
+      </c>
+      <c r="O148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>2.34155188693504E-3</v>
+      </c>
+      <c r="D149">
+        <v>1.15051333333333E-4</v>
+      </c>
+      <c r="E149" s="11">
+        <v>1.1903333333333336E-4</v>
+      </c>
+      <c r="F149" s="19">
+        <v>364813.66787920799</v>
+      </c>
+      <c r="G149" s="22">
+        <v>58.922303574920299</v>
+      </c>
+      <c r="H149" s="6">
+        <v>4.62</v>
+      </c>
+      <c r="I149" s="7">
+        <v>1.4566666666666668</v>
+      </c>
+      <c r="J149" s="7">
+        <v>2.4066666666666667</v>
+      </c>
+      <c r="K149" s="7">
+        <v>76.617954070981199</v>
+      </c>
+      <c r="L149" s="4">
+        <v>94.573629999999994</v>
+      </c>
+      <c r="M149" s="7">
+        <v>0</v>
+      </c>
+      <c r="N149" s="7">
+        <v>0</v>
+      </c>
+      <c r="O149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>2.8320153476564069E-3</v>
+      </c>
+      <c r="D150">
+        <v>1.40493E-4</v>
+      </c>
+      <c r="E150" s="11">
+        <v>1.4713333333333332E-4</v>
+      </c>
+      <c r="F150" s="19">
+        <v>364205.54849123902</v>
+      </c>
+      <c r="G150" s="22">
+        <v>59.802867462675302</v>
+      </c>
+      <c r="H150" s="6">
+        <v>4.706666666666667</v>
+      </c>
+      <c r="I150" s="7">
+        <v>1.4566666666666668</v>
+      </c>
+      <c r="J150" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="K150" s="7">
+        <v>73.695198329853895</v>
+      </c>
+      <c r="L150" s="4">
+        <v>94.673630000000003</v>
+      </c>
+      <c r="M150" s="7">
+        <v>0</v>
+      </c>
+      <c r="N150" s="7">
+        <v>0</v>
+      </c>
+      <c r="O150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>3.3199394265545066E-3</v>
+      </c>
+      <c r="D151">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1.6550000000000004E-4</v>
+      </c>
+      <c r="F151" s="19">
+        <v>374559.89287837897</v>
+      </c>
+      <c r="G151" s="22">
+        <v>61.626892658739003</v>
+      </c>
+      <c r="H151" s="6">
+        <v>5.1533333333333333</v>
+      </c>
+      <c r="I151" s="7">
+        <v>1.6233333333333331</v>
+      </c>
+      <c r="J151" s="7">
+        <v>2.58</v>
+      </c>
+      <c r="K151" s="7">
+        <v>80.739934711643102</v>
+      </c>
+      <c r="L151" s="4">
+        <v>94.963390000000004</v>
+      </c>
+      <c r="M151" s="7">
+        <v>0</v>
+      </c>
+      <c r="N151" s="7">
+        <v>0</v>
+      </c>
+      <c r="O151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>4.425175134393086E-3</v>
+      </c>
+      <c r="D152">
+        <v>2.14627E-4</v>
+      </c>
+      <c r="E152" s="11">
+        <v>2.2943333333333332E-4</v>
+      </c>
+      <c r="F152" s="19">
+        <v>381074.44661202998</v>
+      </c>
+      <c r="G152" s="22">
+        <v>63.9666767033453</v>
+      </c>
+      <c r="H152" s="6">
+        <v>5.0966666666666667</v>
+      </c>
+      <c r="I152" s="7">
+        <v>1.5200000000000002</v>
+      </c>
+      <c r="J152" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="K152" s="7">
+        <v>89.237668161434996</v>
+      </c>
+      <c r="L152" s="4">
+        <v>94.79374</v>
+      </c>
+      <c r="M152" s="7">
+        <v>0</v>
+      </c>
+      <c r="N152" s="7">
+        <v>0</v>
+      </c>
+      <c r="O152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>6.3956145063000505E-3</v>
+      </c>
+      <c r="D153">
+        <v>3.4159933333333299E-4</v>
+      </c>
+      <c r="E153" s="11">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="F153" s="19">
+        <v>365257.588891341</v>
+      </c>
+      <c r="G153" s="22">
+        <v>63.878620314569702</v>
+      </c>
+      <c r="H153" s="6">
+        <v>5.3433333333333337</v>
+      </c>
+      <c r="I153" s="7">
+        <v>1.6266666666666667</v>
+      </c>
+      <c r="J153" s="7">
+        <v>2.6700000000000004</v>
+      </c>
+      <c r="K153" s="7">
+        <v>79.601990049751194</v>
+      </c>
+      <c r="L153" s="4">
+        <v>94.961250000000007</v>
+      </c>
+      <c r="M153" s="7">
+        <v>0</v>
+      </c>
+      <c r="N153" s="7">
+        <v>0</v>
+      </c>
+      <c r="O153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>8.2699201377549655E-3</v>
+      </c>
+      <c r="D154">
+        <v>4.3787666666666699E-4</v>
+      </c>
+      <c r="E154" s="11">
+        <v>6.1100000000000011E-4</v>
+      </c>
+      <c r="F154" s="19">
+        <v>375494.97197118797</v>
+      </c>
+      <c r="G154" s="22">
+        <v>64.230845869671995</v>
+      </c>
+      <c r="H154" s="6">
+        <v>5.913333333333334</v>
+      </c>
+      <c r="I154" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="J154" s="7">
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="K154" s="7">
+        <v>80.298507462686601</v>
+      </c>
+      <c r="L154" s="4">
+        <v>95.063609999999997</v>
+      </c>
+      <c r="M154" s="7">
+        <v>0</v>
+      </c>
+      <c r="N154" s="7">
+        <v>0</v>
+      </c>
+      <c r="O154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>1.2834761272427464E-2</v>
+      </c>
+      <c r="D155">
+        <v>6.7977100000000002E-4</v>
+      </c>
+      <c r="E155" s="11">
+        <v>9.2999999999999995E-4</v>
+      </c>
+      <c r="F155" s="19">
+        <v>368038.271917245</v>
+      </c>
+      <c r="G155" s="22">
+        <v>66.092609518068201</v>
+      </c>
+      <c r="H155" s="6">
+        <v>7.1833333333333336</v>
+      </c>
+      <c r="I155" s="7">
+        <v>2.0766666666666667</v>
+      </c>
+      <c r="J155" s="7">
+        <v>3.043333333333333</v>
+      </c>
+      <c r="K155" s="7">
+        <v>86.497461928934001</v>
+      </c>
+      <c r="L155" s="4">
+        <v>95.407449999999997</v>
+      </c>
+      <c r="M155" s="7">
+        <v>0</v>
+      </c>
+      <c r="N155" s="7">
+        <v>0</v>
+      </c>
+      <c r="O155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>2.3134977639351999E-2</v>
+      </c>
+      <c r="D156">
+        <v>1.11815066666667E-3</v>
+      </c>
+      <c r="E156" s="11">
+        <v>1.4120000000000001E-3</v>
+      </c>
+      <c r="F156" s="19">
+        <v>355927.02625418402</v>
+      </c>
+      <c r="G156" s="22">
+        <v>65.866178804074096</v>
+      </c>
+      <c r="H156" s="6">
+        <v>8.2533333333333321</v>
+      </c>
+      <c r="I156" s="7">
+        <v>2.6566666666666667</v>
+      </c>
+      <c r="J156" s="7">
+        <v>3.6166666666666667</v>
+      </c>
+      <c r="K156" s="7">
+        <v>95.820271682340589</v>
+      </c>
+      <c r="L156" s="4">
+        <v>95.691959999999995</v>
+      </c>
+      <c r="M156" s="7">
+        <v>0</v>
+      </c>
+      <c r="N156" s="7">
+        <v>0</v>
+      </c>
+      <c r="O156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>3.0941762901721601E-2</v>
+      </c>
+      <c r="D157">
+        <v>1.26524333333333E-3</v>
+      </c>
+      <c r="E157" s="11">
+        <v>1.5773333333333334E-3</v>
+      </c>
+      <c r="F157" s="19">
+        <v>354761.28332559398</v>
+      </c>
+      <c r="G157" s="22">
+        <v>66.866801288034495</v>
+      </c>
+      <c r="H157" s="6">
+        <v>7.496666666666667</v>
+      </c>
+      <c r="I157" s="7">
+        <v>2.5399999999999996</v>
+      </c>
+      <c r="J157" s="7">
+        <v>3.8866666666666667</v>
+      </c>
+      <c r="K157" s="7">
+        <v>85.805860805860789</v>
+      </c>
+      <c r="L157" s="4">
+        <v>95.418700000000001</v>
+      </c>
+      <c r="M157" s="7">
+        <v>0</v>
+      </c>
+      <c r="N157" s="7">
+        <v>0</v>
+      </c>
+      <c r="O157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>4.0353800245224503E-2</v>
+      </c>
+      <c r="D158">
+        <v>1.4481433333333299E-3</v>
+      </c>
+      <c r="E158" s="11">
+        <v>3.1836666666666667E-3</v>
+      </c>
+      <c r="F158" s="19">
+        <v>357562.87209004501</v>
+      </c>
+      <c r="G158" s="22">
+        <v>71.765025969758099</v>
+      </c>
+      <c r="H158" s="6">
+        <v>7.5366666666666662</v>
+      </c>
+      <c r="I158" s="7">
+        <v>2.5966666666666662</v>
+      </c>
+      <c r="J158" s="7">
+        <v>4.04</v>
+      </c>
+      <c r="K158" s="7">
+        <v>83.744292237442906</v>
+      </c>
+      <c r="L158" s="4">
+        <v>95.395269999999996</v>
+      </c>
+      <c r="M158" s="7">
+        <v>0</v>
+      </c>
+      <c r="N158" s="7">
+        <v>0</v>
+      </c>
+      <c r="O158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>0.13508179620018471</v>
+      </c>
+      <c r="D159">
+        <v>1.32722E-2</v>
+      </c>
+      <c r="E159" s="11">
+        <v>1.72E-2</v>
+      </c>
+      <c r="F159" s="19">
+        <v>334866.80327309802</v>
+      </c>
+      <c r="G159" s="22">
+        <v>72.526990481311799</v>
+      </c>
+      <c r="H159" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="I159" s="7">
+        <v>2.5533333333333332</v>
+      </c>
+      <c r="J159" s="7">
+        <v>3.9633333333333329</v>
+      </c>
+      <c r="K159" s="7">
+        <v>84.014869888475786</v>
+      </c>
+      <c r="L159" s="4">
+        <v>95.272379999999998</v>
+      </c>
+      <c r="M159" s="7">
+        <v>0</v>
+      </c>
+      <c r="N159" s="7">
         <v>1</v>
       </c>
-      <c r="N107" s="27">
-        <v>0</v>
-      </c>
-      <c r="O107" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" s="23" customFormat="1">
-      <c r="A108" s="23">
-        <v>1976</v>
-      </c>
-      <c r="B108" s="24" t="s">
+      <c r="O159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="23">
-        <v>2.0073208698162401E-8</v>
-      </c>
-      <c r="D108" s="23">
-        <v>1.3999999999999999E-9</v>
-      </c>
-      <c r="E108" s="23">
-        <v>2.4950000000000002E-9</v>
-      </c>
-      <c r="F108" s="25">
-        <v>330423</v>
-      </c>
-      <c r="G108" s="26">
-        <v>35.184817057741803</v>
-      </c>
-      <c r="H108" s="27">
-        <v>6.4833333333333343</v>
-      </c>
-      <c r="I108" s="27">
-        <v>2.686666666666667</v>
-      </c>
-      <c r="J108" s="27">
-        <v>3.06</v>
-      </c>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="27">
-        <v>0</v>
-      </c>
-      <c r="N108" s="27">
-        <v>0</v>
-      </c>
-      <c r="O108" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" s="23" customFormat="1">
-      <c r="A109" s="23">
-        <v>1976</v>
-      </c>
-      <c r="B109" s="24" t="s">
+      <c r="C160">
+        <v>0.90140741299414995</v>
+      </c>
+      <c r="D160">
+        <v>6.2346833333333303E-2</v>
+      </c>
+      <c r="E160" s="11">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="F160" s="19">
+        <v>320525.84313601698</v>
+      </c>
+      <c r="G160" s="22">
+        <v>71.1434233419116</v>
+      </c>
+      <c r="H160" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="I160" s="7">
+        <v>2.3433333333333333</v>
+      </c>
+      <c r="J160" s="7">
+        <v>3.7466666666666666</v>
+      </c>
+      <c r="K160" s="7">
+        <v>82.493125572868891</v>
+      </c>
+      <c r="L160" s="4">
+        <v>95.125399999999999</v>
+      </c>
+      <c r="M160" s="7">
+        <v>0</v>
+      </c>
+      <c r="N160" s="7">
+        <v>1</v>
+      </c>
+      <c r="O160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="23">
-        <v>2.6124313737106636E-8</v>
-      </c>
-      <c r="D109" s="23">
-        <v>1.83033333333E-9</v>
-      </c>
-      <c r="E109" s="23">
-        <v>2.6433333333333339E-9</v>
-      </c>
-      <c r="F109" s="25">
-        <v>333800</v>
-      </c>
-      <c r="G109" s="26">
-        <v>35.537042612843798</v>
-      </c>
-      <c r="H109" s="27">
-        <v>6.19</v>
-      </c>
-      <c r="I109" s="27">
-        <v>2.1966666666666668</v>
-      </c>
-      <c r="J109" s="27">
-        <v>2.48</v>
-      </c>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="27">
-        <v>0</v>
-      </c>
-      <c r="N109" s="27">
-        <v>0</v>
-      </c>
-      <c r="O109" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" s="23" customFormat="1">
-      <c r="A110" s="23">
-        <v>1977</v>
-      </c>
-      <c r="B110" s="24" t="s">
+      <c r="C161">
+        <v>1.31351581165182</v>
+      </c>
+      <c r="D161">
+        <v>9.2268666666666693E-2</v>
+      </c>
+      <c r="E161" s="11">
+        <v>0.10366666666666668</v>
+      </c>
+      <c r="F161" s="19">
+        <v>334946.405521354</v>
+      </c>
+      <c r="G161" s="22">
+        <v>71.8452327604479</v>
+      </c>
+      <c r="H161" s="6">
+        <v>5.6166666666666671</v>
+      </c>
+      <c r="I161" s="7">
+        <v>2.2433333333333336</v>
+      </c>
+      <c r="J161" s="7">
+        <v>3.7533333333333339</v>
+      </c>
+      <c r="K161" s="7">
+        <v>76.450216450216502</v>
+      </c>
+      <c r="L161" s="4">
+        <v>95.049710000000005</v>
+      </c>
+      <c r="M161" s="7">
+        <v>0</v>
+      </c>
+      <c r="N161" s="7">
+        <v>0</v>
+      </c>
+      <c r="O161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="23">
-        <v>3.4132435701177765E-8</v>
-      </c>
-      <c r="D110" s="23">
-        <v>3.03833333333E-9</v>
-      </c>
-      <c r="E110" s="23">
-        <v>3.1633333333333338E-9</v>
-      </c>
-      <c r="F110" s="25">
-        <v>349000</v>
-      </c>
-      <c r="G110" s="26">
-        <v>36.656616698829602</v>
-      </c>
-      <c r="H110" s="27">
-        <v>7.2333333333333334</v>
-      </c>
-      <c r="I110" s="27">
-        <v>2.3433333333333333</v>
-      </c>
-      <c r="J110" s="27">
-        <v>2.4433333333333334</v>
-      </c>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="27">
-        <v>0</v>
-      </c>
-      <c r="N110" s="27">
-        <v>0</v>
-      </c>
-      <c r="O110" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" s="23" customFormat="1">
-      <c r="A111" s="23">
-        <v>1977</v>
-      </c>
-      <c r="B111" s="24" t="s">
+      <c r="C162">
+        <v>5.7015470635272036</v>
+      </c>
+      <c r="D162">
+        <v>0.33902599999999999</v>
+      </c>
+      <c r="E162" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F162" s="19">
+        <v>314886.62315300899</v>
+      </c>
+      <c r="G162" s="22">
+        <v>72.948076132433599</v>
+      </c>
+      <c r="H162" s="6">
+        <v>5.62</v>
+      </c>
+      <c r="I162" s="7">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J162" s="7">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="K162" s="7">
+        <v>81.142339075249296</v>
+      </c>
+      <c r="L162" s="4">
+        <v>94.919470000000004</v>
+      </c>
+      <c r="M162" s="7">
+        <v>0</v>
+      </c>
+      <c r="N162" s="7">
+        <v>0</v>
+      </c>
+      <c r="O162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="23">
-        <v>4.1667265262570499E-8</v>
-      </c>
-      <c r="D111" s="23">
-        <v>3.6333333333333299E-9</v>
-      </c>
-      <c r="E111" s="23">
-        <v>3.7433333333333343E-9</v>
-      </c>
-      <c r="F111" s="25">
-        <v>357580</v>
-      </c>
-      <c r="G111" s="26">
-        <v>37.6126574911235</v>
-      </c>
-      <c r="H111" s="27">
-        <v>8.8066666666666666</v>
-      </c>
-      <c r="I111" s="27">
-        <v>2.226666666666667</v>
-      </c>
-      <c r="J111" s="27">
-        <v>2.1966666666666668</v>
-      </c>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="27">
-        <v>0</v>
-      </c>
-      <c r="N111" s="27">
-        <v>0</v>
-      </c>
-      <c r="O111" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" s="23" customFormat="1">
-      <c r="A112" s="23">
-        <v>1977</v>
-      </c>
-      <c r="B112" s="24" t="s">
+      <c r="C163">
+        <v>11.915088745399734</v>
+      </c>
+      <c r="D163">
+        <v>0.507317666666667</v>
+      </c>
+      <c r="E163" s="11">
+        <v>0.5096666666666666</v>
+      </c>
+      <c r="F163" s="19">
+        <v>319830.27488821</v>
+      </c>
+      <c r="G163" s="22">
+        <v>71.885336155792899</v>
+      </c>
+      <c r="H163" s="6">
+        <v>5.89</v>
+      </c>
+      <c r="I163" s="7">
+        <v>2.5866666666666664</v>
+      </c>
+      <c r="J163" s="7">
+        <v>3.3233333333333337</v>
+      </c>
+      <c r="K163" s="7">
+        <v>75.491949910554595</v>
+      </c>
+      <c r="L163" s="4">
+        <v>95.020539999999997</v>
+      </c>
+      <c r="M163" s="7">
+        <v>0</v>
+      </c>
+      <c r="N163" s="7">
+        <v>0</v>
+      </c>
+      <c r="O163" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="23">
-        <v>5.2999861263594731E-8</v>
-      </c>
-      <c r="D112" s="23">
-        <v>4.2759999999933302E-9</v>
-      </c>
-      <c r="E112" s="23">
-        <v>4.4399999999999996E-9</v>
-      </c>
-      <c r="F112" s="25">
-        <v>364062</v>
-      </c>
-      <c r="G112" s="26">
-        <v>38.090677887207498</v>
-      </c>
-      <c r="H112" s="27">
-        <v>5.7233333333333336</v>
-      </c>
-      <c r="I112" s="27">
-        <v>1.7033333333333331</v>
-      </c>
-      <c r="J112" s="27">
-        <v>2.11</v>
-      </c>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="27">
-        <v>0</v>
-      </c>
-      <c r="N112" s="27">
-        <v>0</v>
-      </c>
-      <c r="O112" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" s="23" customFormat="1">
-      <c r="A113" s="23">
-        <v>1977</v>
-      </c>
-      <c r="B113" s="24" t="s">
+      <c r="C164">
+        <v>17.373337290909433</v>
+      </c>
+      <c r="D164">
+        <v>0.57143966666666701</v>
+      </c>
+      <c r="E164" s="11">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="F164" s="19">
+        <v>334669.48663840198</v>
+      </c>
+      <c r="G164" s="22">
+        <v>73.930609318384498</v>
+      </c>
+      <c r="H164" s="6">
+        <v>5.9866666666666672</v>
+      </c>
+      <c r="I164" s="7">
+        <v>2.4833333333333329</v>
+      </c>
+      <c r="J164" s="7">
+        <v>2.61</v>
+      </c>
+      <c r="K164" s="7">
+        <v>77.4710596616207</v>
+      </c>
+      <c r="L164" s="4">
+        <v>94.878389999999996</v>
+      </c>
+      <c r="M164" s="7">
+        <v>0</v>
+      </c>
+      <c r="N164" s="7">
+        <v>0</v>
+      </c>
+      <c r="O164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="23">
-        <v>7.0618394660742997E-8</v>
-      </c>
-      <c r="D113" s="23">
-        <v>5.35766666665667E-9</v>
-      </c>
-      <c r="E113" s="23">
-        <v>5.5766666666666675E-9</v>
-      </c>
-      <c r="F113" s="25">
-        <v>346939</v>
-      </c>
-      <c r="G113" s="26">
-        <v>38.178734276108798</v>
-      </c>
-      <c r="H113" s="27">
-        <v>5.5233333333333334</v>
-      </c>
-      <c r="I113" s="27">
-        <v>1.8399999999999999</v>
-      </c>
-      <c r="J113" s="27">
-        <v>2.41</v>
-      </c>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="27">
-        <v>0</v>
-      </c>
-      <c r="N113" s="27">
-        <v>0</v>
-      </c>
-      <c r="O113" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" s="23" customFormat="1">
-      <c r="A114" s="23">
-        <v>1978</v>
-      </c>
-      <c r="B114" s="24" t="s">
+      <c r="C165">
+        <v>22.712399377817132</v>
+      </c>
+      <c r="D165">
+        <v>0.53257299999999996</v>
+      </c>
+      <c r="E165" s="11">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F165" s="19">
+        <v>343154.20732623403</v>
+      </c>
+      <c r="G165" s="22">
+        <v>77.820638666842996</v>
+      </c>
+      <c r="H165" s="6">
+        <v>5.793333333333333</v>
+      </c>
+      <c r="I165" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="J165" s="7">
+        <v>2.4066666666666667</v>
+      </c>
+      <c r="K165" s="7">
+        <v>78.272027373823789</v>
+      </c>
+      <c r="L165" s="4">
+        <v>94.715140000000005</v>
+      </c>
+      <c r="M165" s="7">
+        <v>0</v>
+      </c>
+      <c r="N165" s="7">
+        <v>0</v>
+      </c>
+      <c r="O165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="10">
+        <v>1991</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="23">
-        <v>9.2645718133377028E-8</v>
-      </c>
-      <c r="D114" s="23">
-        <v>6.6140000000066701E-9</v>
-      </c>
-      <c r="E114" s="23">
-        <v>6.8299999999999998E-9</v>
-      </c>
-      <c r="F114" s="25">
-        <v>330252</v>
-      </c>
-      <c r="G114" s="26">
-        <v>39.675692885418101</v>
-      </c>
-      <c r="H114" s="27">
-        <v>5.8266666666666671</v>
-      </c>
-      <c r="I114" s="27">
-        <v>2.06</v>
-      </c>
-      <c r="J114" s="27">
-        <v>2.5966666666666662</v>
-      </c>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
-      <c r="M114" s="27">
-        <v>0</v>
-      </c>
-      <c r="N114" s="27">
-        <v>0</v>
-      </c>
-      <c r="O114" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" s="23" customFormat="1">
-      <c r="A115" s="23">
-        <v>1978</v>
-      </c>
-      <c r="B115" s="24" t="s">
+      <c r="C166">
+        <v>31.529157117392401</v>
+      </c>
+      <c r="D166">
+        <v>0.84438666666666695</v>
+      </c>
+      <c r="E166" s="11">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="F166" s="19">
+        <v>342893.95753299299</v>
+      </c>
+      <c r="G166" s="22">
+        <v>75.354279853129597</v>
+      </c>
+      <c r="H166" s="6">
+        <v>5.7066666666666661</v>
+      </c>
+      <c r="I166" s="7">
+        <v>2.3266666666666667</v>
+      </c>
+      <c r="J166" s="7">
+        <v>2.4566666666666666</v>
+      </c>
+      <c r="K166" s="7">
+        <v>73.711790393013089</v>
+      </c>
+      <c r="L166" s="4">
+        <v>94.487639999999999</v>
+      </c>
+      <c r="M166" s="7">
+        <v>0</v>
+      </c>
+      <c r="N166" s="7">
+        <v>0</v>
+      </c>
+      <c r="O166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="10">
+        <v>1991</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="23">
-        <v>1.2038725532306933E-7</v>
-      </c>
-      <c r="D115" s="23">
-        <v>7.6643333333433299E-9</v>
-      </c>
-      <c r="E115" s="23">
-        <v>7.7833333333333335E-9</v>
-      </c>
-      <c r="F115" s="25">
-        <v>336617</v>
-      </c>
-      <c r="G115" s="26">
-        <v>40.858164391454601</v>
-      </c>
-      <c r="H115" s="27">
-        <v>6.6499999999999995</v>
-      </c>
-      <c r="I115" s="27">
-        <v>2.27</v>
-      </c>
-      <c r="J115" s="27">
-        <v>2.8166666666666664</v>
-      </c>
-      <c r="K115" s="28"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="27">
-        <v>0</v>
-      </c>
-      <c r="N115" s="27">
-        <v>0</v>
-      </c>
-      <c r="O115" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" s="23" customFormat="1">
-      <c r="A116" s="23">
-        <v>1978</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="23">
-        <v>1.4765356534298002E-7</v>
-      </c>
-      <c r="D116" s="23">
-        <v>8.2226666666533302E-9</v>
-      </c>
-      <c r="E116" s="23">
-        <v>8.3766666666666669E-9</v>
-      </c>
-      <c r="F116" s="25">
-        <v>344016</v>
-      </c>
-      <c r="G116" s="26">
-        <v>41.134913042143502</v>
-      </c>
-      <c r="H116" s="27">
-        <v>6.27</v>
-      </c>
-      <c r="I116" s="27">
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="J116" s="27">
-        <v>2.8699999999999997</v>
-      </c>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="27">
-        <v>0</v>
-      </c>
-      <c r="N116" s="27">
-        <v>0</v>
-      </c>
-      <c r="O116" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" s="23" customFormat="1">
-      <c r="A117" s="23">
-        <v>1978</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="23">
-        <v>1.8872746171951499E-7</v>
-      </c>
-      <c r="D117" s="23">
-        <v>9.3289999999800008E-9</v>
-      </c>
-      <c r="E117" s="23">
-        <v>9.5966666666666672E-9</v>
-      </c>
-      <c r="F117" s="25">
-        <v>347498</v>
-      </c>
-      <c r="G117" s="26">
-        <v>42.002897445661901</v>
-      </c>
-      <c r="H117" s="27">
-        <v>6.3866666666666667</v>
-      </c>
-      <c r="I117" s="27">
-        <v>2.0266666666666668</v>
-      </c>
-      <c r="J117" s="27">
-        <v>3.0133333333333332</v>
-      </c>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="27">
-        <v>0</v>
-      </c>
-      <c r="N117" s="27">
-        <v>0</v>
-      </c>
-      <c r="O117" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" s="23" customFormat="1">
-      <c r="A118" s="23">
-        <v>1979</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="23">
-        <v>2.4926330131247004E-7</v>
-      </c>
-      <c r="D118" s="23">
-        <v>1.084533333331E-8</v>
-      </c>
-      <c r="E118" s="23">
-        <v>1.1090000000000002E-8</v>
-      </c>
-      <c r="F118" s="25">
-        <v>361221</v>
-      </c>
-      <c r="G118" s="26">
-        <v>43.562753475399298</v>
-      </c>
-      <c r="H118" s="27">
-        <v>6.91</v>
-      </c>
-      <c r="I118" s="27">
-        <v>2.17</v>
-      </c>
-      <c r="J118" s="27">
-        <v>2.9833333333333338</v>
-      </c>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="27">
-        <v>0</v>
-      </c>
-      <c r="N118" s="27">
-        <v>0</v>
-      </c>
-      <c r="O118" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" s="23" customFormat="1">
-      <c r="A119" s="23">
-        <v>1979</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="23">
-        <v>3.0972598252432667E-7</v>
-      </c>
-      <c r="D119" s="23">
-        <v>1.237599999999E-8</v>
-      </c>
-      <c r="E119" s="23">
-        <v>1.2666666666666668E-8</v>
-      </c>
-      <c r="F119" s="25">
-        <v>370061</v>
-      </c>
-      <c r="G119" s="26">
-        <v>45.852219583688097</v>
-      </c>
-      <c r="H119" s="27">
-        <v>7.16</v>
-      </c>
-      <c r="I119" s="27">
-        <v>2.37</v>
-      </c>
-      <c r="J119" s="27">
-        <v>3.31</v>
-      </c>
-      <c r="K119" s="28"/>
-      <c r="L119" s="28"/>
-      <c r="M119" s="27">
-        <v>0</v>
-      </c>
-      <c r="N119" s="27">
-        <v>0</v>
-      </c>
-      <c r="O119" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" s="23" customFormat="1">
-      <c r="A120" s="23">
-        <v>1979</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="23">
-        <v>3.9683826674187297E-7</v>
-      </c>
-      <c r="D120" s="23">
-        <v>1.39746666666367E-8</v>
-      </c>
-      <c r="E120" s="23">
-        <v>1.4246666666666668E-8</v>
-      </c>
-      <c r="F120" s="25">
-        <v>364211</v>
-      </c>
-      <c r="G120" s="26">
-        <v>49.374475134582298</v>
-      </c>
-      <c r="H120" s="27">
-        <v>7.0799999999999992</v>
-      </c>
-      <c r="I120" s="27">
-        <v>2.563333333333333</v>
-      </c>
-      <c r="J120" s="27">
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="27">
-        <v>0</v>
-      </c>
-      <c r="N120" s="27">
-        <v>0</v>
-      </c>
-      <c r="O120" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" s="23" customFormat="1">
-      <c r="A121" s="23">
-        <v>1979</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="23">
-        <v>4.6996218480156765E-7</v>
-      </c>
-      <c r="D121" s="23">
-        <v>1.5482666666626698E-8</v>
-      </c>
-      <c r="E121" s="23">
-        <v>1.5743333333333337E-8</v>
-      </c>
-      <c r="F121" s="25">
-        <v>366025</v>
-      </c>
-      <c r="G121" s="26">
-        <v>53.186058820024599</v>
-      </c>
-      <c r="H121" s="27">
-        <v>6.3066666666666658</v>
-      </c>
-      <c r="I121" s="27">
-        <v>2.3533333333333331</v>
-      </c>
-      <c r="J121" s="27">
-        <v>3.91</v>
-      </c>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="27">
-        <v>0</v>
-      </c>
-      <c r="N121" s="27">
-        <v>0</v>
-      </c>
-      <c r="O121" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" s="23" customFormat="1">
-      <c r="A122" s="23">
-        <v>1980</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="23">
-        <v>5.5682597236926591E-7</v>
-      </c>
-      <c r="D122" s="23">
-        <v>1.6849333333319999E-8</v>
-      </c>
-      <c r="E122" s="29">
-        <v>1.7093333333333336E-8</v>
-      </c>
-      <c r="F122" s="30">
-        <v>367779.87191736099</v>
-      </c>
-      <c r="G122" s="31">
-        <v>58.393965242015597</v>
-      </c>
-      <c r="H122" s="32">
-        <v>6.1766666666666667</v>
-      </c>
-      <c r="I122" s="27">
-        <v>2.4133333333333336</v>
-      </c>
-      <c r="J122" s="27">
-        <v>3.72</v>
-      </c>
-      <c r="L122" s="33">
-        <v>96.343050000000005</v>
-      </c>
-      <c r="M122" s="27">
-        <v>0</v>
-      </c>
-      <c r="N122" s="27">
-        <v>0</v>
-      </c>
-      <c r="O122" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" s="23" customFormat="1">
-      <c r="A123" s="23">
-        <v>1980</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="23">
-        <v>6.6066855049906803E-7</v>
-      </c>
-      <c r="D123" s="23">
-        <v>1.80349999999967E-8</v>
-      </c>
-      <c r="E123" s="29">
-        <v>1.824E-8</v>
-      </c>
-      <c r="F123" s="30">
-        <v>364177.58519652899</v>
-      </c>
-      <c r="G123" s="31">
-        <v>60.733749286621801</v>
-      </c>
-      <c r="H123" s="32">
-        <v>5.7666666666666666</v>
-      </c>
-      <c r="I123" s="27">
-        <v>2.4233333333333333</v>
-      </c>
-      <c r="J123" s="27">
-        <v>3.6533333333333329</v>
-      </c>
-      <c r="L123" s="33">
-        <v>96.085849999999994</v>
-      </c>
-      <c r="M123" s="27">
-        <v>0</v>
-      </c>
-      <c r="N123" s="27">
-        <v>0</v>
-      </c>
-      <c r="O123" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" s="23" customFormat="1">
-      <c r="A124" s="34">
-        <v>1980</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="23">
-        <v>7.57957105065975E-7</v>
-      </c>
-      <c r="D124" s="23">
-        <v>1.897033333331E-8</v>
-      </c>
-      <c r="E124" s="29">
-        <v>1.9130000000000003E-8</v>
-      </c>
-      <c r="F124" s="30">
-        <v>376246.89133424498</v>
-      </c>
-      <c r="G124" s="31">
-        <v>62.092333570586803</v>
-      </c>
-      <c r="H124" s="32">
-        <v>7.1733333333333329</v>
-      </c>
-      <c r="I124" s="27">
-        <v>2.8866666666666667</v>
-      </c>
-      <c r="J124" s="27">
-        <v>3.9133333333333336</v>
-      </c>
-      <c r="L124" s="33">
-        <v>96.541250000000005</v>
-      </c>
-      <c r="M124" s="27">
-        <v>0</v>
-      </c>
-      <c r="N124" s="27">
-        <v>0</v>
-      </c>
-      <c r="O124" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" s="23" customFormat="1">
-      <c r="A125" s="34">
-        <v>1980</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="23">
-        <v>8.8702420930684169E-7</v>
-      </c>
-      <c r="D125" s="23">
-        <v>1.9631666666663299E-8</v>
-      </c>
-      <c r="E125" s="29">
-        <v>1.9760000000000003E-8</v>
-      </c>
-      <c r="F125" s="30">
-        <v>377646.29742703802</v>
-      </c>
-      <c r="G125" s="31">
-        <v>63.312543529458502</v>
-      </c>
-      <c r="H125" s="32">
-        <v>7.8866666666666667</v>
-      </c>
-      <c r="I125" s="27">
-        <v>3.0933333333333333</v>
-      </c>
-      <c r="J125" s="27">
-        <v>4.2433333333333332</v>
-      </c>
-      <c r="L125" s="33">
-        <v>96.683340000000001</v>
-      </c>
-      <c r="M125" s="27">
-        <v>0</v>
-      </c>
-      <c r="N125" s="27">
-        <v>0</v>
-      </c>
-      <c r="O125" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" s="23" customFormat="1">
-      <c r="A126" s="34">
-        <v>1981</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="23">
-        <v>1.0151481145847787E-6</v>
-      </c>
-      <c r="D126" s="23">
-        <v>2.1956333333299999E-8</v>
-      </c>
-      <c r="E126" s="29">
-        <v>2.2146666666666667E-8</v>
-      </c>
-      <c r="F126" s="30">
-        <v>363119.92021309899</v>
-      </c>
-      <c r="G126" s="31">
-        <v>65.853599319585697</v>
-      </c>
-      <c r="H126" s="32">
-        <v>7.63</v>
-      </c>
-      <c r="I126" s="27">
-        <v>3.22</v>
-      </c>
-      <c r="J126" s="27">
-        <v>4.1566666666666663</v>
-      </c>
-      <c r="L126" s="33">
-        <v>96.426490000000001</v>
-      </c>
-      <c r="M126" s="27">
-        <v>0</v>
-      </c>
-      <c r="N126" s="27">
-        <v>0</v>
-      </c>
-      <c r="O126" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" s="23" customFormat="1">
-      <c r="A127" s="34">
-        <v>1981</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="23">
-        <v>1.2499200102925032E-6</v>
-      </c>
-      <c r="D127" s="23">
-        <v>3.76053333333567E-8</v>
-      </c>
-      <c r="E127" s="29">
-        <v>4.3446666666666669E-8</v>
-      </c>
-      <c r="F127" s="30">
-        <v>354928.98153557902</v>
-      </c>
-      <c r="G127" s="31">
-        <v>65.513953248720298</v>
-      </c>
-      <c r="H127" s="32">
-        <v>7.3500000000000005</v>
-      </c>
-      <c r="I127" s="27">
-        <v>3.2166666666666668</v>
-      </c>
-      <c r="J127" s="27">
-        <v>3.9066666666666663</v>
-      </c>
-      <c r="L127" s="33">
-        <v>96.362250000000003</v>
-      </c>
-      <c r="M127" s="27">
-        <v>0</v>
-      </c>
-      <c r="N127" s="27">
-        <v>0</v>
-      </c>
-      <c r="O127" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" s="23" customFormat="1">
-      <c r="A128" s="34">
-        <v>1981</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="23">
-        <v>1.6127493036589868E-6</v>
-      </c>
-      <c r="D128" s="23">
-        <v>5.1344000000153299E-8</v>
-      </c>
-      <c r="E128" s="29">
-        <v>7.4733333333333341E-8</v>
-      </c>
-      <c r="F128" s="30">
-        <v>344833.96946955298</v>
-      </c>
-      <c r="G128" s="31">
-        <v>63.4131794022192</v>
-      </c>
-      <c r="H128" s="32">
-        <v>6.6833333333333336</v>
-      </c>
-      <c r="I128" s="27">
-        <v>2.8533333333333331</v>
-      </c>
-      <c r="J128" s="27">
-        <v>3.6300000000000003</v>
-      </c>
-      <c r="L128" s="33">
-        <v>96.230779999999996</v>
-      </c>
-      <c r="M128" s="27">
-        <v>0</v>
-      </c>
-      <c r="N128" s="27">
-        <v>0</v>
-      </c>
-      <c r="O128" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" s="23" customFormat="1">
-      <c r="A129" s="34">
-        <v>1981</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="23">
-        <v>1.9752762896655568E-6</v>
-      </c>
-      <c r="D129" s="23">
-        <v>6.5201999999880003E-8</v>
-      </c>
-      <c r="E129" s="29">
-        <v>1.015E-7</v>
-      </c>
-      <c r="F129" s="30">
-        <v>341461.91969468503</v>
-      </c>
-      <c r="G129" s="31">
-        <v>62.8345231331229</v>
-      </c>
-      <c r="H129" s="32">
-        <v>6.0333333333333341</v>
-      </c>
-      <c r="I129" s="27">
-        <v>2.3933333333333331</v>
-      </c>
-      <c r="J129" s="27">
-        <v>3.8066666666666666</v>
-      </c>
-      <c r="L129" s="33">
-        <v>96.089560000000006</v>
-      </c>
-      <c r="M129" s="27">
-        <v>0</v>
-      </c>
-      <c r="N129" s="27">
-        <v>0</v>
-      </c>
-      <c r="O129" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" s="23" customFormat="1">
-      <c r="A130" s="34">
-        <v>1982</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="23">
-        <v>2.5125369297013133E-6</v>
-      </c>
-      <c r="D130" s="23">
-        <v>1.0263099999984E-7</v>
-      </c>
-      <c r="E130" s="29">
-        <v>1.0575E-7</v>
-      </c>
-      <c r="F130" s="30">
-        <v>343586.85240184597</v>
-      </c>
-      <c r="G130" s="31">
-        <v>64.5075945199833</v>
-      </c>
-      <c r="H130" s="32">
-        <v>6.0533333333333337</v>
-      </c>
-      <c r="I130" s="27">
-        <v>2.48</v>
-      </c>
-      <c r="J130" s="27">
-        <v>3.7166666666666668</v>
-      </c>
-      <c r="L130" s="33">
-        <v>96.085629999999995</v>
-      </c>
-      <c r="M130" s="27">
-        <v>0</v>
-      </c>
-      <c r="N130" s="27">
-        <v>0</v>
-      </c>
-      <c r="O130" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" s="23" customFormat="1">
-      <c r="A131" s="34">
-        <v>1982</v>
-      </c>
-      <c r="B131" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="23">
-        <v>2.8743988395160803E-6</v>
-      </c>
-      <c r="D131" s="23">
-        <v>1.3670033333321301E-7</v>
-      </c>
-      <c r="E131" s="29">
-        <v>1.4116666666666669E-7</v>
-      </c>
-      <c r="F131" s="30">
-        <v>331333.421081651</v>
-      </c>
-      <c r="G131" s="31">
-        <v>63.249646108653302</v>
-      </c>
-      <c r="H131" s="32">
-        <v>6.1866666666666665</v>
-      </c>
-      <c r="I131" s="27">
-        <v>2.5733333333333337</v>
-      </c>
-      <c r="J131" s="27">
-        <v>3.5700000000000003</v>
-      </c>
-      <c r="L131" s="33">
-        <v>96.061179999999993</v>
-      </c>
-      <c r="M131" s="27">
-        <v>0</v>
-      </c>
-      <c r="N131" s="27">
-        <v>0</v>
-      </c>
-      <c r="O131" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" s="23" customFormat="1">
-      <c r="A132" s="34">
-        <v>1982</v>
-      </c>
-      <c r="B132" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="23">
-        <v>4.1261931554400406E-6</v>
-      </c>
-      <c r="D132" s="23">
-        <v>3.7726666666666699E-7</v>
-      </c>
-      <c r="E132" s="29">
-        <v>3.9000000000000002E-7</v>
-      </c>
-      <c r="F132" s="30">
-        <v>342870.42862439802</v>
-      </c>
-      <c r="G132" s="31">
-        <v>62.4697180937845</v>
-      </c>
-      <c r="H132" s="32">
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="I132" s="27">
-        <v>2.3166666666666664</v>
-      </c>
-      <c r="J132" s="27">
-        <v>3.3266666666666667</v>
-      </c>
-      <c r="L132" s="33">
-        <v>95.910550000000001</v>
-      </c>
-      <c r="M132" s="27">
-        <v>0</v>
-      </c>
-      <c r="N132" s="27">
-        <v>0</v>
-      </c>
-      <c r="O132" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" s="23" customFormat="1">
-      <c r="A133" s="34">
-        <v>1982</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="23">
-        <v>5.9846578812355705E-6</v>
-      </c>
-      <c r="D133" s="23">
-        <v>4.2030333333333297E-7</v>
-      </c>
-      <c r="E133" s="29">
-        <v>4.3656666666666673E-7</v>
-      </c>
-      <c r="F133" s="30">
-        <v>347860.05944581999</v>
-      </c>
-      <c r="G133" s="31">
-        <v>62.2055489277097</v>
-      </c>
-      <c r="H133" s="32">
-        <v>5.2866666666666662</v>
-      </c>
-      <c r="I133" s="27">
-        <v>2.1233333333333331</v>
-      </c>
-      <c r="J133" s="27">
-        <v>3.4733333333333332</v>
-      </c>
-      <c r="L133" s="33">
-        <v>95.876329999999996</v>
-      </c>
-      <c r="M133" s="27">
-        <v>0</v>
-      </c>
-      <c r="N133" s="27">
-        <v>0</v>
-      </c>
-      <c r="O133" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" s="23" customFormat="1">
-      <c r="A134" s="34">
-        <v>1983</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="23">
-        <v>8.658687402601919E-6</v>
-      </c>
-      <c r="D134" s="23">
-        <v>5.7522633333365002E-7</v>
-      </c>
-      <c r="E134" s="29">
-        <v>6.0256666666666666E-7</v>
-      </c>
-      <c r="F134" s="30">
-        <v>353533.64229996101</v>
-      </c>
-      <c r="G134" s="31">
-        <v>61.362723492286896</v>
-      </c>
-      <c r="H134" s="32">
-        <v>5.68</v>
-      </c>
-      <c r="I134" s="27">
-        <v>2.5433333333333334</v>
-      </c>
-      <c r="J134" s="27">
-        <v>3.6</v>
-      </c>
-      <c r="L134" s="33">
-        <v>96.019750000000002</v>
-      </c>
-      <c r="M134" s="27">
-        <v>0</v>
-      </c>
-      <c r="N134" s="27">
-        <v>0</v>
-      </c>
-      <c r="O134" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" s="23" customFormat="1">
-      <c r="A135" s="34">
-        <v>1983</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="23">
-        <v>1.1886725391743134E-5</v>
-      </c>
-      <c r="D135" s="23">
-        <v>7.8198999993333303E-7</v>
-      </c>
-      <c r="E135" s="29">
-        <v>8.1483333333333332E-7</v>
-      </c>
-      <c r="F135" s="30">
-        <v>355532.82782145799</v>
-      </c>
-      <c r="G135" s="31">
-        <v>60.356364763424097</v>
-      </c>
-      <c r="H135" s="32">
-        <v>6.0166666666666657</v>
-      </c>
-      <c r="I135" s="27">
-        <v>3.0066666666666664</v>
-      </c>
-      <c r="J135" s="27">
-        <v>3.66</v>
-      </c>
-      <c r="L135" s="33">
-        <v>96.16677</v>
-      </c>
-      <c r="M135" s="27">
-        <v>0</v>
-      </c>
-      <c r="N135" s="27">
-        <v>0</v>
-      </c>
-      <c r="O135" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" s="23" customFormat="1">
-      <c r="A136" s="34">
-        <v>1983</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="23">
-        <v>1.8101560096815802E-5</v>
-      </c>
-      <c r="D136" s="23">
-        <v>1.0733466666000001E-6</v>
-      </c>
-      <c r="E136" s="29">
-        <v>1.1446333333333334E-6</v>
-      </c>
-      <c r="F136" s="30">
-        <v>360604.43028807198</v>
-      </c>
-      <c r="G136" s="31">
-        <v>60.4318416679629</v>
-      </c>
-      <c r="H136" s="32">
-        <v>7.3733333333333322</v>
-      </c>
-      <c r="I136" s="27">
-        <v>3.2666666666666671</v>
-      </c>
-      <c r="J136" s="27">
-        <v>3.5333333333333332</v>
-      </c>
-      <c r="L136" s="33">
-        <v>96.390550000000005</v>
-      </c>
-      <c r="M136" s="27">
-        <v>0</v>
-      </c>
-      <c r="N136" s="27">
-        <v>0</v>
-      </c>
-      <c r="O136" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" s="23" customFormat="1">
-      <c r="A137" s="34">
-        <v>1983</v>
-      </c>
-      <c r="B137" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="23">
-        <v>3.0132183791877068E-5</v>
-      </c>
-      <c r="D137" s="23">
-        <v>1.78141999996667E-6</v>
-      </c>
-      <c r="E137" s="29">
-        <v>1.9460000000000001E-6</v>
-      </c>
-      <c r="F137" s="30">
-        <v>356406.31294722599</v>
-      </c>
-      <c r="G137" s="31">
-        <v>60.935021032646198</v>
-      </c>
-      <c r="H137" s="32">
-        <v>7.84</v>
-      </c>
-      <c r="I137" s="27">
-        <v>3.1566666666666667</v>
-      </c>
-      <c r="J137" s="27">
-        <v>3.5400000000000005</v>
-      </c>
-      <c r="L137" s="33">
-        <v>96.398269999999997</v>
-      </c>
-      <c r="M137" s="27">
-        <v>0</v>
-      </c>
-      <c r="N137" s="27">
-        <v>0</v>
-      </c>
-      <c r="O137" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" s="23" customFormat="1">
-      <c r="A138" s="34">
-        <v>1984</v>
-      </c>
-      <c r="B138" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="23">
-        <v>4.732924026783586E-5</v>
-      </c>
-      <c r="D138" s="23">
-        <v>2.7836533332333302E-6</v>
-      </c>
-      <c r="E138" s="29">
-        <v>2.9373333333333336E-6</v>
-      </c>
-      <c r="F138" s="30">
-        <v>359573.567407066</v>
-      </c>
-      <c r="G138" s="31">
-        <v>61.362723492286797</v>
-      </c>
-      <c r="H138" s="32">
-        <v>7.6033333333333326</v>
-      </c>
-      <c r="I138" s="27">
-        <v>3.1566666666666663</v>
-      </c>
-      <c r="J138" s="27">
-        <v>3.4633333333333334</v>
-      </c>
-      <c r="L138" s="33">
-        <v>96.302340000000001</v>
-      </c>
-      <c r="M138" s="27">
-        <v>0</v>
-      </c>
-      <c r="N138" s="27">
-        <v>0</v>
-      </c>
-      <c r="O138" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" s="23" customFormat="1">
-      <c r="A139" s="34">
-        <v>1984</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="23">
-        <v>7.8345975394815667E-5</v>
-      </c>
-      <c r="D139" s="23">
-        <v>4.1180699999333301E-6</v>
-      </c>
-      <c r="E139" s="29">
-        <v>4.4268999999999999E-6</v>
-      </c>
-      <c r="F139" s="30">
-        <v>366827.22911528603</v>
-      </c>
-      <c r="G139" s="31">
-        <v>62.0294361499069</v>
-      </c>
-      <c r="H139" s="32">
-        <v>7.9799999999999995</v>
-      </c>
-      <c r="I139" s="27">
-        <v>3.34</v>
-      </c>
-      <c r="J139" s="27">
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="L139" s="33">
-        <v>96.380380000000002</v>
-      </c>
-      <c r="M139" s="27">
-        <v>0</v>
-      </c>
-      <c r="N139" s="27">
-        <v>0</v>
-      </c>
-      <c r="O139" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" s="23" customFormat="1">
-      <c r="A140" s="34">
-        <v>1984</v>
-      </c>
-      <c r="B140" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="23">
-        <v>1.3671548044664136E-4</v>
-      </c>
-      <c r="D140" s="23">
-        <v>6.9343899999333302E-6</v>
-      </c>
-      <c r="E140" s="29">
-        <v>7.6008333333333344E-6</v>
-      </c>
-      <c r="F140" s="30">
-        <v>364304.37732207897</v>
-      </c>
-      <c r="G140" s="31">
-        <v>62.042015634143603</v>
-      </c>
-      <c r="H140" s="32">
-        <v>6.5133333333333328</v>
-      </c>
-      <c r="I140" s="27">
-        <v>3.1066666666666669</v>
-      </c>
-      <c r="J140" s="27">
-        <v>3.3833333333333333</v>
-      </c>
-      <c r="L140" s="33">
-        <v>96.077349999999996</v>
-      </c>
-      <c r="M140" s="27">
-        <v>0</v>
-      </c>
-      <c r="N140" s="27">
-        <v>0</v>
-      </c>
-      <c r="O140" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" s="23" customFormat="1">
-      <c r="A141" s="34">
-        <v>1984</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="23">
-        <v>2.3745033891654568E-4</v>
-      </c>
-      <c r="D141" s="23">
-        <v>1.3223533333300001E-5</v>
-      </c>
-      <c r="E141" s="29">
-        <v>1.4921800000000002E-5</v>
-      </c>
-      <c r="F141" s="30">
-        <v>361366.26697734901</v>
-      </c>
-      <c r="G141" s="31">
-        <v>61.828164404385802</v>
-      </c>
-      <c r="H141" s="32">
-        <v>5.9666666666666659</v>
-      </c>
-      <c r="I141" s="27">
-        <v>2.5866666666666664</v>
-      </c>
-      <c r="J141" s="27">
-        <v>3.4200000000000004</v>
-      </c>
-      <c r="L141" s="33">
-        <v>95.925200000000004</v>
-      </c>
-      <c r="M141" s="27">
-        <v>0</v>
-      </c>
-      <c r="N141" s="27">
-        <v>0</v>
-      </c>
-      <c r="O141" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" s="23" customFormat="1">
-      <c r="A142" s="34">
-        <v>1985</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="23">
-        <v>4.3296460086608701E-4</v>
-      </c>
-      <c r="D142" s="23">
-        <v>2.4951966666666701E-5</v>
-      </c>
-      <c r="E142" s="29">
-        <v>2.7817333333333332E-5</v>
-      </c>
-      <c r="F142" s="30">
-        <v>346206.66506450903</v>
-      </c>
-      <c r="G142" s="31">
-        <v>60.406682699741303</v>
-      </c>
-      <c r="H142" s="32">
-        <v>5.8533333333333326</v>
-      </c>
-      <c r="I142" s="27">
-        <v>2.6433333333333331</v>
-      </c>
-      <c r="J142" s="27">
-        <v>3.3800000000000003</v>
-      </c>
-      <c r="L142" s="33">
-        <v>95.815200000000004</v>
-      </c>
-      <c r="M142" s="27">
-        <v>0</v>
-      </c>
-      <c r="N142" s="27">
-        <v>1</v>
-      </c>
-      <c r="O142" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" s="23" customFormat="1">
-      <c r="A143" s="34">
-        <v>1985</v>
-      </c>
-      <c r="B143" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="23">
-        <v>8.9017425199712258E-4</v>
-      </c>
-      <c r="D143" s="23">
-        <v>5.5671633333333297E-5</v>
-      </c>
-      <c r="E143" s="29">
-        <v>6.1721000000000001E-5</v>
-      </c>
-      <c r="F143" s="30">
-        <v>333543.974588276</v>
-      </c>
-      <c r="G143" s="31">
-        <v>60.092195596971798</v>
-      </c>
-      <c r="H143" s="32">
-        <v>5.7333333333333334</v>
-      </c>
-      <c r="I143" s="27">
-        <v>2.6733333333333338</v>
-      </c>
-      <c r="J143" s="27">
-        <v>3.2733333333333334</v>
-      </c>
-      <c r="L143" s="33">
-        <v>95.715419999999995</v>
-      </c>
-      <c r="M143" s="27">
-        <v>0</v>
-      </c>
-      <c r="N143" s="27">
-        <v>1</v>
-      </c>
-      <c r="O143" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" s="23" customFormat="1">
-      <c r="A144" s="34">
-        <v>1985</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="23">
-        <v>1.2248284994197968E-3</v>
-      </c>
-      <c r="D144" s="23">
-        <v>8.0049999999999994E-5</v>
-      </c>
-      <c r="E144" s="29">
-        <v>8.0100000000000009E-5</v>
-      </c>
-      <c r="F144" s="30">
-        <v>326044.96843614901</v>
-      </c>
-      <c r="G144" s="31">
-        <v>59.966400755863901</v>
-      </c>
-      <c r="H144" s="32">
-        <v>5.17</v>
-      </c>
-      <c r="I144" s="27">
-        <v>2.4433333333333334</v>
-      </c>
-      <c r="J144" s="27">
-        <v>2.9433333333333334</v>
-      </c>
-      <c r="L144" s="33">
-        <v>95.512349999999998</v>
-      </c>
-      <c r="M144" s="27">
-        <v>0</v>
-      </c>
-      <c r="N144" s="27">
-        <v>0</v>
-      </c>
-      <c r="O144" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" s="23" customFormat="1">
-      <c r="A145" s="34">
-        <v>1985</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="23">
-        <v>1.3117116346585333E-3</v>
-      </c>
-      <c r="D145" s="23">
-        <v>8.0049999999999994E-5</v>
-      </c>
-      <c r="E145" s="29">
-        <v>8.0100000000000009E-5</v>
-      </c>
-      <c r="F145" s="30">
-        <v>340098.33678035502</v>
-      </c>
-      <c r="G145" s="31">
-        <v>60.721169802762702</v>
-      </c>
-      <c r="H145" s="32">
-        <v>4.9266666666666667</v>
-      </c>
-      <c r="I145" s="27">
-        <v>2.2033333333333336</v>
-      </c>
-      <c r="J145" s="27">
-        <v>3.19</v>
-      </c>
-      <c r="L145" s="33">
-        <v>95.635459999999995</v>
-      </c>
-      <c r="M145" s="27">
-        <v>0</v>
-      </c>
-      <c r="N145" s="27">
-        <v>0</v>
-      </c>
-      <c r="O145" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" s="23" customFormat="1">
-      <c r="A146" s="34">
-        <v>1986</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="23">
-        <v>1.4279185838087366E-3</v>
-      </c>
-      <c r="D146" s="23">
-        <v>8.0049999999999994E-5</v>
-      </c>
-      <c r="E146" s="29">
-        <v>8.0100000000000009E-5</v>
-      </c>
-      <c r="F146" s="30">
-        <v>348379.75702303299</v>
-      </c>
-      <c r="G146" s="31">
-        <v>59.387744486893602</v>
-      </c>
-      <c r="H146" s="32">
-        <v>5.19</v>
-      </c>
-      <c r="I146" s="27">
-        <v>2.3133333333333335</v>
-      </c>
-      <c r="J146" s="27">
-        <v>3.2099999999999995</v>
-      </c>
-      <c r="K146" s="27">
-        <v>73.551106427818794</v>
-      </c>
-      <c r="L146" s="33">
-        <v>95.433189999999996</v>
-      </c>
-      <c r="M146" s="27">
-        <v>0</v>
-      </c>
-      <c r="N146" s="27">
-        <v>0</v>
-      </c>
-      <c r="O146" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" s="23" customFormat="1">
-      <c r="A147" s="34">
-        <v>1986</v>
-      </c>
-      <c r="B147" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="23">
-        <v>1.6155909928421599E-3</v>
-      </c>
-      <c r="D147" s="23">
-        <v>8.4895666666666701E-5</v>
-      </c>
-      <c r="E147" s="29">
-        <v>8.6433333333333338E-5</v>
-      </c>
-      <c r="F147" s="30">
-        <v>358745.85180372599</v>
-      </c>
-      <c r="G147" s="31">
-        <v>57.551139806718801</v>
-      </c>
-      <c r="H147" s="32">
-        <v>5.2233333333333336</v>
-      </c>
-      <c r="I147" s="27">
-        <v>2.3366666666666664</v>
-      </c>
-      <c r="J147" s="27">
-        <v>2.9499999999999997</v>
-      </c>
-      <c r="K147" s="27">
-        <v>74.48770491803279</v>
-      </c>
-      <c r="L147" s="33">
-        <v>95.173559999999995</v>
-      </c>
-      <c r="M147" s="27">
-        <v>0</v>
-      </c>
-      <c r="N147" s="27">
-        <v>0</v>
-      </c>
-      <c r="O147" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" s="23" customFormat="1">
-      <c r="A148" s="34">
-        <v>1986</v>
-      </c>
-      <c r="B148" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="23">
-        <v>1.9518172385363834E-3</v>
-      </c>
-      <c r="D148" s="23">
-        <v>9.7215666666666706E-5</v>
-      </c>
-      <c r="E148" s="29">
-        <v>9.996666666666668E-5</v>
-      </c>
-      <c r="F148" s="30">
-        <v>372267.49637122598</v>
-      </c>
-      <c r="G148" s="31">
-        <v>57.4379244498476</v>
-      </c>
-      <c r="H148" s="32">
-        <v>4.9833333333333334</v>
-      </c>
-      <c r="I148" s="27">
-        <v>1.7266666666666666</v>
-      </c>
-      <c r="J148" s="27">
-        <v>2.2633333333333332</v>
-      </c>
-      <c r="K148" s="27">
-        <v>76.804123711340196</v>
-      </c>
-      <c r="L148" s="33">
-        <v>94.609830000000002</v>
-      </c>
-      <c r="M148" s="27">
-        <v>0</v>
-      </c>
-      <c r="N148" s="27">
-        <v>0</v>
-      </c>
-      <c r="O148" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" s="23" customFormat="1">
-      <c r="A149" s="34">
-        <v>1986</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="23">
-        <v>2.34155188693504E-3</v>
-      </c>
-      <c r="D149" s="23">
-        <v>1.15051333333333E-4</v>
-      </c>
-      <c r="E149" s="29">
-        <v>1.1903333333333336E-4</v>
-      </c>
-      <c r="F149" s="30">
-        <v>364813.66787920799</v>
-      </c>
-      <c r="G149" s="31">
-        <v>58.922303574920299</v>
-      </c>
-      <c r="H149" s="32">
-        <v>4.62</v>
-      </c>
-      <c r="I149" s="27">
-        <v>1.4566666666666668</v>
-      </c>
-      <c r="J149" s="27">
-        <v>2.4066666666666667</v>
-      </c>
-      <c r="K149" s="27">
-        <v>76.617954070981199</v>
-      </c>
-      <c r="L149" s="33">
-        <v>94.573629999999994</v>
-      </c>
-      <c r="M149" s="27">
-        <v>0</v>
-      </c>
-      <c r="N149" s="27">
-        <v>0</v>
-      </c>
-      <c r="O149" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" s="23" customFormat="1">
-      <c r="A150" s="34">
-        <v>1987</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="23">
-        <v>2.8320153476564069E-3</v>
-      </c>
-      <c r="D150" s="23">
-        <v>1.40493E-4</v>
-      </c>
-      <c r="E150" s="29">
-        <v>1.4713333333333332E-4</v>
-      </c>
-      <c r="F150" s="30">
-        <v>364205.54849123902</v>
-      </c>
-      <c r="G150" s="31">
-        <v>59.802867462675302</v>
-      </c>
-      <c r="H150" s="32">
-        <v>4.706666666666667</v>
-      </c>
-      <c r="I150" s="27">
-        <v>1.4566666666666668</v>
-      </c>
-      <c r="J150" s="27">
-        <v>2.56</v>
-      </c>
-      <c r="K150" s="27">
-        <v>73.695198329853895</v>
-      </c>
-      <c r="L150" s="33">
-        <v>94.673630000000003</v>
-      </c>
-      <c r="M150" s="27">
-        <v>0</v>
-      </c>
-      <c r="N150" s="27">
-        <v>0</v>
-      </c>
-      <c r="O150" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" s="23" customFormat="1">
-      <c r="A151" s="34">
-        <v>1987</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" s="23">
-        <v>3.3199394265545066E-3</v>
-      </c>
-      <c r="D151" s="23">
-        <v>1.6100000000000001E-4</v>
-      </c>
-      <c r="E151" s="29">
-        <v>1.6550000000000004E-4</v>
-      </c>
-      <c r="F151" s="30">
-        <v>374559.89287837897</v>
-      </c>
-      <c r="G151" s="31">
-        <v>61.626892658739003</v>
-      </c>
-      <c r="H151" s="32">
-        <v>5.1533333333333333</v>
-      </c>
-      <c r="I151" s="27">
-        <v>1.6233333333333331</v>
-      </c>
-      <c r="J151" s="27">
-        <v>2.58</v>
-      </c>
-      <c r="K151" s="27">
-        <v>80.739934711643102</v>
-      </c>
-      <c r="L151" s="33">
-        <v>94.963390000000004</v>
-      </c>
-      <c r="M151" s="27">
-        <v>0</v>
-      </c>
-      <c r="N151" s="27">
-        <v>0</v>
-      </c>
-      <c r="O151" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" s="23" customFormat="1">
-      <c r="A152" s="34">
-        <v>1987</v>
-      </c>
-      <c r="B152" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="23">
-        <v>4.425175134393086E-3</v>
-      </c>
-      <c r="D152" s="23">
-        <v>2.14627E-4</v>
-      </c>
-      <c r="E152" s="29">
-        <v>2.2943333333333332E-4</v>
-      </c>
-      <c r="F152" s="30">
-        <v>381074.44661202998</v>
-      </c>
-      <c r="G152" s="31">
-        <v>63.9666767033453</v>
-      </c>
-      <c r="H152" s="32">
-        <v>5.0966666666666667</v>
-      </c>
-      <c r="I152" s="27">
-        <v>1.5200000000000002</v>
-      </c>
-      <c r="J152" s="27">
-        <v>2.4</v>
-      </c>
-      <c r="K152" s="27">
-        <v>89.237668161434996</v>
-      </c>
-      <c r="L152" s="33">
-        <v>94.79374</v>
-      </c>
-      <c r="M152" s="27">
-        <v>0</v>
-      </c>
-      <c r="N152" s="27">
-        <v>0</v>
-      </c>
-      <c r="O152" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" s="23" customFormat="1">
-      <c r="A153" s="34">
-        <v>1987</v>
-      </c>
-      <c r="B153" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="23">
-        <v>6.3956145063000505E-3</v>
-      </c>
-      <c r="D153" s="23">
-        <v>3.4159933333333299E-4</v>
-      </c>
-      <c r="E153" s="29">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="F153" s="30">
-        <v>365257.588891341</v>
-      </c>
-      <c r="G153" s="31">
-        <v>63.878620314569702</v>
-      </c>
-      <c r="H153" s="32">
-        <v>5.3433333333333337</v>
-      </c>
-      <c r="I153" s="27">
-        <v>1.6266666666666667</v>
-      </c>
-      <c r="J153" s="27">
-        <v>2.6700000000000004</v>
-      </c>
-      <c r="K153" s="27">
-        <v>79.601990049751194</v>
-      </c>
-      <c r="L153" s="33">
-        <v>94.961250000000007</v>
-      </c>
-      <c r="M153" s="27">
-        <v>0</v>
-      </c>
-      <c r="N153" s="27">
-        <v>0</v>
-      </c>
-      <c r="O153" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" s="23" customFormat="1">
-      <c r="A154" s="34">
-        <v>1988</v>
-      </c>
-      <c r="B154" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="23">
-        <v>8.2699201377549655E-3</v>
-      </c>
-      <c r="D154" s="23">
-        <v>4.3787666666666699E-4</v>
-      </c>
-      <c r="E154" s="29">
-        <v>6.1100000000000011E-4</v>
-      </c>
-      <c r="F154" s="30">
-        <v>375494.97197118797</v>
-      </c>
-      <c r="G154" s="31">
-        <v>64.230845869671995</v>
-      </c>
-      <c r="H154" s="32">
-        <v>5.913333333333334</v>
-      </c>
-      <c r="I154" s="27">
-        <v>1.82</v>
-      </c>
-      <c r="J154" s="27">
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="K154" s="27">
-        <v>80.298507462686601</v>
-      </c>
-      <c r="L154" s="33">
-        <v>95.063609999999997</v>
-      </c>
-      <c r="M154" s="27">
-        <v>0</v>
-      </c>
-      <c r="N154" s="27">
-        <v>0</v>
-      </c>
-      <c r="O154" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" s="23" customFormat="1">
-      <c r="A155" s="34">
-        <v>1988</v>
-      </c>
-      <c r="B155" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" s="23">
-        <v>1.2834761272427464E-2</v>
-      </c>
-      <c r="D155" s="23">
-        <v>6.7977100000000002E-4</v>
-      </c>
-      <c r="E155" s="29">
-        <v>9.2999999999999995E-4</v>
-      </c>
-      <c r="F155" s="30">
-        <v>368038.271917245</v>
-      </c>
-      <c r="G155" s="31">
-        <v>66.092609518068201</v>
-      </c>
-      <c r="H155" s="32">
-        <v>7.1833333333333336</v>
-      </c>
-      <c r="I155" s="27">
-        <v>2.0766666666666667</v>
-      </c>
-      <c r="J155" s="27">
-        <v>3.043333333333333</v>
-      </c>
-      <c r="K155" s="27">
-        <v>86.497461928934001</v>
-      </c>
-      <c r="L155" s="33">
-        <v>95.407449999999997</v>
-      </c>
-      <c r="M155" s="27">
-        <v>0</v>
-      </c>
-      <c r="N155" s="27">
-        <v>0</v>
-      </c>
-      <c r="O155" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" s="23" customFormat="1">
-      <c r="A156" s="34">
-        <v>1988</v>
-      </c>
-      <c r="B156" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="23">
-        <v>2.3134977639351999E-2</v>
-      </c>
-      <c r="D156" s="23">
-        <v>1.11815066666667E-3</v>
-      </c>
-      <c r="E156" s="29">
-        <v>1.4120000000000001E-3</v>
-      </c>
-      <c r="F156" s="30">
-        <v>355927.02625418402</v>
-      </c>
-      <c r="G156" s="31">
-        <v>65.866178804074096</v>
-      </c>
-      <c r="H156" s="32">
-        <v>8.2533333333333321</v>
-      </c>
-      <c r="I156" s="27">
-        <v>2.6566666666666667</v>
-      </c>
-      <c r="J156" s="27">
-        <v>3.6166666666666667</v>
-      </c>
-      <c r="K156" s="27">
-        <v>95.820271682340589</v>
-      </c>
-      <c r="L156" s="33">
-        <v>95.691959999999995</v>
-      </c>
-      <c r="M156" s="27">
-        <v>0</v>
-      </c>
-      <c r="N156" s="27">
-        <v>0</v>
-      </c>
-      <c r="O156" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" s="23" customFormat="1">
-      <c r="A157" s="34">
-        <v>1988</v>
-      </c>
-      <c r="B157" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="23">
-        <v>3.0941762901721601E-2</v>
-      </c>
-      <c r="D157" s="23">
-        <v>1.26524333333333E-3</v>
-      </c>
-      <c r="E157" s="29">
-        <v>1.5773333333333334E-3</v>
-      </c>
-      <c r="F157" s="30">
-        <v>354761.28332559398</v>
-      </c>
-      <c r="G157" s="31">
-        <v>66.866801288034495</v>
-      </c>
-      <c r="H157" s="32">
-        <v>7.496666666666667</v>
-      </c>
-      <c r="I157" s="27">
-        <v>2.5399999999999996</v>
-      </c>
-      <c r="J157" s="27">
-        <v>3.8866666666666667</v>
-      </c>
-      <c r="K157" s="27">
-        <v>85.805860805860789</v>
-      </c>
-      <c r="L157" s="33">
-        <v>95.418700000000001</v>
-      </c>
-      <c r="M157" s="27">
-        <v>0</v>
-      </c>
-      <c r="N157" s="27">
-        <v>0</v>
-      </c>
-      <c r="O157" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" s="23" customFormat="1">
-      <c r="A158" s="34">
-        <v>1989</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="23">
-        <v>4.0353800245224503E-2</v>
-      </c>
-      <c r="D158" s="23">
-        <v>1.4481433333333299E-3</v>
-      </c>
-      <c r="E158" s="29">
-        <v>3.1836666666666667E-3</v>
-      </c>
-      <c r="F158" s="30">
-        <v>357562.87209004501</v>
-      </c>
-      <c r="G158" s="31">
-        <v>71.765025969758099</v>
-      </c>
-      <c r="H158" s="32">
-        <v>7.5366666666666662</v>
-      </c>
-      <c r="I158" s="27">
-        <v>2.5966666666666662</v>
-      </c>
-      <c r="J158" s="27">
-        <v>4.04</v>
-      </c>
-      <c r="K158" s="27">
-        <v>83.744292237442906</v>
-      </c>
-      <c r="L158" s="33">
-        <v>95.395269999999996</v>
-      </c>
-      <c r="M158" s="27">
-        <v>0</v>
-      </c>
-      <c r="N158" s="27">
-        <v>0</v>
-      </c>
-      <c r="O158" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" s="23" customFormat="1">
-      <c r="A159" s="34">
-        <v>1989</v>
-      </c>
-      <c r="B159" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="23">
-        <v>0.13508179620018471</v>
-      </c>
-      <c r="D159" s="23">
-        <v>1.32722E-2</v>
-      </c>
-      <c r="E159" s="29">
-        <v>1.72E-2</v>
-      </c>
-      <c r="F159" s="30">
-        <v>334866.80327309802</v>
-      </c>
-      <c r="G159" s="31">
-        <v>72.526990481311799</v>
-      </c>
-      <c r="H159" s="32">
-        <v>7.18</v>
-      </c>
-      <c r="I159" s="27">
-        <v>2.5533333333333332</v>
-      </c>
-      <c r="J159" s="27">
-        <v>3.9633333333333329</v>
-      </c>
-      <c r="K159" s="27">
-        <v>84.014869888475786</v>
-      </c>
-      <c r="L159" s="33">
-        <v>95.272379999999998</v>
-      </c>
-      <c r="M159" s="27">
-        <v>0</v>
-      </c>
-      <c r="N159" s="27">
-        <v>0</v>
-      </c>
-      <c r="O159" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" s="23" customFormat="1">
-      <c r="A160" s="34">
-        <v>1989</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="23">
-        <v>0.90140741299414995</v>
-      </c>
-      <c r="D160" s="23">
-        <v>6.2346833333333303E-2</v>
-      </c>
-      <c r="E160" s="29">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="F160" s="30">
-        <v>320525.84313601698</v>
-      </c>
-      <c r="G160" s="31">
-        <v>71.1434233419116</v>
-      </c>
-      <c r="H160" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="I160" s="27">
-        <v>2.3433333333333333</v>
-      </c>
-      <c r="J160" s="27">
-        <v>3.7466666666666666</v>
-      </c>
-      <c r="K160" s="27">
-        <v>82.493125572868891</v>
-      </c>
-      <c r="L160" s="33">
-        <v>95.125399999999999</v>
-      </c>
-      <c r="M160" s="27">
-        <v>0</v>
-      </c>
-      <c r="N160" s="27">
-        <v>0</v>
-      </c>
-      <c r="O160" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" s="23" customFormat="1">
-      <c r="A161" s="34">
-        <v>1989</v>
-      </c>
-      <c r="B161" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="23">
-        <v>1.31351581165182</v>
-      </c>
-      <c r="D161" s="23">
-        <v>9.2268666666666693E-2</v>
-      </c>
-      <c r="E161" s="29">
-        <v>0.10366666666666668</v>
-      </c>
-      <c r="F161" s="30">
-        <v>334946.405521354</v>
-      </c>
-      <c r="G161" s="31">
-        <v>71.8452327604479</v>
-      </c>
-      <c r="H161" s="32">
-        <v>5.6166666666666671</v>
-      </c>
-      <c r="I161" s="27">
-        <v>2.2433333333333336</v>
-      </c>
-      <c r="J161" s="27">
-        <v>3.7533333333333339</v>
-      </c>
-      <c r="K161" s="27">
-        <v>76.450216450216502</v>
-      </c>
-      <c r="L161" s="33">
-        <v>95.049710000000005</v>
-      </c>
-      <c r="M161" s="27">
-        <v>0</v>
-      </c>
-      <c r="N161" s="27">
-        <v>0</v>
-      </c>
-      <c r="O161" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" s="23" customFormat="1">
-      <c r="A162" s="34">
-        <v>1990</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="23">
-        <v>5.7015470635272036</v>
-      </c>
-      <c r="D162" s="23">
-        <v>0.33902599999999999</v>
-      </c>
-      <c r="E162" s="29">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F162" s="30">
-        <v>314886.62315300899</v>
-      </c>
-      <c r="G162" s="31">
-        <v>72.948076132433599</v>
-      </c>
-      <c r="H162" s="32">
-        <v>5.62</v>
-      </c>
-      <c r="I162" s="27">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J162" s="27">
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="K162" s="27">
-        <v>81.142339075249296</v>
-      </c>
-      <c r="L162" s="33">
-        <v>94.919470000000004</v>
-      </c>
-      <c r="M162" s="27">
-        <v>0</v>
-      </c>
-      <c r="N162" s="27">
-        <v>0</v>
-      </c>
-      <c r="O162" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" s="23" customFormat="1">
-      <c r="A163" s="34">
-        <v>1990</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="23">
-        <v>11.915088745399734</v>
-      </c>
-      <c r="D163" s="23">
-        <v>0.507317666666667</v>
-      </c>
-      <c r="E163" s="29">
-        <v>0.5096666666666666</v>
-      </c>
-      <c r="F163" s="30">
-        <v>319830.27488821</v>
-      </c>
-      <c r="G163" s="31">
-        <v>71.885336155792899</v>
-      </c>
-      <c r="H163" s="32">
-        <v>5.89</v>
-      </c>
-      <c r="I163" s="27">
-        <v>2.5866666666666664</v>
-      </c>
-      <c r="J163" s="27">
-        <v>3.3233333333333337</v>
-      </c>
-      <c r="K163" s="27">
-        <v>75.491949910554595</v>
-      </c>
-      <c r="L163" s="33">
-        <v>95.020539999999997</v>
-      </c>
-      <c r="M163" s="27">
-        <v>0</v>
-      </c>
-      <c r="N163" s="27">
-        <v>0</v>
-      </c>
-      <c r="O163" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" s="23" customFormat="1">
-      <c r="A164" s="34">
-        <v>1990</v>
-      </c>
-      <c r="B164" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="23">
-        <v>17.373337290909433</v>
-      </c>
-      <c r="D164" s="23">
-        <v>0.57143966666666701</v>
-      </c>
-      <c r="E164" s="29">
-        <v>0.57550000000000001</v>
-      </c>
-      <c r="F164" s="30">
-        <v>334669.48663840198</v>
-      </c>
-      <c r="G164" s="31">
-        <v>73.930609318384498</v>
-      </c>
-      <c r="H164" s="32">
-        <v>5.9866666666666672</v>
-      </c>
-      <c r="I164" s="27">
-        <v>2.4833333333333329</v>
-      </c>
-      <c r="J164" s="27">
-        <v>2.61</v>
-      </c>
-      <c r="K164" s="27">
-        <v>77.4710596616207</v>
-      </c>
-      <c r="L164" s="33">
-        <v>94.878389999999996</v>
-      </c>
-      <c r="M164" s="27">
-        <v>0</v>
-      </c>
-      <c r="N164" s="27">
-        <v>0</v>
-      </c>
-      <c r="O164" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" s="23" customFormat="1">
-      <c r="A165" s="34">
-        <v>1990</v>
-      </c>
-      <c r="B165" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="23">
-        <v>22.712399377817132</v>
-      </c>
-      <c r="D165" s="23">
-        <v>0.53257299999999996</v>
-      </c>
-      <c r="E165" s="29">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="F165" s="30">
-        <v>343154.20732623403</v>
-      </c>
-      <c r="G165" s="31">
-        <v>77.820638666842996</v>
-      </c>
-      <c r="H165" s="32">
-        <v>5.793333333333333</v>
-      </c>
-      <c r="I165" s="27">
-        <v>2.19</v>
-      </c>
-      <c r="J165" s="27">
-        <v>2.4066666666666667</v>
-      </c>
-      <c r="K165" s="27">
-        <v>78.272027373823789</v>
-      </c>
-      <c r="L165" s="33">
-        <v>94.715140000000005</v>
-      </c>
-      <c r="M165" s="27">
-        <v>0</v>
-      </c>
-      <c r="N165" s="27">
-        <v>0</v>
-      </c>
-      <c r="O165" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" s="23" customFormat="1">
-      <c r="A166" s="34">
-        <v>1991</v>
-      </c>
-      <c r="B166" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" s="23">
-        <v>31.529157117392401</v>
-      </c>
-      <c r="D166" s="23">
-        <v>0.84438666666666695</v>
-      </c>
-      <c r="E166" s="29">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="F166" s="30">
-        <v>342893.95753299299</v>
-      </c>
-      <c r="G166" s="31">
-        <v>75.354279853129597</v>
-      </c>
-      <c r="H166" s="32">
-        <v>5.7066666666666661</v>
-      </c>
-      <c r="I166" s="27">
-        <v>2.3266666666666667</v>
-      </c>
-      <c r="J166" s="27">
-        <v>2.4566666666666666</v>
-      </c>
-      <c r="K166" s="27">
-        <v>73.711790393013089</v>
-      </c>
-      <c r="L166" s="33">
-        <v>94.487639999999999</v>
-      </c>
-      <c r="M166" s="27">
-        <v>0</v>
-      </c>
-      <c r="N166" s="27">
-        <v>0</v>
-      </c>
-      <c r="O166" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" s="23" customFormat="1">
-      <c r="A167" s="34">
-        <v>1991</v>
-      </c>
-      <c r="B167" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" s="23">
+      <c r="C167">
         <v>39.366029561795806</v>
       </c>
-      <c r="D167" s="23">
+      <c r="D167">
         <v>0.98617866666666698</v>
       </c>
-      <c r="E167" s="29">
+      <c r="E167" s="11">
         <v>0.98983333333333334</v>
       </c>
-      <c r="F167" s="30">
+      <c r="F167" s="19">
         <v>356105.744809233</v>
       </c>
-      <c r="G167" s="31">
+      <c r="G167" s="22">
         <v>73.689988946314898</v>
       </c>
-      <c r="H167" s="32">
+      <c r="H167" s="6">
         <v>5.666666666666667</v>
       </c>
-      <c r="I167" s="27">
+      <c r="I167" s="7">
         <v>2.3699999999999997</v>
       </c>
-      <c r="J167" s="27">
+      <c r="J167" s="7">
         <v>2.6</v>
       </c>
-      <c r="K167" s="27">
+      <c r="K167" s="7">
         <v>75.625</v>
       </c>
-      <c r="L167" s="33">
+      <c r="L167" s="4">
         <v>94.447860000000006</v>
       </c>
-      <c r="M167" s="27">
-        <v>0</v>
-      </c>
-      <c r="N167" s="27">
-        <v>0</v>
-      </c>
-      <c r="O167" s="27">
+      <c r="M167" s="7">
+        <v>0</v>
+      </c>
+      <c r="N167" s="7">
+        <v>0</v>
+      </c>
+      <c r="O167" s="7">
         <v>0</v>
       </c>
     </row>

--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers (por trimestre).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E504387-52EA-7347-BA45-E908EA8A9919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C92BC9F-BC0F-744D-9ECD-43DD176EBD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19400" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="18">
   <si>
     <t>Ebc</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -553,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
-  <dimension ref="A1:O643"/>
+  <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,7 +569,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -615,11 +612,8 @@
       <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -653,11 +647,8 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -691,11 +682,8 @@
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -729,11 +717,8 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -767,11 +752,8 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1951</v>
       </c>
@@ -805,11 +787,8 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -843,11 +822,8 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -881,11 +857,8 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1951</v>
       </c>
@@ -919,11 +892,8 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1952</v>
       </c>
@@ -957,11 +927,8 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1952</v>
       </c>
@@ -995,11 +962,8 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1952</v>
       </c>
@@ -1033,11 +997,8 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1952</v>
       </c>
@@ -1071,11 +1032,8 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1953</v>
       </c>
@@ -1109,11 +1067,8 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1953</v>
       </c>
@@ -1147,11 +1102,8 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1953</v>
       </c>
@@ -1185,11 +1137,8 @@
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>1953</v>
       </c>
@@ -1223,11 +1172,8 @@
       <c r="N17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>1954</v>
       </c>
@@ -1261,11 +1207,8 @@
       <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>1954</v>
       </c>
@@ -1299,11 +1242,8 @@
       <c r="N19" s="7">
         <v>0</v>
       </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>1954</v>
       </c>
@@ -1337,11 +1277,8 @@
       <c r="N20" s="7">
         <v>0</v>
       </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>1954</v>
       </c>
@@ -1375,11 +1312,8 @@
       <c r="N21" s="7">
         <v>0</v>
       </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>1955</v>
       </c>
@@ -1413,11 +1347,8 @@
       <c r="N22" s="7">
         <v>0</v>
       </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>1955</v>
       </c>
@@ -1451,11 +1382,8 @@
       <c r="N23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>1955</v>
       </c>
@@ -1489,11 +1417,8 @@
       <c r="N24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>1955</v>
       </c>
@@ -1527,11 +1452,8 @@
       <c r="N25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>1956</v>
       </c>
@@ -1565,11 +1487,8 @@
       <c r="N26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>1956</v>
       </c>
@@ -1603,11 +1522,8 @@
       <c r="N27" s="7">
         <v>0</v>
       </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>1956</v>
       </c>
@@ -1641,11 +1557,8 @@
       <c r="N28" s="7">
         <v>0</v>
       </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>1956</v>
       </c>
@@ -1679,11 +1592,8 @@
       <c r="N29" s="7">
         <v>0</v>
       </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>1957</v>
       </c>
@@ -1719,11 +1629,8 @@
       <c r="N30" s="7">
         <v>0</v>
       </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>1957</v>
       </c>
@@ -1759,11 +1666,8 @@
       <c r="N31" s="7">
         <v>0</v>
       </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>1957</v>
       </c>
@@ -1799,11 +1703,8 @@
       <c r="N32" s="7">
         <v>0</v>
       </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>1957</v>
       </c>
@@ -1839,11 +1740,8 @@
       <c r="N33" s="7">
         <v>0</v>
       </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>1958</v>
       </c>
@@ -1879,11 +1777,8 @@
       <c r="N34" s="7">
         <v>0</v>
       </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1919,11 +1814,8 @@
       <c r="N35" s="7">
         <v>0</v>
       </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>1958</v>
       </c>
@@ -1959,11 +1851,8 @@
       <c r="N36" s="7">
         <v>0</v>
       </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>1958</v>
       </c>
@@ -1999,11 +1888,8 @@
       <c r="N37" s="7">
         <v>0</v>
       </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>1959</v>
       </c>
@@ -2042,11 +1928,8 @@
       <c r="N38" s="7">
         <v>0</v>
       </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>1959</v>
       </c>
@@ -2085,11 +1968,8 @@
       <c r="N39" s="7">
         <v>0</v>
       </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>1959</v>
       </c>
@@ -2128,11 +2008,8 @@
       <c r="N40" s="7">
         <v>0</v>
       </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>1959</v>
       </c>
@@ -2171,11 +2048,8 @@
       <c r="N41" s="7">
         <v>0</v>
       </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>1960</v>
       </c>
@@ -2214,11 +2088,8 @@
       <c r="N42" s="7">
         <v>0</v>
       </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>1960</v>
       </c>
@@ -2257,11 +2128,8 @@
       <c r="N43" s="7">
         <v>0</v>
       </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>1960</v>
       </c>
@@ -2300,11 +2168,8 @@
       <c r="N44" s="7">
         <v>0</v>
       </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>1960</v>
       </c>
@@ -2343,11 +2208,8 @@
       <c r="N45" s="7">
         <v>0</v>
       </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -2386,11 +2248,8 @@
       <c r="N46" s="7">
         <v>0</v>
       </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -2429,11 +2288,8 @@
       <c r="N47" s="7">
         <v>0</v>
       </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -2472,11 +2328,8 @@
       <c r="N48" s="7">
         <v>0</v>
       </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>1961</v>
       </c>
@@ -2515,11 +2368,8 @@
       <c r="N49" s="7">
         <v>0</v>
       </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -2558,11 +2408,8 @@
       <c r="N50" s="7">
         <v>0</v>
       </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2601,11 +2448,8 @@
       <c r="N51" s="7">
         <v>0</v>
       </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -2644,11 +2488,8 @@
       <c r="N52" s="7">
         <v>0</v>
       </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -2687,11 +2528,8 @@
       <c r="N53" s="7">
         <v>0</v>
       </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -2730,11 +2568,8 @@
       <c r="N54" s="7">
         <v>0</v>
       </c>
-      <c r="O54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>1963</v>
       </c>
@@ -2773,11 +2608,8 @@
       <c r="N55" s="7">
         <v>0</v>
       </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>1963</v>
       </c>
@@ -2816,11 +2648,8 @@
       <c r="N56" s="7">
         <v>0</v>
       </c>
-      <c r="O56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>1963</v>
       </c>
@@ -2859,11 +2688,8 @@
       <c r="N57" s="7">
         <v>0</v>
       </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>1964</v>
       </c>
@@ -2902,11 +2728,8 @@
       <c r="N58" s="7">
         <v>0</v>
       </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>1964</v>
       </c>
@@ -2945,11 +2768,8 @@
       <c r="N59" s="7">
         <v>0</v>
       </c>
-      <c r="O59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>1964</v>
       </c>
@@ -2988,11 +2808,8 @@
       <c r="N60" s="7">
         <v>0</v>
       </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>1964</v>
       </c>
@@ -3031,11 +2848,8 @@
       <c r="N61" s="7">
         <v>0</v>
       </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>1965</v>
       </c>
@@ -3074,11 +2888,8 @@
       <c r="N62" s="7">
         <v>0</v>
       </c>
-      <c r="O62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>1965</v>
       </c>
@@ -3117,11 +2928,8 @@
       <c r="N63" s="7">
         <v>0</v>
       </c>
-      <c r="O63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3160,11 +2968,8 @@
       <c r="N64" s="7">
         <v>0</v>
       </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3203,11 +3008,8 @@
       <c r="N65" s="7">
         <v>0</v>
       </c>
-      <c r="O65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -3246,11 +3048,8 @@
       <c r="N66" s="7">
         <v>0</v>
       </c>
-      <c r="O66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -3289,11 +3088,8 @@
       <c r="N67" s="7">
         <v>0</v>
       </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -3332,11 +3128,8 @@
       <c r="N68" s="7">
         <v>0</v>
       </c>
-      <c r="O68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -3375,11 +3168,8 @@
       <c r="N69" s="7">
         <v>0</v>
       </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>1967</v>
       </c>
@@ -3418,11 +3208,8 @@
       <c r="N70" s="7">
         <v>0</v>
       </c>
-      <c r="O70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>1967</v>
       </c>
@@ -3461,11 +3248,8 @@
       <c r="N71" s="7">
         <v>0</v>
       </c>
-      <c r="O71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>1967</v>
       </c>
@@ -3504,11 +3288,8 @@
       <c r="N72" s="7">
         <v>0</v>
       </c>
-      <c r="O72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -3547,11 +3328,8 @@
       <c r="N73" s="7">
         <v>0</v>
       </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>1968</v>
       </c>
@@ -3590,11 +3368,8 @@
       <c r="N74" s="7">
         <v>0</v>
       </c>
-      <c r="O74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>1968</v>
       </c>
@@ -3633,11 +3408,8 @@
       <c r="N75" s="7">
         <v>0</v>
       </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>1968</v>
       </c>
@@ -3676,11 +3448,8 @@
       <c r="N76" s="7">
         <v>0</v>
       </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -3719,11 +3488,8 @@
       <c r="N77" s="7">
         <v>0</v>
       </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -3762,11 +3528,8 @@
       <c r="N78" s="7">
         <v>0</v>
       </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>1969</v>
       </c>
@@ -3805,11 +3568,8 @@
       <c r="N79" s="7">
         <v>0</v>
       </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>1969</v>
       </c>
@@ -3848,11 +3608,8 @@
       <c r="N80" s="7">
         <v>0</v>
       </c>
-      <c r="O80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>1969</v>
       </c>
@@ -3891,11 +3648,8 @@
       <c r="N81" s="7">
         <v>0</v>
       </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>1970</v>
       </c>
@@ -3934,11 +3688,8 @@
       <c r="N82" s="7">
         <v>0</v>
       </c>
-      <c r="O82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>1970</v>
       </c>
@@ -3977,11 +3728,8 @@
       <c r="N83" s="7">
         <v>0</v>
       </c>
-      <c r="O83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>1970</v>
       </c>
@@ -4020,11 +3768,8 @@
       <c r="N84" s="7">
         <v>0</v>
       </c>
-      <c r="O84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>1970</v>
       </c>
@@ -4063,11 +3808,8 @@
       <c r="N85" s="7">
         <v>0</v>
       </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>1971</v>
       </c>
@@ -4106,11 +3848,8 @@
       <c r="N86" s="7">
         <v>0</v>
       </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -4149,11 +3888,8 @@
       <c r="N87" s="7">
         <v>0</v>
       </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>1971</v>
       </c>
@@ -4192,11 +3928,8 @@
       <c r="N88" s="7">
         <v>0</v>
       </c>
-      <c r="O88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>1971</v>
       </c>
@@ -4235,11 +3968,8 @@
       <c r="N89" s="7">
         <v>0</v>
       </c>
-      <c r="O89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>1972</v>
       </c>
@@ -4278,11 +4008,8 @@
       <c r="N90" s="7">
         <v>0</v>
       </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>1972</v>
       </c>
@@ -4321,11 +4048,8 @@
       <c r="N91" s="7">
         <v>0</v>
       </c>
-      <c r="O91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>1972</v>
       </c>
@@ -4364,11 +4088,8 @@
       <c r="N92" s="7">
         <v>0</v>
       </c>
-      <c r="O92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>1972</v>
       </c>
@@ -4407,11 +4128,8 @@
       <c r="N93" s="7">
         <v>0</v>
       </c>
-      <c r="O93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>1973</v>
       </c>
@@ -4450,11 +4168,8 @@
       <c r="N94" s="7">
         <v>0</v>
       </c>
-      <c r="O94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>1973</v>
       </c>
@@ -4493,11 +4208,8 @@
       <c r="N95" s="7">
         <v>0</v>
       </c>
-      <c r="O95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>1973</v>
       </c>
@@ -4536,11 +4248,8 @@
       <c r="N96" s="7">
         <v>0</v>
       </c>
-      <c r="O96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>1973</v>
       </c>
@@ -4579,11 +4288,8 @@
       <c r="N97" s="7">
         <v>0</v>
       </c>
-      <c r="O97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>1974</v>
       </c>
@@ -4622,11 +4328,8 @@
       <c r="N98" s="7">
         <v>0</v>
       </c>
-      <c r="O98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>1974</v>
       </c>
@@ -4665,11 +4368,8 @@
       <c r="N99" s="7">
         <v>0</v>
       </c>
-      <c r="O99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>1974</v>
       </c>
@@ -4708,11 +4408,8 @@
       <c r="N100" s="7">
         <v>0</v>
       </c>
-      <c r="O100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>1974</v>
       </c>
@@ -4751,11 +4448,8 @@
       <c r="N101" s="7">
         <v>0</v>
       </c>
-      <c r="O101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>1975</v>
       </c>
@@ -4794,11 +4488,8 @@
       <c r="N102" s="7">
         <v>0</v>
       </c>
-      <c r="O102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>1975</v>
       </c>
@@ -4837,11 +4528,8 @@
       <c r="N103" s="7">
         <v>0</v>
       </c>
-      <c r="O103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>1975</v>
       </c>
@@ -4880,11 +4568,8 @@
       <c r="N104" s="7">
         <v>0</v>
       </c>
-      <c r="O104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>1975</v>
       </c>
@@ -4923,11 +4608,8 @@
       <c r="N105" s="7">
         <v>0</v>
       </c>
-      <c r="O105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -4966,11 +4648,8 @@
       <c r="N106" s="7">
         <v>0</v>
       </c>
-      <c r="O106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>1976</v>
       </c>
@@ -5009,11 +4688,8 @@
       <c r="N107" s="7">
         <v>0</v>
       </c>
-      <c r="O107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>1976</v>
       </c>
@@ -5052,11 +4728,8 @@
       <c r="N108" s="7">
         <v>0</v>
       </c>
-      <c r="O108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>1976</v>
       </c>
@@ -5095,11 +4768,8 @@
       <c r="N109" s="7">
         <v>0</v>
       </c>
-      <c r="O109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>1977</v>
       </c>
@@ -5138,11 +4808,8 @@
       <c r="N110" s="7">
         <v>0</v>
       </c>
-      <c r="O110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>1977</v>
       </c>
@@ -5181,11 +4848,8 @@
       <c r="N111" s="7">
         <v>0</v>
       </c>
-      <c r="O111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>1977</v>
       </c>
@@ -5224,11 +4888,8 @@
       <c r="N112" s="7">
         <v>0</v>
       </c>
-      <c r="O112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>1977</v>
       </c>
@@ -5267,11 +4928,8 @@
       <c r="N113" s="7">
         <v>0</v>
       </c>
-      <c r="O113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>1978</v>
       </c>
@@ -5310,11 +4968,8 @@
       <c r="N114" s="7">
         <v>0</v>
       </c>
-      <c r="O114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>1978</v>
       </c>
@@ -5353,11 +5008,8 @@
       <c r="N115" s="7">
         <v>0</v>
       </c>
-      <c r="O115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>1978</v>
       </c>
@@ -5396,11 +5048,8 @@
       <c r="N116" s="7">
         <v>0</v>
       </c>
-      <c r="O116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>1978</v>
       </c>
@@ -5439,11 +5088,8 @@
       <c r="N117" s="7">
         <v>0</v>
       </c>
-      <c r="O117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>1979</v>
       </c>
@@ -5482,11 +5128,8 @@
       <c r="N118" s="7">
         <v>0</v>
       </c>
-      <c r="O118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>1979</v>
       </c>
@@ -5525,11 +5168,8 @@
       <c r="N119" s="7">
         <v>0</v>
       </c>
-      <c r="O119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>1979</v>
       </c>
@@ -5568,11 +5208,8 @@
       <c r="N120" s="7">
         <v>0</v>
       </c>
-      <c r="O120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>1979</v>
       </c>
@@ -5611,11 +5248,8 @@
       <c r="N121" s="7">
         <v>0</v>
       </c>
-      <c r="O121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -5655,11 +5289,8 @@
       <c r="N122" s="7">
         <v>0</v>
       </c>
-      <c r="O122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -5699,11 +5330,8 @@
       <c r="N123" s="7">
         <v>0</v>
       </c>
-      <c r="O123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="10">
         <v>1980</v>
       </c>
@@ -5743,11 +5371,8 @@
       <c r="N124" s="7">
         <v>0</v>
       </c>
-      <c r="O124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="10">
         <v>1980</v>
       </c>
@@ -5787,11 +5412,8 @@
       <c r="N125" s="7">
         <v>0</v>
       </c>
-      <c r="O125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="10">
         <v>1981</v>
       </c>
@@ -5831,11 +5453,8 @@
       <c r="N126" s="7">
         <v>0</v>
       </c>
-      <c r="O126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="10">
         <v>1981</v>
       </c>
@@ -5875,11 +5494,8 @@
       <c r="N127" s="7">
         <v>0</v>
       </c>
-      <c r="O127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="10">
         <v>1981</v>
       </c>
@@ -5919,11 +5535,8 @@
       <c r="N128" s="7">
         <v>0</v>
       </c>
-      <c r="O128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="10">
         <v>1981</v>
       </c>
@@ -5963,11 +5576,8 @@
       <c r="N129" s="7">
         <v>0</v>
       </c>
-      <c r="O129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="10">
         <v>1982</v>
       </c>
@@ -6007,11 +5617,8 @@
       <c r="N130" s="7">
         <v>0</v>
       </c>
-      <c r="O130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="10">
         <v>1982</v>
       </c>
@@ -6051,11 +5658,8 @@
       <c r="N131" s="7">
         <v>0</v>
       </c>
-      <c r="O131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="10">
         <v>1982</v>
       </c>
@@ -6095,11 +5699,8 @@
       <c r="N132" s="7">
         <v>0</v>
       </c>
-      <c r="O132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="10">
         <v>1982</v>
       </c>
@@ -6139,11 +5740,8 @@
       <c r="N133" s="7">
         <v>0</v>
       </c>
-      <c r="O133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="10">
         <v>1983</v>
       </c>
@@ -6183,11 +5781,8 @@
       <c r="N134" s="7">
         <v>0</v>
       </c>
-      <c r="O134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="10">
         <v>1983</v>
       </c>
@@ -6227,11 +5822,8 @@
       <c r="N135" s="7">
         <v>0</v>
       </c>
-      <c r="O135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="10">
         <v>1983</v>
       </c>
@@ -6271,11 +5863,8 @@
       <c r="N136" s="7">
         <v>0</v>
       </c>
-      <c r="O136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="10">
         <v>1983</v>
       </c>
@@ -6315,11 +5904,8 @@
       <c r="N137" s="7">
         <v>0</v>
       </c>
-      <c r="O137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="10">
         <v>1984</v>
       </c>
@@ -6359,11 +5945,8 @@
       <c r="N138" s="7">
         <v>0</v>
       </c>
-      <c r="O138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="10">
         <v>1984</v>
       </c>
@@ -6403,11 +5986,8 @@
       <c r="N139" s="7">
         <v>0</v>
       </c>
-      <c r="O139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="10">
         <v>1984</v>
       </c>
@@ -6447,11 +6027,8 @@
       <c r="N140" s="7">
         <v>0</v>
       </c>
-      <c r="O140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="10">
         <v>1984</v>
       </c>
@@ -6491,11 +6068,8 @@
       <c r="N141" s="7">
         <v>0</v>
       </c>
-      <c r="O141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="10">
         <v>1985</v>
       </c>
@@ -6535,11 +6109,8 @@
       <c r="N142" s="7">
         <v>0</v>
       </c>
-      <c r="O142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="10">
         <v>1985</v>
       </c>
@@ -6579,11 +6150,8 @@
       <c r="N143" s="7">
         <v>0</v>
       </c>
-      <c r="O143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="10">
         <v>1985</v>
       </c>
@@ -6623,11 +6191,8 @@
       <c r="N144" s="7">
         <v>0</v>
       </c>
-      <c r="O144" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="10">
         <v>1985</v>
       </c>
@@ -6667,11 +6232,8 @@
       <c r="N145" s="7">
         <v>0</v>
       </c>
-      <c r="O145" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="10">
         <v>1986</v>
       </c>
@@ -6714,11 +6276,8 @@
       <c r="N146" s="7">
         <v>0</v>
       </c>
-      <c r="O146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="10">
         <v>1986</v>
       </c>
@@ -6761,11 +6320,8 @@
       <c r="N147" s="7">
         <v>0</v>
       </c>
-      <c r="O147" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="10">
         <v>1986</v>
       </c>
@@ -6808,11 +6364,8 @@
       <c r="N148" s="7">
         <v>0</v>
       </c>
-      <c r="O148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="10">
         <v>1986</v>
       </c>
@@ -6855,11 +6408,8 @@
       <c r="N149" s="7">
         <v>0</v>
       </c>
-      <c r="O149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="10">
         <v>1987</v>
       </c>
@@ -6902,11 +6452,8 @@
       <c r="N150" s="7">
         <v>0</v>
       </c>
-      <c r="O150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="10">
         <v>1987</v>
       </c>
@@ -6949,11 +6496,8 @@
       <c r="N151" s="7">
         <v>0</v>
       </c>
-      <c r="O151" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="10">
         <v>1987</v>
       </c>
@@ -6996,11 +6540,8 @@
       <c r="N152" s="7">
         <v>0</v>
       </c>
-      <c r="O152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="10">
         <v>1987</v>
       </c>
@@ -7043,11 +6584,8 @@
       <c r="N153" s="7">
         <v>0</v>
       </c>
-      <c r="O153" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="10">
         <v>1988</v>
       </c>
@@ -7090,11 +6628,8 @@
       <c r="N154" s="7">
         <v>0</v>
       </c>
-      <c r="O154" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="10">
         <v>1988</v>
       </c>
@@ -7137,11 +6672,8 @@
       <c r="N155" s="7">
         <v>0</v>
       </c>
-      <c r="O155" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="10">
         <v>1988</v>
       </c>
@@ -7184,11 +6716,8 @@
       <c r="N156" s="7">
         <v>0</v>
       </c>
-      <c r="O156" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="10">
         <v>1988</v>
       </c>
@@ -7231,11 +6760,8 @@
       <c r="N157" s="7">
         <v>0</v>
       </c>
-      <c r="O157" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="10">
         <v>1989</v>
       </c>
@@ -7278,11 +6804,8 @@
       <c r="N158" s="7">
         <v>0</v>
       </c>
-      <c r="O158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="10">
         <v>1989</v>
       </c>
@@ -7325,11 +6848,8 @@
       <c r="N159" s="7">
         <v>1</v>
       </c>
-      <c r="O159" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="10">
         <v>1989</v>
       </c>
@@ -7372,11 +6892,8 @@
       <c r="N160" s="7">
         <v>1</v>
       </c>
-      <c r="O160" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="10">
         <v>1989</v>
       </c>
@@ -7419,11 +6936,8 @@
       <c r="N161" s="7">
         <v>0</v>
       </c>
-      <c r="O161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="10">
         <v>1990</v>
       </c>
@@ -7464,13 +6978,10 @@
         <v>0</v>
       </c>
       <c r="N162" s="7">
-        <v>0</v>
-      </c>
-      <c r="O162" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:14">
       <c r="A163" s="10">
         <v>1990</v>
       </c>
@@ -7511,13 +7022,10 @@
         <v>0</v>
       </c>
       <c r="N163" s="7">
-        <v>0</v>
-      </c>
-      <c r="O163" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:14">
       <c r="A164" s="10">
         <v>1990</v>
       </c>
@@ -7560,11 +7068,8 @@
       <c r="N164" s="7">
         <v>0</v>
       </c>
-      <c r="O164" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="10">
         <v>1990</v>
       </c>
@@ -7607,11 +7112,8 @@
       <c r="N165" s="7">
         <v>0</v>
       </c>
-      <c r="O165" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="10">
         <v>1991</v>
       </c>
@@ -7654,11 +7156,8 @@
       <c r="N166" s="7">
         <v>0</v>
       </c>
-      <c r="O166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="10">
         <v>1991</v>
       </c>
@@ -7701,11 +7200,8 @@
       <c r="N167" s="7">
         <v>0</v>
       </c>
-      <c r="O167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="10">
         <v>1991</v>
       </c>
@@ -7748,11 +7244,8 @@
       <c r="N168" s="7">
         <v>0</v>
       </c>
-      <c r="O168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="10">
         <v>1991</v>
       </c>
@@ -7795,11 +7288,8 @@
       <c r="N169" s="7">
         <v>0</v>
       </c>
-      <c r="O169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="10">
         <v>1992</v>
       </c>
@@ -7842,11 +7332,8 @@
       <c r="N170" s="7">
         <v>0</v>
       </c>
-      <c r="O170" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="10">
         <v>1992</v>
       </c>
@@ -7889,11 +7376,8 @@
       <c r="N171" s="7">
         <v>0</v>
       </c>
-      <c r="O171" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="10">
         <v>1992</v>
       </c>
@@ -7936,11 +7420,8 @@
       <c r="N172" s="7">
         <v>0</v>
       </c>
-      <c r="O172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="10">
         <v>1992</v>
       </c>
@@ -7983,11 +7464,8 @@
       <c r="N173" s="7">
         <v>0</v>
       </c>
-      <c r="O173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="10">
         <v>1993</v>
       </c>
@@ -8030,11 +7508,8 @@
       <c r="N174" s="7">
         <v>0</v>
       </c>
-      <c r="O174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="10">
         <v>1993</v>
       </c>
@@ -8077,11 +7552,8 @@
       <c r="N175" s="7">
         <v>0</v>
       </c>
-      <c r="O175" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="10">
         <v>1993</v>
       </c>
@@ -8124,11 +7596,8 @@
       <c r="N176" s="7">
         <v>0</v>
       </c>
-      <c r="O176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="10">
         <v>1993</v>
       </c>
@@ -8171,11 +7640,8 @@
       <c r="N177" s="7">
         <v>0</v>
       </c>
-      <c r="O177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="10">
         <v>1994</v>
       </c>
@@ -8218,11 +7684,8 @@
       <c r="N178" s="7">
         <v>0</v>
       </c>
-      <c r="O178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="10">
         <v>1994</v>
       </c>
@@ -8265,11 +7728,8 @@
       <c r="N179" s="7">
         <v>0</v>
       </c>
-      <c r="O179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="10">
         <v>1994</v>
       </c>
@@ -8312,11 +7772,8 @@
       <c r="N180" s="7">
         <v>0</v>
       </c>
-      <c r="O180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="10">
         <v>1994</v>
       </c>
@@ -8359,11 +7816,8 @@
       <c r="N181" s="7">
         <v>0</v>
       </c>
-      <c r="O181" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="10">
         <v>1995</v>
       </c>
@@ -8406,11 +7860,8 @@
       <c r="N182" s="7">
         <v>0</v>
       </c>
-      <c r="O182" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="10">
         <v>1995</v>
       </c>
@@ -8453,11 +7904,8 @@
       <c r="N183" s="7">
         <v>0</v>
       </c>
-      <c r="O183" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="10">
         <v>1995</v>
       </c>
@@ -8500,11 +7948,8 @@
       <c r="N184" s="7">
         <v>0</v>
       </c>
-      <c r="O184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="10">
         <v>1995</v>
       </c>
@@ -8547,11 +7992,8 @@
       <c r="N185" s="7">
         <v>0</v>
       </c>
-      <c r="O185" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="10">
         <v>1996</v>
       </c>
@@ -8594,11 +8036,8 @@
       <c r="N186" s="7">
         <v>0</v>
       </c>
-      <c r="O186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="10">
         <v>1996</v>
       </c>
@@ -8641,11 +8080,8 @@
       <c r="N187" s="7">
         <v>0</v>
       </c>
-      <c r="O187" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="10">
         <v>1996</v>
       </c>
@@ -8688,11 +8124,8 @@
       <c r="N188" s="7">
         <v>0</v>
       </c>
-      <c r="O188" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="10">
         <v>1996</v>
       </c>
@@ -8735,11 +8168,8 @@
       <c r="N189" s="7">
         <v>0</v>
       </c>
-      <c r="O189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="10">
         <v>1997</v>
       </c>
@@ -8782,11 +8212,8 @@
       <c r="N190" s="7">
         <v>0</v>
       </c>
-      <c r="O190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="10">
         <v>1997</v>
       </c>
@@ -8829,11 +8256,8 @@
       <c r="N191" s="7">
         <v>0</v>
       </c>
-      <c r="O191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="10">
         <v>1997</v>
       </c>
@@ -8876,11 +8300,8 @@
       <c r="N192" s="7">
         <v>0</v>
       </c>
-      <c r="O192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15">
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="10">
         <v>1997</v>
       </c>
@@ -8923,11 +8344,8 @@
       <c r="N193" s="7">
         <v>0</v>
       </c>
-      <c r="O193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="10">
         <v>1998</v>
       </c>
@@ -8970,11 +8388,8 @@
       <c r="N194" s="7">
         <v>0</v>
       </c>
-      <c r="O194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="10">
         <v>1998</v>
       </c>
@@ -9017,11 +8432,8 @@
       <c r="N195" s="7">
         <v>0</v>
       </c>
-      <c r="O195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="10">
         <v>1998</v>
       </c>
@@ -9064,11 +8476,8 @@
       <c r="N196" s="7">
         <v>0</v>
       </c>
-      <c r="O196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15">
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="10">
         <v>1998</v>
       </c>
@@ -9111,11 +8520,8 @@
       <c r="N197" s="7">
         <v>0</v>
       </c>
-      <c r="O197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15">
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="10">
         <v>1999</v>
       </c>
@@ -9158,11 +8564,8 @@
       <c r="N198" s="7">
         <v>0</v>
       </c>
-      <c r="O198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="10">
         <v>1999</v>
       </c>
@@ -9205,11 +8608,8 @@
       <c r="N199" s="7">
         <v>0</v>
       </c>
-      <c r="O199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="10">
         <v>1999</v>
       </c>
@@ -9252,11 +8652,8 @@
       <c r="N200" s="7">
         <v>0</v>
       </c>
-      <c r="O200" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="10">
         <v>1999</v>
       </c>
@@ -9299,11 +8696,8 @@
       <c r="N201" s="7">
         <v>0</v>
       </c>
-      <c r="O201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15">
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="10">
         <v>2000</v>
       </c>
@@ -9346,11 +8740,8 @@
       <c r="N202" s="7">
         <v>0</v>
       </c>
-      <c r="O202" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15">
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="10">
         <v>2000</v>
       </c>
@@ -9393,11 +8784,8 @@
       <c r="N203" s="7">
         <v>0</v>
       </c>
-      <c r="O203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15">
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="10">
         <v>2000</v>
       </c>
@@ -9440,11 +8828,8 @@
       <c r="N204" s="7">
         <v>0</v>
       </c>
-      <c r="O204" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15">
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="10">
         <v>2000</v>
       </c>
@@ -9487,11 +8872,8 @@
       <c r="N205" s="7">
         <v>0</v>
       </c>
-      <c r="O205" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15">
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="10">
         <v>2001</v>
       </c>
@@ -9534,11 +8916,8 @@
       <c r="N206" s="7">
         <v>0</v>
       </c>
-      <c r="O206" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="10">
         <v>2001</v>
       </c>
@@ -9581,11 +8960,8 @@
       <c r="N207" s="7">
         <v>0</v>
       </c>
-      <c r="O207" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15">
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="10">
         <v>2001</v>
       </c>
@@ -9628,11 +9004,8 @@
       <c r="N208" s="7">
         <v>0</v>
       </c>
-      <c r="O208" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15">
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="10">
         <v>2001</v>
       </c>
@@ -9675,11 +9048,8 @@
       <c r="N209" s="7">
         <v>0</v>
       </c>
-      <c r="O209" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15">
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="10">
         <v>2002</v>
       </c>
@@ -9722,11 +9092,8 @@
       <c r="N210" s="7">
         <v>0</v>
       </c>
-      <c r="O210" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15">
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="10">
         <v>2002</v>
       </c>
@@ -9769,11 +9136,8 @@
       <c r="N211" s="7">
         <v>0</v>
       </c>
-      <c r="O211" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15">
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="10">
         <v>2002</v>
       </c>
@@ -9816,11 +9180,8 @@
       <c r="N212" s="7">
         <v>0</v>
       </c>
-      <c r="O212" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15">
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="10">
         <v>2002</v>
       </c>
@@ -9863,11 +9224,8 @@
       <c r="N213" s="7">
         <v>0</v>
       </c>
-      <c r="O213" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15">
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="10">
         <v>2003</v>
       </c>
@@ -9910,11 +9268,8 @@
       <c r="N214" s="7">
         <v>0</v>
       </c>
-      <c r="O214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="10">
         <v>2003</v>
       </c>
@@ -9957,11 +9312,8 @@
       <c r="N215" s="7">
         <v>0</v>
       </c>
-      <c r="O215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15">
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="10">
         <v>2003</v>
       </c>
@@ -10004,11 +9356,8 @@
       <c r="N216" s="7">
         <v>0</v>
       </c>
-      <c r="O216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="10">
         <v>2003</v>
       </c>
@@ -10051,11 +9400,8 @@
       <c r="N217" s="7">
         <v>0</v>
       </c>
-      <c r="O217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="10">
         <v>2004</v>
       </c>
@@ -10098,11 +9444,8 @@
       <c r="N218" s="7">
         <v>0</v>
       </c>
-      <c r="O218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="10">
         <v>2004</v>
       </c>
@@ -10145,11 +9488,8 @@
       <c r="N219" s="7">
         <v>0</v>
       </c>
-      <c r="O219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15">
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="10">
         <v>2004</v>
       </c>
@@ -10192,11 +9532,8 @@
       <c r="N220" s="7">
         <v>0</v>
       </c>
-      <c r="O220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="10">
         <v>2004</v>
       </c>
@@ -10239,11 +9576,8 @@
       <c r="N221" s="7">
         <v>0</v>
       </c>
-      <c r="O221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15">
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="10">
         <v>2005</v>
       </c>
@@ -10286,11 +9620,8 @@
       <c r="N222" s="7">
         <v>0</v>
       </c>
-      <c r="O222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="10">
         <v>2005</v>
       </c>
@@ -10333,11 +9664,8 @@
       <c r="N223" s="7">
         <v>0</v>
       </c>
-      <c r="O223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="10">
         <v>2005</v>
       </c>
@@ -10380,11 +9708,8 @@
       <c r="N224" s="7">
         <v>0</v>
       </c>
-      <c r="O224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="10">
         <v>2005</v>
       </c>
@@ -10427,11 +9752,8 @@
       <c r="N225" s="7">
         <v>0</v>
       </c>
-      <c r="O225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="10">
         <v>2006</v>
       </c>
@@ -10474,11 +9796,8 @@
       <c r="N226" s="7">
         <v>0</v>
       </c>
-      <c r="O226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="10">
         <v>2006</v>
       </c>
@@ -10521,11 +9840,8 @@
       <c r="N227" s="7">
         <v>0</v>
       </c>
-      <c r="O227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15">
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="10">
         <v>2006</v>
       </c>
@@ -10568,11 +9884,8 @@
       <c r="N228" s="7">
         <v>0</v>
       </c>
-      <c r="O228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="10">
         <v>2006</v>
       </c>
@@ -10615,11 +9928,8 @@
       <c r="N229" s="7">
         <v>0</v>
       </c>
-      <c r="O229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="10">
         <v>2007</v>
       </c>
@@ -10662,11 +9972,8 @@
       <c r="N230" s="7">
         <v>0</v>
       </c>
-      <c r="O230" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15">
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="10">
         <v>2007</v>
       </c>
@@ -10709,11 +10016,8 @@
       <c r="N231" s="7">
         <v>0</v>
       </c>
-      <c r="O231" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15">
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="10">
         <v>2007</v>
       </c>
@@ -10756,11 +10060,8 @@
       <c r="N232" s="7">
         <v>0</v>
       </c>
-      <c r="O232" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15">
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="10">
         <v>2007</v>
       </c>
@@ -10803,11 +10104,8 @@
       <c r="N233" s="7">
         <v>0</v>
       </c>
-      <c r="O233" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15">
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="10">
         <v>2008</v>
       </c>
@@ -10850,11 +10148,8 @@
       <c r="N234" s="7">
         <v>0</v>
       </c>
-      <c r="O234" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15">
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="10">
         <v>2008</v>
       </c>
@@ -10897,11 +10192,8 @@
       <c r="N235" s="7">
         <v>0</v>
       </c>
-      <c r="O235" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="10">
         <v>2008</v>
       </c>
@@ -10944,11 +10236,8 @@
       <c r="N236" s="7">
         <v>0</v>
       </c>
-      <c r="O236" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15">
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="10">
         <v>2008</v>
       </c>
@@ -10991,11 +10280,8 @@
       <c r="N237" s="7">
         <v>0</v>
       </c>
-      <c r="O237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15">
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="10">
         <v>2009</v>
       </c>
@@ -11038,11 +10324,8 @@
       <c r="N238" s="7">
         <v>0</v>
       </c>
-      <c r="O238" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="10">
         <v>2009</v>
       </c>
@@ -11085,11 +10368,8 @@
       <c r="N239" s="7">
         <v>0</v>
       </c>
-      <c r="O239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15">
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="10">
         <v>2009</v>
       </c>
@@ -11132,11 +10412,8 @@
       <c r="N240" s="7">
         <v>0</v>
       </c>
-      <c r="O240" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15">
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="10">
         <v>2009</v>
       </c>
@@ -11179,11 +10456,8 @@
       <c r="N241" s="7">
         <v>0</v>
       </c>
-      <c r="O241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15">
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="10">
         <v>2010</v>
       </c>
@@ -11226,11 +10500,8 @@
       <c r="N242" s="7">
         <v>0</v>
       </c>
-      <c r="O242" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15">
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="10">
         <v>2010</v>
       </c>
@@ -11273,11 +10544,8 @@
       <c r="N243" s="7">
         <v>0</v>
       </c>
-      <c r="O243" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15">
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="10">
         <v>2010</v>
       </c>
@@ -11320,11 +10588,8 @@
       <c r="N244" s="7">
         <v>0</v>
       </c>
-      <c r="O244" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15">
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="10">
         <v>2010</v>
       </c>
@@ -11367,11 +10632,8 @@
       <c r="N245" s="7">
         <v>0</v>
       </c>
-      <c r="O245" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15">
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="10">
         <v>2011</v>
       </c>
@@ -11414,11 +10676,8 @@
       <c r="N246" s="7">
         <v>0</v>
       </c>
-      <c r="O246" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15">
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="10">
         <v>2011</v>
       </c>
@@ -11461,11 +10720,8 @@
       <c r="N247" s="7">
         <v>0</v>
       </c>
-      <c r="O247" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15">
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="10">
         <v>2011</v>
       </c>
@@ -11508,11 +10764,8 @@
       <c r="N248" s="7">
         <v>0</v>
       </c>
-      <c r="O248" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15">
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="10">
         <v>2011</v>
       </c>
@@ -11555,11 +10808,8 @@
       <c r="N249" s="7">
         <v>0</v>
       </c>
-      <c r="O249" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15">
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="10">
         <v>2012</v>
       </c>
@@ -11602,11 +10852,8 @@
       <c r="N250" s="7">
         <v>0</v>
       </c>
-      <c r="O250" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15">
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="10">
         <v>2012</v>
       </c>
@@ -11649,11 +10896,8 @@
       <c r="N251" s="7">
         <v>0</v>
       </c>
-      <c r="O251" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15">
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="10">
         <v>2012</v>
       </c>
@@ -11696,11 +10940,8 @@
       <c r="N252" s="7">
         <v>0</v>
       </c>
-      <c r="O252" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="10">
         <v>2012</v>
       </c>
@@ -11743,11 +10984,8 @@
       <c r="N253" s="7">
         <v>0</v>
       </c>
-      <c r="O253" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15">
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="10">
         <v>2013</v>
       </c>
@@ -11790,11 +11028,8 @@
       <c r="N254" s="7">
         <v>0</v>
       </c>
-      <c r="O254" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15">
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="10">
         <v>2013</v>
       </c>
@@ -11837,11 +11072,8 @@
       <c r="N255" s="7">
         <v>0</v>
       </c>
-      <c r="O255" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15">
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="10">
         <v>2013</v>
       </c>
@@ -11884,11 +11116,8 @@
       <c r="N256" s="7">
         <v>0</v>
       </c>
-      <c r="O256" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15">
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="10">
         <v>2013</v>
       </c>
@@ -11931,11 +11160,8 @@
       <c r="N257" s="7">
         <v>0</v>
       </c>
-      <c r="O257" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15">
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="10">
         <v>2014</v>
       </c>
@@ -11978,11 +11204,8 @@
       <c r="N258" s="7">
         <v>0</v>
       </c>
-      <c r="O258" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15">
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="10">
         <v>2014</v>
       </c>
@@ -12025,11 +11248,8 @@
       <c r="N259" s="7">
         <v>0</v>
       </c>
-      <c r="O259" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15">
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="10">
         <v>2014</v>
       </c>
@@ -12072,11 +11292,8 @@
       <c r="N260" s="7">
         <v>0</v>
       </c>
-      <c r="O260" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15">
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="10">
         <v>2014</v>
       </c>
@@ -12119,11 +11336,8 @@
       <c r="N261" s="7">
         <v>0</v>
       </c>
-      <c r="O261" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15">
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="10">
         <v>2015</v>
       </c>
@@ -12166,11 +11380,8 @@
       <c r="N262" s="7">
         <v>0</v>
       </c>
-      <c r="O262" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15">
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="10">
         <v>2015</v>
       </c>
@@ -12213,11 +11424,8 @@
       <c r="N263" s="7">
         <v>0</v>
       </c>
-      <c r="O263" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15">
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="10">
         <v>2015</v>
       </c>
@@ -12260,11 +11468,8 @@
       <c r="N264" s="7">
         <v>0</v>
       </c>
-      <c r="O264" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15">
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="10">
         <v>2015</v>
       </c>
@@ -12307,11 +11512,8 @@
       <c r="N265" s="7">
         <v>0</v>
       </c>
-      <c r="O265" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15">
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="10">
         <v>2016</v>
       </c>
@@ -12354,11 +11556,8 @@
       <c r="N266" s="7">
         <v>0</v>
       </c>
-      <c r="O266" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15">
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="10">
         <v>2016</v>
       </c>
@@ -12401,11 +11600,8 @@
       <c r="N267" s="7">
         <v>0</v>
       </c>
-      <c r="O267" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15">
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="10">
         <v>2016</v>
       </c>
@@ -12448,11 +11644,8 @@
       <c r="N268" s="7">
         <v>0</v>
       </c>
-      <c r="O268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15">
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="10">
         <v>2016</v>
       </c>
@@ -12495,11 +11688,8 @@
       <c r="N269" s="7">
         <v>0</v>
       </c>
-      <c r="O269" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15">
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="10">
         <v>2017</v>
       </c>
@@ -12542,11 +11732,8 @@
       <c r="N270" s="7">
         <v>0</v>
       </c>
-      <c r="O270" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15">
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="10">
         <v>2017</v>
       </c>
@@ -12589,11 +11776,8 @@
       <c r="N271" s="7">
         <v>0</v>
       </c>
-      <c r="O271" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="10">
         <v>2017</v>
       </c>
@@ -12636,11 +11820,8 @@
       <c r="N272" s="7">
         <v>0</v>
       </c>
-      <c r="O272" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15">
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="10">
         <v>2017</v>
       </c>
@@ -12683,11 +11864,8 @@
       <c r="N273" s="7">
         <v>0</v>
       </c>
-      <c r="O273" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15">
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="10">
         <v>2018</v>
       </c>
@@ -12730,11 +11908,8 @@
       <c r="N274" s="7">
         <v>0</v>
       </c>
-      <c r="O274" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15">
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="10">
         <v>2018</v>
       </c>
@@ -12777,11 +11952,8 @@
       <c r="N275" s="7">
         <v>0</v>
       </c>
-      <c r="O275" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15">
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="10">
         <v>2018</v>
       </c>
@@ -12824,11 +11996,8 @@
       <c r="N276" s="7">
         <v>0</v>
       </c>
-      <c r="O276" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15">
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="10">
         <v>2018</v>
       </c>
@@ -12871,11 +12040,8 @@
       <c r="N277" s="7">
         <v>0</v>
       </c>
-      <c r="O277" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15">
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="10">
         <v>2019</v>
       </c>
@@ -12918,11 +12084,8 @@
       <c r="N278" s="7">
         <v>0</v>
       </c>
-      <c r="O278" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15">
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="10">
         <v>2019</v>
       </c>
@@ -12965,11 +12128,8 @@
       <c r="N279" s="7">
         <v>0</v>
       </c>
-      <c r="O279" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15">
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="10">
         <v>2019</v>
       </c>
@@ -13012,11 +12172,8 @@
       <c r="N280" s="7">
         <v>0</v>
       </c>
-      <c r="O280" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15">
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" s="10">
         <v>2019</v>
       </c>
@@ -13059,11 +12216,8 @@
       <c r="N281" s="7">
         <v>0</v>
       </c>
-      <c r="O281" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15">
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="10">
         <v>2020</v>
       </c>
@@ -13106,11 +12260,8 @@
       <c r="N282" s="7">
         <v>0</v>
       </c>
-      <c r="O282" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15">
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" s="10">
         <v>2020</v>
       </c>
@@ -13153,11 +12304,8 @@
       <c r="N283" s="7">
         <v>0</v>
       </c>
-      <c r="O283" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15">
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" s="10">
         <v>2020</v>
       </c>
@@ -13200,11 +12348,8 @@
       <c r="N284" s="7">
         <v>0</v>
       </c>
-      <c r="O284" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15">
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" s="10">
         <v>2020</v>
       </c>
@@ -13247,11 +12392,8 @@
       <c r="N285" s="7">
         <v>0</v>
       </c>
-      <c r="O285" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15">
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" s="12">
         <v>2021</v>
       </c>
@@ -13294,11 +12436,8 @@
       <c r="N286" s="7">
         <v>0</v>
       </c>
-      <c r="O286" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15">
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" s="12">
         <v>2021</v>
       </c>
@@ -13341,11 +12480,8 @@
       <c r="N287" s="7">
         <v>0</v>
       </c>
-      <c r="O287" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15">
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" s="12">
         <v>2021</v>
       </c>
@@ -13388,11 +12524,8 @@
       <c r="N288" s="7">
         <v>0</v>
       </c>
-      <c r="O288" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15">
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" s="12">
         <v>2021</v>
       </c>
@@ -13435,11 +12568,8 @@
       <c r="N289" s="7">
         <v>0</v>
       </c>
-      <c r="O289" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15">
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" s="12">
         <v>2022</v>
       </c>
@@ -13482,11 +12612,8 @@
       <c r="N290" s="7">
         <v>0</v>
       </c>
-      <c r="O290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15">
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" s="12">
         <v>2022</v>
       </c>
@@ -13529,11 +12656,8 @@
       <c r="N291" s="7">
         <v>0</v>
       </c>
-      <c r="O291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15">
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" s="12">
         <v>2022</v>
       </c>
@@ -13576,11 +12700,8 @@
       <c r="N292" s="7">
         <v>0</v>
       </c>
-      <c r="O292" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15">
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" s="12">
         <v>2022</v>
       </c>
@@ -13623,11 +12744,8 @@
       <c r="N293" s="7">
         <v>0</v>
       </c>
-      <c r="O293" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15">
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" s="12">
         <v>2023</v>
       </c>
@@ -13670,11 +12788,8 @@
       <c r="N294" s="7">
         <v>0</v>
       </c>
-      <c r="O294" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15">
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" s="12">
         <v>2023</v>
       </c>
@@ -13717,11 +12832,8 @@
       <c r="N295" s="7">
         <v>0</v>
       </c>
-      <c r="O295" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15">
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" s="12">
         <v>2023</v>
       </c>
@@ -13764,11 +12876,8 @@
       <c r="N296" s="7">
         <v>0</v>
       </c>
-      <c r="O296" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15">
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" s="12">
         <v>2023</v>
       </c>
@@ -13811,11 +12920,8 @@
       <c r="N297" s="7">
         <v>0</v>
       </c>
-      <c r="O297" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15">
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" s="12"/>
       <c r="B298" s="9"/>
       <c r="C298"/>
@@ -13829,7 +12935,7 @@
       <c r="K298" s="14"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:14">
       <c r="A299" s="12"/>
       <c r="B299" s="9"/>
       <c r="C299"/>
@@ -13843,7 +12949,7 @@
       <c r="K299" s="14"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:14">
       <c r="A300" s="12"/>
       <c r="B300" s="9"/>
       <c r="C300"/>
@@ -13856,7 +12962,7 @@
       <c r="J300" s="7"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:14">
       <c r="A301" s="12"/>
       <c r="B301" s="9"/>
       <c r="C301" s="3"/>
@@ -13869,14 +12975,14 @@
       <c r="J301" s="7"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:14">
       <c r="A302" s="1"/>
       <c r="C302" s="3"/>
       <c r="D302"/>
       <c r="F302" s="20"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:14">
       <c r="A303" s="1"/>
       <c r="C303" s="3"/>
       <c r="D303"/>
@@ -13888,7 +12994,7 @@
       <c r="J303" s="7"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:14">
       <c r="A304" s="1"/>
       <c r="C304" s="3"/>
       <c r="D304"/>
